--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5354C-7A96-412A-9E7D-957CF377F68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11170699-D069-4C29-9582-34B0EB7587D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -241,9 +241,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -553,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,6 +638,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5706,9 +5711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5738,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>9.3836103180217571E-3</v>
+        <v>8.8470821804481348E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7077,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D75" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D76" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E75" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E76" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7214,11 +7219,28 @@
       </c>
     </row>
     <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B76">
+        <v>3.972988</v>
+      </c>
       <c r="C76">
         <v>4.003844</v>
       </c>
+      <c r="D76">
+        <f t="shared" si="34"/>
+        <v>-3.0855999999999995E-2</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
+      <c r="C77">
+        <v>3.9509294000000001</v>
+      </c>
       <c r="F77" s="8"/>
     </row>
   </sheetData>
@@ -8367,11 +8389,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I350"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B350" sqref="B350"/>
+      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8401,7 +8423,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5040199474715852E-2</v>
+        <v>-1.5073541023498902E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15053,11 +15075,11 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346:D349" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D350" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:E349" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E350" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15133,8 +15155,27 @@
       </c>
     </row>
     <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B350">
+        <v>4.3256899999999998</v>
+      </c>
       <c r="C350">
         <v>4.3523664000000002</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="76"/>
+        <v>-2.6676400000000378E-2</v>
+      </c>
+      <c r="E350">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="C351">
+        <v>4.3591449999999998</v>
       </c>
     </row>
   </sheetData>
@@ -17357,7 +17398,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17832,8 +17873,8 @@
       <c r="A43" s="1">
         <v>45264</v>
       </c>
-      <c r="B43" t="s">
-        <v>56</v>
+      <c r="B43">
+        <v>4.3256899999999998</v>
       </c>
       <c r="C43">
         <v>4.3906660000000004</v>
@@ -17890,16 +17931,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="58" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.21875" customWidth="1"/>
   </cols>
@@ -17908,7 +17949,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="57" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="54" t="s">
@@ -17918,97 +17959,146 @@
         <v>2</v>
       </c>
       <c r="E1">
-        <f>AVERAGE(D2:D301)</f>
-        <v>1.1523009999999942</v>
+        <f>AVERAGE(D5:D301)</f>
+        <v>0.88743433333332911</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B2">
-        <v>74.860000999999997</v>
+        <v>45252</v>
+      </c>
+      <c r="B2" s="58">
+        <v>77.099997999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B3">
-        <v>76.410004000000001</v>
-      </c>
-      <c r="C3">
-        <v>76.504900000000006</v>
-      </c>
-      <c r="D3">
-        <f>B3-C3</f>
-        <v>-9.4896000000005643E-2</v>
-      </c>
-      <c r="E3" s="56">
-        <f>D3/C3</f>
-        <v>-1.2403911383454607E-3</v>
+        <v>45253</v>
+      </c>
+      <c r="B3" s="58">
+        <v>76.349997999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B4">
-        <v>77.860000999999997</v>
-      </c>
-      <c r="C4">
-        <v>74.576800000000006</v>
-      </c>
-      <c r="D4">
-        <f>B4-C4</f>
-        <v>3.2832009999999912</v>
-      </c>
-      <c r="E4" s="56">
-        <f t="shared" ref="E4:E6" si="0">D4/C4</f>
-        <v>4.4024428508597724E-2</v>
+        <v>45254</v>
+      </c>
+      <c r="B4" s="58">
+        <v>75.540001000000004</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B5">
-        <v>75.959998999999996</v>
+        <v>45257</v>
+      </c>
+      <c r="B5" s="58">
+        <v>74.860000999999997</v>
       </c>
       <c r="C5">
-        <v>73.526899999999998</v>
+        <v>75.922899999999998</v>
       </c>
       <c r="D5">
         <f>B5-C5</f>
+        <v>-1.0628990000000016</v>
+      </c>
+      <c r="E5" s="56">
+        <f>D5/C5</f>
+        <v>-1.3999715500856812E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B6" s="58">
+        <v>76.410004000000001</v>
+      </c>
+      <c r="C6">
+        <v>76.504900000000006</v>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v>-9.4896000000005643E-2</v>
+      </c>
+      <c r="E6" s="56">
+        <f>D6/C6</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B7" s="58">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C7">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v>3.2832009999999912</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" ref="E7:E10" si="0">D7/C7</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B8" s="58">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C8">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D8">
+        <f>B8-C8</f>
         <v>2.4330989999999986</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E8" s="56">
         <f t="shared" si="0"/>
         <v>3.30912767980154E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>45261</v>
       </c>
-      <c r="B6">
+      <c r="B9" s="58">
         <v>74.069999999999993</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>75.0822</v>
       </c>
-      <c r="D6">
-        <f>B6-C6</f>
+      <c r="D9">
+        <f>B9-C9</f>
         <v>-1.0122000000000071</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>-1.3481224577862758E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="C7">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B10" s="58">
+        <v>73.040001000000004</v>
+      </c>
+      <c r="C10">
         <v>71.261700000000005</v>
+      </c>
+      <c r="D10">
+        <f>B10-C10</f>
+        <v>1.778300999999999</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" si="0"/>
+        <v>2.4954512732645991E-2</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11170699-D069-4C29-9582-34B0EB7587D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF2561-8B77-4F08-9FE2-24A2F512CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -244,7 +244,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -638,10 +638,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>8.8470821804481348E-3</v>
+        <v>8.9517526362174089E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D76" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D82" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E76" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E82" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7238,10 +7238,124 @@
       </c>
     </row>
     <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B77">
+        <v>3.9918</v>
+      </c>
       <c r="C77">
         <v>3.9509294000000001</v>
       </c>
+      <c r="D77">
+        <f t="shared" si="34"/>
+        <v>4.0870599999999868E-2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
       <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B78">
+        <v>4.0019920000000004</v>
+      </c>
+      <c r="C78">
+        <v>3.9952830000000001</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="34"/>
+        <v>6.7090000000002981E-3</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B79">
+        <v>4.0191990000000004</v>
+      </c>
+      <c r="C79">
+        <v>4.0261930000000001</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="34"/>
+        <v>-6.9939999999997227E-3</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B80">
+        <v>4.0191990000000004</v>
+      </c>
+      <c r="C80">
+        <v>4.0016084000000003</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="34"/>
+        <v>1.7590600000000123E-2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B81">
+        <v>4.01816</v>
+      </c>
+      <c r="C81">
+        <v>4.0067434000000004</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="34"/>
+        <v>1.1416599999999555E-2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B82">
+        <v>4.0255999999999998</v>
+      </c>
+      <c r="C82">
+        <v>4.0336319999999999</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="34"/>
+        <v>-8.0320000000000391E-3</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="C83">
+        <v>4.0665373999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8389,11 +8503,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I357"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8423,7 +8537,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5073541023498902E-2</v>
+        <v>-1.5437038640003144E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15075,11 +15189,11 @@
         <v>4.3919430000000004</v>
       </c>
       <c r="D346">
-        <f t="shared" ref="D346:D350" si="76">B346-C346</f>
+        <f t="shared" ref="D346:D351" si="76">B346-C346</f>
         <v>-4.8013000000000083E-2</v>
       </c>
       <c r="E346">
-        <f t="shared" ref="E346:E350" si="77">IF(D346&lt;0,1,0)</f>
+        <f t="shared" ref="E346:E351" si="77">IF(D346&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -15174,8 +15288,122 @@
       </c>
     </row>
     <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B351">
+        <v>4.32761</v>
+      </c>
       <c r="C351">
         <v>4.3591449999999998</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="76"/>
+        <v>-3.1534999999999869E-2</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B352">
+        <v>4.3194900000000001</v>
+      </c>
+      <c r="C352">
+        <v>4.3752639999999996</v>
+      </c>
+      <c r="D352">
+        <f t="shared" ref="D352:D355" si="79">B352-C352</f>
+        <v>-5.5773999999999546E-2</v>
+      </c>
+      <c r="E352">
+        <f t="shared" ref="E352:E355" si="80">IF(D352&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B353">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C353">
+        <v>4.3687243000000002</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="79"/>
+        <v>-4.1494300000000095E-2</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B354">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C354">
+        <v>4.3779199999999996</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="79"/>
+        <v>-5.0689999999999458E-2</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B355">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C355">
+        <v>4.3646349999999998</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="79"/>
+        <v>-3.9175000000000182E-2</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B356">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="C356">
+        <v>4.3341146000000004</v>
+      </c>
+      <c r="D356">
+        <f t="shared" ref="D356" si="81">B356-C356</f>
+        <v>-8.1459999999999866E-4</v>
+      </c>
+      <c r="E356">
+        <f t="shared" ref="E356" si="82">IF(D356&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="C357">
+        <v>4.3450116999999997</v>
       </c>
     </row>
   </sheetData>
@@ -17395,10 +17623,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17884,8 +18112,8 @@
       <c r="A44" s="1">
         <v>45265</v>
       </c>
-      <c r="B44" t="s">
-        <v>56</v>
+      <c r="B44">
+        <v>4.32761</v>
       </c>
       <c r="C44">
         <v>4.4073023999999998</v>
@@ -17895,8 +18123,8 @@
       <c r="A45" s="1">
         <v>45266</v>
       </c>
-      <c r="B45" t="s">
-        <v>56</v>
+      <c r="B45">
+        <v>4.3194900000000001</v>
       </c>
       <c r="C45">
         <v>4.4268093000000004</v>
@@ -17906,8 +18134,8 @@
       <c r="A46" s="1">
         <v>45267</v>
       </c>
-      <c r="B46" t="s">
-        <v>56</v>
+      <c r="B46">
+        <v>4.3272300000000001</v>
       </c>
       <c r="C46">
         <v>4.4315147000000001</v>
@@ -17917,11 +18145,88 @@
       <c r="A47" s="1">
         <v>45268</v>
       </c>
-      <c r="B47" t="s">
-        <v>56</v>
+      <c r="B47">
+        <v>4.3272300000000001</v>
       </c>
       <c r="C47">
         <v>4.4290289999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B48">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C48">
+        <v>4.3779199999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B49">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="C49">
+        <v>4.3646349999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>4.3486159999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>4.3421702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>4.3236184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>4.3164369999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>4.2986716999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17931,10 +18236,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17958,147 +18263,527 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <f>AVERAGE(D5:D301)</f>
-        <v>0.88743433333332911</v>
+      <c r="E1" s="13">
+        <f>AVERAGE(D2:D301)</f>
+        <v>0.77839266666666529</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>45252</v>
+        <v>45233</v>
       </c>
       <c r="B2" s="58">
-        <v>77.099997999999999</v>
+        <v>82.459998999999996</v>
+      </c>
+      <c r="C2">
+        <v>79.287199999999999</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2" si="0">B2-C2</f>
+        <v>3.1727989999999977</v>
+      </c>
+      <c r="E2" s="56">
+        <f t="shared" ref="E2" si="1">D2/C2</f>
+        <v>4.0016534825293333E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>45253</v>
+        <v>45236</v>
       </c>
       <c r="B3" s="58">
-        <v>76.349997999999999</v>
+        <v>80.819999999999993</v>
+      </c>
+      <c r="C3">
+        <v>78.5989</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="2">B3-C3</f>
+        <v>2.2210999999999927</v>
+      </c>
+      <c r="E3" s="56">
+        <f t="shared" ref="E3" si="3">D3/C3</f>
+        <v>2.8258665197604456E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>45254</v>
+        <v>45237</v>
       </c>
       <c r="B4" s="58">
-        <v>75.540001000000004</v>
+        <v>77.370002999999997</v>
+      </c>
+      <c r="C4">
+        <v>79.054299999999998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4" si="4">B4-C4</f>
+        <v>-1.6842970000000008</v>
+      </c>
+      <c r="E4" s="56">
+        <f t="shared" ref="E4" si="5">D4/C4</f>
+        <v>-2.1305570980958668E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>45257</v>
+        <v>45238</v>
       </c>
       <c r="B5" s="58">
-        <v>74.860000999999997</v>
-      </c>
-      <c r="C5">
-        <v>75.922899999999998</v>
+        <v>75.330001999999993</v>
+      </c>
+      <c r="C5" s="58">
+        <v>77.506699999999995</v>
       </c>
       <c r="D5">
-        <f>B5-C5</f>
-        <v>-1.0628990000000016</v>
+        <f t="shared" ref="D5" si="6">B5-C5</f>
+        <v>-2.1766980000000018</v>
       </c>
       <c r="E5" s="56">
-        <f>D5/C5</f>
-        <v>-1.3999715500856812E-2</v>
+        <f t="shared" ref="E5" si="7">D5/C5</f>
+        <v>-2.8083997899536452E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>45258</v>
+        <v>45239</v>
       </c>
       <c r="B6" s="58">
-        <v>76.410004000000001</v>
+        <v>75.739998</v>
       </c>
       <c r="C6">
-        <v>76.504900000000006</v>
+        <v>76.052700000000002</v>
       </c>
       <c r="D6">
-        <f>B6-C6</f>
-        <v>-9.4896000000005643E-2</v>
+        <f t="shared" ref="D6" si="8">B6-C6</f>
+        <v>-0.31270200000000159</v>
       </c>
       <c r="E6" s="56">
-        <f>D6/C6</f>
-        <v>-1.2403911383454607E-3</v>
+        <f t="shared" ref="E6" si="9">D6/C6</f>
+        <v>-4.1116488960944398E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>45259</v>
+        <v>45240</v>
       </c>
       <c r="B7" s="58">
-        <v>77.860000999999997</v>
+        <v>77.169998000000007</v>
       </c>
       <c r="C7">
-        <v>74.576800000000006</v>
+        <v>75.321899999999999</v>
       </c>
       <c r="D7">
-        <f>B7-C7</f>
-        <v>3.2832009999999912</v>
+        <f t="shared" ref="D7" si="10">B7-C7</f>
+        <v>1.8480980000000073</v>
       </c>
       <c r="E7" s="56">
-        <f t="shared" ref="E7:E10" si="0">D7/C7</f>
-        <v>4.4024428508597724E-2</v>
+        <f t="shared" ref="E7" si="11">D7/C7</f>
+        <v>2.4535998162553085E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>45260</v>
+        <v>45244</v>
       </c>
       <c r="B8" s="58">
-        <v>75.959998999999996</v>
+        <v>78.260002</v>
       </c>
       <c r="C8">
-        <v>73.526899999999998</v>
+        <v>78.169200000000004</v>
       </c>
       <c r="D8">
-        <f>B8-C8</f>
-        <v>2.4330989999999986</v>
+        <f t="shared" ref="D8" si="12">B8-C8</f>
+        <v>9.0801999999996497E-2</v>
       </c>
       <c r="E8" s="56">
-        <f t="shared" si="0"/>
-        <v>3.30912767980154E-2</v>
+        <f t="shared" ref="E8" si="13">D8/C8</f>
+        <v>1.1616084084268036E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>45261</v>
+        <v>45245</v>
       </c>
       <c r="B9" s="58">
-        <v>74.069999999999993</v>
+        <v>78.260002</v>
       </c>
       <c r="C9">
-        <v>75.0822</v>
+        <v>76.024100000000004</v>
       </c>
       <c r="D9">
-        <f>B9-C9</f>
-        <v>-1.0122000000000071</v>
+        <f t="shared" ref="D9" si="14">B9-C9</f>
+        <v>2.2359019999999958</v>
       </c>
       <c r="E9" s="56">
-        <f t="shared" si="0"/>
-        <v>-1.3481224577862758E-2</v>
+        <f t="shared" ref="E9" si="15">D9/C9</f>
+        <v>2.9410436953544939E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B10" s="58">
+        <v>76.660004000000001</v>
+      </c>
+      <c r="C10">
+        <v>74.524199999999993</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="16">B10-C10</f>
+        <v>2.1358040000000074</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" ref="E10" si="17">D10/C10</f>
+        <v>2.8659200635498368E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B11" s="58">
+        <v>72.900002000000001</v>
+      </c>
+      <c r="C11">
+        <v>75.210099999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="18">B11-C11</f>
+        <v>-2.3100979999999964</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" ref="E11" si="19">D11/C11</f>
+        <v>-3.0715262976648037E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B12" s="58">
+        <v>77.599997999999999</v>
+      </c>
+      <c r="C12">
+        <v>73.762</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="20">B12-C12</f>
+        <v>3.8379979999999989</v>
+      </c>
+      <c r="E12" s="56">
+        <f t="shared" ref="E12" si="21">D12/C12</f>
+        <v>5.2032184593693215E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="58">
+        <v>77.769997000000004</v>
+      </c>
+      <c r="C13">
+        <v>75.093100000000007</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="22">B13-C13</f>
+        <v>2.6768969999999968</v>
+      </c>
+      <c r="E13" s="56">
+        <f t="shared" ref="E13" si="23">D13/C13</f>
+        <v>3.5647709310176252E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="58">
+        <v>77.099997999999999</v>
+      </c>
+      <c r="C14">
+        <v>72.002200000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="24">B14-C14</f>
+        <v>5.0977979999999974</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" ref="E14:E15" si="25">D14/C14</f>
+        <v>7.0800586648741254E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B15" s="58">
+        <v>76.349997999999999</v>
+      </c>
+      <c r="C15">
+        <v>70.452699999999993</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="24"/>
+        <v>5.8972980000000064</v>
+      </c>
+      <c r="E15" s="56">
+        <f t="shared" si="25"/>
+        <v>8.3705777067451026E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B16" s="58">
+        <v>75.540001000000004</v>
+      </c>
+      <c r="C16">
+        <v>76.697699999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="26">B16-C16</f>
+        <v>-1.1576989999999938</v>
+      </c>
+      <c r="E16" s="56">
+        <f>D16/C16</f>
+        <v>-1.5094311824213684E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B17" s="58">
+        <v>74.860000999999997</v>
+      </c>
+      <c r="C17">
+        <v>75.922899999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D28" si="27">B17-C17</f>
+        <v>-1.0628990000000016</v>
+      </c>
+      <c r="E17" s="56">
+        <f>D17/C17</f>
+        <v>-1.3999715500856812E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B18" s="58">
+        <v>76.410004000000001</v>
+      </c>
+      <c r="C18">
+        <v>76.504900000000006</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="27"/>
+        <v>-9.4896000000005643E-2</v>
+      </c>
+      <c r="E18" s="56">
+        <f>D18/C18</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B19" s="58">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C19">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="27"/>
+        <v>3.2832009999999912</v>
+      </c>
+      <c r="E19" s="56">
+        <f t="shared" ref="E19:E28" si="28">D19/C19</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B20" s="58">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C20">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="27"/>
+        <v>2.4330989999999986</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="28"/>
+        <v>3.30912767980154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B21" s="58">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="C21">
+        <v>75.0822</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="27"/>
+        <v>-1.0122000000000071</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.3481224577862758E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>45264</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B22" s="58">
         <v>73.040001000000004</v>
       </c>
-      <c r="C10">
+      <c r="C22">
         <v>71.261700000000005</v>
       </c>
-      <c r="D10">
-        <f>B10-C10</f>
+      <c r="D22">
+        <f t="shared" si="27"/>
         <v>1.778300999999999</v>
       </c>
-      <c r="E10" s="56">
-        <f t="shared" si="0"/>
+      <c r="E22" s="56">
+        <f t="shared" si="28"/>
         <v>2.4954512732645991E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B23" s="58">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="C23">
+        <v>73.881699999999995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="27"/>
+        <v>-1.5617000000000019</v>
+      </c>
+      <c r="E23" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.113784604306617E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B24" s="58">
+        <v>69.379997000000003</v>
+      </c>
+      <c r="C24">
+        <v>71.1126</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="27"/>
+        <v>-1.7326029999999975</v>
+      </c>
+      <c r="E24" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.436421956165289E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B25" s="58">
+        <v>69.339995999999999</v>
+      </c>
+      <c r="C25">
+        <v>73.859700000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="27"/>
+        <v>-4.5197040000000044</v>
+      </c>
+      <c r="E25" s="56">
+        <f t="shared" si="28"/>
+        <v>-6.1193099890738852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B26" s="58">
+        <v>71.23</v>
+      </c>
+      <c r="C26">
+        <v>71.077100000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="27"/>
+        <v>0.15290000000000248</v>
+      </c>
+      <c r="E26" s="56">
+        <f t="shared" si="28"/>
+        <v>2.1511851215089313E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B27" s="58">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="C27">
+        <v>68.771699999999996</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="27"/>
+        <v>2.5482999999999976</v>
+      </c>
+      <c r="E27" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7054486074940676E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B28" s="58">
+        <v>68.610000999999997</v>
+      </c>
+      <c r="C28">
+        <v>69.378200000000007</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="27"/>
+        <v>-0.76819900000000985</v>
+      </c>
+      <c r="E28" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.1072628001303144E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29">
+        <v>73.563900000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF2561-8B77-4F08-9FE2-24A2F512CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527EC64-8388-4F5B-AABD-9904BDA74974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>8.9517526362174089E-3</v>
+        <v>7.4419019702844629E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D82" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D84" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E82" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E84" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7353,8 +7353,46 @@
       </c>
     </row>
     <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B83">
+        <v>4.0049799999999998</v>
+      </c>
       <c r="C83">
         <v>4.0665373999999996</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="34"/>
+        <v>-6.1557399999999873E-2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B84">
+        <v>3.9475410000000002</v>
+      </c>
+      <c r="C84">
+        <v>3.9933977000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="34"/>
+        <v>-4.5856699999999861E-2</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="C85">
+        <v>3.9826649999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8503,11 +8541,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I357"/>
+  <dimension ref="A1:I359"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C358" sqref="C358"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A357" sqref="A357:B358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8537,7 +8575,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5437038640003144E-2</v>
+        <v>-1.5599593045381277E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15393,17 +15431,55 @@
         <v>4.3341146000000004</v>
       </c>
       <c r="D356">
-        <f t="shared" ref="D356" si="81">B356-C356</f>
+        <f t="shared" ref="D356:D357" si="81">B356-C356</f>
         <v>-8.1459999999999866E-4</v>
       </c>
       <c r="E356">
-        <f t="shared" ref="E356" si="82">IF(D356&lt;0,1,0)</f>
+        <f t="shared" ref="E356:E357" si="82">IF(D356&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B357">
+        <v>4.3245800000000001</v>
+      </c>
       <c r="C357">
         <v>4.3450116999999997</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="81"/>
+        <v>-2.0431699999999609E-2</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B358">
+        <v>4.2960099999999999</v>
+      </c>
+      <c r="C358">
+        <v>4.3644843</v>
+      </c>
+      <c r="D358">
+        <f t="shared" ref="D358" si="83">B358-C358</f>
+        <v>-6.8474300000000099E-2</v>
+      </c>
+      <c r="E358">
+        <f t="shared" ref="E358" si="84">IF(D358&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="C359">
+        <v>4.3034897000000001</v>
       </c>
     </row>
   </sheetData>
@@ -17626,7 +17702,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18178,8 +18254,8 @@
       <c r="A50" s="1">
         <v>45273</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
+      <c r="B50">
+        <v>4.3245800000000001</v>
       </c>
       <c r="C50">
         <v>4.3486159999999998</v>
@@ -18189,8 +18265,8 @@
       <c r="A51" s="1">
         <v>45274</v>
       </c>
-      <c r="B51" t="s">
-        <v>56</v>
+      <c r="B51">
+        <v>4.2960099999999999</v>
       </c>
       <c r="C51">
         <v>4.3421702</v>
@@ -18236,10 +18312,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18265,7 +18342,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>0.77839266666666529</v>
+        <v>0.67279672413792913</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18564,7 +18641,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D28" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D30" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18606,7 +18683,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E28" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E30" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -18782,8 +18859,46 @@
       </c>
     </row>
     <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B29" s="58">
+        <v>69.470000999999996</v>
+      </c>
       <c r="C29">
         <v>73.563900000000004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>-4.0938990000000075</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" si="28"/>
+        <v>-5.5650923890658427E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B30" s="58">
+        <v>71.580001999999993</v>
+      </c>
+      <c r="C30">
+        <v>68.991600000000005</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="27"/>
+        <v>2.5884019999999879</v>
+      </c>
+      <c r="E30" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7517639828616639E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31">
+        <v>68.003299999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527EC64-8388-4F5B-AABD-9904BDA74974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F759FBA-1CF1-4F92-B60A-7868C230161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>7.4419019702844629E-3</v>
+        <v>6.558188851590604E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D84" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D85" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E84" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E85" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7391,8 +7391,27 @@
       </c>
     </row>
     <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B85">
+        <v>3.9158750000000002</v>
+      </c>
       <c r="C85">
         <v>3.9826649999999999</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="34"/>
+        <v>-6.6789999999999683E-2</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="C86">
+        <v>3.9146914000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8541,11 +8560,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I359"/>
+  <dimension ref="A1:I360"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A357" sqref="A357:B358"/>
+      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8575,7 +8594,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5599593045381277E-2</v>
+        <v>-1.5552358707265686E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15469,17 +15488,36 @@
         <v>4.3644843</v>
       </c>
       <c r="D358">
-        <f t="shared" ref="D358" si="83">B358-C358</f>
+        <f t="shared" ref="D358:D359" si="83">B358-C358</f>
         <v>-6.8474300000000099E-2</v>
       </c>
       <c r="E358">
-        <f t="shared" ref="E358" si="84">IF(D358&lt;0,1,0)</f>
+        <f t="shared" ref="E358:E359" si="84">IF(D358&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B359">
+        <v>4.3048000000000002</v>
+      </c>
       <c r="C359">
         <v>4.3034897000000001</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="83"/>
+        <v>1.3103000000000975E-3</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="C360">
+        <v>4.2939242999999996</v>
       </c>
     </row>
   </sheetData>
@@ -17702,7 +17740,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="A52" sqref="A52:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18276,8 +18314,8 @@
       <c r="A52" s="1">
         <v>45275</v>
       </c>
-      <c r="B52" t="s">
-        <v>56</v>
+      <c r="B52">
+        <v>4.3048000000000002</v>
       </c>
       <c r="C52">
         <v>4.3236184</v>
@@ -18312,11 +18350,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18342,7 +18380,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>0.67279672413792913</v>
+        <v>0.76459349999999848</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18641,7 +18679,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D30" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D31" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18683,7 +18721,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E30" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E31" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -18897,8 +18935,27 @@
       </c>
     </row>
     <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B31" s="58">
+        <v>71.430000000000007</v>
+      </c>
       <c r="C31">
         <v>68.003299999999996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="27"/>
+        <v>3.426700000000011</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="28"/>
+        <v>5.0390201651978821E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32">
+        <v>70.312200000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F759FBA-1CF1-4F92-B60A-7868C230161B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D848E3-DD8E-4453-A907-E6A9ABA8CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.558188851590604E-3</v>
+        <v>7.1991583945130635E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D85" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D86" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E85" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E86" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>45271</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>45272</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>45273</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>45274</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>45275</v>
       </c>
@@ -7408,10 +7408,33 @@
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="H85">
+        <f>22000*0.77</f>
+        <v>16940</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B86">
+        <v>3.9757319999999998</v>
+      </c>
       <c r="C86">
         <v>3.9146914000000002</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="34"/>
+        <v>6.1040599999999667E-2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="C87">
+        <v>3.9363999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8560,11 +8583,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I360"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C361" sqref="C361"/>
+      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8594,7 +8617,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5552358707265686E-2</v>
+        <v>-1.5404146844571353E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15516,8 +15539,27 @@
       </c>
     </row>
     <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B360">
+        <v>4.3315799999999998</v>
+      </c>
       <c r="C360">
         <v>4.2939242999999996</v>
+      </c>
+      <c r="D360">
+        <f t="shared" ref="D360" si="85">B360-C360</f>
+        <v>3.7655700000000181E-2</v>
+      </c>
+      <c r="E360">
+        <f t="shared" ref="E360" si="86">IF(D360&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="C361">
+        <v>4.342352</v>
       </c>
     </row>
   </sheetData>
@@ -17740,7 +17782,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B52"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18325,8 +18367,8 @@
       <c r="A53" s="1">
         <v>45278</v>
       </c>
-      <c r="B53" t="s">
-        <v>56</v>
+      <c r="B53">
+        <v>4.3315799999999998</v>
       </c>
       <c r="C53">
         <v>4.3164369999999996</v>
@@ -18350,11 +18392,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18380,7 +18422,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>0.76459349999999848</v>
+        <v>0.80953567741935317</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18679,7 +18721,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D31" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D32" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18721,7 +18763,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E31" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E32" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -18954,8 +18996,27 @@
       </c>
     </row>
     <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B32" s="58">
+        <v>72.470000999999996</v>
+      </c>
       <c r="C32">
         <v>70.312200000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="27"/>
+        <v>2.1578009999999921</v>
+      </c>
+      <c r="E32" s="56">
+        <f t="shared" si="28"/>
+        <v>3.0688856272453314E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>66.346900000000005</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D848E3-DD8E-4453-A907-E6A9ABA8CE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8381EA9-EEF4-4C4E-95E9-7D8F6D5B9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>7.1991583945130635E-3</v>
+        <v>7.328051901553609E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D86" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D87" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E86" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E87" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7433,8 +7433,27 @@
       </c>
     </row>
     <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B87">
+        <v>3.9546839999999999</v>
+      </c>
       <c r="C87">
         <v>3.9363999999999999</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="34"/>
+        <v>1.8283999999999967E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="C88">
+        <v>4.0000270000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8583,11 +8602,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C362" sqref="C362"/>
+      <selection pane="bottomLeft" activeCell="A361" sqref="A361:B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8617,7 +8636,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5404146844571353E-2</v>
+        <v>-1.5424001992225321E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15549,17 +15568,36 @@
         <v>4.2939242999999996</v>
       </c>
       <c r="D360">
-        <f t="shared" ref="D360" si="85">B360-C360</f>
+        <f t="shared" ref="D360:D361" si="85">B360-C360</f>
         <v>3.7655700000000181E-2</v>
       </c>
       <c r="E360">
-        <f t="shared" ref="E360" si="86">IF(D360&lt;0,1,0)</f>
+        <f t="shared" ref="E360:E361" si="86">IF(D360&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:5">
+      <c r="A361" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B361">
+        <v>4.3197999999999999</v>
+      </c>
       <c r="C361">
         <v>4.342352</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="85"/>
+        <v>-2.2552000000000127E-2</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="C362">
+        <v>4.3047713999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17779,10 +17817,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18378,11 +18417,66 @@
       <c r="A54" s="1">
         <v>45279</v>
       </c>
-      <c r="B54" t="s">
-        <v>56</v>
+      <c r="B54">
+        <v>4.3197999999999999</v>
       </c>
       <c r="C54">
         <v>4.2986716999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>4.2743950000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>4.2607400000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>4.2532515999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>4.2502255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>4.2410870000000003</v>
       </c>
     </row>
   </sheetData>
@@ -18392,11 +18486,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18422,7 +18516,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>0.80953567741935317</v>
+        <v>1.010272124999998</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18721,7 +18815,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D32" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D33" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18763,7 +18857,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E32" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E33" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -19014,9 +19108,28 @@
         <v>3.0688856272453314E-2</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B33" s="58">
+        <v>73.580001999999993</v>
+      </c>
       <c r="C33">
         <v>66.346900000000005</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="27"/>
+        <v>7.2331019999999882</v>
+      </c>
+      <c r="E33" s="56">
+        <f t="shared" si="28"/>
+        <v>0.10901944175236503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34">
+        <v>71.343400000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8381EA9-EEF4-4C4E-95E9-7D8F6D5B9882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369C2AB-4C68-4831-ABC0-75F4AC56A46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>7.328051901553609E-3</v>
+        <v>6.5198788911909238E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D87" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D88" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E87" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E88" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7452,8 +7452,27 @@
       </c>
     </row>
     <row r="88" spans="1:8">
+      <c r="A88" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B88">
+        <v>3.9370440000000002</v>
+      </c>
       <c r="C88">
         <v>4.0000270000000002</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="34"/>
+        <v>-6.2983000000000011E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="C89">
+        <v>3.9410834000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8602,11 +8621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A361" sqref="A361:B361"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A361" sqref="A361:A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8636,7 +8655,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5424001992225321E-2</v>
+        <v>-1.533036597562636E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15568,11 +15587,11 @@
         <v>4.2939242999999996</v>
       </c>
       <c r="D360">
-        <f t="shared" ref="D360:D361" si="85">B360-C360</f>
+        <f t="shared" ref="D360:D362" si="85">B360-C360</f>
         <v>3.7655700000000181E-2</v>
       </c>
       <c r="E360">
-        <f t="shared" ref="E360:E361" si="86">IF(D360&lt;0,1,0)</f>
+        <f t="shared" ref="E360:E362" si="86">IF(D360&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15596,8 +15615,27 @@
       </c>
     </row>
     <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B362">
+        <v>4.32315</v>
+      </c>
       <c r="C362">
         <v>4.3047713999999999</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="85"/>
+        <v>1.8378600000000134E-2</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="C363">
+        <v>4.300592</v>
       </c>
     </row>
   </sheetData>
@@ -17819,7 +17857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
@@ -18486,11 +18524,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18516,7 +18554,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.010272124999998</v>
+        <v>1.0431912121212104</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18815,7 +18853,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D33" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D34" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18857,7 +18895,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E33" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E34" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -19128,8 +19166,27 @@
       </c>
     </row>
     <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B34" s="58">
+        <v>73.440002000000007</v>
+      </c>
       <c r="C34">
         <v>71.343400000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="27"/>
+        <v>2.0966020000000043</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="28"/>
+        <v>2.9387469618773483E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35">
+        <v>70.639300000000006</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D369C2AB-4C68-4831-ABC0-75F4AC56A46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17748CCC-90EE-4EFA-9C43-75E9FBEFFE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.5198788911909238E-3</v>
+        <v>6.7494666310637533E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D88" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D89" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E88" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E89" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7471,8 +7471,27 @@
       </c>
     </row>
     <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B89">
+        <v>3.9678070000000001</v>
+      </c>
       <c r="C89">
         <v>3.9410834000000001</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="34"/>
+        <v>2.6723599999999958E-2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="C90">
+        <v>3.9743461999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8621,11 +8640,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I363"/>
+  <dimension ref="A1:I364"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A361" sqref="A361:A362"/>
+      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8655,7 +8674,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.533036597562636E-2</v>
+        <v>-1.5173271041992032E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15587,11 +15606,11 @@
         <v>4.2939242999999996</v>
       </c>
       <c r="D360">
-        <f t="shared" ref="D360:D362" si="85">B360-C360</f>
+        <f t="shared" ref="D360:D363" si="85">B360-C360</f>
         <v>3.7655700000000181E-2</v>
       </c>
       <c r="E360">
-        <f t="shared" ref="E360:E362" si="86">IF(D360&lt;0,1,0)</f>
+        <f t="shared" ref="E360:E363" si="86">IF(D360&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15634,8 +15653,27 @@
       </c>
     </row>
     <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B363">
+        <v>4.34213</v>
+      </c>
       <c r="C363">
         <v>4.300592</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="85"/>
+        <v>4.1538000000000075E-2</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="C364">
+        <v>4.3351129999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18524,11 +18562,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18554,7 +18592,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.0431912121212104</v>
+        <v>1.108117911764704</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18853,7 +18891,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D34" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D35" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18895,7 +18933,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E34" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E35" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -19185,8 +19223,27 @@
       </c>
     </row>
     <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B35" s="58">
+        <v>73.889999000000003</v>
+      </c>
       <c r="C35">
         <v>70.639300000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>3.2506989999999973</v>
+      </c>
+      <c r="E35" s="56">
+        <f t="shared" si="28"/>
+        <v>4.6018278776828153E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36">
+        <v>71.102999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17748CCC-90EE-4EFA-9C43-75E9FBEFFE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98F643-4CEC-43ED-A417-5229A3638D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.7494666310637533E-3</v>
+        <v>6.093252803549048E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D89" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D95" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E89" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E95" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7490,8 +7490,122 @@
       </c>
     </row>
     <row r="90" spans="1:8">
+      <c r="A90" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B90">
+        <v>3.9279000000000002</v>
+      </c>
       <c r="C90">
         <v>3.9743461999999998</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="34"/>
+        <v>-4.644619999999966E-2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B91">
+        <v>3.9323109999999999</v>
+      </c>
+      <c r="C91">
+        <v>3.8880050000000002</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="34"/>
+        <v>4.4305999999999734E-2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B92">
+        <v>3.9164859999999999</v>
+      </c>
+      <c r="C92">
+        <v>3.9465865999999998</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="34"/>
+        <v>-3.0100599999999922E-2</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B93">
+        <v>3.886606</v>
+      </c>
+      <c r="C93">
+        <v>3.9129738999999999</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="34"/>
+        <v>-2.6367899999999889E-2</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B94">
+        <v>3.9155280000000001</v>
+      </c>
+      <c r="C94">
+        <v>3.8855276000000001</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="34"/>
+        <v>3.0000400000000038E-2</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B95">
+        <v>3.9369000000000001</v>
+      </c>
+      <c r="C95">
+        <v>3.9294790000000002</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="34"/>
+        <v>7.4209999999998999E-3</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="C96">
+        <v>3.9566110000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8640,11 +8754,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I364"/>
+  <dimension ref="A1:I370"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C364" sqref="C364"/>
+      <selection pane="bottomLeft" activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8674,7 +8788,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5173271041992032E-2</v>
+        <v>-1.4946397872829113E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15606,11 +15720,11 @@
         <v>4.2939242999999996</v>
       </c>
       <c r="D360">
-        <f t="shared" ref="D360:D363" si="85">B360-C360</f>
+        <f t="shared" ref="D360:D368" si="85">B360-C360</f>
         <v>3.7655700000000181E-2</v>
       </c>
       <c r="E360">
-        <f t="shared" ref="E360:E363" si="86">IF(D360&lt;0,1,0)</f>
+        <f t="shared" ref="E360:E368" si="86">IF(D360&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15672,8 +15786,122 @@
       </c>
     </row>
     <row r="364" spans="1:5">
+      <c r="A364" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B364">
+        <v>4.3228</v>
+      </c>
       <c r="C364">
         <v>4.3351129999999998</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="85"/>
+        <v>-1.2312999999999796E-2</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B365">
+        <v>4.3332100000000002</v>
+      </c>
+      <c r="C365">
+        <v>4.3285612999999996</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="85"/>
+        <v>4.6487000000006162E-3</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B366">
+        <v>4.3247400000000003</v>
+      </c>
+      <c r="C366">
+        <v>4.3349209999999996</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="85"/>
+        <v>-1.0180999999999329E-2</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B367">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C367">
+        <v>4.3282090000000002</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="85"/>
+        <v>-1.0908999999999835E-2</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B368">
+        <v>4.3335499999999998</v>
+      </c>
+      <c r="C368">
+        <v>4.3232400000000002</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="85"/>
+        <v>1.0309999999999597E-2</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B369">
+        <v>4.3479000000000001</v>
+      </c>
+      <c r="C369">
+        <v>4.3370059999999997</v>
+      </c>
+      <c r="D369">
+        <f t="shared" ref="D369" si="87">B369-C369</f>
+        <v>1.0894000000000403E-2</v>
+      </c>
+      <c r="E369">
+        <f t="shared" ref="E369" si="88">IF(D369&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="C370">
+        <v>4.3579197000000001</v>
       </c>
     </row>
   </sheetData>
@@ -15688,7 +15916,7 @@
   <dimension ref="A1:Q158"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
@@ -17893,11 +18121,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18504,8 +18732,8 @@
       <c r="A55" s="1">
         <v>45280</v>
       </c>
-      <c r="B55" t="s">
-        <v>56</v>
+      <c r="B55">
+        <v>4.32315</v>
       </c>
       <c r="C55">
         <v>4.2743950000000002</v>
@@ -18515,8 +18743,8 @@
       <c r="A56" s="1">
         <v>45281</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
+      <c r="B56">
+        <v>4.34213</v>
       </c>
       <c r="C56">
         <v>4.2607400000000002</v>
@@ -18526,8 +18754,8 @@
       <c r="A57" s="1">
         <v>45282</v>
       </c>
-      <c r="B57" t="s">
-        <v>56</v>
+      <c r="B57">
+        <v>4.3228</v>
       </c>
       <c r="C57">
         <v>4.2532515999999996</v>
@@ -18537,8 +18765,8 @@
       <c r="A58" s="1">
         <v>45286</v>
       </c>
-      <c r="B58" t="s">
-        <v>56</v>
+      <c r="B58">
+        <v>4.3332100000000002</v>
       </c>
       <c r="C58">
         <v>4.2502255</v>
@@ -18548,11 +18776,66 @@
       <c r="A59" s="1">
         <v>45287</v>
       </c>
-      <c r="B59" t="s">
-        <v>56</v>
+      <c r="B59">
+        <v>4.3247400000000003</v>
       </c>
       <c r="C59">
         <v>4.2410870000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B60">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C60">
+        <v>4.2615129999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B61">
+        <v>4.3335499999999998</v>
+      </c>
+      <c r="C61">
+        <v>4.2706203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B62">
+        <v>4.33988</v>
+      </c>
+      <c r="C62">
+        <v>4.2816386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <v>4.2987776000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <v>4.3172812</v>
       </c>
     </row>
   </sheetData>
@@ -18562,11 +18845,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18592,7 +18875,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.108117911764704</v>
+        <v>1.46522639473684</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -18891,7 +19174,7 @@
         <v>75.922899999999998</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:D35" si="27">B17-C17</f>
+        <f t="shared" ref="D17:D39" si="27">B17-C17</f>
         <v>-1.0628990000000016</v>
       </c>
       <c r="E17" s="56">
@@ -18933,7 +19216,7 @@
         <v>3.2832009999999912</v>
       </c>
       <c r="E19" s="56">
-        <f t="shared" ref="E19:E35" si="28">D19/C19</f>
+        <f t="shared" ref="E19:E39" si="28">D19/C19</f>
         <v>4.4024428508597724E-2</v>
       </c>
     </row>
@@ -19242,8 +19525,95 @@
       </c>
     </row>
     <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B36" s="58">
+        <v>73.559997999999993</v>
+      </c>
       <c r="C36">
         <v>71.102999999999994</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="27"/>
+        <v>2.4569979999999987</v>
+      </c>
+      <c r="E36" s="56">
+        <f t="shared" si="28"/>
+        <v>3.4555475858965144E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B37" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C37">
+        <v>67.181200000000004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="27"/>
+        <v>6.3787979999999891</v>
+      </c>
+      <c r="E37" s="56">
+        <f t="shared" si="28"/>
+        <v>9.4949152441456672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B38" s="58">
+        <v>74.110000999999997</v>
+      </c>
+      <c r="C38">
+        <v>67.802999999999997</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="27"/>
+        <v>6.3070009999999996</v>
+      </c>
+      <c r="E38" s="56">
+        <f t="shared" si="28"/>
+        <v>9.3019497662345324E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B39" s="58">
+        <v>71.769997000000004</v>
+      </c>
+      <c r="C39">
+        <v>68.910200000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="27"/>
+        <v>2.8597970000000004</v>
+      </c>
+      <c r="E39" s="56">
+        <f t="shared" si="28"/>
+        <v>4.1500343925862937E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B40" s="58">
+        <v>71.650002000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B41" s="58">
+        <v>70.379997000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98F643-4CEC-43ED-A417-5229A3638D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E899B27-D06F-4027-98A6-1B6972ECB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5710,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5744,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.093252803549048E-3</v>
+        <v>6.3780080371958975E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7083,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D95" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D96" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E95" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E96" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7604,8 +7605,27 @@
       </c>
     </row>
     <row r="96" spans="1:8">
+      <c r="A96" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B96">
+        <v>3.9897559999999999</v>
+      </c>
       <c r="C96">
         <v>3.9566110000000001</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="34"/>
+        <v>3.3144999999999758E-2</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97">
+        <v>4.0088629999999998</v>
       </c>
     </row>
   </sheetData>
@@ -8754,11 +8774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:I371"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C371" sqref="C371"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A370" sqref="A370:B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8788,7 +8808,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4946397872829113E-2</v>
+        <v>-1.4883479992414943E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15891,17 +15911,36 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D370" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E370" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:5">
+      <c r="A370" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B370">
+        <v>4.3661899999999996</v>
+      </c>
       <c r="C370">
         <v>4.3579197000000001</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="87"/>
+        <v>8.2702999999995086E-3</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="C371">
+        <v>4.4089565000000004</v>
       </c>
     </row>
   </sheetData>
@@ -18123,9 +18162,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62:B62"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18820,8 +18859,8 @@
       <c r="A63" s="1">
         <v>45294</v>
       </c>
-      <c r="B63" t="s">
-        <v>56</v>
+      <c r="B63">
+        <v>4.3661899999999996</v>
       </c>
       <c r="C63">
         <v>4.2987776000000002</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E899B27-D06F-4027-98A6-1B6972ECB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C99260-C3D7-499F-BF0C-A008C0C76BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5710,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5744,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.3780080371958975E-3</v>
+        <v>6.0150808701417745E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7083,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D97" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E96" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E97" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7623,9 +7622,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B97">
+        <v>3.9803999999999999</v>
+      </c>
       <c r="C97">
         <v>4.0088629999999998</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="34"/>
+        <v>-2.8462999999999905E-2</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="C98">
+        <v>4.0207220000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8774,11 +8792,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A370" sqref="A370:B370"/>
+      <selection pane="bottomLeft" activeCell="A371" sqref="A371:B371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8808,7 +8826,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4883479992414943E-2</v>
+        <v>-1.5006380046489498E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15911,11 +15929,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D370" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D371" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E370" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E371" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15939,8 +15957,27 @@
       </c>
     </row>
     <row r="371" spans="1:5">
+      <c r="A371" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B371">
+        <v>4.3486000000000002</v>
+      </c>
       <c r="C371">
         <v>4.4089565000000004</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="87"/>
+        <v>-6.0356500000000146E-2</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="C372">
+        <v>4.3806989999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18160,11 +18197,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66:B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18870,11 +18907,66 @@
       <c r="A64" s="1">
         <v>45295</v>
       </c>
-      <c r="B64" t="s">
-        <v>56</v>
+      <c r="B64">
+        <v>4.3486000000000002</v>
       </c>
       <c r="C64">
         <v>4.3172812</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65">
+        <v>4.3904269999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>4.4120216000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <v>4.426336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>4.4373994000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69">
+        <v>4.4435086000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C99260-C3D7-499F-BF0C-A008C0C76BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705B7C0-B694-469E-A2FA-14E4F2B5F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>6.0150808701417745E-3</v>
+        <v>5.4496812605470419E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D97" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D99" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E97" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E99" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7642,8 +7642,46 @@
       </c>
     </row>
     <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B98">
+        <v>3.9674839999999998</v>
+      </c>
       <c r="C98">
         <v>4.0207220000000001</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="34"/>
+        <v>-5.3238000000000341E-2</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B99">
+        <v>3.969392</v>
+      </c>
+      <c r="C99">
+        <v>3.959533</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="34"/>
+        <v>9.8590000000000622E-3</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="C100">
+        <v>3.9368856000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8792,11 +8830,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371:B371"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8826,7 +8864,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5006380046489498E-2</v>
+        <v>-1.5053758379572889E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15929,11 +15967,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D371" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D373" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E371" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E373" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -15976,8 +16014,46 @@
       </c>
     </row>
     <row r="372" spans="1:5">
+      <c r="A372" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B372">
+        <v>4.3437999999999999</v>
+      </c>
       <c r="C372">
         <v>4.3806989999999999</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="87"/>
+        <v>-3.6899000000000015E-2</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B373">
+        <v>4.3431499999999996</v>
+      </c>
+      <c r="C373">
+        <v>4.3538885000000001</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="87"/>
+        <v>-1.0738500000000428E-2</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="C374">
+        <v>4.3371753999999996</v>
       </c>
     </row>
   </sheetData>
@@ -18199,9 +18275,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66:B69"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18918,8 +18994,8 @@
       <c r="A65" s="1">
         <v>45296</v>
       </c>
-      <c r="B65" t="s">
-        <v>56</v>
+      <c r="B65">
+        <v>4.3437999999999999</v>
       </c>
       <c r="C65">
         <v>4.3904269999999999</v>
@@ -18976,11 +19052,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19006,7 +19082,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.46522639473684</v>
+        <v>1.5072080108939396</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19738,6 +19814,17 @@
       <c r="B40" s="58">
         <v>71.650002000000001</v>
       </c>
+      <c r="C40">
+        <v>71.055977272727276</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D45" si="29">B40-C40</f>
+        <v>0.59402472727272482</v>
+      </c>
+      <c r="E40" s="56">
+        <f t="shared" ref="E40:E45" si="30">D40/C40</f>
+        <v>8.3599543637650243E-3</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1">
@@ -19745,6 +19832,98 @@
       </c>
       <c r="B41" s="58">
         <v>70.379997000000003</v>
+      </c>
+      <c r="C41">
+        <v>70.808298966942161</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="29"/>
+        <v>-0.42830196694215772</v>
+      </c>
+      <c r="E41" s="56">
+        <f t="shared" si="30"/>
+        <v>-6.0487537928586091E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B42" s="58">
+        <v>72.699996999999996</v>
+      </c>
+      <c r="C42">
+        <v>70.63700346543952</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="29"/>
+        <v>2.0629935345604764</v>
+      </c>
+      <c r="E42" s="56">
+        <f t="shared" si="30"/>
+        <v>2.9205564128577943E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B43" s="58">
+        <v>72.190002000000007</v>
+      </c>
+      <c r="C43">
+        <v>70.505644532050397</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="29"/>
+        <v>1.6843574679496101</v>
+      </c>
+      <c r="E43" s="56">
+        <f t="shared" si="30"/>
+        <v>2.3889682579725034E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B44" s="58">
+        <v>73.809997999999993</v>
+      </c>
+      <c r="C44">
+        <v>70.297619283507231</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="29"/>
+        <v>3.512378716492762</v>
+      </c>
+      <c r="E44" s="56">
+        <f t="shared" si="30"/>
+        <v>4.9964404944177296E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B45" s="58">
+        <v>70.769997000000004</v>
+      </c>
+      <c r="C45">
+        <v>67.556899999999999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="29"/>
+        <v>3.2130970000000048</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="30"/>
+        <v>4.7561344585083161E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46">
+        <v>69.269099999999995</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4705B7C0-B694-469E-A2FA-14E4F2B5F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375007B-C2E2-43A0-B587-33CD02D39BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.4496812605470419E-3</v>
+        <v>5.5814460962990897E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D99" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D100" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E99" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E100" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7680,8 +7680,27 @@
       </c>
     </row>
     <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B100">
+        <v>3.9553799999999999</v>
+      </c>
       <c r="C100">
         <v>3.9368856000000001</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="34"/>
+        <v>1.84943999999998E-2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="C101">
+        <v>3.9585032</v>
       </c>
     </row>
   </sheetData>
@@ -8830,11 +8849,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
+      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8864,7 +8883,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5053758379572889E-2</v>
+        <v>-1.5029419617161165E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15967,11 +15986,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D373" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D374" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E373" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E374" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16052,8 +16071,27 @@
       </c>
     </row>
     <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B374">
+        <v>4.3311999999999999</v>
+      </c>
       <c r="C374">
         <v>4.3371753999999996</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="87"/>
+        <v>-5.975399999999631E-3</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="C375">
+        <v>4.3087369999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18277,7 +18315,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19005,8 +19043,8 @@
       <c r="A66" s="1">
         <v>45299</v>
       </c>
-      <c r="B66" t="s">
-        <v>56</v>
+      <c r="B66">
+        <v>4.3431499999999996</v>
       </c>
       <c r="C66">
         <v>4.4120216000000001</v>
@@ -19016,8 +19054,8 @@
       <c r="A67" s="1">
         <v>45300</v>
       </c>
-      <c r="B67" t="s">
-        <v>56</v>
+      <c r="B67">
+        <v>4.3311999999999999</v>
       </c>
       <c r="C67">
         <v>4.426336</v>
@@ -19052,11 +19090,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19082,7 +19120,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.5072080108939396</v>
+        <v>1.5397344550962966</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19818,11 +19856,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D45" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D46" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E45" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E46" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -19922,8 +19960,27 @@
       </c>
     </row>
     <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B46" s="58">
+        <v>72.239998</v>
+      </c>
       <c r="C46">
         <v>69.269099999999995</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="29"/>
+        <v>2.9708980000000054</v>
+      </c>
+      <c r="E46" s="56">
+        <f t="shared" si="30"/>
+        <v>4.2889224776992994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="C47">
+        <v>67.362399999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375007B-C2E2-43A0-B587-33CD02D39BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEA0043-B9D2-4B83-9758-F348AE0A1676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
     <sheet name="DX_USD" sheetId="7" r:id="rId2"/>
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
-    <sheet name="DX_EUR" sheetId="5" r:id="rId4"/>
+    <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
     <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.5814460962990897E-3</v>
+        <v>5.152029341916926E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D100" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D102" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E100" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E102" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7699,8 +7699,46 @@
       </c>
     </row>
     <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B101">
+        <v>3.9735499999999999</v>
+      </c>
       <c r="C101">
         <v>3.9585032</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="34"/>
+        <v>1.5046799999999916E-2</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B102">
+        <v>3.9475519999999999</v>
+      </c>
+      <c r="C102">
+        <v>3.9948070000000002</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="34"/>
+        <v>-4.7255000000000269E-2</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="C103">
+        <v>3.9545219999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8849,11 +8887,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C376" sqref="C376"/>
+      <selection pane="bottomLeft" activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8883,7 +8921,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.5029419617161165E-2</v>
+        <v>-1.4868448045869639E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -15986,11 +16024,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D374" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D376" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E374" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E376" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16090,8 +16128,46 @@
       </c>
     </row>
     <row r="375" spans="1:5">
+      <c r="A375" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B375">
+        <v>4.3430099999999996</v>
+      </c>
       <c r="C375">
         <v>4.3087369999999998</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="87"/>
+        <v>3.4272999999999776E-2</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B376">
+        <v>4.3323</v>
+      </c>
+      <c r="C376">
+        <v>4.3362674999999999</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="87"/>
+        <v>-3.9674999999999017E-3</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="C377">
+        <v>4.3239029999999996</v>
       </c>
     </row>
   </sheetData>
@@ -18315,7 +18391,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19065,8 +19141,8 @@
       <c r="A68" s="1">
         <v>45301</v>
       </c>
-      <c r="B68" t="s">
-        <v>56</v>
+      <c r="B68">
+        <v>4.3430099999999996</v>
       </c>
       <c r="C68">
         <v>4.4373994000000003</v>
@@ -19090,11 +19166,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19120,7 +19196,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.5397344550962966</v>
+        <v>1.6776649038156033</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19856,11 +19932,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D46" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D48" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E46" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E48" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -19979,8 +20055,46 @@
       </c>
     </row>
     <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B47" s="58">
+        <v>71.370002999999997</v>
+      </c>
       <c r="C47">
         <v>67.362399999999994</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="29"/>
+        <v>4.0076030000000031</v>
+      </c>
+      <c r="E47" s="56">
+        <f t="shared" si="30"/>
+        <v>5.9493174233697189E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B48" s="58">
+        <v>72.019997000000004</v>
+      </c>
+      <c r="C48">
+        <v>66.465400000000002</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="29"/>
+        <v>5.5545970000000011</v>
+      </c>
+      <c r="E48" s="56">
+        <f t="shared" si="30"/>
+        <v>8.3571256623747106E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>64.713499999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEA0043-B9D2-4B83-9758-F348AE0A1676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BDBDB-AACD-455C-994C-0FDF15BE310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.152029341916926E-3</v>
+        <v>5.1709114071922498E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D102" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D103" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E102" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E103" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7737,8 +7737,27 @@
       </c>
     </row>
     <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B103">
+        <v>3.9615999999999998</v>
+      </c>
       <c r="C103">
         <v>3.9545219999999999</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="34"/>
+        <v>7.0779999999999177E-3</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="C104">
+        <v>3.9736997999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8887,11 +8906,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C378" sqref="C378"/>
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A377" sqref="A377:B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8921,7 +8940,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4868448045869639E-2</v>
+        <v>-1.4754577173407219E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16024,11 +16043,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D376" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D377" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E376" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E377" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16166,8 +16185,27 @@
       </c>
     </row>
     <row r="377" spans="1:5">
+      <c r="A377" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B377">
+        <v>4.3518499999999998</v>
+      </c>
       <c r="C377">
         <v>4.3239029999999996</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="87"/>
+        <v>2.7947000000000166E-2</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="C378">
+        <v>4.3500959999999997</v>
       </c>
     </row>
   </sheetData>
@@ -18387,11 +18425,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19152,11 +19190,66 @@
       <c r="A69" s="1">
         <v>45302</v>
       </c>
-      <c r="B69" t="s">
-        <v>56</v>
+      <c r="B69">
+        <v>4.3323</v>
       </c>
       <c r="C69">
         <v>4.4435086000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B70">
+        <v>4.3518499999999998</v>
+      </c>
+      <c r="C70">
+        <v>4.3750229999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>4.3817259999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>4.3715267000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <v>4.3571977999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>4.3386009999999997</v>
       </c>
     </row>
   </sheetData>
@@ -19166,11 +19259,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19196,7 +19289,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.6776649038156033</v>
+        <v>1.8086823016527784</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -19932,11 +20025,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D48" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D49" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E48" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E49" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20092,9 +20185,28 @@
         <v>8.3571256623747106E-2</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B49" s="58">
+        <v>72.680000000000007</v>
+      </c>
       <c r="C49">
         <v>64.713499999999996</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="29"/>
+        <v>7.9665000000000106</v>
+      </c>
+      <c r="E49" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12310414364854337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="C50">
+        <v>68.029499999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BDBDB-AACD-455C-994C-0FDF15BE310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7CE41-F320-46B9-827D-D27EC662ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.1709114071922498E-3</v>
+        <v>5.1497394517826178E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D103" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D104" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E103" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E104" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7756,8 +7756,27 @@
       </c>
     </row>
     <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B104">
+        <v>3.9766900000000001</v>
+      </c>
       <c r="C104">
         <v>3.9736997999999999</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="34"/>
+        <v>2.9902000000001649E-3</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="C105">
+        <v>3.9833229000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8906,11 +8925,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A377" sqref="A377:B377"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8940,7 +8959,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4754577173407219E-2</v>
+        <v>-1.4709541159684654E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16043,11 +16062,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D377" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D378" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E377" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E378" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16204,8 +16223,27 @@
       </c>
     </row>
     <row r="378" spans="1:5">
+      <c r="A378" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B378">
+        <v>4.3523199999999997</v>
+      </c>
       <c r="C378">
         <v>4.3500959999999997</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="87"/>
+        <v>2.2240000000000038E-3</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="C379">
+        <v>4.3339043000000004</v>
       </c>
     </row>
   </sheetData>
@@ -18427,7 +18465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
@@ -19259,11 +19297,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19289,7 +19327,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.8086823016527784</v>
+        <v>1.8630051118231299</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20025,11 +20063,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D49" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D50" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E49" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E50" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20205,8 +20243,27 @@
       </c>
     </row>
     <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B50" s="58">
+        <v>72.5</v>
+      </c>
       <c r="C50">
         <v>68.029499999999999</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="29"/>
+        <v>4.4705000000000013</v>
+      </c>
+      <c r="E50" s="56">
+        <f t="shared" si="30"/>
+        <v>6.5714138719232124E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="C51">
+        <v>66.271699999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7CE41-F320-46B9-827D-D27EC662ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E0DBE-0203-44D2-BE21-BEB4485CC8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.1497394517826178E-3</v>
+        <v>5.4361682241296115E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D104" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D106" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E104" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E106" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7775,8 +7775,46 @@
       </c>
     </row>
     <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B105">
+        <v>3.9921329999999999</v>
+      </c>
       <c r="C105">
         <v>3.9833229000000001</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="34"/>
+        <v>8.8100999999998209E-3</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B106">
+        <v>4.0355569999999998</v>
+      </c>
+      <c r="C106">
+        <v>4.0039926000000001</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="34"/>
+        <v>3.1564399999999715E-2</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="C107">
+        <v>4.0671153000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8925,11 +8963,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A379" sqref="A379"/>
+      <selection pane="bottomLeft" activeCell="A379" sqref="A379:B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8959,7 +8997,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4709541159684654E-2</v>
+        <v>-1.4586225111348588E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16062,11 +16100,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D378" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D380" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E378" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E380" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16242,8 +16280,46 @@
       </c>
     </row>
     <row r="379" spans="1:5">
+      <c r="A379" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B379">
+        <v>4.3693900000000001</v>
+      </c>
       <c r="C379">
         <v>4.3339043000000004</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="87"/>
+        <v>3.5485699999999731E-2</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B380">
+        <v>4.3900199999999998</v>
+      </c>
+      <c r="C380">
+        <v>4.408188</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="87"/>
+        <v>-1.8168000000000184E-2</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="C381">
+        <v>4.4122440000000003</v>
       </c>
     </row>
   </sheetData>
@@ -18465,9 +18541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72:B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19250,8 +19326,8 @@
       <c r="A71" s="1">
         <v>45306</v>
       </c>
-      <c r="B71" t="s">
-        <v>56</v>
+      <c r="B71">
+        <v>4.3523199999999997</v>
       </c>
       <c r="C71">
         <v>4.3817259999999996</v>
@@ -19261,8 +19337,8 @@
       <c r="A72" s="1">
         <v>45307</v>
       </c>
-      <c r="B72" t="s">
-        <v>56</v>
+      <c r="B72">
+        <v>4.3693900000000001</v>
       </c>
       <c r="C72">
         <v>4.3715267000000004</v>
@@ -19272,8 +19348,8 @@
       <c r="A73" s="1">
         <v>45308</v>
       </c>
-      <c r="B73" t="s">
-        <v>56</v>
+      <c r="B73">
+        <v>4.3900199999999998</v>
       </c>
       <c r="C73">
         <v>4.3571977999999998</v>
@@ -19297,11 +19373,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19327,7 +19403,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>1.8630051118231299</v>
+        <v>2.0305186368496737</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20063,11 +20139,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D50" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D52" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E50" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E52" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20262,8 +20338,46 @@
       </c>
     </row>
     <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B51" s="58">
+        <v>72.400002000000001</v>
+      </c>
       <c r="C51">
         <v>66.271699999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="29"/>
+        <v>6.128302000000005</v>
+      </c>
+      <c r="E51" s="56">
+        <f t="shared" si="30"/>
+        <v>9.2472382630896827E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B52" s="58">
+        <v>72.559997999999993</v>
+      </c>
+      <c r="C52">
+        <v>66.4191</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>6.1408979999999929</v>
+      </c>
+      <c r="E52" s="56">
+        <f t="shared" si="30"/>
+        <v>9.245680835783672E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53">
+        <v>65.858599999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E0DBE-0203-44D2-BE21-BEB4485CC8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B421E4-E1CF-4E0D-A967-1EC6A2E74135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.4361682241296115E-3</v>
+        <v>5.0957864484302701E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D106" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D107" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E106" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E107" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7813,8 +7813,27 @@
       </c>
     </row>
     <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B107">
+        <v>4.0364709999999997</v>
+      </c>
       <c r="C107">
         <v>4.0671153000000002</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="34"/>
+        <v>-3.0644300000000513E-2</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="C108">
+        <v>4.0640315999999999</v>
       </c>
     </row>
   </sheetData>
@@ -8963,11 +8982,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A379" sqref="A379:B380"/>
+      <selection pane="bottomLeft" activeCell="A381" sqref="A381:B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8997,7 +9016,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4586225111348588E-2</v>
+        <v>-1.4596377150529251E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16100,11 +16119,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D380" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D381" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E380" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E381" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16318,8 +16337,27 @@
       </c>
     </row>
     <row r="381" spans="1:5">
+      <c r="A381" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B381">
+        <v>4.3937999999999997</v>
+      </c>
       <c r="C381">
         <v>4.4122440000000003</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="87"/>
+        <v>-1.8444000000000571E-2</v>
+      </c>
+      <c r="E381">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="C382">
+        <v>4.4003389999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18539,11 +18577,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72:B73"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19359,11 +19397,66 @@
       <c r="A74" s="1">
         <v>45309</v>
       </c>
-      <c r="B74" t="s">
-        <v>56</v>
+      <c r="B74">
+        <v>4.3937999999999997</v>
       </c>
       <c r="C74">
         <v>4.3386009999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75">
+        <v>4.3652819999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76">
+        <v>4.3526397000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <v>4.3483890000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78">
+        <v>4.3440412999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79">
+        <v>4.3381733999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19373,11 +19466,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19403,7 +19496,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.0305186368496737</v>
+        <v>2.1495740861410262</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20139,11 +20232,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D52" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D53" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E52" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E53" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20376,8 +20469,27 @@
       </c>
     </row>
     <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B53" s="58">
+        <v>74.080001999999993</v>
+      </c>
       <c r="C53">
         <v>65.858599999999996</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="29"/>
+        <v>8.2214019999999977</v>
+      </c>
+      <c r="E53" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12483414466751493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="C54">
+        <v>66.733699999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B421E4-E1CF-4E0D-A967-1EC6A2E74135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FD705F-A2A8-432F-A49D-7CA6ECEB8A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$300)</f>
-        <v>5.0957864484302701E-3</v>
+        <v>4.7178576031178393E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D107" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D108" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E107" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E108" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7832,8 +7832,27 @@
       </c>
     </row>
     <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B108">
+        <v>4.028689</v>
+      </c>
       <c r="C108">
         <v>4.0640315999999999</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="34"/>
+        <v>-3.5342599999999891E-2</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="C109">
+        <v>4.0797124</v>
       </c>
     </row>
   </sheetData>
@@ -8982,11 +9001,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A381" sqref="A381:B381"/>
+      <selection pane="bottomLeft" activeCell="A382" sqref="A382:B382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9016,7 +9035,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4596377150529251E-2</v>
+        <v>-1.4604336790554107E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16119,11 +16138,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D381" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D382" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E381" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E382" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16356,8 +16375,27 @@
       </c>
     </row>
     <row r="382" spans="1:5">
+      <c r="A382" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B382">
+        <v>4.3827100000000003</v>
+      </c>
       <c r="C382">
         <v>4.4003389999999998</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="87"/>
+        <v>-1.7628999999999451E-2</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="C383">
+        <v>4.4054026999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18581,7 +18619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19408,8 +19446,8 @@
       <c r="A75" s="1">
         <v>45310</v>
       </c>
-      <c r="B75" t="s">
-        <v>56</v>
+      <c r="B75">
+        <v>4.3827100000000003</v>
       </c>
       <c r="C75">
         <v>4.3652819999999997</v>
@@ -19466,11 +19504,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19496,7 +19534,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.1495740861410262</v>
+        <v>2.2349840845157241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20232,11 +20270,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D53" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D54" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E53" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E54" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20488,8 +20526,27 @@
       </c>
     </row>
     <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B54" s="58">
+        <v>73.410004000000001</v>
+      </c>
       <c r="C54">
         <v>66.733699999999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="29"/>
+        <v>6.6763040000000018</v>
+      </c>
+      <c r="E54" s="56">
+        <f t="shared" si="30"/>
+        <v>0.10004396579239577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="C55">
+        <v>73.060199999999995</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FD705F-A2A8-432F-A49D-7CA6ECEB8A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D73DD1-D51F-4A37-8A3D-BDCD7762A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5742,8 +5742,8 @@
         <v>2</v>
       </c>
       <c r="E1" s="6">
-        <f>AVERAGE($D$2:$D$300)</f>
-        <v>4.7178576031178393E-3</v>
+        <f>AVERAGE($D$2:$D$299)</f>
+        <v>3.8261015003083387E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7082,11 +7082,11 @@
         <v>3.9910321</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D108" si="34">B69-C69</f>
+        <f t="shared" ref="D69:D109" si="34">B69-C69</f>
         <v>1.7137899999999817E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" ref="E69:E108" si="35">IF(D69&lt;0,1,0)</f>
+        <f t="shared" ref="E69:E109" si="35">IF(D69&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -7851,8 +7851,46 @@
       </c>
     </row>
     <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B109">
+        <v>3.994602</v>
+      </c>
       <c r="C109">
         <v>4.0797124</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="34"/>
+        <v>-8.511040000000003E-2</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B110">
+        <v>4.0084749999999998</v>
+      </c>
+      <c r="C110">
+        <v>4.0111302999999996</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ref="D110" si="36">B110-C110</f>
+        <v>-2.655299999999805E-3</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110" si="37">IF(D110&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="C111">
+        <v>4.0257360000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9001,11 +9039,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A382" sqref="A382:B382"/>
+      <selection pane="bottomLeft" activeCell="C386" sqref="C386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9035,7 +9073,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4604336790554107E-2</v>
+        <v>-1.4638148869976801E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16138,11 +16176,11 @@
         <v>4.3370059999999997</v>
       </c>
       <c r="D369">
-        <f t="shared" ref="D369:D382" si="87">B369-C369</f>
+        <f t="shared" ref="D369:D383" si="87">B369-C369</f>
         <v>1.0894000000000403E-2</v>
       </c>
       <c r="E369">
-        <f t="shared" ref="E369:E382" si="88">IF(D369&lt;0,1,0)</f>
+        <f t="shared" ref="E369:E383" si="88">IF(D369&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16394,8 +16432,46 @@
       </c>
     </row>
     <row r="383" spans="1:5">
+      <c r="A383" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B383">
+        <v>4.3518499999999998</v>
+      </c>
       <c r="C383">
         <v>4.4054026999999998</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="87"/>
+        <v>-5.3552700000000009E-2</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B384">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C384">
+        <v>4.3492259999999998</v>
+      </c>
+      <c r="D384">
+        <f t="shared" ref="D384" si="89">B384-C384</f>
+        <v>1.1394000000000126E-2</v>
+      </c>
+      <c r="E384">
+        <f t="shared" ref="E384" si="90">IF(D384&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385">
+        <v>4.3665419999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18617,7 +18693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
@@ -19504,11 +19580,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19534,7 +19610,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.2349840845157241</v>
+        <v>2.3324774814424245</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20270,11 +20346,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D54" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D56" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E54" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E56" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20545,8 +20621,46 @@
       </c>
     </row>
     <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B55" s="58">
+        <v>75.010002</v>
+      </c>
       <c r="C55">
         <v>73.060199999999995</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="29"/>
+        <v>1.9498020000000054</v>
+      </c>
+      <c r="E55" s="56">
+        <f t="shared" si="30"/>
+        <v>2.6687608301099716E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B56" s="58">
+        <v>74.370002999999997</v>
+      </c>
+      <c r="C56">
+        <v>66.487700000000004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="29"/>
+        <v>7.8823029999999932</v>
+      </c>
+      <c r="E56" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11855279999157728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="C57">
+        <v>69.870500000000007</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D73DD1-D51F-4A37-8A3D-BDCD7762A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830B41A-B414-4448-ACB1-3EFDAC075821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.8261015003083387E-3</v>
+        <v>3.6344005775782594E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7880,17 +7880,36 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D111" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E111" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B111">
+        <v>4.0084749999999998</v>
+      </c>
       <c r="C111">
         <v>4.0257360000000002</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="36"/>
+        <v>-1.7261000000000415E-2</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="C112">
+        <v>3.9488927999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9039,11 +9058,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C386" sqref="C386"/>
+      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9073,7 +9092,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4638148869976801E-2</v>
+        <v>-1.4625138065627902E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16398,14 +16417,14 @@
         <v>45309</v>
       </c>
       <c r="B381">
-        <v>4.3937999999999997</v>
+        <v>4.3569000000000004</v>
       </c>
       <c r="C381">
         <v>4.4122440000000003</v>
       </c>
       <c r="D381">
         <f t="shared" si="87"/>
-        <v>-1.8444000000000571E-2</v>
+        <v>-5.5343999999999838E-2</v>
       </c>
       <c r="E381">
         <f t="shared" si="88"/>
@@ -16417,14 +16436,14 @@
         <v>45310</v>
       </c>
       <c r="B382">
-        <v>4.3827100000000003</v>
+        <v>4.3937999999999997</v>
       </c>
       <c r="C382">
         <v>4.4003389999999998</v>
       </c>
       <c r="D382">
         <f t="shared" si="87"/>
-        <v>-1.7628999999999451E-2</v>
+        <v>-6.5390000000000725E-3</v>
       </c>
       <c r="E382">
         <f t="shared" si="88"/>
@@ -16436,14 +16455,14 @@
         <v>45313</v>
       </c>
       <c r="B383">
-        <v>4.3518499999999998</v>
+        <v>4.3827100000000003</v>
       </c>
       <c r="C383">
         <v>4.4054026999999998</v>
       </c>
       <c r="D383">
         <f t="shared" si="87"/>
-        <v>-5.3552700000000009E-2</v>
+        <v>-2.2692699999999455E-2</v>
       </c>
       <c r="E383">
         <f t="shared" si="88"/>
@@ -16455,23 +16474,42 @@
         <v>45314</v>
       </c>
       <c r="B384">
-        <v>4.3606199999999999</v>
+        <v>4.3518499999999998</v>
       </c>
       <c r="C384">
         <v>4.3492259999999998</v>
       </c>
       <c r="D384">
-        <f t="shared" ref="D384" si="89">B384-C384</f>
-        <v>1.1394000000000126E-2</v>
+        <f>B384-C384</f>
+        <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384" si="90">IF(D384&lt;0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="3:3">
+        <f t="shared" ref="E384:E385" si="89">IF(D384&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B385">
+        <v>4.3606199999999999</v>
+      </c>
       <c r="C385">
         <v>4.3665419999999999</v>
+      </c>
+      <c r="D385">
+        <f>B385-C385</f>
+        <v>-5.9219999999999828E-3</v>
+      </c>
+      <c r="E385">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="C386">
+        <v>4.3465214000000003</v>
       </c>
     </row>
   </sheetData>
@@ -18695,7 +18733,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19533,8 +19571,8 @@
       <c r="A76" s="1">
         <v>45313</v>
       </c>
-      <c r="B76" t="s">
-        <v>56</v>
+      <c r="B76">
+        <v>4.3518499999999998</v>
       </c>
       <c r="C76">
         <v>4.3526397000000001</v>
@@ -19544,8 +19582,8 @@
       <c r="A77" s="1">
         <v>45314</v>
       </c>
-      <c r="B77" t="s">
-        <v>56</v>
+      <c r="B77">
+        <v>4.3606199999999999</v>
       </c>
       <c r="C77">
         <v>4.3483890000000001</v>
@@ -19580,11 +19618,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19610,7 +19648,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.3324774814424245</v>
+        <v>2.3840313835595239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20346,11 +20384,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D56" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D57" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E56" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E57" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20659,8 +20697,27 @@
       </c>
     </row>
     <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B57" s="58">
+        <v>75.089995999999999</v>
+      </c>
       <c r="C57">
         <v>69.870500000000007</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="29"/>
+        <v>5.2194959999999924</v>
+      </c>
+      <c r="E57" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4702428063345649E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="C58">
+        <v>65.425600000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5830B41A-B414-4448-ACB1-3EFDAC075821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C497D-9B29-43C2-8F1E-C930113C66F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5709,11 +5709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.6344005775782594E-3</v>
+        <v>4.1384348066090849E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7880,11 +7880,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D111" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D112" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E111" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E112" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7908,8 +7908,27 @@
       </c>
     </row>
     <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B112">
+        <v>4.0084749999999998</v>
+      </c>
       <c r="C112">
         <v>3.9488927999999999</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="36"/>
+        <v>5.9582199999999919E-2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113">
+        <v>3.9860264999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9058,11 +9077,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
+      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9092,7 +9111,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4625138065627902E-2</v>
+        <v>-1.4550530953769129E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16484,7 +16503,7 @@
         <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384:E385" si="89">IF(D384&lt;0,1,0)</f>
+        <f t="shared" ref="E384:E386" si="89">IF(D384&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16508,8 +16527,27 @@
       </c>
     </row>
     <row r="386" spans="1:5">
+      <c r="A386" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B386">
+        <v>4.3606199999999999</v>
+      </c>
       <c r="C386">
         <v>4.3465214000000003</v>
+      </c>
+      <c r="D386">
+        <f>B386-C386</f>
+        <v>1.4098599999999628E-2</v>
+      </c>
+      <c r="E386">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="C387">
+        <v>4.3279743000000002</v>
       </c>
     </row>
   </sheetData>
@@ -18733,7 +18771,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19593,8 +19631,8 @@
       <c r="A78" s="1">
         <v>45315</v>
       </c>
-      <c r="B78" t="s">
-        <v>56</v>
+      <c r="B78">
+        <v>4.3606199999999999</v>
       </c>
       <c r="C78">
         <v>4.3440412999999998</v>
@@ -19618,11 +19656,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19648,7 +19686,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.3840313835595239</v>
+        <v>2.5515817277076023</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20384,11 +20422,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D57" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D58" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E57" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E58" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20716,8 +20754,27 @@
       </c>
     </row>
     <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B58" s="58">
+        <v>77.360000999999997</v>
+      </c>
       <c r="C58">
         <v>65.425600000000003</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="29"/>
+        <v>11.934400999999994</v>
+      </c>
+      <c r="E58" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18241179293732107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59">
+        <v>66.093599999999995</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8C497D-9B29-43C2-8F1E-C930113C66F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3402E3-2322-429F-B179-D55AD57FA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -246,7 +246,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +315,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="9">
@@ -554,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +649,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5709,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5743,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.1384348066090849E-3</v>
+        <v>5.0337474648991937E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7880,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D112" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D114" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E112" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E114" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7912,23 +7920,61 @@
         <v>45316</v>
       </c>
       <c r="B112">
-        <v>4.0084749999999998</v>
+        <v>4.0402399999999998</v>
       </c>
       <c r="C112">
         <v>3.9488927999999999</v>
       </c>
       <c r="D112">
         <f t="shared" si="36"/>
-        <v>5.9582199999999919E-2</v>
+        <v>9.1347199999999962E-2</v>
       </c>
       <c r="E112">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B113">
+        <v>4.0238300000000002</v>
+      </c>
       <c r="C113">
         <v>3.9860264999999999</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="36"/>
+        <v>3.7803500000000323E-2</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B114">
+        <v>4.0201000000000002</v>
+      </c>
+      <c r="C114">
+        <v>3.9802213000000002</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="36"/>
+        <v>3.9878700000000045E-2</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="C115">
+        <v>4.0123395999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9077,11 +9123,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I387"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A375" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B386" sqref="B386"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9111,7 +9157,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4550530953769129E-2</v>
+        <v>-1.4245500561243192E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16503,7 +16549,7 @@
         <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384:E386" si="89">IF(D384&lt;0,1,0)</f>
+        <f t="shared" ref="E384:E388" si="89">IF(D384&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16546,8 +16592,46 @@
       </c>
     </row>
     <row r="387" spans="1:5">
+      <c r="A387" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B387">
+        <v>4.3784700000000001</v>
+      </c>
       <c r="C387">
         <v>4.3279743000000002</v>
+      </c>
+      <c r="D387">
+        <f>B387-C387</f>
+        <v>5.0495699999999921E-2</v>
+      </c>
+      <c r="E387">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B388">
+        <v>4.3655099999999996</v>
+      </c>
+      <c r="C388">
+        <v>4.3270600000000004</v>
+      </c>
+      <c r="D388">
+        <f>B388-C388</f>
+        <v>3.8449999999999207E-2</v>
+      </c>
+      <c r="E388">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="C389">
+        <v>4.3499689999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18767,11 +18851,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19484,7 +19568,7 @@
         <v>4.3172812</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>45296</v>
       </c>
@@ -19495,7 +19579,7 @@
         <v>4.3904269999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>45299</v>
       </c>
@@ -19506,7 +19590,7 @@
         <v>4.4120216000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>45300</v>
       </c>
@@ -19517,7 +19601,7 @@
         <v>4.426336</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>45301</v>
       </c>
@@ -19528,7 +19612,7 @@
         <v>4.4373994000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>45302</v>
       </c>
@@ -19539,7 +19623,7 @@
         <v>4.4435086000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>45303</v>
       </c>
@@ -19550,7 +19634,7 @@
         <v>4.3750229999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>45306</v>
       </c>
@@ -19561,7 +19645,7 @@
         <v>4.3817259999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>45307</v>
       </c>
@@ -19572,7 +19656,7 @@
         <v>4.3715267000000004</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>45308</v>
       </c>
@@ -19583,7 +19667,7 @@
         <v>4.3571977999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>45309</v>
       </c>
@@ -19594,7 +19678,7 @@
         <v>4.3386009999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>45310</v>
       </c>
@@ -19605,7 +19689,7 @@
         <v>4.3652819999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>45313</v>
       </c>
@@ -19616,7 +19700,7 @@
         <v>4.3526397000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>45314</v>
       </c>
@@ -19627,7 +19711,7 @@
         <v>4.3483890000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>45315</v>
       </c>
@@ -19638,15 +19722,71 @@
         <v>4.3440412999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>45316</v>
       </c>
-      <c r="B79" t="s">
-        <v>56</v>
+      <c r="B79">
+        <v>4.3606199999999999</v>
       </c>
       <c r="C79">
         <v>4.3381733999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B80">
+        <v>4.3784700000000001</v>
+      </c>
+      <c r="C80">
+        <v>4.3316610000000004</v>
+      </c>
+      <c r="E80" s="59"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B81">
+        <v>4.3655099999999996</v>
+      </c>
+      <c r="C81">
+        <v>4.3475390000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>4.3583464999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83">
+        <v>4.3781330000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <v>4.3906774999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19656,11 +19796,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19686,7 +19826,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.5515817277076023</v>
+        <v>2.8855755843954802</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20422,11 +20562,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D58" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D60" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E58" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E60" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20773,8 +20913,46 @@
       </c>
     </row>
     <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B59" s="58">
+        <v>78.010002</v>
+      </c>
       <c r="C59">
         <v>66.093599999999995</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="29"/>
+        <v>11.916402000000005</v>
+      </c>
+      <c r="E59" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18029585315370938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B60" s="58">
+        <v>76.779999000000004</v>
+      </c>
+      <c r="C60">
+        <v>63.887599999999999</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="29"/>
+        <v>12.892399000000005</v>
+      </c>
+      <c r="E60" s="56">
+        <f t="shared" si="30"/>
+        <v>0.20179814236252425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="C61">
+        <v>66.849800000000002</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3402E3-2322-429F-B179-D55AD57FA6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4C4FC-1457-48D6-8610-485C973210E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>5.0337474648991937E-3</v>
+        <v>4.5972901176835551E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D114" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D116" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E114" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E116" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7973,8 +7973,46 @@
       </c>
     </row>
     <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B115">
+        <v>4.0293599999999996</v>
+      </c>
       <c r="C115">
         <v>4.0123395999999998</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="36"/>
+        <v>1.7020399999999825E-2</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B116">
+        <v>4.0097800000000001</v>
+      </c>
+      <c r="C116">
+        <v>4.0669255</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="36"/>
+        <v>-5.7145499999999849E-2</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="C117">
+        <v>4.010141</v>
       </c>
     </row>
   </sheetData>
@@ -9123,11 +9161,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C390" sqref="C390"/>
+      <selection pane="bottomLeft" activeCell="A390" sqref="A390:B390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9157,7 +9195,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4245500561243192E-2</v>
+        <v>-1.4260302614912896E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16545,11 +16583,11 @@
         <v>4.3492259999999998</v>
       </c>
       <c r="D384">
-        <f>B384-C384</f>
+        <f t="shared" ref="D384:D389" si="89">B384-C384</f>
         <v>2.6239999999999597E-3</v>
       </c>
       <c r="E384">
-        <f t="shared" ref="E384:E388" si="89">IF(D384&lt;0,1,0)</f>
+        <f t="shared" ref="E384:E389" si="90">IF(D384&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16564,11 +16602,11 @@
         <v>4.3665419999999999</v>
       </c>
       <c r="D385">
-        <f>B385-C385</f>
+        <f t="shared" si="89"/>
         <v>-5.9219999999999828E-3</v>
       </c>
       <c r="E385">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
     </row>
@@ -16583,11 +16621,11 @@
         <v>4.3465214000000003</v>
       </c>
       <c r="D386">
-        <f>B386-C386</f>
+        <f t="shared" si="89"/>
         <v>1.4098599999999628E-2</v>
       </c>
       <c r="E386">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -16602,11 +16640,11 @@
         <v>4.3279743000000002</v>
       </c>
       <c r="D387">
-        <f>B387-C387</f>
+        <f t="shared" si="89"/>
         <v>5.0495699999999921E-2</v>
       </c>
       <c r="E387">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
@@ -16621,17 +16659,55 @@
         <v>4.3270600000000004</v>
       </c>
       <c r="D388">
-        <f>B388-C388</f>
+        <f t="shared" si="89"/>
         <v>3.8449999999999207E-2</v>
       </c>
       <c r="E388">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B389">
+        <v>4.3646399999999996</v>
+      </c>
       <c r="C389">
         <v>4.3499689999999998</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="89"/>
+        <v>1.4670999999999879E-2</v>
+      </c>
+      <c r="E389">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B390">
+        <v>4.3478199999999996</v>
+      </c>
+      <c r="C390">
+        <v>4.3967400000000003</v>
+      </c>
+      <c r="D390">
+        <f t="shared" ref="D390" si="91">B390-C390</f>
+        <v>-4.8920000000000741E-2</v>
+      </c>
+      <c r="E390">
+        <f t="shared" ref="E390" si="92">IF(D390&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="C391">
+        <v>4.3474975000000002</v>
       </c>
     </row>
   </sheetData>
@@ -18853,9 +18929,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19760,8 +19836,8 @@
       <c r="A82" s="1">
         <v>45321</v>
       </c>
-      <c r="B82" t="s">
-        <v>56</v>
+      <c r="B82">
+        <v>4.3646399999999996</v>
       </c>
       <c r="C82">
         <v>4.3583464999999997</v>
@@ -19771,8 +19847,8 @@
       <c r="A83" s="1">
         <v>45322</v>
       </c>
-      <c r="B83" t="s">
-        <v>56</v>
+      <c r="B83">
+        <v>4.3478199999999996</v>
       </c>
       <c r="C83">
         <v>4.3781330000000001</v>
@@ -19796,11 +19872,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19826,7 +19902,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>2.8855755843954802</v>
+        <v>3.1596697947431687</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20562,11 +20638,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D60" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D62" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E60" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E62" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -20951,8 +21027,46 @@
       </c>
     </row>
     <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B61" s="58">
+        <v>77.819999999999993</v>
+      </c>
       <c r="C61">
         <v>66.849800000000002</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="29"/>
+        <v>10.970199999999991</v>
+      </c>
+      <c r="E61" s="56">
+        <f t="shared" si="30"/>
+        <v>0.16410221122576268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B62" s="58">
+        <v>75.849997999999999</v>
+      </c>
+      <c r="C62">
+        <v>64.329300000000003</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="29"/>
+        <v>11.520697999999996</v>
+      </c>
+      <c r="E62" s="56">
+        <f t="shared" si="30"/>
+        <v>0.17908943514075226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="C63">
+        <v>68.714299999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC4C4FC-1457-48D6-8610-485C973210E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BA174-77D0-4CFF-BC7B-F656420AA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.5972901176835551E-3</v>
+        <v>4.5075807201173162E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D116" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D117" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E116" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E117" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8011,8 +8011,27 @@
       </c>
     </row>
     <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B117">
+        <v>4.0043319999999998</v>
+      </c>
       <c r="C117">
         <v>4.010141</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="36"/>
+        <v>-5.8090000000001751E-3</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="C118">
+        <v>3.9897749999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9161,11 +9180,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A390" sqref="A390:B390"/>
+      <selection pane="bottomLeft" activeCell="C393" sqref="C393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9195,7 +9214,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4260302614912896E-2</v>
+        <v>-1.4279013377438761E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16697,17 +16716,36 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D391" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E391" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:5">
+      <c r="A391" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B391">
+        <v>4.3259400000000001</v>
+      </c>
       <c r="C391">
         <v>4.3474975000000002</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="91"/>
+        <v>-2.1557500000000118E-2</v>
+      </c>
+      <c r="E391">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="C392">
+        <v>4.3135469999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18929,7 +18967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A83" sqref="A83:B83"/>
     </sheetView>
@@ -19872,11 +19910,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19902,7 +19940,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.1596697947431687</v>
+        <v>3.1910573786989245</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20638,11 +20676,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D62" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D63" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E62" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E63" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21065,8 +21103,27 @@
       </c>
     </row>
     <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B63" s="58">
+        <v>73.819999999999993</v>
+      </c>
       <c r="C63">
         <v>68.714299999999994</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="29"/>
+        <v>5.1056999999999988</v>
+      </c>
+      <c r="E63" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4303310955652596E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="C64">
+        <v>68.295199999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BA174-77D0-4CFF-BC7B-F656420AA58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F52C908-86A6-4A84-B1B6-0313BA4F16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.5075807201173162E-3</v>
+        <v>4.2786013977231521E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D117" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D118" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E117" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E118" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8030,8 +8030,27 @@
       </c>
     </row>
     <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B118">
+        <v>3.967492</v>
+      </c>
       <c r="C118">
         <v>3.9897749999999998</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="36"/>
+        <v>-2.2282999999999831E-2</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="C119">
+        <v>3.9436947999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9180,11 +9199,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I393"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C393" sqref="C393"/>
+      <selection pane="bottomLeft" activeCell="C394" sqref="C394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9214,7 +9233,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4279013377438761E-2</v>
+        <v>-1.4240338151409503E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16716,11 +16735,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D391" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D392" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E391" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E392" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16744,8 +16763,27 @@
       </c>
     </row>
     <row r="392" spans="1:5">
+      <c r="A392" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B392">
+        <v>4.3143900000000004</v>
+      </c>
       <c r="C392">
         <v>4.3135469999999998</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="91"/>
+        <v>8.4300000000059327E-4</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="C393">
+        <v>4.2953095000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18965,11 +19003,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:B83"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19896,11 +19934,66 @@
       <c r="A84" s="1">
         <v>45323</v>
       </c>
-      <c r="B84" t="s">
-        <v>56</v>
+      <c r="B84">
+        <v>4.3259400000000001</v>
       </c>
       <c r="C84">
         <v>4.3906774999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B85">
+        <v>4.3143900000000004</v>
+      </c>
+      <c r="C85">
+        <v>4.3475099999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>4.3577886000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87">
+        <v>4.3528894999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>4.3510346000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89">
+        <v>4.3377175000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19910,11 +20003,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19940,7 +20033,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.1910573786989245</v>
+        <v>3.2036564520529098</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20676,11 +20769,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D63" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D64" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E63" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E64" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21122,8 +21215,27 @@
       </c>
     </row>
     <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B64" s="58">
+        <v>72.279999000000004</v>
+      </c>
       <c r="C64">
         <v>68.295199999999994</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="29"/>
+        <v>3.9847990000000095</v>
+      </c>
+      <c r="E64" s="56">
+        <f t="shared" si="30"/>
+        <v>5.8346692007637577E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65">
+        <v>67.8018</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F52C908-86A6-4A84-B1B6-0313BA4F16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382800EB-E11A-408E-AD88-DAF4D526F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5413,9 +5413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5453,7 +5453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5559,7 +5559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5701,7 +5701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.2786013977231521E-3</v>
+        <v>4.677131894352619E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D118" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D119" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E118" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E119" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8049,8 +8049,27 @@
       </c>
     </row>
     <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B119">
+        <v>3.9950000000000001</v>
+      </c>
       <c r="C119">
         <v>3.9436947999999998</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="36"/>
+        <v>5.1305200000000273E-2</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="C120">
+        <v>4.0224194999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9199,11 +9218,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C394" sqref="C394"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A393" sqref="A393:B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9233,7 +9252,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4240338151409503E-2</v>
+        <v>-1.4159621727553867E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16735,11 +16754,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D392" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D393" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E392" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E393" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16782,8 +16801,27 @@
       </c>
     </row>
     <row r="393" spans="1:5">
+      <c r="A393" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B393">
+        <v>4.31271</v>
+      </c>
       <c r="C393">
         <v>4.2953095000000001</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="91"/>
+        <v>1.740049999999993E-2</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="C394">
+        <v>4.3377489999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19007,7 +19045,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19956,8 +19994,8 @@
       <c r="A86" s="1">
         <v>45327</v>
       </c>
-      <c r="B86" t="s">
-        <v>56</v>
+      <c r="B86">
+        <v>4.31271</v>
       </c>
       <c r="C86">
         <v>4.3577886000000001</v>
@@ -20003,11 +20041,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20033,7 +20071,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.2036564520529098</v>
+        <v>3.2313836793645834</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20769,11 +20807,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D64" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D65" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E64" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E65" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21233,9 +21271,28 @@
         <v>5.8346692007637577E-2</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B65" s="58">
+        <v>72.779999000000004</v>
+      </c>
       <c r="C65">
         <v>67.8018</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="29"/>
+        <v>4.9781990000000036</v>
+      </c>
+      <c r="E65" s="56">
+        <f t="shared" si="30"/>
+        <v>7.3422814733532196E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="C66">
+        <v>66.869399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382800EB-E11A-408E-AD88-DAF4D526F58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83063785-E7E8-4505-B102-FC488C4C79A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.677131894352619E-3</v>
+        <v>4.7792106179294904E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D119" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D120" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E119" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E120" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8068,8 +8068,27 @@
       </c>
     </row>
     <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B120">
+        <v>4.0392440000000001</v>
+      </c>
       <c r="C120">
         <v>4.0224194999999998</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="36"/>
+        <v>1.6824500000000242E-2</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="C121">
+        <v>4.0220833000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9218,11 +9237,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A393" sqref="A393:B393"/>
+      <selection pane="bottomLeft" activeCell="A395" sqref="A395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9252,7 +9271,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4159621727553867E-2</v>
+        <v>-1.4122062893641514E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16754,11 +16773,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D393" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D394" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E393" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E394" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16820,8 +16839,27 @@
       </c>
     </row>
     <row r="394" spans="1:5">
+      <c r="A394" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B394">
+        <v>4.3383500000000002</v>
+      </c>
       <c r="C394">
         <v>4.3377489999999996</v>
+      </c>
+      <c r="D394">
+        <f t="shared" si="91"/>
+        <v>6.0100000000051779E-4</v>
+      </c>
+      <c r="E394">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="C395">
+        <v>4.3591594999999996</v>
       </c>
     </row>
   </sheetData>
@@ -20041,11 +20079,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20071,7 +20109,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.2313836793645834</v>
+        <v>3.2807562073743588</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20807,11 +20845,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D65" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D66" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E65" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E66" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21291,8 +21329,27 @@
       </c>
     </row>
     <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B66" s="58">
+        <v>73.309997999999993</v>
+      </c>
       <c r="C66">
         <v>66.869399999999999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="29"/>
+        <v>6.4405979999999943</v>
+      </c>
+      <c r="E66" s="56">
+        <f t="shared" si="30"/>
+        <v>9.6316072822546547E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="C67">
+        <v>67.679599999999994</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83063785-E7E8-4505-B102-FC488C4C79A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D83813-7687-4172-89BF-A40E6F64BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.7792106179294904E-3</v>
+        <v>4.8822813627800755E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D120" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D121" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E120" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E121" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8087,8 +8087,27 @@
       </c>
     </row>
     <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B121">
+        <v>4.039231</v>
+      </c>
       <c r="C121">
         <v>4.0220833000000002</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="36"/>
+        <v>1.7147699999999766E-2</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="C122">
+        <v>4.0652714000000003</v>
       </c>
     </row>
   </sheetData>
@@ -9237,11 +9256,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A395" sqref="A395"/>
+      <selection pane="bottomLeft" activeCell="C397" sqref="C397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9271,7 +9290,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4122062893641514E-2</v>
+        <v>-1.4122411718784556E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16773,11 +16792,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D394" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D395" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E394" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E395" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16858,8 +16877,27 @@
       </c>
     </row>
     <row r="395" spans="1:5">
+      <c r="A395" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B395">
+        <v>4.3449</v>
+      </c>
       <c r="C395">
         <v>4.3591594999999996</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="91"/>
+        <v>-1.4259499999999647E-2</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="C396">
+        <v>4.3944089999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19083,7 +19121,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:B86"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20043,8 +20081,8 @@
       <c r="A87" s="1">
         <v>45328</v>
       </c>
-      <c r="B87" t="s">
-        <v>56</v>
+      <c r="B87">
+        <v>4.3383500000000002</v>
       </c>
       <c r="C87">
         <v>4.3528894999999999</v>
@@ -20054,8 +20092,8 @@
       <c r="A88" s="1">
         <v>45329</v>
       </c>
-      <c r="B88" t="s">
-        <v>56</v>
+      <c r="B88">
+        <v>4.3449</v>
       </c>
       <c r="C88">
         <v>4.3510346000000002</v>
@@ -20079,11 +20117,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20109,7 +20147,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.2807562073743588</v>
+        <v>3.3246902193838381</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20845,11 +20883,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D66" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D67" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E66" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E67" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21348,8 +21386,27 @@
       </c>
     </row>
     <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B67" s="58">
+        <v>73.860000999999997</v>
+      </c>
       <c r="C67">
         <v>67.679599999999994</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="29"/>
+        <v>6.1804010000000034</v>
+      </c>
+      <c r="E67" s="56">
+        <f t="shared" si="30"/>
+        <v>9.1318521386060253E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="C68">
+        <v>68.503799999999998</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D83813-7687-4172-89BF-A40E6F64BF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CCF77B-FF91-4614-B98B-27A32C11A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5717,11 +5717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.8822813627800755E-3</v>
+        <v>4.306002979783681E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -7888,11 +7888,11 @@
         <v>4.0111302999999996</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D121" si="36">B110-C110</f>
+        <f t="shared" ref="D110:D122" si="36">B110-C110</f>
         <v>-2.655299999999805E-3</v>
       </c>
       <c r="E110">
-        <f t="shared" ref="E110:E121" si="37">IF(D110&lt;0,1,0)</f>
+        <f t="shared" ref="E110:E122" si="37">IF(D110&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8106,8 +8106,46 @@
       </c>
     </row>
     <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B122">
+        <v>4.0288430000000002</v>
+      </c>
       <c r="C122">
         <v>4.0652714000000003</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="36"/>
+        <v>-3.6428400000000138E-2</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B123">
+        <v>4.0109000000000004</v>
+      </c>
+      <c r="C123">
+        <v>4.0350130000000002</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ref="D123" si="38">B123-C123</f>
+        <v>-2.4112999999999829E-2</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123" si="39">IF(D123&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="C124">
+        <v>4.0000076</v>
       </c>
     </row>
   </sheetData>
@@ -9256,11 +9294,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C397" sqref="C397"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A397" sqref="A397:B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9290,7 +9328,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4122411718784556E-2</v>
+        <v>-1.4358250548487661E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16792,11 +16830,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D395" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D397" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E395" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E397" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -16896,8 +16934,46 @@
       </c>
     </row>
     <row r="396" spans="1:5">
+      <c r="A396" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B396">
+        <v>4.3412800000000002</v>
+      </c>
       <c r="C396">
         <v>4.3944089999999996</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="91"/>
+        <v>-5.3128999999999316E-2</v>
+      </c>
+      <c r="E396">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B397">
+        <v>4.3230700000000004</v>
+      </c>
+      <c r="C397">
+        <v>4.391578</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="91"/>
+        <v>-6.8507999999999569E-2</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="C398">
+        <v>4.2715180000000004</v>
       </c>
     </row>
   </sheetData>
@@ -19117,11 +19193,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20103,11 +20179,66 @@
       <c r="A89" s="1">
         <v>45330</v>
       </c>
-      <c r="B89" t="s">
-        <v>56</v>
+      <c r="B89">
+        <v>4.3412800000000002</v>
       </c>
       <c r="C89">
         <v>4.3377175000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B90">
+        <v>4.3230700000000004</v>
+      </c>
+      <c r="C90">
+        <v>4.3596640000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91">
+        <v>4.3612045999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92">
+        <v>4.356179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93">
+        <v>4.3519936000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94">
+        <v>4.3406463000000004</v>
       </c>
     </row>
   </sheetData>
@@ -20117,11 +20248,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20147,7 +20278,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.3246902193838381</v>
+        <v>3.4673566394019608</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20883,11 +21014,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D67" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D69" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E67" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E69" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21405,8 +21536,46 @@
       </c>
     </row>
     <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B68" s="58">
+        <v>76.220000999999996</v>
+      </c>
       <c r="C68">
         <v>68.503799999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="29"/>
+        <v>7.7162009999999981</v>
+      </c>
+      <c r="E68" s="56">
+        <f t="shared" si="30"/>
+        <v>0.1126390214849395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B69" s="58">
+        <v>76.839995999999999</v>
+      </c>
+      <c r="C69">
+        <v>68.205500000000001</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="29"/>
+        <v>8.6344959999999986</v>
+      </c>
+      <c r="E69" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12659530389777948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="C70">
+        <v>68.694999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CCF77B-FF91-4614-B98B-27A32C11A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD7490-2061-4D1A-82F3-F17D10080856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD7490-2061-4D1A-82F3-F17D10080856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89485B-8AC1-4CB9-BFDC-687C674DE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>4.425458 , 4.4274306, 4.4089894, 4.3910556, 4.3848934</t>
+  </si>
+  <si>
+    <t>Day + 1 Pred. WT</t>
   </si>
 </sst>
 </file>
@@ -5717,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5751,10 +5754,10 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.306002979783681E-3</v>
+        <v>4.2400972645008925E-3</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -7934,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>45317</v>
       </c>
@@ -7953,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>45320</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>45321</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>45322</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>45323</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>45324</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>45327</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>45328</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>45329</v>
       </c>
@@ -8105,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>45330</v>
       </c>
@@ -8124,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>45331</v>
       </c>
@@ -8135,17 +8138,39 @@
         <v>4.0350130000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123" si="38">B123-C123</f>
+        <f t="shared" ref="D123:D124" si="38">B123-C123</f>
         <v>-2.4112999999999829E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123" si="39">IF(D123&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <f t="shared" ref="E123:E124" si="39">IF(D123&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B124">
+        <v>4.0109000000000004</v>
+      </c>
       <c r="C124">
-        <v>4.0000076</v>
+        <v>4.0147003999999997</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="38"/>
+        <v>-3.8003999999993709E-3</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="C125">
+        <v>4.0397983000000002</v>
+      </c>
+      <c r="F125">
+        <v>3.9766759999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9294,11 +9319,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A397" sqref="A397:B397"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F400" sqref="F400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9328,7 +9353,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4358250548487661E-2</v>
+        <v>-1.4235193242320187E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16724,7 +16749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <v>45315</v>
       </c>
@@ -16743,7 +16768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <v>45316</v>
       </c>
@@ -16762,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <v>45317</v>
       </c>
@@ -16781,7 +16806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <v>45320</v>
       </c>
@@ -16800,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <v>45321</v>
       </c>
@@ -16819,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <v>45322</v>
       </c>
@@ -16830,15 +16855,15 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D397" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D398" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E397" si="92">IF(D390&lt;0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <f t="shared" ref="E390:E398" si="92">IF(D390&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <v>45323</v>
       </c>
@@ -16857,7 +16882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <v>45324</v>
       </c>
@@ -16876,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <v>45327</v>
       </c>
@@ -16895,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <v>45328</v>
       </c>
@@ -16914,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <v>45329</v>
       </c>
@@ -16933,7 +16958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <v>45330</v>
       </c>
@@ -16952,28 +16977,50 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <v>45331</v>
       </c>
       <c r="B397">
-        <v>4.3230700000000004</v>
+        <v>4.3489820000000003</v>
       </c>
       <c r="C397">
         <v>4.391578</v>
       </c>
       <c r="D397">
         <f t="shared" si="91"/>
-        <v>-6.8507999999999569E-2</v>
+        <v>-4.2595999999999634E-2</v>
       </c>
       <c r="E397">
         <f t="shared" si="92"/>
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:6">
+      <c r="A398" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B398">
+        <v>4.3230700000000004</v>
+      </c>
       <c r="C398">
-        <v>4.2715180000000004</v>
+        <v>4.3144865000000001</v>
+      </c>
+      <c r="D398">
+        <f t="shared" ref="D398" si="93">B398-C398</f>
+        <v>8.5835000000002992E-3</v>
+      </c>
+      <c r="E398">
+        <f t="shared" ref="E398" si="94">IF(D398&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="C399">
+        <v>4.3390446000000003</v>
+      </c>
+      <c r="F399">
+        <v>4.3574833999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19197,7 +19244,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:B90"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20191,7 +20238,7 @@
         <v>45331</v>
       </c>
       <c r="B90">
-        <v>4.3230700000000004</v>
+        <v>4.3489820000000003</v>
       </c>
       <c r="C90">
         <v>4.3596640000000004</v>
@@ -20201,8 +20248,8 @@
       <c r="A91" s="1">
         <v>45334</v>
       </c>
-      <c r="B91" t="s">
-        <v>56</v>
+      <c r="B91">
+        <v>4.3230700000000004</v>
       </c>
       <c r="C91">
         <v>4.3612045999999998</v>
@@ -20248,11 +20295,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20278,7 +20325,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.4673566394019608</v>
+        <v>3.5363079634685994</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21014,11 +21061,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D69" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D70" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E69" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E70" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21478,7 +21525,7 @@
         <v>5.8346692007637577E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>45327</v>
       </c>
@@ -21497,7 +21544,7 @@
         <v>7.3422814733532196E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>45328</v>
       </c>
@@ -21516,7 +21563,7 @@
         <v>9.6316072822546547E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>45329</v>
       </c>
@@ -21535,7 +21582,7 @@
         <v>9.1318521386060253E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>45330</v>
       </c>
@@ -21554,7 +21601,7 @@
         <v>0.1126390214849395</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>45331</v>
       </c>
@@ -21573,9 +21620,34 @@
         <v>0.12659530389777948</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B70" s="58">
+        <v>76.919998000000007</v>
+      </c>
       <c r="C70">
         <v>68.694999999999993</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="29"/>
+        <v>8.2249980000000136</v>
+      </c>
+      <c r="E70" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11973212024164807</v>
+      </c>
+      <c r="F70">
+        <v>68.186099999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71">
+        <v>67.505200000000002</v>
+      </c>
+      <c r="F71">
+        <v>67.919700000000006</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA89485B-8AC1-4CB9-BFDC-687C674DE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E4815-3601-43FD-B838-16517027B5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.2400972645008925E-3</v>
+        <v>4.2030557082688704E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8138,11 +8138,11 @@
         <v>4.0350130000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123:D124" si="38">B123-C123</f>
+        <f t="shared" ref="D123:D126" si="38">B123-C123</f>
         <v>-2.4112999999999829E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123:E124" si="39">IF(D123&lt;0,1,0)</f>
+        <f t="shared" ref="E123:E126" si="39">IF(D123&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8166,11 +8166,55 @@
       </c>
     </row>
     <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B125">
+        <v>4.0027879999999998</v>
+      </c>
       <c r="C125">
         <v>4.0397983000000002</v>
       </c>
+      <c r="D125">
+        <f t="shared" si="38"/>
+        <v>-3.7010300000000385E-2</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
       <c r="F125">
         <v>3.9766759999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B126">
+        <v>4.0496049999999997</v>
+      </c>
+      <c r="C126">
+        <v>4.0087447000000003</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="38"/>
+        <v>4.0860299999999405E-2</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>3.9856563</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="C127">
+        <v>4.0576806000000003</v>
+      </c>
+      <c r="F127">
+        <v>4.0643845000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9319,11 +9363,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F400" sqref="F400"/>
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A399" sqref="A399:B400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9353,7 +9397,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4235193242320187E-2</v>
+        <v>-1.4148962449125601E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -16855,11 +16899,11 @@
         <v>4.3967400000000003</v>
       </c>
       <c r="D390">
-        <f t="shared" ref="D390:D398" si="91">B390-C390</f>
+        <f t="shared" ref="D390:D397" si="91">B390-C390</f>
         <v>-4.8920000000000741E-2</v>
       </c>
       <c r="E390">
-        <f t="shared" ref="E390:E398" si="92">IF(D390&lt;0,1,0)</f>
+        <f t="shared" ref="E390:E397" si="92">IF(D390&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -17016,11 +17060,55 @@
       </c>
     </row>
     <row r="399" spans="1:6">
+      <c r="A399" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B399">
+        <v>4.3221699999999998</v>
+      </c>
       <c r="C399">
         <v>4.3390446000000003</v>
       </c>
+      <c r="D399">
+        <f t="shared" ref="D399:D400" si="95">B399-C399</f>
+        <v>-1.6874600000000406E-2</v>
+      </c>
+      <c r="E399">
+        <f t="shared" ref="E399:E400" si="96">IF(D399&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="F399">
         <v>4.3574833999999996</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B400">
+        <v>4.3365200000000002</v>
+      </c>
+      <c r="C400">
+        <v>4.3137097000000004</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="95"/>
+        <v>2.2810299999999728E-2</v>
+      </c>
+      <c r="E400">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>4.3609805000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="3:6">
+      <c r="C401">
+        <v>4.4045629999999996</v>
+      </c>
+      <c r="F401">
+        <v>4.3698262999999997</v>
       </c>
     </row>
   </sheetData>
@@ -19244,7 +19332,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20259,8 +20347,8 @@
       <c r="A92" s="1">
         <v>45335</v>
       </c>
-      <c r="B92" t="s">
-        <v>56</v>
+      <c r="B92">
+        <v>4.3221699999999998</v>
       </c>
       <c r="C92">
         <v>4.356179</v>
@@ -20270,8 +20358,8 @@
       <c r="A93" s="1">
         <v>45336</v>
       </c>
-      <c r="B93" t="s">
-        <v>56</v>
+      <c r="B93">
+        <v>4.3365200000000002</v>
       </c>
       <c r="C93">
         <v>4.3519936000000001</v>
@@ -20295,11 +20383,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20325,7 +20413,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.5363079634685994</v>
+        <v>3.7232641053427233</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21061,11 +21149,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D70" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D72" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E70" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E72" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21643,11 +21731,52 @@
       </c>
     </row>
     <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B71" s="58">
+        <v>77.870002999999997</v>
+      </c>
       <c r="C71">
-        <v>67.505200000000002</v>
+        <v>67.919700000000006</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="29"/>
+        <v>9.950302999999991</v>
+      </c>
+      <c r="E71" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14650098572284609</v>
       </c>
       <c r="F71">
         <v>67.919700000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B72" s="58">
+        <v>76.639999000000003</v>
+      </c>
+      <c r="C72">
+        <v>66.243799999999993</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="29"/>
+        <v>10.39619900000001</v>
+      </c>
+      <c r="E72" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15693844556018843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73">
+        <v>68.994299999999996</v>
+      </c>
+      <c r="F73">
+        <v>73.223399999999998</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E4815-3601-43FD-B838-16517027B5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CB327C-1AE1-4CF1-9AAA-68F80F0ABBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.2030557082688704E-3</v>
+        <v>4.0509949486794306E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8138,11 +8138,11 @@
         <v>4.0350130000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123:D126" si="38">B123-C123</f>
+        <f t="shared" ref="D123:D127" si="38">B123-C123</f>
         <v>-2.4112999999999829E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123:E126" si="39">IF(D123&lt;0,1,0)</f>
+        <f t="shared" ref="E123:E127" si="39">IF(D123&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8210,11 +8210,33 @@
       </c>
     </row>
     <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B127">
+        <v>4.0427239999999998</v>
+      </c>
       <c r="C127">
         <v>4.0576806000000003</v>
       </c>
+      <c r="D127">
+        <f t="shared" si="38"/>
+        <v>-1.4956600000000542E-2</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
       <c r="F127">
         <v>4.0643845000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="C128">
+        <v>4.0545900000000001</v>
+      </c>
+      <c r="F128">
+        <v>4.0659380000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9363,11 +9385,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:I402"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A399" sqref="A399:B400"/>
+      <selection pane="bottomLeft" activeCell="F403" sqref="F403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9397,7 +9419,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4148962449125601E-2</v>
+        <v>-1.4157178293002786E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17070,11 +17092,11 @@
         <v>4.3390446000000003</v>
       </c>
       <c r="D399">
-        <f t="shared" ref="D399:D400" si="95">B399-C399</f>
+        <f t="shared" ref="D399:D401" si="95">B399-C399</f>
         <v>-1.6874600000000406E-2</v>
       </c>
       <c r="E399">
-        <f t="shared" ref="E399:E400" si="96">IF(D399&lt;0,1,0)</f>
+        <f t="shared" ref="E399:E401" si="96">IF(D399&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F399">
@@ -17103,12 +17125,34 @@
         <v>4.3609805000000001</v>
       </c>
     </row>
-    <row r="401" spans="3:6">
+    <row r="401" spans="1:6">
+      <c r="A401" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B401">
+        <v>4.3385300000000004</v>
+      </c>
       <c r="C401">
-        <v>4.4045629999999996</v>
+        <v>4.3698262999999997</v>
+      </c>
+      <c r="D401">
+        <f>C402-C401</f>
+        <v>-1.743529999999982E-2</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="96"/>
+        <v>1</v>
       </c>
       <c r="F401">
         <v>4.3698262999999997</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="C402">
+        <v>4.3523909999999999</v>
+      </c>
+      <c r="F402">
+        <v>4.3590627</v>
       </c>
     </row>
   </sheetData>
@@ -19328,11 +19372,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20369,11 +20413,66 @@
       <c r="A94" s="1">
         <v>45337</v>
       </c>
-      <c r="B94" t="s">
-        <v>56</v>
+      <c r="B94">
+        <v>4.3385300000000004</v>
       </c>
       <c r="C94">
         <v>4.3406463000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95">
+        <v>4.3211874999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96">
+        <v>4.3091654999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97">
+        <v>4.2970160000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B98" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98">
+        <v>4.2957830000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99">
+        <v>4.2895380000000003</v>
       </c>
     </row>
   </sheetData>
@@ -20383,11 +20482,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20413,7 +20512,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.7232641053427233</v>
+        <v>3.7383104233240747</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21149,11 +21248,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D72" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D73" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E72" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E73" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21772,11 +21871,30 @@
       </c>
     </row>
     <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B73" s="58">
+        <v>78.029999000000004</v>
+      </c>
       <c r="C73">
-        <v>68.994299999999996</v>
+        <v>73.223399999999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="29"/>
+        <v>4.8065990000000056</v>
+      </c>
+      <c r="E73" s="56">
+        <f t="shared" si="30"/>
+        <v>6.5642936547606445E-2</v>
       </c>
       <c r="F73">
         <v>73.223399999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="C74">
+        <v>70.859099999999998</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CB327C-1AE1-4CF1-9AAA-68F80F0ABBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6BDFF-84F1-4858-BD1C-20AF7E93ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.0509949486794306E-3</v>
+        <v>3.2635958088563129E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8138,11 +8138,11 @@
         <v>4.0350130000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123:D127" si="38">B123-C123</f>
+        <f t="shared" ref="D123:D129" si="38">B123-C123</f>
         <v>-2.4112999999999829E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123:E127" si="39">IF(D123&lt;0,1,0)</f>
+        <f t="shared" ref="E123:E129" si="39">IF(D123&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8232,11 +8232,44 @@
       </c>
     </row>
     <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B128">
+        <v>4.0286629999999999</v>
+      </c>
       <c r="C128">
         <v>4.0545900000000001</v>
       </c>
+      <c r="D128">
+        <f t="shared" si="38"/>
+        <v>-2.5927000000000255E-2</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
       <c r="F128">
         <v>4.0659380000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B129">
+        <v>3.9857673999999998</v>
+      </c>
+      <c r="C129">
+        <v>4.0525254999999998</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="38"/>
+        <v>-6.6758099999999931E-2</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="39"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9385,11 +9418,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I402"/>
+  <dimension ref="A1:I404"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F403" sqref="F403"/>
+      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9419,7 +9452,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4157178293002786E-2</v>
+        <v>-1.4209374420898294E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17092,7 +17125,7 @@
         <v>4.3390446000000003</v>
       </c>
       <c r="D399">
-        <f t="shared" ref="D399:D401" si="95">B399-C399</f>
+        <f t="shared" ref="D399:D400" si="95">B399-C399</f>
         <v>-1.6874600000000406E-2</v>
       </c>
       <c r="E399">
@@ -17148,11 +17181,49 @@
       </c>
     </row>
     <row r="402" spans="1:6">
+      <c r="A402" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B402">
+        <v>4.3402000000000003</v>
+      </c>
       <c r="C402">
         <v>4.3523909999999999</v>
       </c>
+      <c r="D402">
+        <f>B402-C402</f>
+        <v>-1.2190999999999619E-2</v>
+      </c>
+      <c r="E402">
+        <f t="shared" ref="E402:E403" si="97">IF(D402&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="F402">
         <v>4.3590627</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B403">
+        <v>4.3365299999999998</v>
+      </c>
+      <c r="C403">
+        <v>4.3736362</v>
+      </c>
+      <c r="D403">
+        <f>B403-C403</f>
+        <v>-3.71062000000002E-2</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="C404">
+        <v>4.3487340000000003</v>
       </c>
     </row>
   </sheetData>
@@ -19374,9 +19445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20424,8 +20495,8 @@
       <c r="A95" s="1">
         <v>45338</v>
       </c>
-      <c r="B95" t="s">
-        <v>56</v>
+      <c r="B95">
+        <v>4.3402000000000003</v>
       </c>
       <c r="C95">
         <v>4.3211874999999997</v>
@@ -20482,11 +20553,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20512,7 +20583,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.7383104233240747</v>
+        <v>3.895965587558559</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21248,11 +21319,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D73" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D75" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E73" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E75" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -21893,8 +21964,46 @@
       </c>
     </row>
     <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B74" s="58">
+        <v>79.190002000000007</v>
+      </c>
       <c r="C74">
         <v>70.859099999999998</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="29"/>
+        <v>8.3309020000000089</v>
+      </c>
+      <c r="E74" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11756996631343059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B75" s="58">
+        <v>79.290001000000004</v>
+      </c>
+      <c r="C75">
+        <v>68.477800000000002</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="29"/>
+        <v>10.812201000000002</v>
+      </c>
+      <c r="E75" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15789352169608253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="C76">
+        <v>68.0334</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6BDFF-84F1-4858-BD1C-20AF7E93ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFD649-12A3-4FB6-A5CA-EB0E40A7A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.2635958088563129E-3</v>
+        <v>3.4178707139970099E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8138,11 +8138,11 @@
         <v>4.0350130000000002</v>
       </c>
       <c r="D123">
-        <f t="shared" ref="D123:D129" si="38">B123-C123</f>
+        <f t="shared" ref="D123:D131" si="38">B123-C123</f>
         <v>-2.4112999999999829E-2</v>
       </c>
       <c r="E123">
-        <f t="shared" ref="E123:E129" si="39">IF(D123&lt;0,1,0)</f>
+        <f t="shared" ref="E123:E131" si="39">IF(D123&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -8258,18 +8258,80 @@
         <v>45341</v>
       </c>
       <c r="B129">
-        <v>3.9857673999999998</v>
+        <v>4.021039</v>
       </c>
       <c r="C129">
         <v>4.0525254999999998</v>
       </c>
       <c r="D129">
         <f t="shared" si="38"/>
-        <v>-6.6758099999999931E-2</v>
+        <v>-3.1486499999999751E-2</v>
       </c>
       <c r="E129">
         <f t="shared" si="39"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B130">
+        <v>4.0136430000000001</v>
+      </c>
+      <c r="C130">
+        <v>4.027825</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="38"/>
+        <v>-1.4181999999999917E-2</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B131">
+        <v>3.9898500000000001</v>
+      </c>
+      <c r="C131">
+        <v>4.0217590000000003</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="38"/>
+        <v>-3.1909000000000187E-2</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B132">
+        <v>3.9882620000000002</v>
+      </c>
+      <c r="C132">
+        <v>3.9474418</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ref="D132" si="40">B132-C132</f>
+        <v>4.0820200000000195E-2</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132" si="41">IF(D132&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="C133">
+        <v>4.0039740000000004</v>
       </c>
     </row>
   </sheetData>
@@ -9418,11 +9480,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I407"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D406" sqref="D406"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9452,7 +9514,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4209374420898294E-2</v>
+        <v>-1.4252374116545962E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17195,7 +17257,7 @@
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E403" si="97">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E406" si="97">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17222,8 +17284,65 @@
       </c>
     </row>
     <row r="404" spans="1:6">
+      <c r="A404" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B404">
+        <v>4.3247</v>
+      </c>
       <c r="C404">
         <v>4.3487340000000003</v>
+      </c>
+      <c r="D404">
+        <f>B404-C404</f>
+        <v>-2.4034000000000333E-2</v>
+      </c>
+      <c r="E404">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B405">
+        <v>4.3125299999999998</v>
+      </c>
+      <c r="C405">
+        <v>4.3379659999999998</v>
+      </c>
+      <c r="D405">
+        <f>B405-C405</f>
+        <v>-2.5436000000000014E-2</v>
+      </c>
+      <c r="E405">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B406">
+        <v>4.3152999999999997</v>
+      </c>
+      <c r="C406">
+        <v>4.3258729999999996</v>
+      </c>
+      <c r="D406">
+        <f>B406-C406</f>
+        <v>-1.0572999999999944E-2</v>
+      </c>
+      <c r="E406">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="C407">
+        <v>4.3224660000000004</v>
       </c>
     </row>
   </sheetData>
@@ -19443,11 +19562,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:B95"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20506,8 +20625,8 @@
       <c r="A96" s="1">
         <v>45341</v>
       </c>
-      <c r="B96" t="s">
-        <v>56</v>
+      <c r="B96">
+        <v>4.3365299999999998</v>
       </c>
       <c r="C96">
         <v>4.3091654999999998</v>
@@ -20517,8 +20636,8 @@
       <c r="A97" s="1">
         <v>45342</v>
       </c>
-      <c r="B97" t="s">
-        <v>56</v>
+      <c r="B97">
+        <v>4.3247</v>
       </c>
       <c r="C97">
         <v>4.2970160000000002</v>
@@ -20528,8 +20647,8 @@
       <c r="A98" s="1">
         <v>45343</v>
       </c>
-      <c r="B98" t="s">
-        <v>56</v>
+      <c r="B98">
+        <v>4.3125299999999998</v>
       </c>
       <c r="C98">
         <v>4.2957830000000001</v>
@@ -20539,11 +20658,66 @@
       <c r="A99" s="1">
         <v>45344</v>
       </c>
-      <c r="B99" t="s">
-        <v>56</v>
+      <c r="B99">
+        <v>4.3152999999999997</v>
       </c>
       <c r="C99">
         <v>4.2895380000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100">
+        <v>4.3074820000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101">
+        <v>4.3080907000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102">
+        <v>4.3042490000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103">
+        <v>4.3033146999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B104" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104">
+        <v>4.3039784000000001</v>
       </c>
     </row>
   </sheetData>
@@ -20553,11 +20727,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20583,7 +20757,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>3.895965587558559</v>
+        <v>4.1374383828484858</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21319,11 +21493,11 @@
         <v>71.055977272727276</v>
       </c>
       <c r="D40">
-        <f t="shared" ref="D40:D75" si="29">B40-C40</f>
+        <f t="shared" ref="D40:D78" si="29">B40-C40</f>
         <v>0.59402472727272482</v>
       </c>
       <c r="E40" s="56">
-        <f t="shared" ref="E40:E75" si="30">D40/C40</f>
+        <f t="shared" ref="E40:E78" si="30">D40/C40</f>
         <v>8.3599543637650243E-3</v>
       </c>
     </row>
@@ -22002,8 +22176,65 @@
       </c>
     </row>
     <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B76" s="58">
+        <v>78.269997000000004</v>
+      </c>
       <c r="C76">
         <v>68.0334</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="29"/>
+        <v>10.236597000000003</v>
+      </c>
+      <c r="E76" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15046428665919978</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B77" s="58">
+        <v>77.910004000000001</v>
+      </c>
+      <c r="C77">
+        <v>67.810500000000005</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="29"/>
+        <v>10.099503999999996</v>
+      </c>
+      <c r="E77" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14893717049719432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B78" s="58">
+        <v>78.610000999999997</v>
+      </c>
+      <c r="C78">
+        <v>68.6648</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="29"/>
+        <v>9.9452009999999973</v>
+      </c>
+      <c r="E78" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14483696158730525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79">
+        <v>69.136099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BFD649-12A3-4FB6-A5CA-EB0E40A7A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6C1E1-935E-449B-A7ED-B96D3805F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.4178707139970099E-3</v>
+        <v>3.3179322994970313E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8321,17 +8321,36 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D133" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E133" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B133">
+        <v>3.9942000000000002</v>
+      </c>
       <c r="C133">
         <v>4.0039740000000004</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="40"/>
+        <v>-9.7740000000001714E-3</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="C134">
+        <v>3.9906073000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9480,11 +9499,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D406" sqref="D406"/>
+      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A407" sqref="A407:B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9514,7 +9533,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4252374116545962E-2</v>
+        <v>-1.4219796840396835E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17253,11 +17272,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f>B402-C402</f>
+        <f t="shared" ref="D402:D407" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E406" si="97">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E407" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17275,11 +17294,11 @@
         <v>4.3736362</v>
       </c>
       <c r="D403">
-        <f>B403-C403</f>
+        <f t="shared" si="97"/>
         <v>-3.71062000000002E-2</v>
       </c>
       <c r="E403">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
@@ -17294,11 +17313,11 @@
         <v>4.3487340000000003</v>
       </c>
       <c r="D404">
-        <f>B404-C404</f>
+        <f t="shared" si="97"/>
         <v>-2.4034000000000333E-2</v>
       </c>
       <c r="E404">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
@@ -17313,11 +17332,11 @@
         <v>4.3379659999999998</v>
       </c>
       <c r="D405">
-        <f>B405-C405</f>
+        <f t="shared" si="97"/>
         <v>-2.5436000000000014E-2</v>
       </c>
       <c r="E405">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
@@ -17332,17 +17351,36 @@
         <v>4.3258729999999996</v>
       </c>
       <c r="D406">
-        <f>B406-C406</f>
+        <f t="shared" si="97"/>
         <v>-1.0572999999999944E-2</v>
       </c>
       <c r="E406">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6">
+      <c r="A407" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B407">
+        <v>4.3214399999999999</v>
+      </c>
       <c r="C407">
         <v>4.3224660000000004</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="97"/>
+        <v>-1.0260000000004155E-3</v>
+      </c>
+      <c r="E407">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="C408">
+        <v>4.3717420000000002</v>
       </c>
     </row>
   </sheetData>
@@ -19566,7 +19604,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20669,8 +20707,8 @@
       <c r="A100" s="1">
         <v>45345</v>
       </c>
-      <c r="B100" t="s">
-        <v>56</v>
+      <c r="B100">
+        <v>4.3214399999999999</v>
       </c>
       <c r="C100">
         <v>4.3074820000000003</v>
@@ -20727,11 +20765,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20757,7 +20795,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.1374383828484858</v>
+        <v>4.1786750446068384</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22233,8 +22271,27 @@
       </c>
     </row>
     <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B79">
+        <v>76.489998</v>
+      </c>
       <c r="C79">
         <v>69.136099999999999</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79" si="31">B79-C79</f>
+        <v>7.3538980000000009</v>
+      </c>
+      <c r="E79" s="56">
+        <f t="shared" ref="E79" si="32">D79/C79</f>
+        <v>0.10636842402160378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="C80">
+        <v>64.8416</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF6C1E1-935E-449B-A7ED-B96D3805F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156F167E-0F22-4A54-8759-D15A866B4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.3179322994970313E-3</v>
+        <v>3.2245095002526917E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8321,11 +8321,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D133" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D134" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E133" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E134" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8349,8 +8349,27 @@
       </c>
     </row>
     <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B134">
+        <v>3.9815</v>
+      </c>
       <c r="C134">
         <v>3.9906073000000002</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="40"/>
+        <v>-9.1073000000001514E-3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="C135">
+        <v>3.9613999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9499,11 +9518,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A407" sqref="A407:B407"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408:B408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9533,7 +9552,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4219796840396835E-2</v>
+        <v>-1.4349237143000281E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17272,11 +17291,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D407" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D408" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E407" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E408" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17379,8 +17398,27 @@
       </c>
     </row>
     <row r="408" spans="1:6">
+      <c r="A408" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B408">
+        <v>4.3048400000000004</v>
+      </c>
       <c r="C408">
         <v>4.3717420000000002</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="97"/>
+        <v>-6.6901999999999795E-2</v>
+      </c>
+      <c r="E408">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="C409">
+        <v>4.3468989999999996</v>
       </c>
     </row>
   </sheetData>
@@ -19604,7 +19642,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20718,8 +20756,8 @@
       <c r="A101" s="1">
         <v>45348</v>
       </c>
-      <c r="B101" t="s">
-        <v>56</v>
+      <c r="B101">
+        <v>4.3048400000000004</v>
       </c>
       <c r="C101">
         <v>4.3080907000000002</v>
@@ -20765,7 +20803,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
@@ -20795,7 +20833,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.1786750446068384</v>
+        <v>4.2870260187257392</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22281,17 +22319,36 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D80" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E80" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
     <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B80" s="58">
+        <v>77.580001999999993</v>
+      </c>
       <c r="C80">
         <v>64.8416</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="31"/>
+        <v>12.738401999999994</v>
+      </c>
+      <c r="E80" s="56">
+        <f t="shared" si="32"/>
+        <v>0.19645415905838218</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81">
+        <v>69.340500000000006</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156F167E-0F22-4A54-8759-D15A866B4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF07E0-33BE-4446-9E09-482BE76597C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -5720,11 +5720,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.2245095002526917E-3</v>
+        <v>3.4489389891378375E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>59</v>
@@ -8321,11 +8321,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D134" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D136" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E134" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E136" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8368,8 +8368,46 @@
       </c>
     </row>
     <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B135">
+        <v>3.9707659999999998</v>
+      </c>
       <c r="C135">
         <v>3.9613999999999998</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="40"/>
+        <v>9.3659999999999854E-3</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B136">
+        <v>3.970116</v>
+      </c>
+      <c r="C136">
+        <v>3.9427349999999999</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="40"/>
+        <v>2.73810000000001E-2</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="C137">
+        <v>3.9356841999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9518,11 +9556,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A408" sqref="A408:B408"/>
+      <selection pane="bottomLeft" activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9552,7 +9590,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4349237143000281E-2</v>
+        <v>-1.4332693196090743E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17291,11 +17329,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D408" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D410" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E408" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E410" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17417,8 +17455,46 @@
       </c>
     </row>
     <row r="409" spans="1:6">
+      <c r="A409" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B409">
+        <v>4.3086700000000002</v>
+      </c>
       <c r="C409">
         <v>4.3468989999999996</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="97"/>
+        <v>-3.8228999999999402E-2</v>
+      </c>
+      <c r="E409">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B410">
+        <v>4.3043399999999998</v>
+      </c>
+      <c r="C410">
+        <v>4.288043</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="97"/>
+        <v>1.6296999999999784E-2</v>
+      </c>
+      <c r="E410">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="C411">
+        <v>4.2879987000000002</v>
       </c>
     </row>
   </sheetData>
@@ -19640,9 +19716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20767,8 +20843,8 @@
       <c r="A102" s="1">
         <v>45349</v>
       </c>
-      <c r="B102" t="s">
-        <v>56</v>
+      <c r="B102">
+        <v>4.3086700000000002</v>
       </c>
       <c r="C102">
         <v>4.3042490000000004</v>
@@ -20803,11 +20879,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20833,7 +20909,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.2870260187257392</v>
+        <v>4.3820550553004125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22319,11 +22395,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D80" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D82" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E80" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E82" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22346,9 +22422,47 @@
         <v>0.19645415905838218</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B81" s="58">
+        <v>78.870002999999997</v>
+      </c>
       <c r="C81">
         <v>69.340500000000006</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="31"/>
+        <v>9.5295029999999912</v>
+      </c>
+      <c r="E81" s="56">
+        <f t="shared" si="32"/>
+        <v>0.13743054924611145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B82" s="58">
+        <v>78.540001000000004</v>
+      </c>
+      <c r="C82">
+        <v>71.798100000000005</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="31"/>
+        <v>6.7419009999999986</v>
+      </c>
+      <c r="E82" s="56">
+        <f t="shared" si="32"/>
+        <v>9.390082745922243E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="C83">
+        <v>70.0321</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CF07E0-33BE-4446-9E09-482BE76597C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067333A9-9F26-413B-A20B-03A5693234AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Day + 5 Prediction</t>
   </si>
   <si>
-    <t>Nan</t>
-  </si>
-  <si>
     <t>4.4474134, 4.460405 , 4.474821 , 4.481926 , 4.483149</t>
   </si>
   <si>
@@ -239,15 +236,19 @@
   <si>
     <t>Day + 1 Pred. WT</t>
   </si>
+  <si>
+    <t>Nan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -564,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +654,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5720,7 +5728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
@@ -5754,10 +5762,10 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.4489389891378375E-3</v>
+        <v>3.7634526730412378E-3</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>2</v>
@@ -8321,11 +8329,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D136" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D137" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E136" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E137" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8406,8 +8414,27 @@
       </c>
     </row>
     <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B137">
+        <v>3.9819070000000001</v>
+      </c>
       <c r="C137">
         <v>3.9356841999999999</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="40"/>
+        <v>4.622280000000023E-2</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="C138">
+        <v>3.9804447000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9556,11 +9583,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B411" sqref="B411"/>
+      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9590,7 +9617,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4332693196090743E-2</v>
+        <v>-1.4230805407807596E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17329,11 +17356,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D410" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D411" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E410" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E411" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17493,8 +17520,27 @@
       </c>
     </row>
     <row r="411" spans="1:6">
+      <c r="A411" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B411">
+        <v>4.3154399999999997</v>
+      </c>
       <c r="C411">
         <v>4.2879987000000002</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="97"/>
+        <v>2.7441299999999558E-2</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="C412">
+        <v>4.3197109999999999</v>
       </c>
     </row>
   </sheetData>
@@ -19697,12 +19743,12 @@
     </row>
     <row r="152" spans="4:7">
       <c r="G152" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="4:7">
       <c r="G158" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -19714,1162 +19760,1009 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="61"/>
+    <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>45205</v>
-      </c>
-      <c r="B2">
-        <v>4.60107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>45243</v>
+      </c>
+      <c r="B2" s="61">
+        <v>4.4203900000000003</v>
+      </c>
+      <c r="C2" s="61">
+        <v>4.4397197000000004</v>
+      </c>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>45208</v>
-      </c>
-      <c r="B3">
-        <v>4.577</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>45244</v>
+      </c>
+      <c r="B3" s="61">
+        <v>4.4245599999999996</v>
+      </c>
+      <c r="C3" s="61">
+        <v>4.4373930000000001</v>
+      </c>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>45209</v>
-      </c>
-      <c r="B4">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>45245</v>
+      </c>
+      <c r="B4" s="61">
+        <v>4.452108</v>
+      </c>
+      <c r="C4" s="61">
+        <v>4.4453683000000002</v>
+      </c>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>45210</v>
-      </c>
-      <c r="B5">
-        <v>4.5348899999999999</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>45246</v>
+      </c>
+      <c r="B5" s="61">
+        <v>4.3864000000000001</v>
+      </c>
+      <c r="C5" s="61">
+        <v>4.4587025999999996</v>
+      </c>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>45211</v>
-      </c>
-      <c r="B6">
-        <v>4.5254300000000001</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>45247</v>
+      </c>
+      <c r="B6" s="61">
+        <v>4.3706399999999999</v>
+      </c>
+      <c r="C6" s="61">
+        <v>4.4589353000000003</v>
+      </c>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>45212</v>
-      </c>
-      <c r="B7">
-        <v>4.5385400000000002</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>45250</v>
+      </c>
+      <c r="B7" s="61">
+        <v>4.3820399999999999</v>
+      </c>
+      <c r="C7" s="61">
+        <v>4.4474134000000003</v>
+      </c>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>45215</v>
-      </c>
-      <c r="B8">
-        <v>4.4558</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>45251</v>
+      </c>
+      <c r="B8" s="61">
+        <v>4.3441000000000001</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.4604049999999997</v>
+      </c>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>45216</v>
-      </c>
-      <c r="B9">
-        <v>4.4485299999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>45252</v>
+      </c>
+      <c r="B9" s="61">
+        <v>4.3708999999999998</v>
+      </c>
+      <c r="C9" s="61">
+        <v>4.4748210000000004</v>
+      </c>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>45217</v>
-      </c>
-      <c r="B10">
-        <v>4.4165000000000001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>45253</v>
+      </c>
+      <c r="B10" s="61">
+        <v>4.3617999999999997</v>
+      </c>
+      <c r="C10" s="61">
+        <v>4.4819259999999996</v>
+      </c>
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>45218</v>
-      </c>
-      <c r="B11">
-        <v>4.4490999999999996</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>45254</v>
+      </c>
+      <c r="B11" s="61">
+        <v>4.3632</v>
+      </c>
+      <c r="C11" s="61">
+        <v>4.4831490000000001</v>
+      </c>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>45219</v>
-      </c>
-      <c r="B12">
-        <v>4.4508099999999997</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>45257</v>
+      </c>
+      <c r="B12" s="61">
+        <v>4.3606699999999998</v>
+      </c>
+      <c r="C12" s="61">
+        <v>4.4254579999999999</v>
+      </c>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>45222</v>
-      </c>
-      <c r="B13">
-        <v>4.4561500000000001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>45258</v>
+      </c>
+      <c r="B13" s="61">
+        <v>4.3439300000000003</v>
+      </c>
+      <c r="C13" s="61">
+        <v>4.4274306000000001</v>
+      </c>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>45223</v>
-      </c>
-      <c r="B14">
-        <v>4.4586300000000003</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>45259</v>
+      </c>
+      <c r="B14" s="61">
+        <v>4.3176399999999999</v>
+      </c>
+      <c r="C14" s="61">
+        <v>4.4089894000000003</v>
+      </c>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
-        <v>45224</v>
-      </c>
-      <c r="B15">
-        <v>4.4623400000000002</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>45260</v>
+      </c>
+      <c r="B15" s="61">
+        <v>4.3388200000000001</v>
+      </c>
+      <c r="C15" s="61">
+        <v>4.3910555999999996</v>
+      </c>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
-        <v>45225</v>
-      </c>
-      <c r="B16">
-        <v>4.5049434000000002</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>45261</v>
+      </c>
+      <c r="B16" s="61">
+        <v>4.3503699999999998</v>
+      </c>
+      <c r="C16" s="61">
+        <v>4.3848934000000002</v>
+      </c>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
-        <v>45226</v>
-      </c>
-      <c r="B17">
-        <v>4.4497799999999996</v>
-      </c>
-      <c r="C17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>45264</v>
+      </c>
+      <c r="B17" s="61">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C17" s="61">
+        <v>4.3906660000000004</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
-        <v>45229</v>
-      </c>
-      <c r="B18">
-        <v>4.46157</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>45265</v>
+      </c>
+      <c r="B18" s="61">
+        <v>4.32761</v>
+      </c>
+      <c r="C18" s="61">
+        <v>4.4073023999999998</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
-        <v>45230</v>
-      </c>
-      <c r="B19">
-        <v>4.4615099999999996</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>45266</v>
+      </c>
+      <c r="B19" s="61">
+        <v>4.3194900000000001</v>
+      </c>
+      <c r="C19" s="61">
+        <v>4.4268093000000004</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B20">
-        <v>4.4443000000000001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>45267</v>
+      </c>
+      <c r="B20" s="61">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C20" s="61">
+        <v>4.4315147000000001</v>
+      </c>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>45232</v>
-      </c>
-      <c r="B21">
-        <v>4.4523000000000001</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>45268</v>
+      </c>
+      <c r="B21" s="61">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C21" s="61">
+        <v>4.4290289999999999</v>
+      </c>
+      <c r="D21" s="61"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>45233</v>
-      </c>
-      <c r="B22">
-        <v>4.4676200000000001</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>45271</v>
+      </c>
+      <c r="B22" s="61">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C22" s="61">
+        <v>4.3779199999999996</v>
+      </c>
+      <c r="D22" s="61"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>45236</v>
-      </c>
-      <c r="B23">
-        <v>4.4462700000000002</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>45272</v>
+      </c>
+      <c r="B23" s="61">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="C23" s="61">
+        <v>4.3646349999999998</v>
+      </c>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>45237</v>
-      </c>
-      <c r="B24">
-        <v>4.4508999999999999</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>45273</v>
+      </c>
+      <c r="B24" s="61">
+        <v>4.3245800000000001</v>
+      </c>
+      <c r="C24" s="61">
+        <v>4.3486159999999998</v>
+      </c>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>45238</v>
-      </c>
-      <c r="B25">
-        <v>4.4533500000000004</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>45274</v>
+      </c>
+      <c r="B25" s="61">
+        <v>4.2960099999999999</v>
+      </c>
+      <c r="C25" s="61">
+        <v>4.3421702</v>
+      </c>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>45239</v>
-      </c>
-      <c r="B26">
-        <v>4.4374000000000002</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>45275</v>
+      </c>
+      <c r="B26" s="61">
+        <v>4.3048000000000002</v>
+      </c>
+      <c r="C26" s="61">
+        <v>4.3236184</v>
+      </c>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>45240</v>
-      </c>
-      <c r="B27">
-        <v>4.42964</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>45278</v>
+      </c>
+      <c r="B27" s="61">
+        <v>4.3315799999999998</v>
+      </c>
+      <c r="C27" s="61">
+        <v>4.3164369999999996</v>
+      </c>
+      <c r="D27" s="61"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>45243</v>
-      </c>
-      <c r="B28">
-        <v>4.4203900000000003</v>
-      </c>
-      <c r="C28">
-        <v>4.4397197000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>45279</v>
+      </c>
+      <c r="B28" s="61">
+        <v>4.3197999999999999</v>
+      </c>
+      <c r="C28" s="61">
+        <v>4.2986716999999999</v>
+      </c>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>45244</v>
-      </c>
-      <c r="B29">
-        <v>4.4245599999999996</v>
-      </c>
-      <c r="C29">
-        <v>4.4373930000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>45280</v>
+      </c>
+      <c r="B29" s="61">
+        <v>4.32315</v>
+      </c>
+      <c r="C29" s="61">
+        <v>4.2743950000000002</v>
+      </c>
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B30">
-        <v>4.452108</v>
-      </c>
-      <c r="C30">
-        <v>4.4453683000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>45281</v>
+      </c>
+      <c r="B30" s="61">
+        <v>4.34213</v>
+      </c>
+      <c r="C30" s="61">
+        <v>4.2607400000000002</v>
+      </c>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B31">
-        <v>4.3864000000000001</v>
-      </c>
-      <c r="C31">
-        <v>4.4587025999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>45282</v>
+      </c>
+      <c r="B31" s="61">
+        <v>4.3228</v>
+      </c>
+      <c r="C31" s="61">
+        <v>4.2532515999999996</v>
+      </c>
+      <c r="D31" s="61"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B32">
-        <v>4.3706399999999999</v>
-      </c>
-      <c r="C32">
-        <v>4.4589353000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>45286</v>
+      </c>
+      <c r="B32" s="61">
+        <v>4.3332100000000002</v>
+      </c>
+      <c r="C32" s="61">
+        <v>4.2502255</v>
+      </c>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B33">
-        <v>4.3820399999999999</v>
-      </c>
-      <c r="C33">
-        <v>4.4474134000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>45287</v>
+      </c>
+      <c r="B33" s="61">
+        <v>4.3247400000000003</v>
+      </c>
+      <c r="C33" s="61">
+        <v>4.2410870000000003</v>
+      </c>
+      <c r="D33" s="61"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B34">
-        <v>4.3441000000000001</v>
-      </c>
-      <c r="C34">
-        <v>4.4604049999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>45288</v>
+      </c>
+      <c r="B34" s="61">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C34" s="61">
+        <v>4.2615129999999999</v>
+      </c>
+      <c r="D34" s="61"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B35">
-        <v>4.3708999999999998</v>
-      </c>
-      <c r="C35">
-        <v>4.4748210000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>45289</v>
+      </c>
+      <c r="B35" s="61">
+        <v>4.3335499999999998</v>
+      </c>
+      <c r="C35" s="61">
+        <v>4.2706203</v>
+      </c>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B36">
-        <v>4.3617999999999997</v>
-      </c>
-      <c r="C36">
-        <v>4.4819259999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>45293</v>
+      </c>
+      <c r="B36" s="61">
+        <v>4.33988</v>
+      </c>
+      <c r="C36" s="61">
+        <v>4.2816386</v>
+      </c>
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B37">
-        <v>4.3632</v>
-      </c>
-      <c r="C37">
-        <v>4.4831490000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>45294</v>
+      </c>
+      <c r="B37" s="61">
+        <v>4.3661899999999996</v>
+      </c>
+      <c r="C37" s="61">
+        <v>4.2987776000000002</v>
+      </c>
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B38">
-        <v>4.3606699999999998</v>
-      </c>
-      <c r="C38">
-        <v>4.4254579999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>45295</v>
+      </c>
+      <c r="B38" s="61">
+        <v>4.3486000000000002</v>
+      </c>
+      <c r="C38" s="61">
+        <v>4.3172812</v>
+      </c>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B39">
-        <v>4.3439300000000003</v>
-      </c>
-      <c r="C39">
-        <v>4.4274306000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>45296</v>
+      </c>
+      <c r="B39" s="61">
+        <v>4.3437999999999999</v>
+      </c>
+      <c r="C39" s="61">
+        <v>4.3904269999999999</v>
+      </c>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B40">
-        <v>4.3176399999999999</v>
-      </c>
-      <c r="C40">
-        <v>4.4089894000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>45299</v>
+      </c>
+      <c r="B40" s="61">
+        <v>4.3431499999999996</v>
+      </c>
+      <c r="C40" s="61">
+        <v>4.4120216000000001</v>
+      </c>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B41">
-        <v>4.3388200000000001</v>
-      </c>
-      <c r="C41">
-        <v>4.3910555999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>45300</v>
+      </c>
+      <c r="B41" s="61">
+        <v>4.3311999999999999</v>
+      </c>
+      <c r="C41" s="61">
+        <v>4.426336</v>
+      </c>
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B42">
-        <v>4.3503699999999998</v>
-      </c>
-      <c r="C42">
-        <v>4.3848934000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>45301</v>
+      </c>
+      <c r="B42" s="61">
+        <v>4.3430099999999996</v>
+      </c>
+      <c r="C42" s="61">
+        <v>4.4373994000000003</v>
+      </c>
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>45264</v>
-      </c>
-      <c r="B43">
-        <v>4.3256899999999998</v>
-      </c>
-      <c r="C43">
-        <v>4.3906660000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>45302</v>
+      </c>
+      <c r="B43" s="61">
+        <v>4.3323</v>
+      </c>
+      <c r="C43" s="61">
+        <v>4.4435086000000004</v>
+      </c>
+      <c r="D43" s="61"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>45265</v>
-      </c>
-      <c r="B44">
-        <v>4.32761</v>
-      </c>
-      <c r="C44">
-        <v>4.4073023999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>45303</v>
+      </c>
+      <c r="B44" s="61">
+        <v>4.3518499999999998</v>
+      </c>
+      <c r="C44" s="61">
+        <v>4.3750229999999997</v>
+      </c>
+      <c r="D44" s="61"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B45">
-        <v>4.3194900000000001</v>
-      </c>
-      <c r="C45">
-        <v>4.4268093000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>45306</v>
+      </c>
+      <c r="B45" s="61">
+        <v>4.3523199999999997</v>
+      </c>
+      <c r="C45" s="61">
+        <v>4.3817259999999996</v>
+      </c>
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>45267</v>
-      </c>
-      <c r="B46">
-        <v>4.3272300000000001</v>
-      </c>
-      <c r="C46">
-        <v>4.4315147000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>45307</v>
+      </c>
+      <c r="B46" s="61">
+        <v>4.3693900000000001</v>
+      </c>
+      <c r="C46" s="61">
+        <v>4.3715267000000004</v>
+      </c>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>45268</v>
-      </c>
-      <c r="B47">
-        <v>4.3272300000000001</v>
-      </c>
-      <c r="C47">
-        <v>4.4290289999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>45308</v>
+      </c>
+      <c r="B47" s="61">
+        <v>4.3900199999999998</v>
+      </c>
+      <c r="C47" s="61">
+        <v>4.3571977999999998</v>
+      </c>
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>45271</v>
-      </c>
-      <c r="B48">
-        <v>4.3254599999999996</v>
-      </c>
-      <c r="C48">
-        <v>4.3779199999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>45309</v>
+      </c>
+      <c r="B48" s="61">
+        <v>4.3937999999999997</v>
+      </c>
+      <c r="C48" s="61">
+        <v>4.3386009999999997</v>
+      </c>
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
-        <v>45272</v>
-      </c>
-      <c r="B49">
-        <v>4.3333000000000004</v>
-      </c>
-      <c r="C49">
-        <v>4.3646349999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>45310</v>
+      </c>
+      <c r="B49" s="61">
+        <v>4.3827100000000003</v>
+      </c>
+      <c r="C49" s="61">
+        <v>4.3652819999999997</v>
+      </c>
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
-        <v>45273</v>
-      </c>
-      <c r="B50">
-        <v>4.3245800000000001</v>
-      </c>
-      <c r="C50">
-        <v>4.3486159999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>45313</v>
+      </c>
+      <c r="B50" s="61">
+        <v>4.3518499999999998</v>
+      </c>
+      <c r="C50" s="61">
+        <v>4.3526397000000001</v>
+      </c>
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
-        <v>45274</v>
-      </c>
-      <c r="B51">
-        <v>4.2960099999999999</v>
-      </c>
-      <c r="C51">
-        <v>4.3421702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>45314</v>
+      </c>
+      <c r="B51" s="61">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C51" s="61">
+        <v>4.3483890000000001</v>
+      </c>
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
-        <v>45275</v>
-      </c>
-      <c r="B52">
-        <v>4.3048000000000002</v>
-      </c>
-      <c r="C52">
-        <v>4.3236184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>45315</v>
+      </c>
+      <c r="B52" s="61">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C52" s="61">
+        <v>4.3440412999999998</v>
+      </c>
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B53">
-        <v>4.3315799999999998</v>
-      </c>
-      <c r="C53">
-        <v>4.3164369999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>45316</v>
+      </c>
+      <c r="B53" s="61">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C53" s="61">
+        <v>4.3381733999999996</v>
+      </c>
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B54">
-        <v>4.3197999999999999</v>
-      </c>
-      <c r="C54">
-        <v>4.2986716999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>45317</v>
+      </c>
+      <c r="B54" s="61">
+        <v>4.3784700000000001</v>
+      </c>
+      <c r="C54" s="61">
+        <v>4.3316610000000004</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="59"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B55">
-        <v>4.32315</v>
-      </c>
-      <c r="C55">
-        <v>4.2743950000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>45320</v>
+      </c>
+      <c r="B55" s="61">
+        <v>4.3655099999999996</v>
+      </c>
+      <c r="C55" s="61">
+        <v>4.3475390000000003</v>
+      </c>
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
-        <v>45281</v>
-      </c>
-      <c r="B56">
-        <v>4.34213</v>
-      </c>
-      <c r="C56">
-        <v>4.2607400000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>45321</v>
+      </c>
+      <c r="B56" s="61">
+        <v>4.3646399999999996</v>
+      </c>
+      <c r="C56" s="61">
+        <v>4.3583464999999997</v>
+      </c>
+      <c r="D56" s="61"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B57">
-        <v>4.3228</v>
-      </c>
-      <c r="C57">
-        <v>4.2532515999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>45322</v>
+      </c>
+      <c r="B57" s="61">
+        <v>4.3478199999999996</v>
+      </c>
+      <c r="C57" s="61">
+        <v>4.3781330000000001</v>
+      </c>
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
-        <v>45286</v>
-      </c>
-      <c r="B58">
-        <v>4.3332100000000002</v>
-      </c>
-      <c r="C58">
-        <v>4.2502255</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>45323</v>
+      </c>
+      <c r="B58" s="61">
+        <v>4.3259400000000001</v>
+      </c>
+      <c r="C58" s="61">
+        <v>4.3906774999999998</v>
+      </c>
+      <c r="D58" s="61"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
-        <v>45287</v>
-      </c>
-      <c r="B59">
-        <v>4.3247400000000003</v>
-      </c>
-      <c r="C59">
-        <v>4.2410870000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>45324</v>
+      </c>
+      <c r="B59" s="61">
+        <v>4.3143900000000004</v>
+      </c>
+      <c r="C59" s="61">
+        <v>4.3475099999999998</v>
+      </c>
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
-        <v>45288</v>
-      </c>
-      <c r="B60">
-        <v>4.3173000000000004</v>
-      </c>
-      <c r="C60">
-        <v>4.2615129999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>45327</v>
+      </c>
+      <c r="B60" s="61">
+        <v>4.31271</v>
+      </c>
+      <c r="C60" s="61">
+        <v>4.3577886000000001</v>
+      </c>
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B61">
-        <v>4.3335499999999998</v>
-      </c>
-      <c r="C61">
-        <v>4.2706203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>45328</v>
+      </c>
+      <c r="B61" s="61">
+        <v>4.3383500000000002</v>
+      </c>
+      <c r="C61" s="61">
+        <v>4.3528894999999999</v>
+      </c>
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
-        <v>45293</v>
-      </c>
-      <c r="B62">
-        <v>4.33988</v>
-      </c>
-      <c r="C62">
-        <v>4.2816386</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>45329</v>
+      </c>
+      <c r="B62" s="61">
+        <v>4.3449</v>
+      </c>
+      <c r="C62" s="61">
+        <v>4.3510346000000002</v>
+      </c>
+      <c r="D62" s="61"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
-        <v>45294</v>
-      </c>
-      <c r="B63">
-        <v>4.3661899999999996</v>
-      </c>
-      <c r="C63">
-        <v>4.2987776000000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>45330</v>
+      </c>
+      <c r="B63" s="61">
+        <v>4.3412800000000002</v>
+      </c>
+      <c r="C63" s="61">
+        <v>4.3377175000000001</v>
+      </c>
+      <c r="D63" s="61"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
-        <v>45295</v>
-      </c>
-      <c r="B64">
-        <v>4.3486000000000002</v>
-      </c>
-      <c r="C64">
-        <v>4.3172812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>45331</v>
+      </c>
+      <c r="B64" s="61">
+        <v>4.3489820000000003</v>
+      </c>
+      <c r="C64" s="61">
+        <v>4.3596640000000004</v>
+      </c>
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B65">
-        <v>4.3437999999999999</v>
-      </c>
-      <c r="C65">
-        <v>4.3904269999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>45334</v>
+      </c>
+      <c r="B65" s="61">
+        <v>4.3230700000000004</v>
+      </c>
+      <c r="C65" s="61">
+        <v>4.3612045999999998</v>
+      </c>
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>45299</v>
-      </c>
-      <c r="B66">
-        <v>4.3431499999999996</v>
-      </c>
-      <c r="C66">
-        <v>4.4120216000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>45335</v>
+      </c>
+      <c r="B66" s="61">
+        <v>4.3221699999999998</v>
+      </c>
+      <c r="C66" s="61">
+        <v>4.356179</v>
+      </c>
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>45300</v>
-      </c>
-      <c r="B67">
-        <v>4.3311999999999999</v>
-      </c>
-      <c r="C67">
-        <v>4.426336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>45336</v>
+      </c>
+      <c r="B67" s="61">
+        <v>4.3365200000000002</v>
+      </c>
+      <c r="C67" s="61">
+        <v>4.3519936000000001</v>
+      </c>
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B68">
-        <v>4.3430099999999996</v>
-      </c>
-      <c r="C68">
-        <v>4.4373994000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>45337</v>
+      </c>
+      <c r="B68" s="61">
+        <v>4.3385300000000004</v>
+      </c>
+      <c r="C68" s="61">
+        <v>4.3406463000000004</v>
+      </c>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>45302</v>
-      </c>
-      <c r="B69">
-        <v>4.3323</v>
-      </c>
-      <c r="C69">
-        <v>4.4435086000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>45338</v>
+      </c>
+      <c r="B69" s="61">
+        <v>4.3402000000000003</v>
+      </c>
+      <c r="C69" s="61">
+        <v>4.3211874999999997</v>
+      </c>
+      <c r="D69" s="61"/>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B70">
-        <v>4.3518499999999998</v>
-      </c>
-      <c r="C70">
-        <v>4.3750229999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>45341</v>
+      </c>
+      <c r="B70" s="61">
+        <v>4.3365299999999998</v>
+      </c>
+      <c r="C70" s="61">
+        <v>4.3091654999999998</v>
+      </c>
+      <c r="D70" s="61"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>45306</v>
-      </c>
-      <c r="B71">
-        <v>4.3523199999999997</v>
-      </c>
-      <c r="C71">
-        <v>4.3817259999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>45342</v>
+      </c>
+      <c r="B71" s="61">
+        <v>4.3247</v>
+      </c>
+      <c r="C71" s="61">
+        <v>4.2970160000000002</v>
+      </c>
+      <c r="D71" s="61"/>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>45307</v>
-      </c>
-      <c r="B72">
-        <v>4.3693900000000001</v>
-      </c>
-      <c r="C72">
-        <v>4.3715267000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>45343</v>
+      </c>
+      <c r="B72" s="61">
+        <v>4.3125299999999998</v>
+      </c>
+      <c r="C72" s="61">
+        <v>4.2957830000000001</v>
+      </c>
+      <c r="D72" s="61"/>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>45308</v>
-      </c>
-      <c r="B73">
-        <v>4.3900199999999998</v>
-      </c>
-      <c r="C73">
-        <v>4.3571977999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>45344</v>
+      </c>
+      <c r="B73" s="61">
+        <v>4.3152999999999997</v>
+      </c>
+      <c r="C73" s="61">
+        <v>4.2895380000000003</v>
+      </c>
+      <c r="D73" s="61"/>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>45309</v>
-      </c>
-      <c r="B74">
-        <v>4.3937999999999997</v>
-      </c>
-      <c r="C74">
-        <v>4.3386009999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>45345</v>
+      </c>
+      <c r="B74" s="61">
+        <v>4.3214399999999999</v>
+      </c>
+      <c r="C74" s="61">
+        <v>4.3074820000000003</v>
+      </c>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>45310</v>
-      </c>
-      <c r="B75">
-        <v>4.3827100000000003</v>
-      </c>
-      <c r="C75">
-        <v>4.3652819999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>45348</v>
+      </c>
+      <c r="B75" s="61">
+        <v>4.3048400000000004</v>
+      </c>
+      <c r="C75" s="61">
+        <v>4.3080907000000002</v>
+      </c>
+      <c r="D75" s="61"/>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>45313</v>
-      </c>
-      <c r="B76">
-        <v>4.3518499999999998</v>
-      </c>
-      <c r="C76">
-        <v>4.3526397000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>45349</v>
+      </c>
+      <c r="B76" s="61">
+        <v>4.3086700000000002</v>
+      </c>
+      <c r="C76" s="61">
+        <v>4.3042490000000004</v>
+      </c>
+      <c r="D76" s="61"/>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>45314</v>
-      </c>
-      <c r="B77">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C77">
-        <v>4.3483890000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>45350</v>
+      </c>
+      <c r="B77" s="61">
+        <v>4.3043399999999998</v>
+      </c>
+      <c r="C77" s="61">
+        <v>4.3033146999999996</v>
+      </c>
+      <c r="D77" s="61"/>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B78">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C78">
-        <v>4.3440412999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>45351</v>
+      </c>
+      <c r="B78" s="61">
+        <v>4.3154399999999997</v>
+      </c>
+      <c r="C78" s="61">
+        <v>4.3039784000000001</v>
+      </c>
+      <c r="D78" s="61"/>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B79">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C79">
-        <v>4.3381733999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>45352</v>
+      </c>
+      <c r="B79" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="61">
+        <v>4.3296950000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B80">
-        <v>4.3784700000000001</v>
-      </c>
-      <c r="C80">
-        <v>4.3316610000000004</v>
-      </c>
-      <c r="E80" s="59"/>
+        <v>45355</v>
+      </c>
+      <c r="B80" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="61">
+        <v>4.3257294000000002</v>
+      </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B81">
-        <v>4.3655099999999996</v>
-      </c>
-      <c r="C81">
-        <v>4.3475390000000003</v>
+        <v>45356</v>
+      </c>
+      <c r="B81" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="61">
+        <v>4.3233509999999997</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B82">
-        <v>4.3646399999999996</v>
-      </c>
-      <c r="C82">
-        <v>4.3583464999999997</v>
+        <v>45357</v>
+      </c>
+      <c r="B82" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="61">
+        <v>4.3128924</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B83">
-        <v>4.3478199999999996</v>
-      </c>
-      <c r="C83">
-        <v>4.3781330000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B84">
-        <v>4.3259400000000001</v>
-      </c>
-      <c r="C84">
-        <v>4.3906774999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>45324</v>
-      </c>
-      <c r="B85">
-        <v>4.3143900000000004</v>
-      </c>
-      <c r="C85">
-        <v>4.3475099999999998</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B86">
-        <v>4.31271</v>
-      </c>
-      <c r="C86">
-        <v>4.3577886000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B87">
-        <v>4.3383500000000002</v>
-      </c>
-      <c r="C87">
-        <v>4.3528894999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B88">
-        <v>4.3449</v>
-      </c>
-      <c r="C88">
-        <v>4.3510346000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B89">
-        <v>4.3412800000000002</v>
-      </c>
-      <c r="C89">
-        <v>4.3377175000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B90">
-        <v>4.3489820000000003</v>
-      </c>
-      <c r="C90">
-        <v>4.3596640000000004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B91">
-        <v>4.3230700000000004</v>
-      </c>
-      <c r="C91">
-        <v>4.3612045999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B92">
-        <v>4.3221699999999998</v>
-      </c>
-      <c r="C92">
-        <v>4.356179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>45336</v>
-      </c>
-      <c r="B93">
-        <v>4.3365200000000002</v>
-      </c>
-      <c r="C93">
-        <v>4.3519936000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B94">
-        <v>4.3385300000000004</v>
-      </c>
-      <c r="C94">
-        <v>4.3406463000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B95">
-        <v>4.3402000000000003</v>
-      </c>
-      <c r="C95">
-        <v>4.3211874999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B96">
-        <v>4.3365299999999998</v>
-      </c>
-      <c r="C96">
-        <v>4.3091654999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>45342</v>
-      </c>
-      <c r="B97">
-        <v>4.3247</v>
-      </c>
-      <c r="C97">
-        <v>4.2970160000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B98">
-        <v>4.3125299999999998</v>
-      </c>
-      <c r="C98">
-        <v>4.2957830000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>45344</v>
-      </c>
-      <c r="B99">
-        <v>4.3152999999999997</v>
-      </c>
-      <c r="C99">
-        <v>4.2895380000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B100">
-        <v>4.3214399999999999</v>
-      </c>
-      <c r="C100">
-        <v>4.3074820000000003</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B101">
-        <v>4.3048400000000004</v>
-      </c>
-      <c r="C101">
-        <v>4.3080907000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>45349</v>
-      </c>
-      <c r="B102">
-        <v>4.3086700000000002</v>
-      </c>
-      <c r="C102">
-        <v>4.3042490000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B103" t="s">
-        <v>56</v>
-      </c>
-      <c r="C103">
-        <v>4.3033146999999996</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B104" t="s">
-        <v>56</v>
-      </c>
-      <c r="C104">
-        <v>4.3039784000000001</v>
+        <v>45358</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="61">
+        <v>4.3122360000000004</v>
       </c>
     </row>
   </sheetData>
@@ -20879,11 +20772,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20909,7 +20802,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.3820550553004125</v>
+        <v>4.4289556277967481</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22395,11 +22288,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D82" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D83" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E82" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E83" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22461,8 +22354,27 @@
       </c>
     </row>
     <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B83" s="58">
+        <v>78.260002</v>
+      </c>
       <c r="C83">
         <v>70.0321</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="31"/>
+        <v>8.2279020000000003</v>
+      </c>
+      <c r="E83" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11748758069513837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="C84">
+        <v>71.138300000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067333A9-9F26-413B-A20B-03A5693234AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F215C63-983E-49FC-9849-38178519648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
-    <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
-    <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
+    <sheet name="D+5_EUR" sheetId="12" r:id="rId6"/>
+    <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
+    <sheet name="Normalization_example" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -235,9 +236,6 @@
   </si>
   <si>
     <t>Day + 1 Pred. WT</t>
-  </si>
-  <si>
-    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -5728,11 +5726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5762,7 +5760,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.7634526730412378E-3</v>
+        <v>3.4302831908892654E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8329,11 +8327,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D137" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D140" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E137" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E140" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8433,8 +8431,65 @@
       </c>
     </row>
     <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B138">
+        <v>3.9904000000000002</v>
+      </c>
       <c r="C138">
         <v>3.9804447000000001</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="40"/>
+        <v>9.9553000000001113E-3</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B139">
+        <v>3.9802070000000001</v>
+      </c>
+      <c r="C139">
+        <v>3.9819255</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="40"/>
+        <v>-1.7184999999999562E-3</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B140">
+        <v>3.9790999999999999</v>
+      </c>
+      <c r="C140">
+        <v>4.0223570000000004</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="40"/>
+        <v>-4.3257000000000545E-2</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="C141">
+        <v>3.9988320000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9583,11 +9638,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C413" sqref="C413"/>
+      <selection pane="bottomLeft" activeCell="A414" sqref="A414:B414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9617,7 +9672,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4230805407807596E-2</v>
+        <v>-1.4177999073126188E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17356,11 +17411,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D411" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D414" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E411" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E414" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17539,8 +17594,65 @@
       </c>
     </row>
     <row r="412" spans="1:6">
+      <c r="A412" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B412">
+        <v>4.31325</v>
+      </c>
       <c r="C412">
         <v>4.3197109999999999</v>
+      </c>
+      <c r="D412">
+        <f t="shared" si="97"/>
+        <v>-6.460999999999828E-3</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B413">
+        <v>4.3154399999999997</v>
+      </c>
+      <c r="C413">
+        <v>4.3373194000000002</v>
+      </c>
+      <c r="D413">
+        <f t="shared" si="97"/>
+        <v>-2.1879400000000437E-2</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B414">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="C414">
+        <v>4.3135430000000001</v>
+      </c>
+      <c r="D414">
+        <f t="shared" si="97"/>
+        <v>7.4569999999996028E-3</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="C415">
+        <v>4.2997899999999998</v>
       </c>
     </row>
   </sheetData>
@@ -19763,8 +19875,8 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B83"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19772,6 +19884,7 @@
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="61"/>
     <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20714,8 +20827,8 @@
       <c r="A79" s="1">
         <v>45352</v>
       </c>
-      <c r="B79" s="61" t="s">
-        <v>59</v>
+      <c r="B79">
+        <v>4.31325</v>
       </c>
       <c r="C79" s="61">
         <v>4.3296950000000001</v>
@@ -20725,8 +20838,8 @@
       <c r="A80" s="1">
         <v>45355</v>
       </c>
-      <c r="B80" s="61" t="s">
-        <v>59</v>
+      <c r="B80">
+        <v>4.3154399999999997</v>
       </c>
       <c r="C80" s="61">
         <v>4.3257294000000002</v>
@@ -20736,8 +20849,8 @@
       <c r="A81" s="1">
         <v>45356</v>
       </c>
-      <c r="B81" s="61" t="s">
-        <v>59</v>
+      <c r="B81">
+        <v>4.3209999999999997</v>
       </c>
       <c r="C81" s="61">
         <v>4.3233509999999997</v>
@@ -20747,9 +20860,6 @@
       <c r="A82" s="1">
         <v>45357</v>
       </c>
-      <c r="B82" s="61" t="s">
-        <v>59</v>
-      </c>
       <c r="C82" s="61">
         <v>4.3128924</v>
       </c>
@@ -20757,9 +20867,6 @@
     <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>45358</v>
-      </c>
-      <c r="B83" s="61" t="s">
-        <v>59</v>
       </c>
       <c r="C83" s="61">
         <v>4.3122360000000004</v>
@@ -20771,12 +20878,79 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE201BB-F9A7-4AF6-BCC7-A2D10F391853}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B2" s="61">
+        <v>4.3296950000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B3" s="61">
+        <v>4.3257294000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B4" s="61">
+        <v>4.3233509999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B5" s="61">
+        <v>4.3128924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B6" s="61">
+        <v>4.3122360000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20802,7 +20976,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.4289556277967481</v>
+        <v>4.584710146815687</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22288,11 +22462,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D83" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D86" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E83" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E86" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22373,8 +22547,65 @@
       </c>
     </row>
     <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B84" s="58">
+        <v>79.970000999999996</v>
+      </c>
       <c r="C84">
         <v>71.138300000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="31"/>
+        <v>8.8317009999999954</v>
+      </c>
+      <c r="E84" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12414832797522565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B85" s="58">
+        <v>78.739998</v>
+      </c>
+      <c r="C85">
+        <v>68.456599999999995</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="31"/>
+        <v>10.283398000000005</v>
+      </c>
+      <c r="E85" s="56">
+        <f t="shared" si="32"/>
+        <v>0.15021777301239042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B86" s="58">
+        <v>78.150002000000001</v>
+      </c>
+      <c r="C86">
+        <v>70.739099999999993</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="31"/>
+        <v>7.4109020000000072</v>
+      </c>
+      <c r="E86" s="56">
+        <f t="shared" si="32"/>
+        <v>0.1047638717484391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="C87">
+        <v>72.393000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -22382,7 +22613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2735D1A-F4DE-4DDC-A04F-6C2EC4F5E003}">
   <dimension ref="A1:E74"/>
   <sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F215C63-983E-49FC-9849-38178519648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5278A-D4F8-4D0F-AC85-7EB1CF1D43D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -18,9 +18,8 @@
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
-    <sheet name="D+5_EUR" sheetId="12" r:id="rId6"/>
-    <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
-    <sheet name="Normalization_example" sheetId="10" r:id="rId8"/>
+    <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
+    <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -5726,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5760,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.4302831908892654E-3</v>
+        <v>2.9688940676142407E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8327,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D140" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D142" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E140" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E142" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8488,8 +8487,46 @@
       </c>
     </row>
     <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B141">
+        <v>3.97031</v>
+      </c>
       <c r="C141">
         <v>3.9988320000000002</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="40"/>
+        <v>-2.8522000000000158E-2</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B142">
+        <v>3.9416540000000002</v>
+      </c>
+      <c r="C142">
+        <v>3.9713273</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="40"/>
+        <v>-2.9673299999999792E-2</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="C143">
+        <v>3.9402294000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9638,11 +9675,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A414" sqref="A414:B414"/>
+      <selection pane="bottomLeft" activeCell="A415" sqref="A415:B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9672,7 +9709,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4177999073126188E-2</v>
+        <v>-1.4216990402894255E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17411,11 +17448,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D414" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D416" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E414" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E416" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17651,8 +17688,46 @@
       </c>
     </row>
     <row r="415" spans="1:6">
+      <c r="A415" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B415">
+        <v>4.30999</v>
+      </c>
       <c r="C415">
         <v>4.2997899999999998</v>
+      </c>
+      <c r="D415">
+        <f t="shared" si="97"/>
+        <v>1.0200000000000209E-2</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B416">
+        <v>4.2965999999999998</v>
+      </c>
+      <c r="C416">
+        <v>4.3513374000000002</v>
+      </c>
+      <c r="D416">
+        <f t="shared" si="97"/>
+        <v>-5.4737400000000491E-2</v>
+      </c>
+      <c r="E416">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417">
+        <v>4.3055224000000001</v>
       </c>
     </row>
   </sheetData>
@@ -19872,11 +19947,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20860,6 +20935,9 @@
       <c r="A82" s="1">
         <v>45357</v>
       </c>
+      <c r="B82">
+        <v>4.30999</v>
+      </c>
       <c r="C82" s="61">
         <v>4.3128924</v>
       </c>
@@ -20868,8 +20946,51 @@
       <c r="A83" s="1">
         <v>45358</v>
       </c>
+      <c r="B83">
+        <v>4.2965999999999998</v>
+      </c>
       <c r="C83" s="61">
         <v>4.3122360000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45359</v>
+      </c>
+      <c r="C84" s="61">
+        <v>4.3272424000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45362</v>
+      </c>
+      <c r="C85" s="61">
+        <v>4.3170896000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45363</v>
+      </c>
+      <c r="C86" s="61">
+        <v>4.3122769999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45364</v>
+      </c>
+      <c r="C87" s="61">
+        <v>4.3032537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45365</v>
+      </c>
+      <c r="C88" s="61">
+        <v>4.2963950000000004</v>
       </c>
     </row>
   </sheetData>
@@ -20878,79 +20999,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE201BB-F9A7-4AF6-BCC7-A2D10F391853}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B2" s="61">
-        <v>4.3296950000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>45355</v>
-      </c>
-      <c r="B3" s="61">
-        <v>4.3257294000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>45356</v>
-      </c>
-      <c r="B4" s="61">
-        <v>4.3233509999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B5" s="61">
-        <v>4.3128924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>45358</v>
-      </c>
-      <c r="B6" s="61">
-        <v>4.3122360000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20976,7 +21030,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.584710146815687</v>
+        <v>4.6544489595325675</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22462,11 +22516,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D86" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D88" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E86" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E88" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22604,8 +22658,46 @@
       </c>
     </row>
     <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B87" s="58">
+        <v>79.129997000000003</v>
+      </c>
       <c r="C87">
         <v>72.393000000000001</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="31"/>
+        <v>6.7369970000000023</v>
+      </c>
+      <c r="E87" s="56">
+        <f t="shared" si="32"/>
+        <v>9.3061442404652417E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B88" s="58">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="C88">
+        <v>70.430300000000003</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="31"/>
+        <v>8.4997000000000043</v>
+      </c>
+      <c r="E88" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12068243355487629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="C89">
+        <v>70.142700000000005</v>
       </c>
     </row>
   </sheetData>
@@ -22613,7 +22705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2735D1A-F4DE-4DDC-A04F-6C2EC4F5E003}">
   <dimension ref="A1:E74"/>
   <sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB5278A-D4F8-4D0F-AC85-7EB1CF1D43D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D22917-228E-4B69-B9DA-E2B0E60B0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
-    <sheet name="DX_USD" sheetId="7" r:id="rId2"/>
+    <sheet name="DX_USD" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C144" sqref="C144"/>
+      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.9688940676142407E-3</v>
+        <v>2.8421455178423067E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D142" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D143" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E142" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E143" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8525,8 +8525,27 @@
       </c>
     </row>
     <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B143">
+        <v>3.9251999999999998</v>
+      </c>
       <c r="C143">
         <v>3.9402294000000002</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="40"/>
+        <v>-1.5029400000000415E-2</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="C144">
+        <v>3.9234079999999998</v>
       </c>
     </row>
   </sheetData>
@@ -9675,11 +9694,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A415" sqref="A415:B416"/>
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9709,7 +9728,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4216990402894255E-2</v>
+        <v>-1.4200657252887298E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17448,11 +17467,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D416" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D417" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E416" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E417" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17725,9 +17744,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="3:3">
+    <row r="417" spans="1:5">
+      <c r="A417" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B417">
+        <v>4.2980999999999998</v>
+      </c>
       <c r="C417">
         <v>4.3055224000000001</v>
+      </c>
+      <c r="D417">
+        <f t="shared" si="97"/>
+        <v>-7.4224000000002732E-3</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="C418">
+        <v>4.3058924999999997</v>
       </c>
     </row>
   </sheetData>
@@ -19949,9 +19987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85:A88"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20957,6 +20995,9 @@
       <c r="A84" s="1">
         <v>45359</v>
       </c>
+      <c r="B84">
+        <v>4.2980999999999998</v>
+      </c>
       <c r="C84" s="61">
         <v>4.3272424000000003</v>
       </c>
@@ -21000,11 +21041,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21030,7 +21071,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.6544489595325675</v>
+        <v>4.6909586531742429</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -22516,11 +22557,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D88" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D89" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E88" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E89" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -22696,8 +22737,27 @@
       </c>
     </row>
     <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B89" s="58">
+        <v>78.010002</v>
+      </c>
       <c r="C89">
         <v>70.142700000000005</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="31"/>
+        <v>7.8673019999999951</v>
+      </c>
+      <c r="E89" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11216137958761203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="C90">
+        <v>70.333200000000005</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D22917-228E-4B69-B9DA-E2B0E60B0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1118D-A544-4C01-8E45-CA4CC5191F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
     <sheet name="DX_USD" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
-    <sheet name="D1_OIL" sheetId="8" r:id="rId6"/>
+    <sheet name="D1_OIL" sheetId="8" r:id="rId5"/>
+    <sheet name="D5_EUR" sheetId="9" r:id="rId6"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B144" sqref="B144"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.8421455178423067E-3</v>
+        <v>2.7054240523167214E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D143" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D145" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E143" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E145" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8544,8 +8544,46 @@
       </c>
     </row>
     <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B144">
+        <v>3.9311780000000001</v>
+      </c>
       <c r="C144">
         <v>3.9234079999999998</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="40"/>
+        <v>7.7700000000002767E-3</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B145">
+        <v>3.9149479999999999</v>
+      </c>
+      <c r="C145">
+        <v>3.9367215999999998</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="40"/>
+        <v>-2.1773599999999949E-2</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="C146">
+        <v>3.9106562</v>
       </c>
     </row>
   </sheetData>
@@ -9694,11 +9732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C419" sqref="C419"/>
+      <selection pane="bottomLeft" activeCell="A419" sqref="A419:B419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9728,7 +9766,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4200657252887298E-2</v>
+        <v>-1.4184640950241901E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17467,11 +17505,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D417" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D419" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E417" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E419" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17764,8 +17802,46 @@
       </c>
     </row>
     <row r="418" spans="1:5">
+      <c r="A418" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B418">
+        <v>4.3017700000000003</v>
+      </c>
       <c r="C418">
         <v>4.3058924999999997</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="97"/>
+        <v>-4.1224999999993628E-3</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B419">
+        <v>4.2793900000000002</v>
+      </c>
+      <c r="C419">
+        <v>4.2969739999999996</v>
+      </c>
+      <c r="D419">
+        <f t="shared" si="97"/>
+        <v>-1.7583999999999378E-2</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="C420">
+        <v>4.2709960000000002</v>
       </c>
     </row>
   </sheetData>
@@ -19984,12 +20060,1776 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
+  <dimension ref="A1:F92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13">
+        <f>AVERAGE(D2:D301)</f>
+        <v>4.728393994214815</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B2" s="58">
+        <v>82.459998999999996</v>
+      </c>
+      <c r="C2">
+        <v>79.287199999999999</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2" si="0">B2-C2</f>
+        <v>3.1727989999999977</v>
+      </c>
+      <c r="E2" s="56">
+        <f t="shared" ref="E2" si="1">D2/C2</f>
+        <v>4.0016534825293333E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B3" s="58">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="C3">
+        <v>78.5989</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3" si="2">B3-C3</f>
+        <v>2.2210999999999927</v>
+      </c>
+      <c r="E3" s="56">
+        <f t="shared" ref="E3" si="3">D3/C3</f>
+        <v>2.8258665197604456E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B4" s="58">
+        <v>77.370002999999997</v>
+      </c>
+      <c r="C4">
+        <v>79.054299999999998</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4" si="4">B4-C4</f>
+        <v>-1.6842970000000008</v>
+      </c>
+      <c r="E4" s="56">
+        <f t="shared" ref="E4" si="5">D4/C4</f>
+        <v>-2.1305570980958668E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B5" s="58">
+        <v>75.330001999999993</v>
+      </c>
+      <c r="C5" s="58">
+        <v>77.506699999999995</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5" si="6">B5-C5</f>
+        <v>-2.1766980000000018</v>
+      </c>
+      <c r="E5" s="56">
+        <f t="shared" ref="E5" si="7">D5/C5</f>
+        <v>-2.8083997899536452E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B6" s="58">
+        <v>75.739998</v>
+      </c>
+      <c r="C6">
+        <v>76.052700000000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="8">B6-C6</f>
+        <v>-0.31270200000000159</v>
+      </c>
+      <c r="E6" s="56">
+        <f t="shared" ref="E6" si="9">D6/C6</f>
+        <v>-4.1116488960944398E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B7" s="58">
+        <v>77.169998000000007</v>
+      </c>
+      <c r="C7">
+        <v>75.321899999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="10">B7-C7</f>
+        <v>1.8480980000000073</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" ref="E7" si="11">D7/C7</f>
+        <v>2.4535998162553085E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B8" s="58">
+        <v>78.260002</v>
+      </c>
+      <c r="C8">
+        <v>78.169200000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="12">B8-C8</f>
+        <v>9.0801999999996497E-2</v>
+      </c>
+      <c r="E8" s="56">
+        <f t="shared" ref="E8" si="13">D8/C8</f>
+        <v>1.1616084084268036E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B9" s="58">
+        <v>78.260002</v>
+      </c>
+      <c r="C9">
+        <v>76.024100000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="14">B9-C9</f>
+        <v>2.2359019999999958</v>
+      </c>
+      <c r="E9" s="56">
+        <f t="shared" ref="E9" si="15">D9/C9</f>
+        <v>2.9410436953544939E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B10" s="58">
+        <v>76.660004000000001</v>
+      </c>
+      <c r="C10">
+        <v>74.524199999999993</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="16">B10-C10</f>
+        <v>2.1358040000000074</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" ref="E10" si="17">D10/C10</f>
+        <v>2.8659200635498368E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B11" s="58">
+        <v>72.900002000000001</v>
+      </c>
+      <c r="C11">
+        <v>75.210099999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="18">B11-C11</f>
+        <v>-2.3100979999999964</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" ref="E11" si="19">D11/C11</f>
+        <v>-3.0715262976648037E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B12" s="58">
+        <v>77.599997999999999</v>
+      </c>
+      <c r="C12">
+        <v>73.762</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="20">B12-C12</f>
+        <v>3.8379979999999989</v>
+      </c>
+      <c r="E12" s="56">
+        <f t="shared" ref="E12" si="21">D12/C12</f>
+        <v>5.2032184593693215E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B13" s="58">
+        <v>77.769997000000004</v>
+      </c>
+      <c r="C13">
+        <v>75.093100000000007</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="22">B13-C13</f>
+        <v>2.6768969999999968</v>
+      </c>
+      <c r="E13" s="56">
+        <f t="shared" ref="E13" si="23">D13/C13</f>
+        <v>3.5647709310176252E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B14" s="58">
+        <v>77.099997999999999</v>
+      </c>
+      <c r="C14">
+        <v>72.002200000000002</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D15" si="24">B14-C14</f>
+        <v>5.0977979999999974</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" ref="E14:E15" si="25">D14/C14</f>
+        <v>7.0800586648741254E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B15" s="58">
+        <v>76.349997999999999</v>
+      </c>
+      <c r="C15">
+        <v>70.452699999999993</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="24"/>
+        <v>5.8972980000000064</v>
+      </c>
+      <c r="E15" s="56">
+        <f t="shared" si="25"/>
+        <v>8.3705777067451026E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B16" s="58">
+        <v>75.540001000000004</v>
+      </c>
+      <c r="C16">
+        <v>76.697699999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="26">B16-C16</f>
+        <v>-1.1576989999999938</v>
+      </c>
+      <c r="E16" s="56">
+        <f>D16/C16</f>
+        <v>-1.5094311824213684E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B17" s="58">
+        <v>74.860000999999997</v>
+      </c>
+      <c r="C17">
+        <v>75.922899999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D39" si="27">B17-C17</f>
+        <v>-1.0628990000000016</v>
+      </c>
+      <c r="E17" s="56">
+        <f>D17/C17</f>
+        <v>-1.3999715500856812E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B18" s="58">
+        <v>76.410004000000001</v>
+      </c>
+      <c r="C18">
+        <v>76.504900000000006</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="27"/>
+        <v>-9.4896000000005643E-2</v>
+      </c>
+      <c r="E18" s="56">
+        <f>D18/C18</f>
+        <v>-1.2403911383454607E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B19" s="58">
+        <v>77.860000999999997</v>
+      </c>
+      <c r="C19">
+        <v>74.576800000000006</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="27"/>
+        <v>3.2832009999999912</v>
+      </c>
+      <c r="E19" s="56">
+        <f t="shared" ref="E19:E39" si="28">D19/C19</f>
+        <v>4.4024428508597724E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B20" s="58">
+        <v>75.959998999999996</v>
+      </c>
+      <c r="C20">
+        <v>73.526899999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="27"/>
+        <v>2.4330989999999986</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="28"/>
+        <v>3.30912767980154E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B21" s="58">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="C21">
+        <v>75.0822</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="27"/>
+        <v>-1.0122000000000071</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.3481224577862758E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B22" s="58">
+        <v>73.040001000000004</v>
+      </c>
+      <c r="C22">
+        <v>71.261700000000005</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="27"/>
+        <v>1.778300999999999</v>
+      </c>
+      <c r="E22" s="56">
+        <f t="shared" si="28"/>
+        <v>2.4954512732645991E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B23" s="58">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="C23">
+        <v>73.881699999999995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="27"/>
+        <v>-1.5617000000000019</v>
+      </c>
+      <c r="E23" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.113784604306617E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B24" s="58">
+        <v>69.379997000000003</v>
+      </c>
+      <c r="C24">
+        <v>71.1126</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="27"/>
+        <v>-1.7326029999999975</v>
+      </c>
+      <c r="E24" s="56">
+        <f t="shared" si="28"/>
+        <v>-2.436421956165289E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B25" s="58">
+        <v>69.339995999999999</v>
+      </c>
+      <c r="C25">
+        <v>73.859700000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="27"/>
+        <v>-4.5197040000000044</v>
+      </c>
+      <c r="E25" s="56">
+        <f t="shared" si="28"/>
+        <v>-6.1193099890738852E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B26" s="58">
+        <v>71.23</v>
+      </c>
+      <c r="C26">
+        <v>71.077100000000002</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="27"/>
+        <v>0.15290000000000248</v>
+      </c>
+      <c r="E26" s="56">
+        <f t="shared" si="28"/>
+        <v>2.1511851215089313E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B27" s="58">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="C27">
+        <v>68.771699999999996</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="27"/>
+        <v>2.5482999999999976</v>
+      </c>
+      <c r="E27" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7054486074940676E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B28" s="58">
+        <v>68.610000999999997</v>
+      </c>
+      <c r="C28">
+        <v>69.378200000000007</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="27"/>
+        <v>-0.76819900000000985</v>
+      </c>
+      <c r="E28" s="56">
+        <f t="shared" si="28"/>
+        <v>-1.1072628001303144E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B29" s="58">
+        <v>69.470000999999996</v>
+      </c>
+      <c r="C29">
+        <v>73.563900000000004</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="27"/>
+        <v>-4.0938990000000075</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" si="28"/>
+        <v>-5.5650923890658427E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B30" s="58">
+        <v>71.580001999999993</v>
+      </c>
+      <c r="C30">
+        <v>68.991600000000005</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="27"/>
+        <v>2.5884019999999879</v>
+      </c>
+      <c r="E30" s="56">
+        <f t="shared" si="28"/>
+        <v>3.7517639828616639E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B31" s="58">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C31">
+        <v>68.003299999999996</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="27"/>
+        <v>3.426700000000011</v>
+      </c>
+      <c r="E31" s="56">
+        <f t="shared" si="28"/>
+        <v>5.0390201651978821E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B32" s="58">
+        <v>72.470000999999996</v>
+      </c>
+      <c r="C32">
+        <v>70.312200000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="27"/>
+        <v>2.1578009999999921</v>
+      </c>
+      <c r="E32" s="56">
+        <f t="shared" si="28"/>
+        <v>3.0688856272453314E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B33" s="58">
+        <v>73.580001999999993</v>
+      </c>
+      <c r="C33">
+        <v>66.346900000000005</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="27"/>
+        <v>7.2331019999999882</v>
+      </c>
+      <c r="E33" s="56">
+        <f t="shared" si="28"/>
+        <v>0.10901944175236503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B34" s="58">
+        <v>73.440002000000007</v>
+      </c>
+      <c r="C34">
+        <v>71.343400000000003</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="27"/>
+        <v>2.0966020000000043</v>
+      </c>
+      <c r="E34" s="56">
+        <f t="shared" si="28"/>
+        <v>2.9387469618773483E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B35" s="58">
+        <v>73.889999000000003</v>
+      </c>
+      <c r="C35">
+        <v>70.639300000000006</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="27"/>
+        <v>3.2506989999999973</v>
+      </c>
+      <c r="E35" s="56">
+        <f t="shared" si="28"/>
+        <v>4.6018278776828153E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B36" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C36">
+        <v>71.102999999999994</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="27"/>
+        <v>2.4569979999999987</v>
+      </c>
+      <c r="E36" s="56">
+        <f t="shared" si="28"/>
+        <v>3.4555475858965144E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B37" s="58">
+        <v>73.559997999999993</v>
+      </c>
+      <c r="C37">
+        <v>67.181200000000004</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="27"/>
+        <v>6.3787979999999891</v>
+      </c>
+      <c r="E37" s="56">
+        <f t="shared" si="28"/>
+        <v>9.4949152441456672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B38" s="58">
+        <v>74.110000999999997</v>
+      </c>
+      <c r="C38">
+        <v>67.802999999999997</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="27"/>
+        <v>6.3070009999999996</v>
+      </c>
+      <c r="E38" s="56">
+        <f t="shared" si="28"/>
+        <v>9.3019497662345324E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B39" s="58">
+        <v>71.769997000000004</v>
+      </c>
+      <c r="C39">
+        <v>68.910200000000003</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="27"/>
+        <v>2.8597970000000004</v>
+      </c>
+      <c r="E39" s="56">
+        <f t="shared" si="28"/>
+        <v>4.1500343925862937E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B40" s="58">
+        <v>71.650002000000001</v>
+      </c>
+      <c r="C40">
+        <v>71.055977272727276</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D78" si="29">B40-C40</f>
+        <v>0.59402472727272482</v>
+      </c>
+      <c r="E40" s="56">
+        <f t="shared" ref="E40:E78" si="30">D40/C40</f>
+        <v>8.3599543637650243E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B41" s="58">
+        <v>70.379997000000003</v>
+      </c>
+      <c r="C41">
+        <v>70.808298966942161</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="29"/>
+        <v>-0.42830196694215772</v>
+      </c>
+      <c r="E41" s="56">
+        <f t="shared" si="30"/>
+        <v>-6.0487537928586091E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B42" s="58">
+        <v>72.699996999999996</v>
+      </c>
+      <c r="C42">
+        <v>70.63700346543952</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="29"/>
+        <v>2.0629935345604764</v>
+      </c>
+      <c r="E42" s="56">
+        <f t="shared" si="30"/>
+        <v>2.9205564128577943E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B43" s="58">
+        <v>72.190002000000007</v>
+      </c>
+      <c r="C43">
+        <v>70.505644532050397</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="29"/>
+        <v>1.6843574679496101</v>
+      </c>
+      <c r="E43" s="56">
+        <f t="shared" si="30"/>
+        <v>2.3889682579725034E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B44" s="58">
+        <v>73.809997999999993</v>
+      </c>
+      <c r="C44">
+        <v>70.297619283507231</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="29"/>
+        <v>3.512378716492762</v>
+      </c>
+      <c r="E44" s="56">
+        <f t="shared" si="30"/>
+        <v>4.9964404944177296E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B45" s="58">
+        <v>70.769997000000004</v>
+      </c>
+      <c r="C45">
+        <v>67.556899999999999</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="29"/>
+        <v>3.2130970000000048</v>
+      </c>
+      <c r="E45" s="56">
+        <f t="shared" si="30"/>
+        <v>4.7561344585083161E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B46" s="58">
+        <v>72.239998</v>
+      </c>
+      <c r="C46">
+        <v>69.269099999999995</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="29"/>
+        <v>2.9708980000000054</v>
+      </c>
+      <c r="E46" s="56">
+        <f t="shared" si="30"/>
+        <v>4.2889224776992994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B47" s="58">
+        <v>71.370002999999997</v>
+      </c>
+      <c r="C47">
+        <v>67.362399999999994</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="29"/>
+        <v>4.0076030000000031</v>
+      </c>
+      <c r="E47" s="56">
+        <f t="shared" si="30"/>
+        <v>5.9493174233697189E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B48" s="58">
+        <v>72.019997000000004</v>
+      </c>
+      <c r="C48">
+        <v>66.465400000000002</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="29"/>
+        <v>5.5545970000000011</v>
+      </c>
+      <c r="E48" s="56">
+        <f t="shared" si="30"/>
+        <v>8.3571256623747106E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B49" s="58">
+        <v>72.680000000000007</v>
+      </c>
+      <c r="C49">
+        <v>64.713499999999996</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="29"/>
+        <v>7.9665000000000106</v>
+      </c>
+      <c r="E49" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12310414364854337</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B50" s="58">
+        <v>72.5</v>
+      </c>
+      <c r="C50">
+        <v>68.029499999999999</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="29"/>
+        <v>4.4705000000000013</v>
+      </c>
+      <c r="E50" s="56">
+        <f t="shared" si="30"/>
+        <v>6.5714138719232124E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B51" s="58">
+        <v>72.400002000000001</v>
+      </c>
+      <c r="C51">
+        <v>66.271699999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="29"/>
+        <v>6.128302000000005</v>
+      </c>
+      <c r="E51" s="56">
+        <f t="shared" si="30"/>
+        <v>9.2472382630896827E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B52" s="58">
+        <v>72.559997999999993</v>
+      </c>
+      <c r="C52">
+        <v>66.4191</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="29"/>
+        <v>6.1408979999999929</v>
+      </c>
+      <c r="E52" s="56">
+        <f t="shared" si="30"/>
+        <v>9.245680835783672E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B53" s="58">
+        <v>74.080001999999993</v>
+      </c>
+      <c r="C53">
+        <v>65.858599999999996</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="29"/>
+        <v>8.2214019999999977</v>
+      </c>
+      <c r="E53" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12483414466751493</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B54" s="58">
+        <v>73.410004000000001</v>
+      </c>
+      <c r="C54">
+        <v>66.733699999999999</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="29"/>
+        <v>6.6763040000000018</v>
+      </c>
+      <c r="E54" s="56">
+        <f t="shared" si="30"/>
+        <v>0.10004396579239577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B55" s="58">
+        <v>75.010002</v>
+      </c>
+      <c r="C55">
+        <v>73.060199999999995</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="29"/>
+        <v>1.9498020000000054</v>
+      </c>
+      <c r="E55" s="56">
+        <f t="shared" si="30"/>
+        <v>2.6687608301099716E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B56" s="58">
+        <v>74.370002999999997</v>
+      </c>
+      <c r="C56">
+        <v>66.487700000000004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="29"/>
+        <v>7.8823029999999932</v>
+      </c>
+      <c r="E56" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11855279999157728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B57" s="58">
+        <v>75.089995999999999</v>
+      </c>
+      <c r="C57">
+        <v>69.870500000000007</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="29"/>
+        <v>5.2194959999999924</v>
+      </c>
+      <c r="E57" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4702428063345649E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B58" s="58">
+        <v>77.360000999999997</v>
+      </c>
+      <c r="C58">
+        <v>65.425600000000003</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="29"/>
+        <v>11.934400999999994</v>
+      </c>
+      <c r="E58" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18241179293732107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B59" s="58">
+        <v>78.010002</v>
+      </c>
+      <c r="C59">
+        <v>66.093599999999995</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="29"/>
+        <v>11.916402000000005</v>
+      </c>
+      <c r="E59" s="56">
+        <f t="shared" si="30"/>
+        <v>0.18029585315370938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B60" s="58">
+        <v>76.779999000000004</v>
+      </c>
+      <c r="C60">
+        <v>63.887599999999999</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="29"/>
+        <v>12.892399000000005</v>
+      </c>
+      <c r="E60" s="56">
+        <f t="shared" si="30"/>
+        <v>0.20179814236252425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B61" s="58">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="C61">
+        <v>66.849800000000002</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="29"/>
+        <v>10.970199999999991</v>
+      </c>
+      <c r="E61" s="56">
+        <f t="shared" si="30"/>
+        <v>0.16410221122576268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B62" s="58">
+        <v>75.849997999999999</v>
+      </c>
+      <c r="C62">
+        <v>64.329300000000003</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="29"/>
+        <v>11.520697999999996</v>
+      </c>
+      <c r="E62" s="56">
+        <f t="shared" si="30"/>
+        <v>0.17908943514075226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B63" s="58">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="C63">
+        <v>68.714299999999994</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="29"/>
+        <v>5.1056999999999988</v>
+      </c>
+      <c r="E63" s="56">
+        <f t="shared" si="30"/>
+        <v>7.4303310955652596E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B64" s="58">
+        <v>72.279999000000004</v>
+      </c>
+      <c r="C64">
+        <v>68.295199999999994</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="29"/>
+        <v>3.9847990000000095</v>
+      </c>
+      <c r="E64" s="56">
+        <f t="shared" si="30"/>
+        <v>5.8346692007637577E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B65" s="58">
+        <v>72.779999000000004</v>
+      </c>
+      <c r="C65">
+        <v>67.8018</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="29"/>
+        <v>4.9781990000000036</v>
+      </c>
+      <c r="E65" s="56">
+        <f t="shared" si="30"/>
+        <v>7.3422814733532196E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B66" s="58">
+        <v>73.309997999999993</v>
+      </c>
+      <c r="C66">
+        <v>66.869399999999999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="29"/>
+        <v>6.4405979999999943</v>
+      </c>
+      <c r="E66" s="56">
+        <f t="shared" si="30"/>
+        <v>9.6316072822546547E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B67" s="58">
+        <v>73.860000999999997</v>
+      </c>
+      <c r="C67">
+        <v>67.679599999999994</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="29"/>
+        <v>6.1804010000000034</v>
+      </c>
+      <c r="E67" s="56">
+        <f t="shared" si="30"/>
+        <v>9.1318521386060253E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B68" s="58">
+        <v>76.220000999999996</v>
+      </c>
+      <c r="C68">
+        <v>68.503799999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="29"/>
+        <v>7.7162009999999981</v>
+      </c>
+      <c r="E68" s="56">
+        <f t="shared" si="30"/>
+        <v>0.1126390214849395</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B69" s="58">
+        <v>76.839995999999999</v>
+      </c>
+      <c r="C69">
+        <v>68.205500000000001</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="29"/>
+        <v>8.6344959999999986</v>
+      </c>
+      <c r="E69" s="56">
+        <f t="shared" si="30"/>
+        <v>0.12659530389777948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B70" s="58">
+        <v>76.919998000000007</v>
+      </c>
+      <c r="C70">
+        <v>68.694999999999993</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="29"/>
+        <v>8.2249980000000136</v>
+      </c>
+      <c r="E70" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11973212024164807</v>
+      </c>
+      <c r="F70">
+        <v>68.186099999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B71" s="58">
+        <v>77.870002999999997</v>
+      </c>
+      <c r="C71">
+        <v>67.919700000000006</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="29"/>
+        <v>9.950302999999991</v>
+      </c>
+      <c r="E71" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14650098572284609</v>
+      </c>
+      <c r="F71">
+        <v>67.919700000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B72" s="58">
+        <v>76.639999000000003</v>
+      </c>
+      <c r="C72">
+        <v>66.243799999999993</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="29"/>
+        <v>10.39619900000001</v>
+      </c>
+      <c r="E72" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15693844556018843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B73" s="58">
+        <v>78.029999000000004</v>
+      </c>
+      <c r="C73">
+        <v>73.223399999999998</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="29"/>
+        <v>4.8065990000000056</v>
+      </c>
+      <c r="E73" s="56">
+        <f t="shared" si="30"/>
+        <v>6.5642936547606445E-2</v>
+      </c>
+      <c r="F73">
+        <v>73.223399999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B74" s="58">
+        <v>79.190002000000007</v>
+      </c>
+      <c r="C74">
+        <v>70.859099999999998</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="29"/>
+        <v>8.3309020000000089</v>
+      </c>
+      <c r="E74" s="56">
+        <f t="shared" si="30"/>
+        <v>0.11756996631343059</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B75" s="58">
+        <v>79.290001000000004</v>
+      </c>
+      <c r="C75">
+        <v>68.477800000000002</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="29"/>
+        <v>10.812201000000002</v>
+      </c>
+      <c r="E75" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15789352169608253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B76" s="58">
+        <v>78.269997000000004</v>
+      </c>
+      <c r="C76">
+        <v>68.0334</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="29"/>
+        <v>10.236597000000003</v>
+      </c>
+      <c r="E76" s="56">
+        <f t="shared" si="30"/>
+        <v>0.15046428665919978</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B77" s="58">
+        <v>77.910004000000001</v>
+      </c>
+      <c r="C77">
+        <v>67.810500000000005</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="29"/>
+        <v>10.099503999999996</v>
+      </c>
+      <c r="E77" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14893717049719432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B78" s="58">
+        <v>78.610000999999997</v>
+      </c>
+      <c r="C78">
+        <v>68.6648</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="29"/>
+        <v>9.9452009999999973</v>
+      </c>
+      <c r="E78" s="56">
+        <f t="shared" si="30"/>
+        <v>0.14483696158730525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B79">
+        <v>76.489998</v>
+      </c>
+      <c r="C79">
+        <v>69.136099999999999</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D91" si="31">B79-C79</f>
+        <v>7.3538980000000009</v>
+      </c>
+      <c r="E79" s="56">
+        <f t="shared" ref="E79:E91" si="32">D79/C79</f>
+        <v>0.10636842402160378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B80" s="58">
+        <v>77.580001999999993</v>
+      </c>
+      <c r="C80">
+        <v>64.8416</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="31"/>
+        <v>12.738401999999994</v>
+      </c>
+      <c r="E80" s="56">
+        <f t="shared" si="32"/>
+        <v>0.19645415905838218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B81" s="58">
+        <v>78.870002999999997</v>
+      </c>
+      <c r="C81">
+        <v>69.340500000000006</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="31"/>
+        <v>9.5295029999999912</v>
+      </c>
+      <c r="E81" s="56">
+        <f t="shared" si="32"/>
+        <v>0.13743054924611145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B82" s="58">
+        <v>78.540001000000004</v>
+      </c>
+      <c r="C82">
+        <v>71.798100000000005</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="31"/>
+        <v>6.7419009999999986</v>
+      </c>
+      <c r="E82" s="56">
+        <f t="shared" si="32"/>
+        <v>9.390082745922243E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B83" s="58">
+        <v>78.260002</v>
+      </c>
+      <c r="C83">
+        <v>70.0321</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="31"/>
+        <v>8.2279020000000003</v>
+      </c>
+      <c r="E83" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11748758069513837</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B84" s="58">
+        <v>79.970000999999996</v>
+      </c>
+      <c r="C84">
+        <v>71.138300000000001</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="31"/>
+        <v>8.8317009999999954</v>
+      </c>
+      <c r="E84" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12414832797522565</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B85" s="58">
+        <v>78.739998</v>
+      </c>
+      <c r="C85">
+        <v>68.456599999999995</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="31"/>
+        <v>10.283398000000005</v>
+      </c>
+      <c r="E85" s="56">
+        <f t="shared" si="32"/>
+        <v>0.15021777301239042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B86" s="58">
+        <v>78.150002000000001</v>
+      </c>
+      <c r="C86">
+        <v>70.739099999999993</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="31"/>
+        <v>7.4109020000000072</v>
+      </c>
+      <c r="E86" s="56">
+        <f t="shared" si="32"/>
+        <v>0.1047638717484391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B87" s="58">
+        <v>79.129997000000003</v>
+      </c>
+      <c r="C87">
+        <v>72.393000000000001</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="31"/>
+        <v>6.7369970000000023</v>
+      </c>
+      <c r="E87" s="56">
+        <f t="shared" si="32"/>
+        <v>9.3061442404652417E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B88" s="58">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="C88">
+        <v>70.430300000000003</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="31"/>
+        <v>8.4997000000000043</v>
+      </c>
+      <c r="E88" s="56">
+        <f t="shared" si="32"/>
+        <v>0.12068243355487629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B89" s="58">
+        <v>78.010002</v>
+      </c>
+      <c r="C89">
+        <v>70.142700000000005</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="31"/>
+        <v>7.8673019999999951</v>
+      </c>
+      <c r="E89" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11216137958761203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B90" s="58">
+        <v>77.930000000000007</v>
+      </c>
+      <c r="C90">
+        <v>70.333200000000005</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="31"/>
+        <v>7.5968000000000018</v>
+      </c>
+      <c r="E90" s="56">
+        <f t="shared" si="32"/>
+        <v>0.10801157916887048</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B91" s="58">
+        <v>77.559997999999993</v>
+      </c>
+      <c r="C91">
+        <v>72.405699999999996</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="31"/>
+        <v>5.1542979999999972</v>
+      </c>
+      <c r="E91" s="56">
+        <f t="shared" si="32"/>
+        <v>7.1186356875218348E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="C92">
+        <v>71.224500000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21006,6 +22846,9 @@
       <c r="A85" s="1">
         <v>45362</v>
       </c>
+      <c r="B85">
+        <v>4.3017700000000003</v>
+      </c>
       <c r="C85" s="61">
         <v>4.3170896000000001</v>
       </c>
@@ -21014,6 +22857,9 @@
       <c r="A86" s="1">
         <v>45363</v>
       </c>
+      <c r="B86">
+        <v>4.2793900000000002</v>
+      </c>
       <c r="C86" s="61">
         <v>4.3122769999999999</v>
       </c>
@@ -21032,1732 +22878,6 @@
       </c>
       <c r="C88" s="61">
         <v>4.2963950000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F90"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13">
-        <f>AVERAGE(D2:D301)</f>
-        <v>4.6909586531742429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>45233</v>
-      </c>
-      <c r="B2" s="58">
-        <v>82.459998999999996</v>
-      </c>
-      <c r="C2">
-        <v>79.287199999999999</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2" si="0">B2-C2</f>
-        <v>3.1727989999999977</v>
-      </c>
-      <c r="E2" s="56">
-        <f t="shared" ref="E2" si="1">D2/C2</f>
-        <v>4.0016534825293333E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>45236</v>
-      </c>
-      <c r="B3" s="58">
-        <v>80.819999999999993</v>
-      </c>
-      <c r="C3">
-        <v>78.5989</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3" si="2">B3-C3</f>
-        <v>2.2210999999999927</v>
-      </c>
-      <c r="E3" s="56">
-        <f t="shared" ref="E3" si="3">D3/C3</f>
-        <v>2.8258665197604456E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>45237</v>
-      </c>
-      <c r="B4" s="58">
-        <v>77.370002999999997</v>
-      </c>
-      <c r="C4">
-        <v>79.054299999999998</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4" si="4">B4-C4</f>
-        <v>-1.6842970000000008</v>
-      </c>
-      <c r="E4" s="56">
-        <f t="shared" ref="E4" si="5">D4/C4</f>
-        <v>-2.1305570980958668E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>45238</v>
-      </c>
-      <c r="B5" s="58">
-        <v>75.330001999999993</v>
-      </c>
-      <c r="C5" s="58">
-        <v>77.506699999999995</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5" si="6">B5-C5</f>
-        <v>-2.1766980000000018</v>
-      </c>
-      <c r="E5" s="56">
-        <f t="shared" ref="E5" si="7">D5/C5</f>
-        <v>-2.8083997899536452E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>45239</v>
-      </c>
-      <c r="B6" s="58">
-        <v>75.739998</v>
-      </c>
-      <c r="C6">
-        <v>76.052700000000002</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6" si="8">B6-C6</f>
-        <v>-0.31270200000000159</v>
-      </c>
-      <c r="E6" s="56">
-        <f t="shared" ref="E6" si="9">D6/C6</f>
-        <v>-4.1116488960944398E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>45240</v>
-      </c>
-      <c r="B7" s="58">
-        <v>77.169998000000007</v>
-      </c>
-      <c r="C7">
-        <v>75.321899999999999</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7" si="10">B7-C7</f>
-        <v>1.8480980000000073</v>
-      </c>
-      <c r="E7" s="56">
-        <f t="shared" ref="E7" si="11">D7/C7</f>
-        <v>2.4535998162553085E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>45244</v>
-      </c>
-      <c r="B8" s="58">
-        <v>78.260002</v>
-      </c>
-      <c r="C8">
-        <v>78.169200000000004</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8" si="12">B8-C8</f>
-        <v>9.0801999999996497E-2</v>
-      </c>
-      <c r="E8" s="56">
-        <f t="shared" ref="E8" si="13">D8/C8</f>
-        <v>1.1616084084268036E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B9" s="58">
-        <v>78.260002</v>
-      </c>
-      <c r="C9">
-        <v>76.024100000000004</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9" si="14">B9-C9</f>
-        <v>2.2359019999999958</v>
-      </c>
-      <c r="E9" s="56">
-        <f t="shared" ref="E9" si="15">D9/C9</f>
-        <v>2.9410436953544939E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B10" s="58">
-        <v>76.660004000000001</v>
-      </c>
-      <c r="C10">
-        <v>74.524199999999993</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10" si="16">B10-C10</f>
-        <v>2.1358040000000074</v>
-      </c>
-      <c r="E10" s="56">
-        <f t="shared" ref="E10" si="17">D10/C10</f>
-        <v>2.8659200635498368E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B11" s="58">
-        <v>72.900002000000001</v>
-      </c>
-      <c r="C11">
-        <v>75.210099999999997</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ref="D11" si="18">B11-C11</f>
-        <v>-2.3100979999999964</v>
-      </c>
-      <c r="E11" s="56">
-        <f t="shared" ref="E11" si="19">D11/C11</f>
-        <v>-3.0715262976648037E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B12" s="58">
-        <v>77.599997999999999</v>
-      </c>
-      <c r="C12">
-        <v>73.762</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ref="D12" si="20">B12-C12</f>
-        <v>3.8379979999999989</v>
-      </c>
-      <c r="E12" s="56">
-        <f t="shared" ref="E12" si="21">D12/C12</f>
-        <v>5.2032184593693215E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B13" s="58">
-        <v>77.769997000000004</v>
-      </c>
-      <c r="C13">
-        <v>75.093100000000007</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ref="D13" si="22">B13-C13</f>
-        <v>2.6768969999999968</v>
-      </c>
-      <c r="E13" s="56">
-        <f t="shared" ref="E13" si="23">D13/C13</f>
-        <v>3.5647709310176252E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B14" s="58">
-        <v>77.099997999999999</v>
-      </c>
-      <c r="C14">
-        <v>72.002200000000002</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ref="D14:D15" si="24">B14-C14</f>
-        <v>5.0977979999999974</v>
-      </c>
-      <c r="E14" s="56">
-        <f t="shared" ref="E14:E15" si="25">D14/C14</f>
-        <v>7.0800586648741254E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B15" s="58">
-        <v>76.349997999999999</v>
-      </c>
-      <c r="C15">
-        <v>70.452699999999993</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="24"/>
-        <v>5.8972980000000064</v>
-      </c>
-      <c r="E15" s="56">
-        <f t="shared" si="25"/>
-        <v>8.3705777067451026E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B16" s="58">
-        <v>75.540001000000004</v>
-      </c>
-      <c r="C16">
-        <v>76.697699999999998</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="26">B16-C16</f>
-        <v>-1.1576989999999938</v>
-      </c>
-      <c r="E16" s="56">
-        <f>D16/C16</f>
-        <v>-1.5094311824213684E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B17" s="58">
-        <v>74.860000999999997</v>
-      </c>
-      <c r="C17">
-        <v>75.922899999999998</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D39" si="27">B17-C17</f>
-        <v>-1.0628990000000016</v>
-      </c>
-      <c r="E17" s="56">
-        <f>D17/C17</f>
-        <v>-1.3999715500856812E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B18" s="58">
-        <v>76.410004000000001</v>
-      </c>
-      <c r="C18">
-        <v>76.504900000000006</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="27"/>
-        <v>-9.4896000000005643E-2</v>
-      </c>
-      <c r="E18" s="56">
-        <f>D18/C18</f>
-        <v>-1.2403911383454607E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B19" s="58">
-        <v>77.860000999999997</v>
-      </c>
-      <c r="C19">
-        <v>74.576800000000006</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="27"/>
-        <v>3.2832009999999912</v>
-      </c>
-      <c r="E19" s="56">
-        <f t="shared" ref="E19:E39" si="28">D19/C19</f>
-        <v>4.4024428508597724E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B20" s="58">
-        <v>75.959998999999996</v>
-      </c>
-      <c r="C20">
-        <v>73.526899999999998</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="27"/>
-        <v>2.4330989999999986</v>
-      </c>
-      <c r="E20" s="56">
-        <f t="shared" si="28"/>
-        <v>3.30912767980154E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B21" s="58">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="C21">
-        <v>75.0822</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="27"/>
-        <v>-1.0122000000000071</v>
-      </c>
-      <c r="E21" s="56">
-        <f t="shared" si="28"/>
-        <v>-1.3481224577862758E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>45264</v>
-      </c>
-      <c r="B22" s="58">
-        <v>73.040001000000004</v>
-      </c>
-      <c r="C22">
-        <v>71.261700000000005</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="27"/>
-        <v>1.778300999999999</v>
-      </c>
-      <c r="E22" s="56">
-        <f t="shared" si="28"/>
-        <v>2.4954512732645991E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>45265</v>
-      </c>
-      <c r="B23" s="58">
-        <v>72.319999999999993</v>
-      </c>
-      <c r="C23">
-        <v>73.881699999999995</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="27"/>
-        <v>-1.5617000000000019</v>
-      </c>
-      <c r="E23" s="56">
-        <f t="shared" si="28"/>
-        <v>-2.113784604306617E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B24" s="58">
-        <v>69.379997000000003</v>
-      </c>
-      <c r="C24">
-        <v>71.1126</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="27"/>
-        <v>-1.7326029999999975</v>
-      </c>
-      <c r="E24" s="56">
-        <f t="shared" si="28"/>
-        <v>-2.436421956165289E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>45267</v>
-      </c>
-      <c r="B25" s="58">
-        <v>69.339995999999999</v>
-      </c>
-      <c r="C25">
-        <v>73.859700000000004</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="27"/>
-        <v>-4.5197040000000044</v>
-      </c>
-      <c r="E25" s="56">
-        <f t="shared" si="28"/>
-        <v>-6.1193099890738852E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>45268</v>
-      </c>
-      <c r="B26" s="58">
-        <v>71.23</v>
-      </c>
-      <c r="C26">
-        <v>71.077100000000002</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="27"/>
-        <v>0.15290000000000248</v>
-      </c>
-      <c r="E26" s="56">
-        <f t="shared" si="28"/>
-        <v>2.1511851215089313E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>45271</v>
-      </c>
-      <c r="B27" s="58">
-        <v>71.319999999999993</v>
-      </c>
-      <c r="C27">
-        <v>68.771699999999996</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="27"/>
-        <v>2.5482999999999976</v>
-      </c>
-      <c r="E27" s="56">
-        <f t="shared" si="28"/>
-        <v>3.7054486074940676E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>45272</v>
-      </c>
-      <c r="B28" s="58">
-        <v>68.610000999999997</v>
-      </c>
-      <c r="C28">
-        <v>69.378200000000007</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="27"/>
-        <v>-0.76819900000000985</v>
-      </c>
-      <c r="E28" s="56">
-        <f t="shared" si="28"/>
-        <v>-1.1072628001303144E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>45273</v>
-      </c>
-      <c r="B29" s="58">
-        <v>69.470000999999996</v>
-      </c>
-      <c r="C29">
-        <v>73.563900000000004</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="27"/>
-        <v>-4.0938990000000075</v>
-      </c>
-      <c r="E29" s="56">
-        <f t="shared" si="28"/>
-        <v>-5.5650923890658427E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>45274</v>
-      </c>
-      <c r="B30" s="58">
-        <v>71.580001999999993</v>
-      </c>
-      <c r="C30">
-        <v>68.991600000000005</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="27"/>
-        <v>2.5884019999999879</v>
-      </c>
-      <c r="E30" s="56">
-        <f t="shared" si="28"/>
-        <v>3.7517639828616639E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>45275</v>
-      </c>
-      <c r="B31" s="58">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="C31">
-        <v>68.003299999999996</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="27"/>
-        <v>3.426700000000011</v>
-      </c>
-      <c r="E31" s="56">
-        <f t="shared" si="28"/>
-        <v>5.0390201651978821E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B32" s="58">
-        <v>72.470000999999996</v>
-      </c>
-      <c r="C32">
-        <v>70.312200000000004</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="27"/>
-        <v>2.1578009999999921</v>
-      </c>
-      <c r="E32" s="56">
-        <f t="shared" si="28"/>
-        <v>3.0688856272453314E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B33" s="58">
-        <v>73.580001999999993</v>
-      </c>
-      <c r="C33">
-        <v>66.346900000000005</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="27"/>
-        <v>7.2331019999999882</v>
-      </c>
-      <c r="E33" s="56">
-        <f t="shared" si="28"/>
-        <v>0.10901944175236503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B34" s="58">
-        <v>73.440002000000007</v>
-      </c>
-      <c r="C34">
-        <v>71.343400000000003</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="27"/>
-        <v>2.0966020000000043</v>
-      </c>
-      <c r="E34" s="56">
-        <f t="shared" si="28"/>
-        <v>2.9387469618773483E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>45281</v>
-      </c>
-      <c r="B35" s="58">
-        <v>73.889999000000003</v>
-      </c>
-      <c r="C35">
-        <v>70.639300000000006</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="27"/>
-        <v>3.2506989999999973</v>
-      </c>
-      <c r="E35" s="56">
-        <f t="shared" si="28"/>
-        <v>4.6018278776828153E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B36" s="58">
-        <v>73.559997999999993</v>
-      </c>
-      <c r="C36">
-        <v>71.102999999999994</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="27"/>
-        <v>2.4569979999999987</v>
-      </c>
-      <c r="E36" s="56">
-        <f t="shared" si="28"/>
-        <v>3.4555475858965144E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>45286</v>
-      </c>
-      <c r="B37" s="58">
-        <v>73.559997999999993</v>
-      </c>
-      <c r="C37">
-        <v>67.181200000000004</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="27"/>
-        <v>6.3787979999999891</v>
-      </c>
-      <c r="E37" s="56">
-        <f t="shared" si="28"/>
-        <v>9.4949152441456672E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>45287</v>
-      </c>
-      <c r="B38" s="58">
-        <v>74.110000999999997</v>
-      </c>
-      <c r="C38">
-        <v>67.802999999999997</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="27"/>
-        <v>6.3070009999999996</v>
-      </c>
-      <c r="E38" s="56">
-        <f t="shared" si="28"/>
-        <v>9.3019497662345324E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>45288</v>
-      </c>
-      <c r="B39" s="58">
-        <v>71.769997000000004</v>
-      </c>
-      <c r="C39">
-        <v>68.910200000000003</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="27"/>
-        <v>2.8597970000000004</v>
-      </c>
-      <c r="E39" s="56">
-        <f t="shared" si="28"/>
-        <v>4.1500343925862937E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B40" s="58">
-        <v>71.650002000000001</v>
-      </c>
-      <c r="C40">
-        <v>71.055977272727276</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ref="D40:D78" si="29">B40-C40</f>
-        <v>0.59402472727272482</v>
-      </c>
-      <c r="E40" s="56">
-        <f t="shared" ref="E40:E78" si="30">D40/C40</f>
-        <v>8.3599543637650243E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>45293</v>
-      </c>
-      <c r="B41" s="58">
-        <v>70.379997000000003</v>
-      </c>
-      <c r="C41">
-        <v>70.808298966942161</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="29"/>
-        <v>-0.42830196694215772</v>
-      </c>
-      <c r="E41" s="56">
-        <f t="shared" si="30"/>
-        <v>-6.0487537928586091E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>45294</v>
-      </c>
-      <c r="B42" s="58">
-        <v>72.699996999999996</v>
-      </c>
-      <c r="C42">
-        <v>70.63700346543952</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="29"/>
-        <v>2.0629935345604764</v>
-      </c>
-      <c r="E42" s="56">
-        <f t="shared" si="30"/>
-        <v>2.9205564128577943E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>45295</v>
-      </c>
-      <c r="B43" s="58">
-        <v>72.190002000000007</v>
-      </c>
-      <c r="C43">
-        <v>70.505644532050397</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="29"/>
-        <v>1.6843574679496101</v>
-      </c>
-      <c r="E43" s="56">
-        <f t="shared" si="30"/>
-        <v>2.3889682579725034E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B44" s="58">
-        <v>73.809997999999993</v>
-      </c>
-      <c r="C44">
-        <v>70.297619283507231</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="29"/>
-        <v>3.512378716492762</v>
-      </c>
-      <c r="E44" s="56">
-        <f t="shared" si="30"/>
-        <v>4.9964404944177296E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>45299</v>
-      </c>
-      <c r="B45" s="58">
-        <v>70.769997000000004</v>
-      </c>
-      <c r="C45">
-        <v>67.556899999999999</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="29"/>
-        <v>3.2130970000000048</v>
-      </c>
-      <c r="E45" s="56">
-        <f t="shared" si="30"/>
-        <v>4.7561344585083161E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>45300</v>
-      </c>
-      <c r="B46" s="58">
-        <v>72.239998</v>
-      </c>
-      <c r="C46">
-        <v>69.269099999999995</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="29"/>
-        <v>2.9708980000000054</v>
-      </c>
-      <c r="E46" s="56">
-        <f t="shared" si="30"/>
-        <v>4.2889224776992994E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B47" s="58">
-        <v>71.370002999999997</v>
-      </c>
-      <c r="C47">
-        <v>67.362399999999994</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="29"/>
-        <v>4.0076030000000031</v>
-      </c>
-      <c r="E47" s="56">
-        <f t="shared" si="30"/>
-        <v>5.9493174233697189E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>45302</v>
-      </c>
-      <c r="B48" s="58">
-        <v>72.019997000000004</v>
-      </c>
-      <c r="C48">
-        <v>66.465400000000002</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="29"/>
-        <v>5.5545970000000011</v>
-      </c>
-      <c r="E48" s="56">
-        <f t="shared" si="30"/>
-        <v>8.3571256623747106E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B49" s="58">
-        <v>72.680000000000007</v>
-      </c>
-      <c r="C49">
-        <v>64.713499999999996</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="29"/>
-        <v>7.9665000000000106</v>
-      </c>
-      <c r="E49" s="56">
-        <f t="shared" si="30"/>
-        <v>0.12310414364854337</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>45306</v>
-      </c>
-      <c r="B50" s="58">
-        <v>72.5</v>
-      </c>
-      <c r="C50">
-        <v>68.029499999999999</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="29"/>
-        <v>4.4705000000000013</v>
-      </c>
-      <c r="E50" s="56">
-        <f t="shared" si="30"/>
-        <v>6.5714138719232124E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>45307</v>
-      </c>
-      <c r="B51" s="58">
-        <v>72.400002000000001</v>
-      </c>
-      <c r="C51">
-        <v>66.271699999999996</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="29"/>
-        <v>6.128302000000005</v>
-      </c>
-      <c r="E51" s="56">
-        <f t="shared" si="30"/>
-        <v>9.2472382630896827E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>45308</v>
-      </c>
-      <c r="B52" s="58">
-        <v>72.559997999999993</v>
-      </c>
-      <c r="C52">
-        <v>66.4191</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="29"/>
-        <v>6.1408979999999929</v>
-      </c>
-      <c r="E52" s="56">
-        <f t="shared" si="30"/>
-        <v>9.245680835783672E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>45309</v>
-      </c>
-      <c r="B53" s="58">
-        <v>74.080001999999993</v>
-      </c>
-      <c r="C53">
-        <v>65.858599999999996</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="29"/>
-        <v>8.2214019999999977</v>
-      </c>
-      <c r="E53" s="56">
-        <f t="shared" si="30"/>
-        <v>0.12483414466751493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>45310</v>
-      </c>
-      <c r="B54" s="58">
-        <v>73.410004000000001</v>
-      </c>
-      <c r="C54">
-        <v>66.733699999999999</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="29"/>
-        <v>6.6763040000000018</v>
-      </c>
-      <c r="E54" s="56">
-        <f t="shared" si="30"/>
-        <v>0.10004396579239577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>45313</v>
-      </c>
-      <c r="B55" s="58">
-        <v>75.010002</v>
-      </c>
-      <c r="C55">
-        <v>73.060199999999995</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="29"/>
-        <v>1.9498020000000054</v>
-      </c>
-      <c r="E55" s="56">
-        <f t="shared" si="30"/>
-        <v>2.6687608301099716E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>45314</v>
-      </c>
-      <c r="B56" s="58">
-        <v>74.370002999999997</v>
-      </c>
-      <c r="C56">
-        <v>66.487700000000004</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="29"/>
-        <v>7.8823029999999932</v>
-      </c>
-      <c r="E56" s="56">
-        <f t="shared" si="30"/>
-        <v>0.11855279999157728</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B57" s="58">
-        <v>75.089995999999999</v>
-      </c>
-      <c r="C57">
-        <v>69.870500000000007</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="29"/>
-        <v>5.2194959999999924</v>
-      </c>
-      <c r="E57" s="56">
-        <f t="shared" si="30"/>
-        <v>7.4702428063345649E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B58" s="58">
-        <v>77.360000999999997</v>
-      </c>
-      <c r="C58">
-        <v>65.425600000000003</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="29"/>
-        <v>11.934400999999994</v>
-      </c>
-      <c r="E58" s="56">
-        <f t="shared" si="30"/>
-        <v>0.18241179293732107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B59" s="58">
-        <v>78.010002</v>
-      </c>
-      <c r="C59">
-        <v>66.093599999999995</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="29"/>
-        <v>11.916402000000005</v>
-      </c>
-      <c r="E59" s="56">
-        <f t="shared" si="30"/>
-        <v>0.18029585315370938</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B60" s="58">
-        <v>76.779999000000004</v>
-      </c>
-      <c r="C60">
-        <v>63.887599999999999</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="29"/>
-        <v>12.892399000000005</v>
-      </c>
-      <c r="E60" s="56">
-        <f t="shared" si="30"/>
-        <v>0.20179814236252425</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B61" s="58">
-        <v>77.819999999999993</v>
-      </c>
-      <c r="C61">
-        <v>66.849800000000002</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="29"/>
-        <v>10.970199999999991</v>
-      </c>
-      <c r="E61" s="56">
-        <f t="shared" si="30"/>
-        <v>0.16410221122576268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B62" s="58">
-        <v>75.849997999999999</v>
-      </c>
-      <c r="C62">
-        <v>64.329300000000003</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="29"/>
-        <v>11.520697999999996</v>
-      </c>
-      <c r="E62" s="56">
-        <f t="shared" si="30"/>
-        <v>0.17908943514075226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B63" s="58">
-        <v>73.819999999999993</v>
-      </c>
-      <c r="C63">
-        <v>68.714299999999994</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="29"/>
-        <v>5.1056999999999988</v>
-      </c>
-      <c r="E63" s="56">
-        <f t="shared" si="30"/>
-        <v>7.4303310955652596E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>45324</v>
-      </c>
-      <c r="B64" s="58">
-        <v>72.279999000000004</v>
-      </c>
-      <c r="C64">
-        <v>68.295199999999994</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="29"/>
-        <v>3.9847990000000095</v>
-      </c>
-      <c r="E64" s="56">
-        <f t="shared" si="30"/>
-        <v>5.8346692007637577E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B65" s="58">
-        <v>72.779999000000004</v>
-      </c>
-      <c r="C65">
-        <v>67.8018</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="29"/>
-        <v>4.9781990000000036</v>
-      </c>
-      <c r="E65" s="56">
-        <f t="shared" si="30"/>
-        <v>7.3422814733532196E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B66" s="58">
-        <v>73.309997999999993</v>
-      </c>
-      <c r="C66">
-        <v>66.869399999999999</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="29"/>
-        <v>6.4405979999999943</v>
-      </c>
-      <c r="E66" s="56">
-        <f t="shared" si="30"/>
-        <v>9.6316072822546547E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B67" s="58">
-        <v>73.860000999999997</v>
-      </c>
-      <c r="C67">
-        <v>67.679599999999994</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="29"/>
-        <v>6.1804010000000034</v>
-      </c>
-      <c r="E67" s="56">
-        <f t="shared" si="30"/>
-        <v>9.1318521386060253E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B68" s="58">
-        <v>76.220000999999996</v>
-      </c>
-      <c r="C68">
-        <v>68.503799999999998</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="29"/>
-        <v>7.7162009999999981</v>
-      </c>
-      <c r="E68" s="56">
-        <f t="shared" si="30"/>
-        <v>0.1126390214849395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B69" s="58">
-        <v>76.839995999999999</v>
-      </c>
-      <c r="C69">
-        <v>68.205500000000001</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="29"/>
-        <v>8.6344959999999986</v>
-      </c>
-      <c r="E69" s="56">
-        <f t="shared" si="30"/>
-        <v>0.12659530389777948</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B70" s="58">
-        <v>76.919998000000007</v>
-      </c>
-      <c r="C70">
-        <v>68.694999999999993</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="29"/>
-        <v>8.2249980000000136</v>
-      </c>
-      <c r="E70" s="56">
-        <f t="shared" si="30"/>
-        <v>0.11973212024164807</v>
-      </c>
-      <c r="F70">
-        <v>68.186099999999996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B71" s="58">
-        <v>77.870002999999997</v>
-      </c>
-      <c r="C71">
-        <v>67.919700000000006</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="29"/>
-        <v>9.950302999999991</v>
-      </c>
-      <c r="E71" s="56">
-        <f t="shared" si="30"/>
-        <v>0.14650098572284609</v>
-      </c>
-      <c r="F71">
-        <v>67.919700000000006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1">
-        <v>45336</v>
-      </c>
-      <c r="B72" s="58">
-        <v>76.639999000000003</v>
-      </c>
-      <c r="C72">
-        <v>66.243799999999993</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="29"/>
-        <v>10.39619900000001</v>
-      </c>
-      <c r="E72" s="56">
-        <f t="shared" si="30"/>
-        <v>0.15693844556018843</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B73" s="58">
-        <v>78.029999000000004</v>
-      </c>
-      <c r="C73">
-        <v>73.223399999999998</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="29"/>
-        <v>4.8065990000000056</v>
-      </c>
-      <c r="E73" s="56">
-        <f t="shared" si="30"/>
-        <v>6.5642936547606445E-2</v>
-      </c>
-      <c r="F73">
-        <v>73.223399999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B74" s="58">
-        <v>79.190002000000007</v>
-      </c>
-      <c r="C74">
-        <v>70.859099999999998</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="29"/>
-        <v>8.3309020000000089</v>
-      </c>
-      <c r="E74" s="56">
-        <f t="shared" si="30"/>
-        <v>0.11756996631343059</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B75" s="58">
-        <v>79.290001000000004</v>
-      </c>
-      <c r="C75">
-        <v>68.477800000000002</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="29"/>
-        <v>10.812201000000002</v>
-      </c>
-      <c r="E75" s="56">
-        <f t="shared" si="30"/>
-        <v>0.15789352169608253</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1">
-        <v>45342</v>
-      </c>
-      <c r="B76" s="58">
-        <v>78.269997000000004</v>
-      </c>
-      <c r="C76">
-        <v>68.0334</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="29"/>
-        <v>10.236597000000003</v>
-      </c>
-      <c r="E76" s="56">
-        <f t="shared" si="30"/>
-        <v>0.15046428665919978</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B77" s="58">
-        <v>77.910004000000001</v>
-      </c>
-      <c r="C77">
-        <v>67.810500000000005</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="29"/>
-        <v>10.099503999999996</v>
-      </c>
-      <c r="E77" s="56">
-        <f t="shared" si="30"/>
-        <v>0.14893717049719432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1">
-        <v>45344</v>
-      </c>
-      <c r="B78" s="58">
-        <v>78.610000999999997</v>
-      </c>
-      <c r="C78">
-        <v>68.6648</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="29"/>
-        <v>9.9452009999999973</v>
-      </c>
-      <c r="E78" s="56">
-        <f t="shared" si="30"/>
-        <v>0.14483696158730525</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B79">
-        <v>76.489998</v>
-      </c>
-      <c r="C79">
-        <v>69.136099999999999</v>
-      </c>
-      <c r="D79">
-        <f t="shared" ref="D79:D89" si="31">B79-C79</f>
-        <v>7.3538980000000009</v>
-      </c>
-      <c r="E79" s="56">
-        <f t="shared" ref="E79:E89" si="32">D79/C79</f>
-        <v>0.10636842402160378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B80" s="58">
-        <v>77.580001999999993</v>
-      </c>
-      <c r="C80">
-        <v>64.8416</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="31"/>
-        <v>12.738401999999994</v>
-      </c>
-      <c r="E80" s="56">
-        <f t="shared" si="32"/>
-        <v>0.19645415905838218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
-        <v>45349</v>
-      </c>
-      <c r="B81" s="58">
-        <v>78.870002999999997</v>
-      </c>
-      <c r="C81">
-        <v>69.340500000000006</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="31"/>
-        <v>9.5295029999999912</v>
-      </c>
-      <c r="E81" s="56">
-        <f t="shared" si="32"/>
-        <v>0.13743054924611145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B82" s="58">
-        <v>78.540001000000004</v>
-      </c>
-      <c r="C82">
-        <v>71.798100000000005</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="31"/>
-        <v>6.7419009999999986</v>
-      </c>
-      <c r="E82" s="56">
-        <f t="shared" si="32"/>
-        <v>9.390082745922243E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B83" s="58">
-        <v>78.260002</v>
-      </c>
-      <c r="C83">
-        <v>70.0321</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="31"/>
-        <v>8.2279020000000003</v>
-      </c>
-      <c r="E83" s="56">
-        <f t="shared" si="32"/>
-        <v>0.11748758069513837</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B84" s="58">
-        <v>79.970000999999996</v>
-      </c>
-      <c r="C84">
-        <v>71.138300000000001</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="31"/>
-        <v>8.8317009999999954</v>
-      </c>
-      <c r="E84" s="56">
-        <f t="shared" si="32"/>
-        <v>0.12414832797522565</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
-        <v>45355</v>
-      </c>
-      <c r="B85" s="58">
-        <v>78.739998</v>
-      </c>
-      <c r="C85">
-        <v>68.456599999999995</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="31"/>
-        <v>10.283398000000005</v>
-      </c>
-      <c r="E85" s="56">
-        <f t="shared" si="32"/>
-        <v>0.15021777301239042</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
-        <v>45356</v>
-      </c>
-      <c r="B86" s="58">
-        <v>78.150002000000001</v>
-      </c>
-      <c r="C86">
-        <v>70.739099999999993</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="31"/>
-        <v>7.4109020000000072</v>
-      </c>
-      <c r="E86" s="56">
-        <f t="shared" si="32"/>
-        <v>0.1047638717484391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B87" s="58">
-        <v>79.129997000000003</v>
-      </c>
-      <c r="C87">
-        <v>72.393000000000001</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="31"/>
-        <v>6.7369970000000023</v>
-      </c>
-      <c r="E87" s="56">
-        <f t="shared" si="32"/>
-        <v>9.3061442404652417E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
-        <v>45358</v>
-      </c>
-      <c r="B88" s="58">
-        <v>78.930000000000007</v>
-      </c>
-      <c r="C88">
-        <v>70.430300000000003</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="31"/>
-        <v>8.4997000000000043</v>
-      </c>
-      <c r="E88" s="56">
-        <f t="shared" si="32"/>
-        <v>0.12068243355487629</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
-        <v>45359</v>
-      </c>
-      <c r="B89" s="58">
-        <v>78.010002</v>
-      </c>
-      <c r="C89">
-        <v>70.142700000000005</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="31"/>
-        <v>7.8673019999999951</v>
-      </c>
-      <c r="E89" s="56">
-        <f t="shared" si="32"/>
-        <v>0.11216137958761203</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="C90">
-        <v>70.333200000000005</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1118D-A544-4C01-8E45-CA4CC5191F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DC2F8-CC04-49AA-BB02-73B57F95EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5729,7 +5729,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.7054240523167214E-3</v>
+        <v>2.77313698988695E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D145" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D146" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E145" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E146" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8582,8 +8582,22 @@
       </c>
     </row>
     <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B146">
+        <v>3.9231799999999999</v>
+      </c>
       <c r="C146">
         <v>3.9106562</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="40"/>
+        <v>1.2523799999999863E-2</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9732,11 +9746,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A419" sqref="A419:B419"/>
+      <selection pane="bottomLeft" activeCell="E417" sqref="E417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9766,7 +9780,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4184640950241901E-2</v>
+        <v>-1.4113116747496693E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17505,11 +17519,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D419" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D420" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E419" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E420" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17840,8 +17854,27 @@
       </c>
     </row>
     <row r="420" spans="1:5">
+      <c r="A420" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B420">
+        <v>4.2867800000000003</v>
+      </c>
       <c r="C420">
         <v>4.2709960000000002</v>
+      </c>
+      <c r="D420">
+        <f t="shared" si="97"/>
+        <v>1.578400000000002E-2</v>
+      </c>
+      <c r="E420">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="C421">
+        <v>4.2870106999999997</v>
       </c>
     </row>
   </sheetData>
@@ -20061,11 +20094,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20091,7 +20124,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.728393994214815</v>
+        <v>4.7697907744981691</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21577,11 +21610,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D91" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D92" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E91" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E92" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -21814,8 +21847,27 @@
       </c>
     </row>
     <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B92" s="58">
+        <v>79.720000999999996</v>
+      </c>
       <c r="C92">
         <v>71.224500000000006</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="31"/>
+        <v>8.4955009999999902</v>
+      </c>
+      <c r="E92" s="56">
+        <f t="shared" si="32"/>
+        <v>0.11927779064788085</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="C93">
+        <v>71.230500000000006</v>
       </c>
     </row>
   </sheetData>
@@ -21829,7 +21881,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22867,6 +22919,9 @@
     <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>45364</v>
+      </c>
+      <c r="B87">
+        <v>4.2867800000000003</v>
       </c>
       <c r="C87" s="61">
         <v>4.3032537</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DC2F8-CC04-49AA-BB02-73B57F95EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82385B-25DB-4FF6-9BAD-40CFC2062939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.77313698988695E-3</v>
+        <v>2.9539004351616977E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D146" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D147" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E146" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E147" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8598,6 +8598,30 @@
       <c r="E146">
         <f t="shared" si="41"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B147">
+        <v>3.90618</v>
+      </c>
+      <c r="C147">
+        <v>3.8770153999999999</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="40"/>
+        <v>2.9164600000000096E-2</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="C148">
+        <v>3.9064713000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9746,11 +9770,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E417" sqref="E417"/>
+      <selection pane="bottomLeft" activeCell="A421" sqref="A421:B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9780,7 +9804,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4113116747496693E-2</v>
+        <v>-1.4100015755240747E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17519,11 +17543,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D420" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D421" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E420" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E421" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17873,8 +17897,27 @@
       </c>
     </row>
     <row r="421" spans="1:5">
+      <c r="A421" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B421">
+        <v>4.2784000000000004</v>
+      </c>
       <c r="C421">
         <v>4.2870106999999997</v>
+      </c>
+      <c r="D421">
+        <f t="shared" si="97"/>
+        <v>-8.610699999999305E-3</v>
+      </c>
+      <c r="E421">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="C422">
+        <v>4.2886705000000003</v>
       </c>
     </row>
   </sheetData>
@@ -20096,9 +20139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20124,7 +20167,7 @@
       </c>
       <c r="E1" s="13">
         <f>AVERAGE(D2:D301)</f>
-        <v>4.7697907744981691</v>
+        <v>4.8269615486884057</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -21610,11 +21653,11 @@
         <v>69.136099999999999</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79:D92" si="31">B79-C79</f>
+        <f t="shared" ref="D79:D93" si="31">B79-C79</f>
         <v>7.3538980000000009</v>
       </c>
       <c r="E79" s="56">
-        <f t="shared" ref="E79:E92" si="32">D79/C79</f>
+        <f t="shared" ref="E79:E93" si="32">D79/C79</f>
         <v>0.10636842402160378</v>
       </c>
     </row>
@@ -21866,8 +21909,22 @@
       </c>
     </row>
     <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B93" s="58">
+        <v>81.260002</v>
+      </c>
       <c r="C93">
         <v>71.230500000000006</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="31"/>
+        <v>10.029501999999994</v>
+      </c>
+      <c r="E93" s="56">
+        <f t="shared" si="32"/>
+        <v>0.14080347603905621</v>
       </c>
     </row>
   </sheetData>
@@ -21877,11 +21934,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87:B87"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22931,8 +22988,51 @@
       <c r="A88" s="1">
         <v>45365</v>
       </c>
+      <c r="B88">
+        <v>4.2784000000000004</v>
+      </c>
       <c r="C88" s="61">
         <v>4.2963950000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45366</v>
+      </c>
+      <c r="C89" s="61">
+        <v>4.2678719999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45369</v>
+      </c>
+      <c r="C90" s="61">
+        <v>4.2688509999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45370</v>
+      </c>
+      <c r="C91" s="61">
+        <v>4.2664657000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45371</v>
+      </c>
+      <c r="C92" s="61">
+        <v>4.2712326000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45372</v>
+      </c>
+      <c r="C93" s="61">
+        <v>4.2778735000000001</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82385B-25DB-4FF6-9BAD-40CFC2062939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B751ED80-579F-487E-95AD-38BA182A8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5739,7 +5739,7 @@
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.9539004351616977E-3</v>
+        <v>3.2387737568907106E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D147" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D151" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E147" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E151" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8620,8 +8620,84 @@
       </c>
     </row>
     <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B148">
+        <v>3.9426909999999999</v>
+      </c>
       <c r="C148">
         <v>3.9064713000000002</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="40"/>
+        <v>3.6219699999999744E-2</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B149">
+        <v>3.9481999999999999</v>
+      </c>
+      <c r="C149">
+        <v>3.9575064000000002</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="40"/>
+        <v>-9.30640000000027E-3</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B150">
+        <v>3.9731359999999998</v>
+      </c>
+      <c r="C150">
+        <v>3.9559160000000002</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="40"/>
+        <v>1.7219999999999569E-2</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B151">
+        <v>3.9689999999999999</v>
+      </c>
+      <c r="C151">
+        <v>3.9585867000000001</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="40"/>
+        <v>1.0413299999999737E-2</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="C152">
+        <v>3.9936655000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9770,11 +9846,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A421" sqref="A421:B421"/>
+      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A425" sqref="A425:B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9804,7 +9880,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4100015755240747E-2</v>
+        <v>-1.3855840134908287E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -17543,11 +17619,11 @@
         <v>4.3523909999999999</v>
       </c>
       <c r="D402">
-        <f t="shared" ref="D402:D421" si="97">B402-C402</f>
+        <f t="shared" ref="D402:D423" si="97">B402-C402</f>
         <v>-1.2190999999999619E-2</v>
       </c>
       <c r="E402">
-        <f t="shared" ref="E402:E421" si="98">IF(D402&lt;0,1,0)</f>
+        <f t="shared" ref="E402:E423" si="98">IF(D402&lt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="F402">
@@ -17916,8 +17992,84 @@
       </c>
     </row>
     <row r="422" spans="1:5">
+      <c r="A422" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B422">
+        <v>4.29087</v>
+      </c>
       <c r="C422">
         <v>4.2886705000000003</v>
+      </c>
+      <c r="D422">
+        <f t="shared" si="97"/>
+        <v>2.1994999999996878E-3</v>
+      </c>
+      <c r="E422">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B423">
+        <v>4.2968999999999999</v>
+      </c>
+      <c r="C423">
+        <v>4.2716469999999997</v>
+      </c>
+      <c r="D423">
+        <f t="shared" si="97"/>
+        <v>2.5253000000000192E-2</v>
+      </c>
+      <c r="E423">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B424">
+        <v>4.3201700000000001</v>
+      </c>
+      <c r="C424">
+        <v>4.3057126999999999</v>
+      </c>
+      <c r="D424">
+        <f t="shared" ref="D424" si="99">B424-C424</f>
+        <v>1.4457300000000117E-2</v>
+      </c>
+      <c r="E424">
+        <f t="shared" ref="E424" si="100">IF(D424&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B425">
+        <v>4.3130600000000001</v>
+      </c>
+      <c r="C425">
+        <v>4.3078393999999998</v>
+      </c>
+      <c r="D425">
+        <f t="shared" ref="D425" si="101">B425-C425</f>
+        <v>5.2206000000003527E-3</v>
+      </c>
+      <c r="E425">
+        <f t="shared" ref="E425" si="102">IF(D425&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="C426">
+        <v>4.3219852000000003</v>
       </c>
     </row>
   </sheetData>
@@ -20137,11 +20289,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:B93"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21927,6 +22079,15 @@
         <v>0.14080347603905621</v>
       </c>
     </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>45366</v>
+      </c>
+      <c r="C94">
+        <f>AVERAGE(C86:C93)</f>
+        <v>71.112375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21938,7 +22099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90:A93"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22999,6 +23160,9 @@
       <c r="A89" s="1">
         <v>45366</v>
       </c>
+      <c r="B89">
+        <v>4.29087</v>
+      </c>
       <c r="C89" s="61">
         <v>4.2678719999999997</v>
       </c>
@@ -23007,6 +23171,9 @@
       <c r="A90" s="1">
         <v>45369</v>
       </c>
+      <c r="B90">
+        <v>4.2968999999999999</v>
+      </c>
       <c r="C90" s="61">
         <v>4.2688509999999997</v>
       </c>
@@ -23015,6 +23182,9 @@
       <c r="A91" s="1">
         <v>45370</v>
       </c>
+      <c r="B91">
+        <v>4.3201700000000001</v>
+      </c>
       <c r="C91" s="61">
         <v>4.2664657000000004</v>
       </c>
@@ -23022,6 +23192,9 @@
     <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>45371</v>
+      </c>
+      <c r="B92">
+        <v>4.3130600000000001</v>
       </c>
       <c r="C92" s="61">
         <v>4.2712326000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B751ED80-579F-487E-95AD-38BA182A8FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919CE10-B08E-4CF0-9B29-13C0CB9401E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.2387737568907106E-3</v>
+        <v>2.8628381690967331E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D151" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D152" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E151" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E152" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8696,8 +8696,27 @@
       </c>
     </row>
     <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B152">
+        <v>3.9401380000000001</v>
+      </c>
       <c r="C152">
         <v>3.9936655000000001</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="40"/>
+        <v>-5.352749999999995E-2</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="C153">
+        <v>3.9564270000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9846,11 +9865,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A425" sqref="A425:B425"/>
+      <selection pane="bottomLeft" activeCell="A426" sqref="A426:B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9880,7 +9899,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.3855840134908287E-2</v>
+        <v>-1.3853109216943797E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18059,17 +18078,36 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D426" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E426" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:5">
+      <c r="A426" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B426">
+        <v>4.3092899999999998</v>
+      </c>
       <c r="C426">
         <v>4.3219852000000003</v>
+      </c>
+      <c r="D426">
+        <f t="shared" si="101"/>
+        <v>-1.2695200000000462E-2</v>
+      </c>
+      <c r="E426">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="C427">
+        <v>4.3270049999999998</v>
       </c>
     </row>
   </sheetData>
@@ -22095,11 +22133,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A92" sqref="A92:B92"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23204,8 +23242,51 @@
       <c r="A93" s="1">
         <v>45372</v>
       </c>
+      <c r="B93">
+        <v>4.3092899999999998</v>
+      </c>
       <c r="C93" s="61">
         <v>4.2778735000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45373</v>
+      </c>
+      <c r="C94" s="61">
+        <v>4.2990250000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45376</v>
+      </c>
+      <c r="C95" s="61">
+        <v>4.2968286999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45377</v>
+      </c>
+      <c r="C96" s="61">
+        <v>4.3011739999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45378</v>
+      </c>
+      <c r="C97" s="61">
+        <v>4.3087150000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45379</v>
+      </c>
+      <c r="C98" s="61">
+        <v>4.3219099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B919CE10-B08E-4CF0-9B29-13C0CB9401E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5243EF-D59C-4147-A1D2-BA5D59F51413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.8628381690967331E-3</v>
+        <v>2.8714576548263581E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D152" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D153" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E152" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E153" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8715,8 +8715,27 @@
       </c>
     </row>
     <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B153">
+        <v>3.9605999999999999</v>
+      </c>
       <c r="C153">
         <v>3.9564270000000001</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="40"/>
+        <v>4.1729999999997602E-3</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="C154">
+        <v>3.963076</v>
       </c>
     </row>
   </sheetData>
@@ -9865,11 +9884,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A426" sqref="A426:B426"/>
+      <selection pane="bottomLeft" activeCell="A427" sqref="A427:B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9899,7 +9918,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.3853109216943797E-2</v>
+        <v>-1.3881165298594164E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18078,11 +18097,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D426" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D427" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E426" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E427" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18106,8 +18125,27 @@
       </c>
     </row>
     <row r="427" spans="1:5">
+      <c r="A427" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B427">
+        <v>4.3011999999999997</v>
+      </c>
       <c r="C427">
         <v>4.3270049999999998</v>
+      </c>
+      <c r="D427">
+        <f t="shared" si="101"/>
+        <v>-2.5805000000000078E-2</v>
+      </c>
+      <c r="E427">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="C428">
+        <v>4.3478570000000003</v>
       </c>
     </row>
   </sheetData>
@@ -22135,9 +22173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23252,6 +23290,9 @@
     <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>45373</v>
+      </c>
+      <c r="B94">
+        <v>4.3011999999999997</v>
       </c>
       <c r="C94" s="61">
         <v>4.2990250000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5243EF-D59C-4147-A1D2-BA5D59F51413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196DDC7-CE27-4F69-A996-B7CCC14B4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.8714576548263581E-3</v>
+        <v>2.6186427149590178E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D153" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D157" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E153" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E157" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8734,8 +8734,84 @@
       </c>
     </row>
     <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B154">
+        <v>3.9964840000000001</v>
+      </c>
       <c r="C154">
         <v>3.963076</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="40"/>
+        <v>3.3408000000000104E-2</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B155">
+        <v>3.9698829999999998</v>
+      </c>
+      <c r="C155">
+        <v>4.0141369999999998</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="40"/>
+        <v>-4.4254000000000016E-2</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B156">
+        <v>3.9759790000000002</v>
+      </c>
+      <c r="C156">
+        <v>3.9835587000000001</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="40"/>
+        <v>-7.579699999999967E-3</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B157">
+        <v>3.9868000000000001</v>
+      </c>
+      <c r="C157">
+        <v>3.9963275999999999</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="40"/>
+        <v>-9.5275999999997474E-3</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="C158">
+        <v>3.9655209999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9884,11 +9960,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A427" sqref="A427:B427"/>
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A431" sqref="A431:B431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9918,7 +9994,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.3881165298594164E-2</v>
+        <v>-1.3954697946979336E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18097,11 +18173,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D427" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D431" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E427" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E431" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18144,8 +18220,84 @@
       </c>
     </row>
     <row r="428" spans="1:5">
+      <c r="A428" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B428">
+        <v>4.3190999999999997</v>
+      </c>
       <c r="C428">
         <v>4.3478570000000003</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="101"/>
+        <v>-2.8757000000000588E-2</v>
+      </c>
+      <c r="E428">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B429">
+        <v>4.3025000000000002</v>
+      </c>
+      <c r="C429">
+        <v>4.3300995999999996</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="101"/>
+        <v>-2.7599599999999391E-2</v>
+      </c>
+      <c r="E429">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B430">
+        <v>4.3068200000000001</v>
+      </c>
+      <c r="C430">
+        <v>4.3305254</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="101"/>
+        <v>-2.3705399999999877E-2</v>
+      </c>
+      <c r="E430">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B431">
+        <v>4.3119399999999999</v>
+      </c>
+      <c r="C431">
+        <v>4.3190217000000004</v>
+      </c>
+      <c r="D431">
+        <f t="shared" si="101"/>
+        <v>-7.0817000000005237E-3</v>
+      </c>
+      <c r="E431">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="C432">
+        <v>4.3305553999999997</v>
       </c>
     </row>
   </sheetData>
@@ -22171,11 +22323,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23302,6 +23454,9 @@
       <c r="A95" s="1">
         <v>45376</v>
       </c>
+      <c r="B95">
+        <v>4.3190999999999997</v>
+      </c>
       <c r="C95" s="61">
         <v>4.2968286999999998</v>
       </c>
@@ -23310,6 +23465,9 @@
       <c r="A96" s="1">
         <v>45377</v>
       </c>
+      <c r="B96">
+        <v>4.3025000000000002</v>
+      </c>
       <c r="C96" s="61">
         <v>4.3011739999999996</v>
       </c>
@@ -23318,6 +23476,9 @@
       <c r="A97" s="1">
         <v>45378</v>
       </c>
+      <c r="B97">
+        <v>4.3068200000000001</v>
+      </c>
       <c r="C97" s="61">
         <v>4.3087150000000003</v>
       </c>
@@ -23326,8 +23487,51 @@
       <c r="A98" s="1">
         <v>45379</v>
       </c>
+      <c r="B98">
+        <v>4.3119399999999999</v>
+      </c>
       <c r="C98" s="61">
         <v>4.3219099999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45380</v>
+      </c>
+      <c r="C99" s="61">
+        <v>4.3158035000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45383</v>
+      </c>
+      <c r="C100" s="61">
+        <v>4.3159236999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45384</v>
+      </c>
+      <c r="C101" s="61">
+        <v>4.3132320000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45385</v>
+      </c>
+      <c r="C102" s="61">
+        <v>4.312487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45386</v>
+      </c>
+      <c r="C103" s="61">
+        <v>4.3127583999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196DDC7-CE27-4F69-A996-B7CCC14B4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D8941-E0AE-4A13-991C-FCCA707A23A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.6186427149590178E-3</v>
+        <v>2.7199111616051058E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D157" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D159" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E157" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E159" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8810,8 +8810,46 @@
       </c>
     </row>
     <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B158">
+        <v>3.9874000000000001</v>
+      </c>
       <c r="C158">
         <v>3.9655209999999999</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="40"/>
+        <v>2.1879000000000204E-2</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B159">
+        <v>3.9826269999999999</v>
+      </c>
+      <c r="C159">
+        <v>3.9832683000000002</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="40"/>
+        <v>-6.4130000000028886E-4</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="C160">
+        <v>3.9379525000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9960,11 +9998,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A431" sqref="A431:B431"/>
+      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A433" sqref="A433:B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9994,7 +10032,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.3954697946979336E-2</v>
+        <v>-1.4131746567595171E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18173,11 +18211,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D431" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D433" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E431" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E433" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18296,8 +18334,46 @@
       </c>
     </row>
     <row r="432" spans="1:5">
+      <c r="A432" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B432">
+        <v>4.3025000000000002</v>
+      </c>
       <c r="C432">
         <v>4.3305553999999997</v>
+      </c>
+      <c r="D432">
+        <f t="shared" si="101"/>
+        <v>-2.8055399999999509E-2</v>
+      </c>
+      <c r="E432">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B433">
+        <v>4.2982500000000003</v>
+      </c>
+      <c r="C433">
+        <v>4.3745890000000003</v>
+      </c>
+      <c r="D433">
+        <f t="shared" si="101"/>
+        <v>-7.6338999999999935E-2</v>
+      </c>
+      <c r="E433">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="C434">
+        <v>4.3305654999999996</v>
       </c>
     </row>
   </sheetData>
@@ -22325,9 +22401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:A103"/>
+      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23498,6 +23574,9 @@
       <c r="A99" s="1">
         <v>45380</v>
       </c>
+      <c r="B99">
+        <v>4.3025000000000002</v>
+      </c>
       <c r="C99" s="61">
         <v>4.3158035000000003</v>
       </c>
@@ -23505,6 +23584,9 @@
     <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>45383</v>
+      </c>
+      <c r="B100">
+        <v>4.2982500000000003</v>
       </c>
       <c r="C100" s="61">
         <v>4.3159236999999999</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D8941-E0AE-4A13-991C-FCCA707A23A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CB540-91AE-4524-AA2C-9E0441BC1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.7199111616051058E-3</v>
+        <v>3.0686758712805432E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D159" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D160" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E159" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E160" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8848,8 +8848,27 @@
       </c>
     </row>
     <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B160">
+        <v>3.9961259999999998</v>
+      </c>
       <c r="C160">
         <v>3.9379525000000002</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="40"/>
+        <v>5.8173499999999656E-2</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161">
+        <v>3.9961921999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9998,11 +10017,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A433" sqref="A433:B433"/>
+      <selection pane="bottomLeft" activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10032,7 +10051,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4131746567595171E-2</v>
+        <v>-1.4191408815706959E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18211,11 +18230,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D433" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D434" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E433" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E434" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18372,8 +18391,27 @@
       </c>
     </row>
     <row r="434" spans="1:5">
+      <c r="A434" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B434">
+        <v>4.2906000000000004</v>
+      </c>
       <c r="C434">
         <v>4.3305654999999996</v>
+      </c>
+      <c r="D434">
+        <f t="shared" si="101"/>
+        <v>-3.996549999999921E-2</v>
+      </c>
+      <c r="E434">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="C435">
+        <v>4.3161925999999999</v>
       </c>
     </row>
   </sheetData>
@@ -22403,7 +22441,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23595,6 +23633,9 @@
     <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>45384</v>
+      </c>
+      <c r="B101">
+        <v>4.2906000000000004</v>
       </c>
       <c r="C101" s="61">
         <v>4.3132320000000002</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CB540-91AE-4524-AA2C-9E0441BC1045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AEE9C-C22E-467C-88CF-9F6ABC55F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B161"/>
+      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.0686758712805432E-3</v>
+        <v>2.9746828970850401E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D160" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D161" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E160" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E161" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8866,9 +8866,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B161">
+        <v>3.9842219999999999</v>
+      </c>
       <c r="C161">
         <v>3.9961921999999999</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="40"/>
+        <v>-1.1970199999999931E-2</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="C162">
+        <v>3.947708</v>
       </c>
     </row>
   </sheetData>
@@ -10017,11 +10036,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C436" sqref="C436"/>
+      <selection pane="bottomLeft" activeCell="A435" sqref="A435:B435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10051,7 +10070,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4191408815706959E-2</v>
+        <v>-1.4218485293090121E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18230,11 +18249,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D434" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D435" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E434" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E435" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18410,8 +18429,27 @@
       </c>
     </row>
     <row r="435" spans="1:5">
+      <c r="A435" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B435">
+        <v>4.2902500000000003</v>
+      </c>
       <c r="C435">
         <v>4.3161925999999999</v>
+      </c>
+      <c r="D435">
+        <f t="shared" si="101"/>
+        <v>-2.5942599999999594E-2</v>
+      </c>
+      <c r="E435">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="C436">
+        <v>4.3066683000000001</v>
       </c>
     </row>
   </sheetData>
@@ -22439,9 +22477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101:B101"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23644,6 +23682,9 @@
     <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>45385</v>
+      </c>
+      <c r="B102">
+        <v>4.2902500000000003</v>
       </c>
       <c r="C102" s="61">
         <v>4.312487</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292AEE9C-C22E-467C-88CF-9F6ABC55F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754288D7-CE1B-4DF8-A873-C9CCE021AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.9746828970850401E-3</v>
+        <v>3.1830016368546979E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D161" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D162" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E161" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E162" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8886,8 +8886,27 @@
       </c>
     </row>
     <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B162">
+        <v>3.9842219999999999</v>
+      </c>
       <c r="C162">
         <v>3.947708</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="40"/>
+        <v>3.6513999999999935E-2</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="C163">
+        <v>3.9944750999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10036,11 +10055,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A435" sqref="A435:B435"/>
+      <selection pane="bottomLeft" activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10070,7 +10089,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4218485293090121E-2</v>
+        <v>-1.4223542338393362E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18249,11 +18268,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D435" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D436" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E435" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E436" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18448,8 +18467,27 @@
       </c>
     </row>
     <row r="436" spans="1:5">
+      <c r="A436" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B436">
+        <v>4.2902500000000003</v>
+      </c>
       <c r="C436">
         <v>4.3066683000000001</v>
+      </c>
+      <c r="D436">
+        <f t="shared" si="101"/>
+        <v>-1.6418299999999775E-2</v>
+      </c>
+      <c r="E436">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="C437">
+        <v>4.3047769999999996</v>
       </c>
     </row>
   </sheetData>
@@ -22477,7 +22515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
     </sheetView>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754288D7-CE1B-4DF8-A873-C9CCE021AEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBE9184-CA73-4794-BF04-FE1A1F4DE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.1830016368546979E-3</v>
+        <v>3.6932440930156104E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D162" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D168" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E162" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E168" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8905,8 +8905,122 @@
       </c>
     </row>
     <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B163">
+        <v>3.9580769999999998</v>
+      </c>
       <c r="C163">
         <v>3.9944750999999998</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="40"/>
+        <v>-3.6398099999999989E-2</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B164">
+        <v>3.9529299999999998</v>
+      </c>
+      <c r="C164">
+        <v>3.9541515999999999</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="40"/>
+        <v>-1.2216000000000449E-3</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B165">
+        <v>3.920814</v>
+      </c>
+      <c r="C165">
+        <v>3.9204593000000001</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="40"/>
+        <v>3.5469999999993007E-4</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B166">
+        <v>3.9284300000000001</v>
+      </c>
+      <c r="C166">
+        <v>3.9409296999999999</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="40"/>
+        <v>-1.249969999999978E-2</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B167">
+        <v>3.9679720000000001</v>
+      </c>
+      <c r="C167">
+        <v>3.8961679999999999</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="40"/>
+        <v>7.1804000000000201E-2</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B168">
+        <v>3.9728520000000001</v>
+      </c>
+      <c r="C168">
+        <v>3.8905827999999998</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="40"/>
+        <v>8.2269200000000264E-2</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="C169">
+        <v>3.9539021999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10055,11 +10169,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B438" sqref="B438"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B445" sqref="B445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10089,7 +10203,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4223542338393362E-2</v>
+        <v>-1.4258688927893682E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18268,11 +18382,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D436" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D442" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E436" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E442" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18486,8 +18600,122 @@
       </c>
     </row>
     <row r="437" spans="1:5">
+      <c r="A437" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B437">
+        <v>4.2891500000000002</v>
+      </c>
       <c r="C437">
         <v>4.3047769999999996</v>
+      </c>
+      <c r="D437">
+        <f t="shared" si="101"/>
+        <v>-1.5626999999999391E-2</v>
+      </c>
+      <c r="E437">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B438">
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="C438">
+        <v>4.3076463</v>
+      </c>
+      <c r="D438">
+        <f t="shared" si="101"/>
+        <v>-2.9646300000000458E-2</v>
+      </c>
+      <c r="E438">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B439">
+        <v>4.2587099999999998</v>
+      </c>
+      <c r="C439">
+        <v>4.2658052</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="101"/>
+        <v>-7.0952000000001902E-3</v>
+      </c>
+      <c r="E439">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B440">
+        <v>4.2657499999999997</v>
+      </c>
+      <c r="C440">
+        <v>4.2878790000000002</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="101"/>
+        <v>-2.2129000000000509E-2</v>
+      </c>
+      <c r="E440">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B441">
+        <v>4.2618</v>
+      </c>
+      <c r="C441">
+        <v>4.2792377000000004</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="101"/>
+        <v>-1.7437700000000333E-2</v>
+      </c>
+      <c r="E441">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B442">
+        <v>4.2614799999999997</v>
+      </c>
+      <c r="C442">
+        <v>4.2703857000000003</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="101"/>
+        <v>-8.9057000000005715E-3</v>
+      </c>
+      <c r="E442">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="C443">
+        <v>4.2673920000000001</v>
       </c>
     </row>
   </sheetData>
@@ -22513,11 +22741,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:B102"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23732,8 +23960,109 @@
       <c r="A103" s="1">
         <v>45386</v>
       </c>
+      <c r="B103">
+        <v>4.2902500000000003</v>
+      </c>
       <c r="C103" s="61">
         <v>4.3127583999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B104">
+        <v>4.2891500000000002</v>
+      </c>
+      <c r="C104" s="61">
+        <v>4.3017700000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B105">
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="C105" s="61">
+        <v>4.3098660000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B106">
+        <v>4.2587099999999998</v>
+      </c>
+      <c r="C106" s="61">
+        <v>4.3089212999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B107">
+        <v>4.2657499999999997</v>
+      </c>
+      <c r="C107" s="61">
+        <v>4.3071070000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B108">
+        <v>4.2618</v>
+      </c>
+      <c r="C108" s="61">
+        <v>4.3006853999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B109">
+        <v>4.2614799999999997</v>
+      </c>
+      <c r="C109" s="61">
+        <v>4.3146515000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45397</v>
+      </c>
+      <c r="C110" s="61">
+        <v>4.3152594999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45398</v>
+      </c>
+      <c r="C111" s="61">
+        <v>4.3107819999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45399</v>
+      </c>
+      <c r="C112" s="61">
+        <v>4.306127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45400</v>
+      </c>
+      <c r="C113" s="61">
+        <v>4.2943689999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBE9184-CA73-4794-BF04-FE1A1F4DE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669EA143-0A0C-4291-8FB4-28E3ADE44343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.6932440930156104E-3</v>
+        <v>4.3351413072140778E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D168" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D172" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E168" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E172" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9019,8 +9019,84 @@
       </c>
     </row>
     <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B169">
+        <v>4.0198910000000003</v>
+      </c>
       <c r="C169">
         <v>3.9539021999999999</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="40"/>
+        <v>6.5988800000000403E-2</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B170">
+        <v>4.0476029999999996</v>
+      </c>
+      <c r="C170">
+        <v>3.9894185000000002</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="40"/>
+        <v>5.8184499999999417E-2</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B171">
+        <v>4.1107240000000003</v>
+      </c>
+      <c r="C171">
+        <v>4.0683894</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="40"/>
+        <v>4.2334600000000222E-2</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B172">
+        <v>4.065048</v>
+      </c>
+      <c r="C172">
+        <v>4.1070184999999997</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="40"/>
+        <v>-4.1970499999999689E-2</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="C173">
+        <v>4.0998720000000004</v>
       </c>
     </row>
   </sheetData>
@@ -10169,11 +10245,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I443"/>
+  <dimension ref="A1:I447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B445" sqref="B445"/>
+      <selection pane="bottomLeft" activeCell="A446" sqref="A446:B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10203,7 +10279,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4258688927893682E-2</v>
+        <v>-1.4006134645395763E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18382,11 +18458,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D442" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D446" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E442" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E446" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18714,8 +18790,84 @@
       </c>
     </row>
     <row r="443" spans="1:5">
+      <c r="A443" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B443">
+        <v>4.2803000000000004</v>
+      </c>
       <c r="C443">
         <v>4.2673920000000001</v>
+      </c>
+      <c r="D443">
+        <f t="shared" si="101"/>
+        <v>1.2908000000000364E-2</v>
+      </c>
+      <c r="E443">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B444">
+        <v>4.3007</v>
+      </c>
+      <c r="C444">
+        <v>4.2771897000000001</v>
+      </c>
+      <c r="D444">
+        <f t="shared" si="101"/>
+        <v>2.3510299999999873E-2</v>
+      </c>
+      <c r="E444">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B445">
+        <v>4.3660199999999998</v>
+      </c>
+      <c r="C445">
+        <v>4.3058610000000002</v>
+      </c>
+      <c r="D445">
+        <f t="shared" si="101"/>
+        <v>6.0158999999999629E-2</v>
+      </c>
+      <c r="E445">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B446">
+        <v>4.33704</v>
+      </c>
+      <c r="C446">
+        <v>4.3782654000000001</v>
+      </c>
+      <c r="D446">
+        <f t="shared" si="101"/>
+        <v>-4.1225400000000079E-2</v>
+      </c>
+      <c r="E446">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="C447">
+        <v>4.3650612999999998</v>
       </c>
     </row>
   </sheetData>
@@ -22741,11 +22893,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24037,6 +24189,9 @@
       <c r="A110" s="1">
         <v>45397</v>
       </c>
+      <c r="B110">
+        <v>4.2803000000000004</v>
+      </c>
       <c r="C110" s="61">
         <v>4.3152594999999998</v>
       </c>
@@ -24045,6 +24200,9 @@
       <c r="A111" s="1">
         <v>45398</v>
       </c>
+      <c r="B111">
+        <v>4.3007</v>
+      </c>
       <c r="C111" s="61">
         <v>4.3107819999999997</v>
       </c>
@@ -24053,6 +24211,9 @@
       <c r="A112" s="1">
         <v>45399</v>
       </c>
+      <c r="B112">
+        <v>4.3660199999999998</v>
+      </c>
       <c r="C112" s="61">
         <v>4.306127</v>
       </c>
@@ -24061,8 +24222,51 @@
       <c r="A113" s="1">
         <v>45400</v>
       </c>
+      <c r="B113">
+        <v>4.33704</v>
+      </c>
       <c r="C113" s="61">
         <v>4.2943689999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>45401</v>
+      </c>
+      <c r="C114" s="61">
+        <v>4.3177349999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>45404</v>
+      </c>
+      <c r="C115" s="61">
+        <v>4.3054113000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>45405</v>
+      </c>
+      <c r="C116" s="61">
+        <v>4.2943239999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>45406</v>
+      </c>
+      <c r="C117" s="61">
+        <v>4.2804456000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>45407</v>
+      </c>
+      <c r="C118" s="61">
+        <v>4.2759776</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669EA143-0A0C-4291-8FB4-28E3ADE44343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0977BCB-41B2-4563-A279-77328A98FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>4.3351413072140778E-3</v>
+        <v>3.9578532018954941E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D172" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D177" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E172" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E177" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9095,8 +9095,103 @@
       </c>
     </row>
     <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B173">
+        <v>4.0745509999999996</v>
+      </c>
       <c r="C173">
         <v>4.0998720000000004</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="40"/>
+        <v>-2.5321000000000815E-2</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B174">
+        <v>4.0388440000000001</v>
+      </c>
+      <c r="C174">
+        <v>4.0706085999999999</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="40"/>
+        <v>-3.176459999999981E-2</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B175">
+        <v>4.0480999999999998</v>
+      </c>
+      <c r="C175">
+        <v>4.0489199999999999</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="40"/>
+        <v>-8.2000000000004292E-4</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B176">
+        <v>4.0228000000000002</v>
+      </c>
+      <c r="C176">
+        <v>4.0666026999999998</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="40"/>
+        <v>-4.3802699999999639E-2</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B177">
+        <v>4.0478719999999999</v>
+      </c>
+      <c r="C177">
+        <v>3.9908907</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="40"/>
+        <v>5.6981299999999901E-2</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="C178">
+        <v>4.0895320000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10245,11 +10340,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I447"/>
+  <dimension ref="A1:I452"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A446" sqref="A446:B446"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A451" sqref="A451:B451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10279,7 +10374,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4006134645395763E-2</v>
+        <v>-1.4078515371558032E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18458,11 +18553,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D446" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D451" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E446" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E451" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18866,8 +18961,103 @@
       </c>
     </row>
     <row r="447" spans="1:5">
+      <c r="A447" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B447">
+        <v>4.33683</v>
+      </c>
       <c r="C447">
         <v>4.3650612999999998</v>
+      </c>
+      <c r="D447">
+        <f t="shared" si="101"/>
+        <v>-2.8231299999999848E-2</v>
+      </c>
+      <c r="E447">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B448">
+        <v>4.3045999999999998</v>
+      </c>
+      <c r="C448">
+        <v>4.3582764000000003</v>
+      </c>
+      <c r="D448">
+        <f t="shared" si="101"/>
+        <v>-5.3676400000000513E-2</v>
+      </c>
+      <c r="E448">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B449">
+        <v>4.3122999999999996</v>
+      </c>
+      <c r="C449">
+        <v>4.3222218000000003</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="101"/>
+        <v>-9.9218000000007578E-3</v>
+      </c>
+      <c r="E449">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B450">
+        <v>4.3048000000000002</v>
+      </c>
+      <c r="C450">
+        <v>4.3288849999999996</v>
+      </c>
+      <c r="D450">
+        <f t="shared" si="101"/>
+        <v>-2.4084999999999468E-2</v>
+      </c>
+      <c r="E450">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B451">
+        <v>4.3310000000000004</v>
+      </c>
+      <c r="C451">
+        <v>4.3176874999999999</v>
+      </c>
+      <c r="D451">
+        <f t="shared" si="101"/>
+        <v>1.3312500000000504E-2</v>
+      </c>
+      <c r="E451">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="C452">
+        <v>4.349297</v>
       </c>
     </row>
   </sheetData>
@@ -22893,11 +23083,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24233,6 +24423,9 @@
       <c r="A114" s="1">
         <v>45401</v>
       </c>
+      <c r="B114">
+        <v>4.33683</v>
+      </c>
       <c r="C114" s="61">
         <v>4.3177349999999999</v>
       </c>
@@ -24241,6 +24434,9 @@
       <c r="A115" s="1">
         <v>45404</v>
       </c>
+      <c r="B115">
+        <v>4.3045999999999998</v>
+      </c>
       <c r="C115" s="61">
         <v>4.3054113000000003</v>
       </c>
@@ -24249,6 +24445,9 @@
       <c r="A116" s="1">
         <v>45405</v>
       </c>
+      <c r="B116">
+        <v>4.3122999999999996</v>
+      </c>
       <c r="C116" s="61">
         <v>4.2943239999999996</v>
       </c>
@@ -24257,6 +24456,9 @@
       <c r="A117" s="1">
         <v>45406</v>
       </c>
+      <c r="B117">
+        <v>4.3048000000000002</v>
+      </c>
       <c r="C117" s="61">
         <v>4.2804456000000002</v>
       </c>
@@ -24265,8 +24467,51 @@
       <c r="A118" s="1">
         <v>45407</v>
       </c>
+      <c r="B118">
+        <v>4.3310000000000004</v>
+      </c>
       <c r="C118" s="61">
         <v>4.2759776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>45408</v>
+      </c>
+      <c r="C119" s="61">
+        <v>4.3050113000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>45411</v>
+      </c>
+      <c r="C120" s="61">
+        <v>4.3039804000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C121" s="61">
+        <v>4.3125460000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45413</v>
+      </c>
+      <c r="C122" s="61">
+        <v>4.3213179999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45414</v>
+      </c>
+      <c r="C123" s="61">
+        <v>4.3353010000000003</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0977BCB-41B2-4563-A279-77328A98FAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC54B1-A932-44EA-8011-6F6E9C24FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182:A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.9578532018954941E-3</v>
+        <v>3.0957800194154239E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D177" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D183" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E177" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E183" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9190,8 +9190,117 @@
       </c>
     </row>
     <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B178">
+        <v>4.0194000000000001</v>
+      </c>
       <c r="C178">
         <v>4.0895320000000002</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="40"/>
+        <v>-7.0132000000000083E-2</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B179">
+        <v>4.0339039999999997</v>
+      </c>
+      <c r="C179">
+        <v>4.0375430000000003</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="40"/>
+        <v>-3.639000000000614E-3</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B180">
+        <v>4.025188</v>
+      </c>
+      <c r="C180">
+        <v>4.0863985999999999</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="40"/>
+        <v>-6.1210599999999893E-2</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B181">
+        <v>4.05959</v>
+      </c>
+      <c r="C181">
+        <v>3.9980273</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="40"/>
+        <v>6.1562700000000081E-2</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B182">
+        <v>4.0334000000000003</v>
+      </c>
+      <c r="C182">
+        <v>4.0914992999999997</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="40"/>
+        <v>-5.809929999999941E-2</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B183">
+        <v>4.0334580000000004</v>
+      </c>
+      <c r="C183">
+        <v>4.0350900000000003</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="40"/>
+        <v>-1.6319999999998558E-3</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10340,11 +10449,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A451" sqref="A451:B451"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A457" sqref="A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10374,7 +10483,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4078515371558032E-2</v>
+        <v>-1.4063160125441039E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -18553,11 +18662,11 @@
         <v>4.3078393999999998</v>
       </c>
       <c r="D425">
-        <f t="shared" ref="D425:D451" si="101">B425-C425</f>
+        <f t="shared" ref="D425:D453" si="101">B425-C425</f>
         <v>5.2206000000003527E-3</v>
       </c>
       <c r="E425">
-        <f t="shared" ref="E425:E451" si="102">IF(D425&lt;0,1,0)</f>
+        <f t="shared" ref="E425:E453" si="102">IF(D425&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -19056,8 +19165,122 @@
       </c>
     </row>
     <row r="452" spans="1:5">
+      <c r="A452" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B452">
+        <v>4.3116000000000003</v>
+      </c>
       <c r="C452">
         <v>4.349297</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="101"/>
+        <v>-3.7696999999999647E-2</v>
+      </c>
+      <c r="E452">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B453">
+        <v>4.3189399999999996</v>
+      </c>
+      <c r="C453">
+        <v>4.3601074000000004</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="101"/>
+        <v>-4.1167400000000853E-2</v>
+      </c>
+      <c r="E453">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B454">
+        <v>4.3131500000000003</v>
+      </c>
+      <c r="C454">
+        <v>4.3265095000000002</v>
+      </c>
+      <c r="D454">
+        <f t="shared" ref="D454:D457" si="103">B454-C454</f>
+        <v>-1.3359499999999969E-2</v>
+      </c>
+      <c r="E454">
+        <f t="shared" ref="E454:E457" si="104">IF(D454&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B455">
+        <v>4.3302300000000002</v>
+      </c>
+      <c r="C455">
+        <v>4.3135184999999998</v>
+      </c>
+      <c r="D455">
+        <f t="shared" si="103"/>
+        <v>1.6711500000000434E-2</v>
+      </c>
+      <c r="E455">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B456">
+        <v>4.3250099999999998</v>
+      </c>
+      <c r="C456">
+        <v>4.3296403999999997</v>
+      </c>
+      <c r="D456">
+        <f t="shared" si="103"/>
+        <v>-4.6303999999999235E-3</v>
+      </c>
+      <c r="E456">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B457">
+        <v>4.3278999999999996</v>
+      </c>
+      <c r="C457">
+        <v>4.3252262999999997</v>
+      </c>
+      <c r="D457">
+        <f t="shared" si="103"/>
+        <v>2.6736999999998901E-3</v>
+      </c>
+      <c r="E457">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="C458">
+        <v>4.3249183000000002</v>
       </c>
     </row>
   </sheetData>
@@ -23085,9 +23308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24477,6 +24700,9 @@
     <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>45408</v>
+      </c>
+      <c r="B119">
+        <v>4.3116000000000003</v>
       </c>
       <c r="C119" s="61">
         <v>4.3050113000000003</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFC54B1-A932-44EA-8011-6F6E9C24FB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E4184-2D04-4D3D-AA09-5DD4BEE9379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182:A183"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.0957800194154239E-3</v>
+        <v>2.992338598544302E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D183" si="40">B132-C132</f>
+        <f t="shared" ref="D132:D184" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E183" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E184" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9301,6 +9301,30 @@
       <c r="E183">
         <f t="shared" si="41"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B184">
+        <v>4.0131810000000003</v>
+      </c>
+      <c r="C184">
+        <v>4.0290150000000002</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="40"/>
+        <v>-1.5833999999999904E-2</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="C185">
+        <v>4.0610080000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10449,11 +10473,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I458"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A457" sqref="A457"/>
+      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10483,7 +10507,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4063160125441039E-2</v>
+        <v>-1.4049057586873335E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19213,11 +19237,11 @@
         <v>4.3265095000000002</v>
       </c>
       <c r="D454">
-        <f t="shared" ref="D454:D457" si="103">B454-C454</f>
+        <f t="shared" ref="D454:D458" si="103">B454-C454</f>
         <v>-1.3359499999999969E-2</v>
       </c>
       <c r="E454">
-        <f t="shared" ref="E454:E457" si="104">IF(D454&lt;0,1,0)</f>
+        <f t="shared" ref="E454:E458" si="104">IF(D454&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19279,8 +19303,27 @@
       </c>
     </row>
     <row r="458" spans="1:5">
+      <c r="A458" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B458">
+        <v>4.3173000000000004</v>
+      </c>
       <c r="C458">
         <v>4.3249183000000002</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="103"/>
+        <v>-7.6182999999998557E-3</v>
+      </c>
+      <c r="E458">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="C459">
+        <v>4.3740262999999997</v>
       </c>
     </row>
   </sheetData>
@@ -23306,11 +23349,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24712,6 +24755,9 @@
       <c r="A120" s="1">
         <v>45411</v>
       </c>
+      <c r="B120">
+        <v>4.3189399999999996</v>
+      </c>
       <c r="C120" s="61">
         <v>4.3039804000000004</v>
       </c>
@@ -24720,6 +24766,9 @@
       <c r="A121" s="1">
         <v>45412</v>
       </c>
+      <c r="B121">
+        <v>4.3131500000000003</v>
+      </c>
       <c r="C121" s="61">
         <v>4.3125460000000002</v>
       </c>
@@ -24728,6 +24777,9 @@
       <c r="A122" s="1">
         <v>45413</v>
       </c>
+      <c r="B122">
+        <v>4.3302300000000002</v>
+      </c>
       <c r="C122" s="61">
         <v>4.3213179999999998</v>
       </c>
@@ -24736,8 +24788,54 @@
       <c r="A123" s="1">
         <v>45414</v>
       </c>
+      <c r="B123">
+        <v>4.3250099999999998</v>
+      </c>
       <c r="C123" s="61">
         <v>4.3353010000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B124">
+        <v>4.3278999999999996</v>
+      </c>
+      <c r="C124" s="61">
+        <v>4.3229959999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45418</v>
+      </c>
+      <c r="C125" s="61">
+        <v>4.3322615999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45419</v>
+      </c>
+      <c r="C126" s="61">
+        <v>4.3343835000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45420</v>
+      </c>
+      <c r="C127" s="61">
+        <v>4.3417269999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45421</v>
+      </c>
+      <c r="C128" s="61">
+        <v>4.3501678000000004</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1E4184-2D04-4D3D-AA09-5DD4BEE9379A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1B502-1A49-47E8-B64F-836EAFA3ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.992338598544302E-3</v>
+        <v>2.7298619650465254E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D184" si="40">B132-C132</f>
+        <f>B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E184" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E186" si="40">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8345,11 +8345,11 @@
         <v>4.0039740000000004</v>
       </c>
       <c r="D133">
+        <f>B133-C133</f>
+        <v>-9.7740000000001714E-3</v>
+      </c>
+      <c r="E133">
         <f t="shared" si="40"/>
-        <v>-9.7740000000001714E-3</v>
-      </c>
-      <c r="E133">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8364,11 +8364,11 @@
         <v>3.9906073000000002</v>
       </c>
       <c r="D134">
+        <f>B134-C134</f>
+        <v>-9.1073000000001514E-3</v>
+      </c>
+      <c r="E134">
         <f t="shared" si="40"/>
-        <v>-9.1073000000001514E-3</v>
-      </c>
-      <c r="E134">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8383,11 +8383,11 @@
         <v>3.9613999999999998</v>
       </c>
       <c r="D135">
+        <f>B135-C135</f>
+        <v>9.3659999999999854E-3</v>
+      </c>
+      <c r="E135">
         <f t="shared" si="40"/>
-        <v>9.3659999999999854E-3</v>
-      </c>
-      <c r="E135">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8402,11 +8402,11 @@
         <v>3.9427349999999999</v>
       </c>
       <c r="D136">
+        <f>B136-C136</f>
+        <v>2.73810000000001E-2</v>
+      </c>
+      <c r="E136">
         <f t="shared" si="40"/>
-        <v>2.73810000000001E-2</v>
-      </c>
-      <c r="E136">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8421,11 +8421,11 @@
         <v>3.9356841999999999</v>
       </c>
       <c r="D137">
+        <f>B137-C137</f>
+        <v>4.622280000000023E-2</v>
+      </c>
+      <c r="E137">
         <f t="shared" si="40"/>
-        <v>4.622280000000023E-2</v>
-      </c>
-      <c r="E137">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8440,11 +8440,11 @@
         <v>3.9804447000000001</v>
       </c>
       <c r="D138">
+        <f>B138-C138</f>
+        <v>9.9553000000001113E-3</v>
+      </c>
+      <c r="E138">
         <f t="shared" si="40"/>
-        <v>9.9553000000001113E-3</v>
-      </c>
-      <c r="E138">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8459,11 +8459,11 @@
         <v>3.9819255</v>
       </c>
       <c r="D139">
+        <f>B139-C139</f>
+        <v>-1.7184999999999562E-3</v>
+      </c>
+      <c r="E139">
         <f t="shared" si="40"/>
-        <v>-1.7184999999999562E-3</v>
-      </c>
-      <c r="E139">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8478,11 +8478,11 @@
         <v>4.0223570000000004</v>
       </c>
       <c r="D140">
+        <f>B140-C140</f>
+        <v>-4.3257000000000545E-2</v>
+      </c>
+      <c r="E140">
         <f t="shared" si="40"/>
-        <v>-4.3257000000000545E-2</v>
-      </c>
-      <c r="E140">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8497,11 +8497,11 @@
         <v>3.9988320000000002</v>
       </c>
       <c r="D141">
+        <f>B141-C141</f>
+        <v>-2.8522000000000158E-2</v>
+      </c>
+      <c r="E141">
         <f t="shared" si="40"/>
-        <v>-2.8522000000000158E-2</v>
-      </c>
-      <c r="E141">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8516,11 +8516,11 @@
         <v>3.9713273</v>
       </c>
       <c r="D142">
+        <f>B142-C142</f>
+        <v>-2.9673299999999792E-2</v>
+      </c>
+      <c r="E142">
         <f t="shared" si="40"/>
-        <v>-2.9673299999999792E-2</v>
-      </c>
-      <c r="E142">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8535,11 +8535,11 @@
         <v>3.9402294000000002</v>
       </c>
       <c r="D143">
+        <f>B143-C143</f>
+        <v>-1.5029400000000415E-2</v>
+      </c>
+      <c r="E143">
         <f t="shared" si="40"/>
-        <v>-1.5029400000000415E-2</v>
-      </c>
-      <c r="E143">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8554,11 +8554,11 @@
         <v>3.9234079999999998</v>
       </c>
       <c r="D144">
+        <f>B144-C144</f>
+        <v>7.7700000000002767E-3</v>
+      </c>
+      <c r="E144">
         <f t="shared" si="40"/>
-        <v>7.7700000000002767E-3</v>
-      </c>
-      <c r="E144">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8573,11 +8573,11 @@
         <v>3.9367215999999998</v>
       </c>
       <c r="D145">
+        <f>B145-C145</f>
+        <v>-2.1773599999999949E-2</v>
+      </c>
+      <c r="E145">
         <f t="shared" si="40"/>
-        <v>-2.1773599999999949E-2</v>
-      </c>
-      <c r="E145">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8592,11 +8592,11 @@
         <v>3.9106562</v>
       </c>
       <c r="D146">
+        <f>B146-C146</f>
+        <v>1.2523799999999863E-2</v>
+      </c>
+      <c r="E146">
         <f t="shared" si="40"/>
-        <v>1.2523799999999863E-2</v>
-      </c>
-      <c r="E146">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8611,11 +8611,11 @@
         <v>3.8770153999999999</v>
       </c>
       <c r="D147">
+        <f>B147-C147</f>
+        <v>2.9164600000000096E-2</v>
+      </c>
+      <c r="E147">
         <f t="shared" si="40"/>
-        <v>2.9164600000000096E-2</v>
-      </c>
-      <c r="E147">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8630,11 +8630,11 @@
         <v>3.9064713000000002</v>
       </c>
       <c r="D148">
+        <f>B148-C148</f>
+        <v>3.6219699999999744E-2</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="40"/>
-        <v>3.6219699999999744E-2</v>
-      </c>
-      <c r="E148">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8649,11 +8649,11 @@
         <v>3.9575064000000002</v>
       </c>
       <c r="D149">
+        <f>B149-C149</f>
+        <v>-9.30640000000027E-3</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="40"/>
-        <v>-9.30640000000027E-3</v>
-      </c>
-      <c r="E149">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8668,11 +8668,11 @@
         <v>3.9559160000000002</v>
       </c>
       <c r="D150">
+        <f>B150-C150</f>
+        <v>1.7219999999999569E-2</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="40"/>
-        <v>1.7219999999999569E-2</v>
-      </c>
-      <c r="E150">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8687,11 +8687,11 @@
         <v>3.9585867000000001</v>
       </c>
       <c r="D151">
+        <f>B151-C151</f>
+        <v>1.0413299999999737E-2</v>
+      </c>
+      <c r="E151">
         <f t="shared" si="40"/>
-        <v>1.0413299999999737E-2</v>
-      </c>
-      <c r="E151">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8706,11 +8706,11 @@
         <v>3.9936655000000001</v>
       </c>
       <c r="D152">
+        <f>B152-C152</f>
+        <v>-5.352749999999995E-2</v>
+      </c>
+      <c r="E152">
         <f t="shared" si="40"/>
-        <v>-5.352749999999995E-2</v>
-      </c>
-      <c r="E152">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8725,11 +8725,11 @@
         <v>3.9564270000000001</v>
       </c>
       <c r="D153">
+        <f>B153-C153</f>
+        <v>4.1729999999997602E-3</v>
+      </c>
+      <c r="E153">
         <f t="shared" si="40"/>
-        <v>4.1729999999997602E-3</v>
-      </c>
-      <c r="E153">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8744,11 +8744,11 @@
         <v>3.963076</v>
       </c>
       <c r="D154">
+        <f>B154-C154</f>
+        <v>3.3408000000000104E-2</v>
+      </c>
+      <c r="E154">
         <f t="shared" si="40"/>
-        <v>3.3408000000000104E-2</v>
-      </c>
-      <c r="E154">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8763,11 +8763,11 @@
         <v>4.0141369999999998</v>
       </c>
       <c r="D155">
+        <f>B155-C155</f>
+        <v>-4.4254000000000016E-2</v>
+      </c>
+      <c r="E155">
         <f t="shared" si="40"/>
-        <v>-4.4254000000000016E-2</v>
-      </c>
-      <c r="E155">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8782,11 +8782,11 @@
         <v>3.9835587000000001</v>
       </c>
       <c r="D156">
+        <f>B156-C156</f>
+        <v>-7.579699999999967E-3</v>
+      </c>
+      <c r="E156">
         <f t="shared" si="40"/>
-        <v>-7.579699999999967E-3</v>
-      </c>
-      <c r="E156">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8801,11 +8801,11 @@
         <v>3.9963275999999999</v>
       </c>
       <c r="D157">
+        <f>B157-C157</f>
+        <v>-9.5275999999997474E-3</v>
+      </c>
+      <c r="E157">
         <f t="shared" si="40"/>
-        <v>-9.5275999999997474E-3</v>
-      </c>
-      <c r="E157">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8820,11 +8820,11 @@
         <v>3.9655209999999999</v>
       </c>
       <c r="D158">
+        <f>B158-C158</f>
+        <v>2.1879000000000204E-2</v>
+      </c>
+      <c r="E158">
         <f t="shared" si="40"/>
-        <v>2.1879000000000204E-2</v>
-      </c>
-      <c r="E158">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8839,11 +8839,11 @@
         <v>3.9832683000000002</v>
       </c>
       <c r="D159">
+        <f>B159-C159</f>
+        <v>-6.4130000000028886E-4</v>
+      </c>
+      <c r="E159">
         <f t="shared" si="40"/>
-        <v>-6.4130000000028886E-4</v>
-      </c>
-      <c r="E159">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8858,11 +8858,11 @@
         <v>3.9379525000000002</v>
       </c>
       <c r="D160">
+        <f>B160-C160</f>
+        <v>5.8173499999999656E-2</v>
+      </c>
+      <c r="E160">
         <f t="shared" si="40"/>
-        <v>5.8173499999999656E-2</v>
-      </c>
-      <c r="E160">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8877,11 +8877,11 @@
         <v>3.9961921999999999</v>
       </c>
       <c r="D161">
+        <f>B161-C161</f>
+        <v>-1.1970199999999931E-2</v>
+      </c>
+      <c r="E161">
         <f t="shared" si="40"/>
-        <v>-1.1970199999999931E-2</v>
-      </c>
-      <c r="E161">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8896,11 +8896,11 @@
         <v>3.947708</v>
       </c>
       <c r="D162">
+        <f>B162-C162</f>
+        <v>3.6513999999999935E-2</v>
+      </c>
+      <c r="E162">
         <f t="shared" si="40"/>
-        <v>3.6513999999999935E-2</v>
-      </c>
-      <c r="E162">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8915,11 +8915,11 @@
         <v>3.9944750999999998</v>
       </c>
       <c r="D163">
+        <f>B163-C163</f>
+        <v>-3.6398099999999989E-2</v>
+      </c>
+      <c r="E163">
         <f t="shared" si="40"/>
-        <v>-3.6398099999999989E-2</v>
-      </c>
-      <c r="E163">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8934,11 +8934,11 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
+        <f>B164-C164</f>
+        <v>-1.2216000000000449E-3</v>
+      </c>
+      <c r="E164">
         <f t="shared" si="40"/>
-        <v>-1.2216000000000449E-3</v>
-      </c>
-      <c r="E164">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8953,11 +8953,11 @@
         <v>3.9204593000000001</v>
       </c>
       <c r="D165">
+        <f>B165-C165</f>
+        <v>3.5469999999993007E-4</v>
+      </c>
+      <c r="E165">
         <f t="shared" si="40"/>
-        <v>3.5469999999993007E-4</v>
-      </c>
-      <c r="E165">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8972,11 +8972,11 @@
         <v>3.9409296999999999</v>
       </c>
       <c r="D166">
+        <f>B166-C166</f>
+        <v>-1.249969999999978E-2</v>
+      </c>
+      <c r="E166">
         <f t="shared" si="40"/>
-        <v>-1.249969999999978E-2</v>
-      </c>
-      <c r="E166">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8991,11 +8991,11 @@
         <v>3.8961679999999999</v>
       </c>
       <c r="D167">
+        <f>B167-C167</f>
+        <v>7.1804000000000201E-2</v>
+      </c>
+      <c r="E167">
         <f t="shared" si="40"/>
-        <v>7.1804000000000201E-2</v>
-      </c>
-      <c r="E167">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9010,11 +9010,11 @@
         <v>3.8905827999999998</v>
       </c>
       <c r="D168">
+        <f>B168-C168</f>
+        <v>8.2269200000000264E-2</v>
+      </c>
+      <c r="E168">
         <f t="shared" si="40"/>
-        <v>8.2269200000000264E-2</v>
-      </c>
-      <c r="E168">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9029,11 +9029,11 @@
         <v>3.9539021999999999</v>
       </c>
       <c r="D169">
+        <f>B169-C169</f>
+        <v>6.5988800000000403E-2</v>
+      </c>
+      <c r="E169">
         <f t="shared" si="40"/>
-        <v>6.5988800000000403E-2</v>
-      </c>
-      <c r="E169">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9048,11 +9048,11 @@
         <v>3.9894185000000002</v>
       </c>
       <c r="D170">
+        <f>B170-C170</f>
+        <v>5.8184499999999417E-2</v>
+      </c>
+      <c r="E170">
         <f t="shared" si="40"/>
-        <v>5.8184499999999417E-2</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9067,11 +9067,11 @@
         <v>4.0683894</v>
       </c>
       <c r="D171">
+        <f>B171-C171</f>
+        <v>4.2334600000000222E-2</v>
+      </c>
+      <c r="E171">
         <f t="shared" si="40"/>
-        <v>4.2334600000000222E-2</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9086,11 +9086,11 @@
         <v>4.1070184999999997</v>
       </c>
       <c r="D172">
+        <f>B172-C172</f>
+        <v>-4.1970499999999689E-2</v>
+      </c>
+      <c r="E172">
         <f t="shared" si="40"/>
-        <v>-4.1970499999999689E-2</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9105,11 +9105,11 @@
         <v>4.0998720000000004</v>
       </c>
       <c r="D173">
+        <f>B173-C173</f>
+        <v>-2.5321000000000815E-2</v>
+      </c>
+      <c r="E173">
         <f t="shared" si="40"/>
-        <v>-2.5321000000000815E-2</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9124,11 +9124,11 @@
         <v>4.0706085999999999</v>
       </c>
       <c r="D174">
+        <f>B174-C174</f>
+        <v>-3.176459999999981E-2</v>
+      </c>
+      <c r="E174">
         <f t="shared" si="40"/>
-        <v>-3.176459999999981E-2</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9143,11 +9143,11 @@
         <v>4.0489199999999999</v>
       </c>
       <c r="D175">
+        <f>B175-C175</f>
+        <v>-8.2000000000004292E-4</v>
+      </c>
+      <c r="E175">
         <f t="shared" si="40"/>
-        <v>-8.2000000000004292E-4</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9162,11 +9162,11 @@
         <v>4.0666026999999998</v>
       </c>
       <c r="D176">
+        <f>B176-C176</f>
+        <v>-4.3802699999999639E-2</v>
+      </c>
+      <c r="E176">
         <f t="shared" si="40"/>
-        <v>-4.3802699999999639E-2</v>
-      </c>
-      <c r="E176">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9181,11 +9181,11 @@
         <v>3.9908907</v>
       </c>
       <c r="D177">
+        <f>B177-C177</f>
+        <v>5.6981299999999901E-2</v>
+      </c>
+      <c r="E177">
         <f t="shared" si="40"/>
-        <v>5.6981299999999901E-2</v>
-      </c>
-      <c r="E177">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9200,11 +9200,11 @@
         <v>4.0895320000000002</v>
       </c>
       <c r="D178">
+        <f>B178-C178</f>
+        <v>-7.0132000000000083E-2</v>
+      </c>
+      <c r="E178">
         <f t="shared" si="40"/>
-        <v>-7.0132000000000083E-2</v>
-      </c>
-      <c r="E178">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9219,11 +9219,11 @@
         <v>4.0375430000000003</v>
       </c>
       <c r="D179">
+        <f>B179-C179</f>
+        <v>-3.639000000000614E-3</v>
+      </c>
+      <c r="E179">
         <f t="shared" si="40"/>
-        <v>-3.639000000000614E-3</v>
-      </c>
-      <c r="E179">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9238,11 +9238,11 @@
         <v>4.0863985999999999</v>
       </c>
       <c r="D180">
+        <f>B180-C180</f>
+        <v>-6.1210599999999893E-2</v>
+      </c>
+      <c r="E180">
         <f t="shared" si="40"/>
-        <v>-6.1210599999999893E-2</v>
-      </c>
-      <c r="E180">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9257,11 +9257,11 @@
         <v>3.9980273</v>
       </c>
       <c r="D181">
+        <f>B181-C181</f>
+        <v>6.1562700000000081E-2</v>
+      </c>
+      <c r="E181">
         <f t="shared" si="40"/>
-        <v>6.1562700000000081E-2</v>
-      </c>
-      <c r="E181">
-        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9276,11 +9276,11 @@
         <v>4.0914992999999997</v>
       </c>
       <c r="D182">
+        <f>B182-C182</f>
+        <v>-5.809929999999941E-2</v>
+      </c>
+      <c r="E182">
         <f t="shared" si="40"/>
-        <v>-5.809929999999941E-2</v>
-      </c>
-      <c r="E182">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9295,11 +9295,11 @@
         <v>4.0350900000000003</v>
       </c>
       <c r="D183">
+        <f>B183-C183</f>
+        <v>-1.6319999999998558E-3</v>
+      </c>
+      <c r="E183">
         <f t="shared" si="40"/>
-        <v>-1.6319999999998558E-3</v>
-      </c>
-      <c r="E183">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9314,17 +9314,55 @@
         <v>4.0290150000000002</v>
       </c>
       <c r="D184">
+        <f>B184-C184</f>
+        <v>-1.5833999999999904E-2</v>
+      </c>
+      <c r="E184">
         <f t="shared" si="40"/>
-        <v>-1.5833999999999904E-2</v>
-      </c>
-      <c r="E184">
-        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B185">
+        <v>3.9979900000000002</v>
+      </c>
       <c r="C185">
         <v>4.0610080000000002</v>
+      </c>
+      <c r="D185">
+        <f>B185-C185</f>
+        <v>-6.3018000000000018E-2</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B186">
+        <v>4.0101300000000002</v>
+      </c>
+      <c r="C186">
+        <v>3.9896855000000002</v>
+      </c>
+      <c r="D186">
+        <f>B186-C186</f>
+        <v>2.0444499999999977E-2</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="C187">
+        <v>4.0224500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10473,11 +10511,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I461"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A458" sqref="A458"/>
+      <selection pane="bottomLeft" activeCell="A458" sqref="A458:B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10507,7 +10545,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4049057586873335E-2</v>
+        <v>-1.4119457553815065E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19237,11 +19275,11 @@
         <v>4.3265095000000002</v>
       </c>
       <c r="D454">
-        <f t="shared" ref="D454:D458" si="103">B454-C454</f>
+        <f t="shared" ref="D454:D459" si="103">B454-C454</f>
         <v>-1.3359499999999969E-2</v>
       </c>
       <c r="E454">
-        <f t="shared" ref="E454:E458" si="104">IF(D454&lt;0,1,0)</f>
+        <f t="shared" ref="E454:E459" si="104">IF(D454&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19322,8 +19360,46 @@
       </c>
     </row>
     <row r="459" spans="1:5">
+      <c r="A459" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B459">
+        <v>4.3047399999999998</v>
+      </c>
       <c r="C459">
         <v>4.3740262999999997</v>
+      </c>
+      <c r="D459">
+        <f t="shared" si="103"/>
+        <v>-6.9286299999999912E-2</v>
+      </c>
+      <c r="E459">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B460">
+        <v>4.3109799999999998</v>
+      </c>
+      <c r="C460">
+        <v>4.3021054000000003</v>
+      </c>
+      <c r="D460">
+        <f t="shared" ref="D460" si="105">B460-C460</f>
+        <v>8.8745999999995107E-3</v>
+      </c>
+      <c r="E460">
+        <f t="shared" ref="E460" si="106">IF(D460&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="C461">
+        <v>4.289409</v>
       </c>
     </row>
   </sheetData>
@@ -23353,7 +23429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24810,6 +24886,9 @@
       <c r="A125" s="1">
         <v>45418</v>
       </c>
+      <c r="B125">
+        <v>4.3173000000000004</v>
+      </c>
       <c r="C125" s="61">
         <v>4.3322615999999998</v>
       </c>
@@ -24818,6 +24897,9 @@
       <c r="A126" s="1">
         <v>45419</v>
       </c>
+      <c r="B126">
+        <v>4.3047399999999998</v>
+      </c>
       <c r="C126" s="61">
         <v>4.3343835000000004</v>
       </c>
@@ -24825,6 +24907,9 @@
     <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>45420</v>
+      </c>
+      <c r="B127">
+        <v>4.3109799999999998</v>
       </c>
       <c r="C127" s="61">
         <v>4.3417269999999997</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1B502-1A49-47E8-B64F-836EAFA3ADC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FEF66-2AB5-432E-A966-3034FD64B44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186"/>
+      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.7298619650465254E-3</v>
+        <v>2.5975401265247713E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8326,11 +8326,11 @@
         <v>3.9474418</v>
       </c>
       <c r="D132">
-        <f>B132-C132</f>
+        <f t="shared" ref="D132:D163" si="40">B132-C132</f>
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E186" si="40">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E187" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8345,11 +8345,11 @@
         <v>4.0039740000000004</v>
       </c>
       <c r="D133">
-        <f>B133-C133</f>
+        <f t="shared" si="40"/>
         <v>-9.7740000000001714E-3</v>
       </c>
       <c r="E133">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8364,11 +8364,11 @@
         <v>3.9906073000000002</v>
       </c>
       <c r="D134">
-        <f>B134-C134</f>
+        <f t="shared" si="40"/>
         <v>-9.1073000000001514E-3</v>
       </c>
       <c r="E134">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8383,11 +8383,11 @@
         <v>3.9613999999999998</v>
       </c>
       <c r="D135">
-        <f>B135-C135</f>
+        <f t="shared" si="40"/>
         <v>9.3659999999999854E-3</v>
       </c>
       <c r="E135">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8402,11 +8402,11 @@
         <v>3.9427349999999999</v>
       </c>
       <c r="D136">
-        <f>B136-C136</f>
+        <f t="shared" si="40"/>
         <v>2.73810000000001E-2</v>
       </c>
       <c r="E136">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8421,11 +8421,11 @@
         <v>3.9356841999999999</v>
       </c>
       <c r="D137">
-        <f>B137-C137</f>
+        <f t="shared" si="40"/>
         <v>4.622280000000023E-2</v>
       </c>
       <c r="E137">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8440,11 +8440,11 @@
         <v>3.9804447000000001</v>
       </c>
       <c r="D138">
-        <f>B138-C138</f>
+        <f t="shared" si="40"/>
         <v>9.9553000000001113E-3</v>
       </c>
       <c r="E138">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8459,11 +8459,11 @@
         <v>3.9819255</v>
       </c>
       <c r="D139">
-        <f>B139-C139</f>
+        <f t="shared" si="40"/>
         <v>-1.7184999999999562E-3</v>
       </c>
       <c r="E139">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8478,11 +8478,11 @@
         <v>4.0223570000000004</v>
       </c>
       <c r="D140">
-        <f>B140-C140</f>
+        <f t="shared" si="40"/>
         <v>-4.3257000000000545E-2</v>
       </c>
       <c r="E140">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8497,11 +8497,11 @@
         <v>3.9988320000000002</v>
       </c>
       <c r="D141">
-        <f>B141-C141</f>
+        <f t="shared" si="40"/>
         <v>-2.8522000000000158E-2</v>
       </c>
       <c r="E141">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8516,11 +8516,11 @@
         <v>3.9713273</v>
       </c>
       <c r="D142">
-        <f>B142-C142</f>
+        <f t="shared" si="40"/>
         <v>-2.9673299999999792E-2</v>
       </c>
       <c r="E142">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8535,11 +8535,11 @@
         <v>3.9402294000000002</v>
       </c>
       <c r="D143">
-        <f>B143-C143</f>
+        <f t="shared" si="40"/>
         <v>-1.5029400000000415E-2</v>
       </c>
       <c r="E143">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8554,11 +8554,11 @@
         <v>3.9234079999999998</v>
       </c>
       <c r="D144">
-        <f>B144-C144</f>
+        <f t="shared" si="40"/>
         <v>7.7700000000002767E-3</v>
       </c>
       <c r="E144">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8573,11 +8573,11 @@
         <v>3.9367215999999998</v>
       </c>
       <c r="D145">
-        <f>B145-C145</f>
+        <f t="shared" si="40"/>
         <v>-2.1773599999999949E-2</v>
       </c>
       <c r="E145">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8592,11 +8592,11 @@
         <v>3.9106562</v>
       </c>
       <c r="D146">
-        <f>B146-C146</f>
+        <f t="shared" si="40"/>
         <v>1.2523799999999863E-2</v>
       </c>
       <c r="E146">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8611,11 +8611,11 @@
         <v>3.8770153999999999</v>
       </c>
       <c r="D147">
-        <f>B147-C147</f>
+        <f t="shared" si="40"/>
         <v>2.9164600000000096E-2</v>
       </c>
       <c r="E147">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8630,11 +8630,11 @@
         <v>3.9064713000000002</v>
       </c>
       <c r="D148">
-        <f>B148-C148</f>
+        <f t="shared" si="40"/>
         <v>3.6219699999999744E-2</v>
       </c>
       <c r="E148">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8649,11 +8649,11 @@
         <v>3.9575064000000002</v>
       </c>
       <c r="D149">
-        <f>B149-C149</f>
+        <f t="shared" si="40"/>
         <v>-9.30640000000027E-3</v>
       </c>
       <c r="E149">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8668,11 +8668,11 @@
         <v>3.9559160000000002</v>
       </c>
       <c r="D150">
-        <f>B150-C150</f>
+        <f t="shared" si="40"/>
         <v>1.7219999999999569E-2</v>
       </c>
       <c r="E150">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8687,11 +8687,11 @@
         <v>3.9585867000000001</v>
       </c>
       <c r="D151">
-        <f>B151-C151</f>
+        <f t="shared" si="40"/>
         <v>1.0413299999999737E-2</v>
       </c>
       <c r="E151">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8706,11 +8706,11 @@
         <v>3.9936655000000001</v>
       </c>
       <c r="D152">
-        <f>B152-C152</f>
+        <f t="shared" si="40"/>
         <v>-5.352749999999995E-2</v>
       </c>
       <c r="E152">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8725,11 +8725,11 @@
         <v>3.9564270000000001</v>
       </c>
       <c r="D153">
-        <f>B153-C153</f>
+        <f t="shared" si="40"/>
         <v>4.1729999999997602E-3</v>
       </c>
       <c r="E153">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8744,11 +8744,11 @@
         <v>3.963076</v>
       </c>
       <c r="D154">
-        <f>B154-C154</f>
+        <f t="shared" si="40"/>
         <v>3.3408000000000104E-2</v>
       </c>
       <c r="E154">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8763,11 +8763,11 @@
         <v>4.0141369999999998</v>
       </c>
       <c r="D155">
-        <f>B155-C155</f>
+        <f t="shared" si="40"/>
         <v>-4.4254000000000016E-2</v>
       </c>
       <c r="E155">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8782,11 +8782,11 @@
         <v>3.9835587000000001</v>
       </c>
       <c r="D156">
-        <f>B156-C156</f>
+        <f t="shared" si="40"/>
         <v>-7.579699999999967E-3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8801,11 +8801,11 @@
         <v>3.9963275999999999</v>
       </c>
       <c r="D157">
-        <f>B157-C157</f>
+        <f t="shared" si="40"/>
         <v>-9.5275999999997474E-3</v>
       </c>
       <c r="E157">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8820,11 +8820,11 @@
         <v>3.9655209999999999</v>
       </c>
       <c r="D158">
-        <f>B158-C158</f>
+        <f t="shared" si="40"/>
         <v>2.1879000000000204E-2</v>
       </c>
       <c r="E158">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8839,11 +8839,11 @@
         <v>3.9832683000000002</v>
       </c>
       <c r="D159">
-        <f>B159-C159</f>
+        <f t="shared" si="40"/>
         <v>-6.4130000000028886E-4</v>
       </c>
       <c r="E159">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8858,11 +8858,11 @@
         <v>3.9379525000000002</v>
       </c>
       <c r="D160">
-        <f>B160-C160</f>
+        <f t="shared" si="40"/>
         <v>5.8173499999999656E-2</v>
       </c>
       <c r="E160">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8877,11 +8877,11 @@
         <v>3.9961921999999999</v>
       </c>
       <c r="D161">
-        <f>B161-C161</f>
+        <f t="shared" si="40"/>
         <v>-1.1970199999999931E-2</v>
       </c>
       <c r="E161">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8896,11 +8896,11 @@
         <v>3.947708</v>
       </c>
       <c r="D162">
-        <f>B162-C162</f>
+        <f t="shared" si="40"/>
         <v>3.6513999999999935E-2</v>
       </c>
       <c r="E162">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8915,11 +8915,11 @@
         <v>3.9944750999999998</v>
       </c>
       <c r="D163">
-        <f>B163-C163</f>
+        <f t="shared" si="40"/>
         <v>-3.6398099999999989E-2</v>
       </c>
       <c r="E163">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8938,7 +8938,7 @@
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
         <v>3.5469999999993007E-4</v>
       </c>
       <c r="E165">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
         <v>-1.249969999999978E-2</v>
       </c>
       <c r="E166">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -8995,7 +8995,7 @@
         <v>7.1804000000000201E-2</v>
       </c>
       <c r="E167">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9014,7 +9014,7 @@
         <v>8.2269200000000264E-2</v>
       </c>
       <c r="E168">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
         <v>6.5988800000000403E-2</v>
       </c>
       <c r="E169">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
         <v>5.8184499999999417E-2</v>
       </c>
       <c r="E170">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
         <v>4.2334600000000222E-2</v>
       </c>
       <c r="E171">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -9090,7 +9090,7 @@
         <v>-4.1970499999999689E-2</v>
       </c>
       <c r="E172">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9109,7 +9109,7 @@
         <v>-2.5321000000000815E-2</v>
       </c>
       <c r="E173">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
         <v>-3.176459999999981E-2</v>
       </c>
       <c r="E174">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
         <v>-8.2000000000004292E-4</v>
       </c>
       <c r="E175">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
     </row>
@@ -9166,11 +9166,11 @@
         <v>-4.3802699999999639E-2</v>
       </c>
       <c r="E176">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1">
         <v>45407</v>
       </c>
@@ -9185,11 +9185,11 @@
         <v>5.6981299999999901E-2</v>
       </c>
       <c r="E177">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1">
         <v>45408</v>
       </c>
@@ -9204,11 +9204,11 @@
         <v>-7.0132000000000083E-2</v>
       </c>
       <c r="E178">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1">
         <v>45411</v>
       </c>
@@ -9223,11 +9223,14 @@
         <v>-3.639000000000614E-3</v>
       </c>
       <c r="E179">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1">
         <v>45412</v>
       </c>
@@ -9242,11 +9245,11 @@
         <v>-6.1210599999999893E-2</v>
       </c>
       <c r="E180">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1">
         <v>45413</v>
       </c>
@@ -9261,11 +9264,11 @@
         <v>6.1562700000000081E-2</v>
       </c>
       <c r="E181">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1">
         <v>45414</v>
       </c>
@@ -9280,11 +9283,11 @@
         <v>-5.809929999999941E-2</v>
       </c>
       <c r="E182">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1">
         <v>45415</v>
       </c>
@@ -9299,11 +9302,11 @@
         <v>-1.6319999999998558E-3</v>
       </c>
       <c r="E183">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1">
         <v>45418</v>
       </c>
@@ -9318,11 +9321,11 @@
         <v>-1.5833999999999904E-2</v>
       </c>
       <c r="E184">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1">
         <v>45419</v>
       </c>
@@ -9337,11 +9340,11 @@
         <v>-6.3018000000000018E-2</v>
       </c>
       <c r="E185">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1">
         <v>45420</v>
       </c>
@@ -9356,13 +9359,32 @@
         <v>2.0444499999999977E-2</v>
       </c>
       <c r="E186">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B187">
+        <v>4.0005680000000003</v>
+      </c>
       <c r="C187">
         <v>4.0224500000000001</v>
+      </c>
+      <c r="D187">
+        <f>B187-C187</f>
+        <v>-2.1881999999999735E-2</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ref="E187" si="42">IF(D187&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="C188">
+        <v>4.0028085999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10511,11 +10533,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I461"/>
+  <dimension ref="A1:I462"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A458" sqref="A458:B460"/>
+      <selection pane="bottomLeft" activeCell="A461" sqref="A461:B461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10545,7 +10567,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4119457553815065E-2</v>
+        <v>-1.4067369602611119E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19398,8 +19420,27 @@
       </c>
     </row>
     <row r="461" spans="1:5">
+      <c r="A461" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B461">
+        <v>4.2992499999999998</v>
+      </c>
       <c r="C461">
         <v>4.289409</v>
+      </c>
+      <c r="D461">
+        <f t="shared" ref="D461" si="107">B461-C461</f>
+        <v>9.8409999999997666E-3</v>
+      </c>
+      <c r="E461">
+        <f t="shared" ref="E461" si="108">IF(D461&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="C462">
+        <v>4.3411650000000002</v>
       </c>
     </row>
   </sheetData>
@@ -23425,11 +23466,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128:B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24919,8 +24960,51 @@
       <c r="A128" s="1">
         <v>45421</v>
       </c>
+      <c r="B128">
+        <v>4.2992499999999998</v>
+      </c>
       <c r="C128" s="61">
         <v>4.3501678000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>45422</v>
+      </c>
+      <c r="C129" s="61">
+        <v>4.3818764999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>45425</v>
+      </c>
+      <c r="C130" s="61">
+        <v>4.4115523999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>45426</v>
+      </c>
+      <c r="C131" s="61">
+        <v>4.4328960000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>45427</v>
+      </c>
+      <c r="C132" s="61">
+        <v>4.4454960000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>45428</v>
+      </c>
+      <c r="C133" s="61">
+        <v>4.4544459999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672FEF66-2AB5-432E-A966-3034FD64B44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA59004C-6B95-42A1-AD13-E9055052F4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -5725,11 +5725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I180" sqref="I180"/>
+      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.5975401265247713E-3</v>
+        <v>2.3424278493841687E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8330,7 +8330,7 @@
         <v>4.0820200000000195E-2</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:E187" si="41">IF(D132&lt;0,1,0)</f>
+        <f t="shared" ref="E132:E186" si="41">IF(D132&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f>B164-C164</f>
+        <f t="shared" ref="D164:D190" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -8953,7 +8953,7 @@
         <v>3.9204593000000001</v>
       </c>
       <c r="D165">
-        <f>B165-C165</f>
+        <f t="shared" si="42"/>
         <v>3.5469999999993007E-4</v>
       </c>
       <c r="E165">
@@ -8972,7 +8972,7 @@
         <v>3.9409296999999999</v>
       </c>
       <c r="D166">
-        <f>B166-C166</f>
+        <f t="shared" si="42"/>
         <v>-1.249969999999978E-2</v>
       </c>
       <c r="E166">
@@ -8991,7 +8991,7 @@
         <v>3.8961679999999999</v>
       </c>
       <c r="D167">
-        <f>B167-C167</f>
+        <f t="shared" si="42"/>
         <v>7.1804000000000201E-2</v>
       </c>
       <c r="E167">
@@ -9010,7 +9010,7 @@
         <v>3.8905827999999998</v>
       </c>
       <c r="D168">
-        <f>B168-C168</f>
+        <f t="shared" si="42"/>
         <v>8.2269200000000264E-2</v>
       </c>
       <c r="E168">
@@ -9029,7 +9029,7 @@
         <v>3.9539021999999999</v>
       </c>
       <c r="D169">
-        <f>B169-C169</f>
+        <f t="shared" si="42"/>
         <v>6.5988800000000403E-2</v>
       </c>
       <c r="E169">
@@ -9048,7 +9048,7 @@
         <v>3.9894185000000002</v>
       </c>
       <c r="D170">
-        <f>B170-C170</f>
+        <f t="shared" si="42"/>
         <v>5.8184499999999417E-2</v>
       </c>
       <c r="E170">
@@ -9067,7 +9067,7 @@
         <v>4.0683894</v>
       </c>
       <c r="D171">
-        <f>B171-C171</f>
+        <f t="shared" si="42"/>
         <v>4.2334600000000222E-2</v>
       </c>
       <c r="E171">
@@ -9086,7 +9086,7 @@
         <v>4.1070184999999997</v>
       </c>
       <c r="D172">
-        <f>B172-C172</f>
+        <f t="shared" si="42"/>
         <v>-4.1970499999999689E-2</v>
       </c>
       <c r="E172">
@@ -9105,7 +9105,7 @@
         <v>4.0998720000000004</v>
       </c>
       <c r="D173">
-        <f>B173-C173</f>
+        <f t="shared" si="42"/>
         <v>-2.5321000000000815E-2</v>
       </c>
       <c r="E173">
@@ -9124,7 +9124,7 @@
         <v>4.0706085999999999</v>
       </c>
       <c r="D174">
-        <f>B174-C174</f>
+        <f t="shared" si="42"/>
         <v>-3.176459999999981E-2</v>
       </c>
       <c r="E174">
@@ -9143,7 +9143,7 @@
         <v>4.0489199999999999</v>
       </c>
       <c r="D175">
-        <f>B175-C175</f>
+        <f t="shared" si="42"/>
         <v>-8.2000000000004292E-4</v>
       </c>
       <c r="E175">
@@ -9162,7 +9162,7 @@
         <v>4.0666026999999998</v>
       </c>
       <c r="D176">
-        <f>B176-C176</f>
+        <f t="shared" si="42"/>
         <v>-4.3802699999999639E-2</v>
       </c>
       <c r="E176">
@@ -9181,7 +9181,7 @@
         <v>3.9908907</v>
       </c>
       <c r="D177">
-        <f>B177-C177</f>
+        <f t="shared" si="42"/>
         <v>5.6981299999999901E-2</v>
       </c>
       <c r="E177">
@@ -9200,7 +9200,7 @@
         <v>4.0895320000000002</v>
       </c>
       <c r="D178">
-        <f>B178-C178</f>
+        <f t="shared" si="42"/>
         <v>-7.0132000000000083E-2</v>
       </c>
       <c r="E178">
@@ -9219,7 +9219,7 @@
         <v>4.0375430000000003</v>
       </c>
       <c r="D179">
-        <f>B179-C179</f>
+        <f t="shared" si="42"/>
         <v>-3.639000000000614E-3</v>
       </c>
       <c r="E179">
@@ -9241,7 +9241,7 @@
         <v>4.0863985999999999</v>
       </c>
       <c r="D180">
-        <f>B180-C180</f>
+        <f t="shared" si="42"/>
         <v>-6.1210599999999893E-2</v>
       </c>
       <c r="E180">
@@ -9260,7 +9260,7 @@
         <v>3.9980273</v>
       </c>
       <c r="D181">
-        <f>B181-C181</f>
+        <f t="shared" si="42"/>
         <v>6.1562700000000081E-2</v>
       </c>
       <c r="E181">
@@ -9279,7 +9279,7 @@
         <v>4.0914992999999997</v>
       </c>
       <c r="D182">
-        <f>B182-C182</f>
+        <f t="shared" si="42"/>
         <v>-5.809929999999941E-2</v>
       </c>
       <c r="E182">
@@ -9298,7 +9298,7 @@
         <v>4.0350900000000003</v>
       </c>
       <c r="D183">
-        <f>B183-C183</f>
+        <f t="shared" si="42"/>
         <v>-1.6319999999998558E-3</v>
       </c>
       <c r="E183">
@@ -9317,7 +9317,7 @@
         <v>4.0290150000000002</v>
       </c>
       <c r="D184">
-        <f>B184-C184</f>
+        <f t="shared" si="42"/>
         <v>-1.5833999999999904E-2</v>
       </c>
       <c r="E184">
@@ -9336,7 +9336,7 @@
         <v>4.0610080000000002</v>
       </c>
       <c r="D185">
-        <f>B185-C185</f>
+        <f t="shared" si="42"/>
         <v>-6.3018000000000018E-2</v>
       </c>
       <c r="E185">
@@ -9355,7 +9355,7 @@
         <v>3.9896855000000002</v>
       </c>
       <c r="D186">
-        <f>B186-C186</f>
+        <f t="shared" si="42"/>
         <v>2.0444499999999977E-2</v>
       </c>
       <c r="E186">
@@ -9374,17 +9374,74 @@
         <v>4.0224500000000001</v>
       </c>
       <c r="D187">
-        <f>B187-C187</f>
+        <f t="shared" si="42"/>
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187" si="42">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E190" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9">
+      <c r="A188" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B188">
+        <v>3.9714520000000002</v>
+      </c>
       <c r="C188">
         <v>4.0028085999999998</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="42"/>
+        <v>-3.1356599999999624E-2</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B189">
+        <v>3.9922939999999998</v>
+      </c>
+      <c r="C189">
+        <v>3.9477229999999999</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="42"/>
+        <v>4.4570999999999916E-2</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B190">
+        <v>3.9686319999999999</v>
+      </c>
+      <c r="C190">
+        <v>4.0222699999999998</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="42"/>
+        <v>-5.3637999999999852E-2</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="C191">
+        <v>3.9546250000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10533,11 +10590,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A461" sqref="A461:B461"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A464" sqref="A464:B464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10567,7 +10624,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4067369602611119E-2</v>
+        <v>-1.4162448201298302E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19439,8 +19496,65 @@
       </c>
     </row>
     <row r="462" spans="1:5">
+      <c r="A462" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B462">
+        <v>4.2819000000000003</v>
+      </c>
       <c r="C462">
         <v>4.3411650000000002</v>
+      </c>
+      <c r="D462">
+        <f t="shared" ref="D462:D464" si="109">B462-C462</f>
+        <v>-5.9264999999999901E-2</v>
+      </c>
+      <c r="E462">
+        <f t="shared" ref="E462:E464" si="110">IF(D462&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B463">
+        <v>4.29976</v>
+      </c>
+      <c r="C463">
+        <v>4.3075074999999998</v>
+      </c>
+      <c r="D463">
+        <f t="shared" si="109"/>
+        <v>-7.7474999999997962E-3</v>
+      </c>
+      <c r="E463">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B464">
+        <v>4.2839400000000003</v>
+      </c>
+      <c r="C464">
+        <v>4.3031509999999997</v>
+      </c>
+      <c r="D464">
+        <f t="shared" si="109"/>
+        <v>-1.9210999999999423E-2</v>
+      </c>
+      <c r="E464">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465">
+        <v>4.3449283000000003</v>
       </c>
     </row>
   </sheetData>
@@ -23466,11 +23580,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128:B128"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24967,45 +25081,63 @@
         <v>4.3501678000000004</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>45422</v>
       </c>
+      <c r="B129">
+        <v>4.2819000000000003</v>
+      </c>
       <c r="C129" s="61">
-        <v>4.3818764999999997</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>4.3358525999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>45425</v>
       </c>
+      <c r="B130">
+        <v>4.29976</v>
+      </c>
       <c r="C130" s="61">
-        <v>4.4115523999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>4.3569430000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>45426</v>
       </c>
+      <c r="B131">
+        <v>4.2839400000000003</v>
+      </c>
       <c r="C131" s="61">
-        <v>4.4328960000000004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>4.3464700000000001</v>
+      </c>
+      <c r="F131" s="61"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>45427</v>
       </c>
       <c r="C132" s="61">
-        <v>4.4454960000000003</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>4.3414817000000001</v>
+      </c>
+      <c r="F132" s="61"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>45428</v>
       </c>
       <c r="C133" s="61">
-        <v>4.4544459999999999</v>
-      </c>
+        <v>4.3315033999999999</v>
+      </c>
+      <c r="F133" s="61"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="F134" s="61"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="F135" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA59004C-6B95-42A1-AD13-E9055052F4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39745C-1724-4899-BEC8-7DE6A7FB7A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="D1_OIL" sheetId="8" r:id="rId5"/>
     <sheet name="D5_EUR" sheetId="9" r:id="rId6"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +237,42 @@
   <si>
     <t>Day + 1 Pred. WT</t>
   </si>
+  <si>
+    <t>Wynagrodzenie 12/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 11/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 10/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 09/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 08/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 07/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 06/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 05/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 04/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 03/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 02/2023</t>
+  </si>
+  <si>
+    <t>Wynagrodzenie 01/2023</t>
+  </si>
 </sst>
 </file>
 
@@ -247,7 +284,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +360,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -562,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,6 +701,7 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5725,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5759,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.3424278493841687E-3</v>
+        <v>2.2795834922821469E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8934,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D190" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D191" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9378,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E190" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E191" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9440,8 +9484,27 @@
       </c>
     </row>
     <row r="191" spans="1:9">
+      <c r="A191" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B191">
+        <v>3.9450270000000001</v>
+      </c>
       <c r="C191">
         <v>3.9546250000000001</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="42"/>
+        <v>-9.5979999999999954E-3</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="C192">
+        <v>3.9275665000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10590,11 +10653,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A464" sqref="A464:B464"/>
+      <selection pane="bottomLeft" activeCell="C467" sqref="C467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10624,7 +10687,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4162448201298302E-2</v>
+        <v>-1.4301404778450677E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19506,11 +19569,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D464" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D465" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E464" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E465" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19552,9 +19615,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="3:3">
+    <row r="465" spans="1:5">
+      <c r="A465" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B465">
+        <v>4.2662899999999997</v>
+      </c>
       <c r="C465">
         <v>4.3449283000000003</v>
+      </c>
+      <c r="D465">
+        <f t="shared" si="109"/>
+        <v>-7.8638300000000605E-2</v>
+      </c>
+      <c r="E465">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="C466">
+        <v>4.2563409999999999</v>
       </c>
     </row>
   </sheetData>
@@ -23582,9 +23664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131:B131"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25118,6 +25200,9 @@
     <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>45427</v>
+      </c>
+      <c r="B132">
+        <v>4.2662899999999997</v>
       </c>
       <c r="C132" s="61">
         <v>4.3414817000000001</v>
@@ -26282,4 +26367,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA0CF0-6CC9-4853-83D2-DAEA9115DC56}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="8">
+        <v>8251.8700000000008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8">
+        <v>7911.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="8">
+        <v>14185.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8">
+        <v>11210.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14394.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14394.74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10234.530000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8">
+        <v>10246.530000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10246.530000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8649.5300000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7638.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8">
+        <v>7938.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7638.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="63">
+        <f>AVERAGE(B1:B13)</f>
+        <v>10226.336923076924</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A14">
+    <sortCondition ref="A1:A14"/>
+  </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C39745C-1724-4899-BEC8-7DE6A7FB7A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC5678-F183-45ED-B096-D9D31DFC3F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I193"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.2795834922821469E-3</v>
+        <v>2.1915411703330246E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D191" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D192" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E191" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E192" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9503,8 +9503,27 @@
       </c>
     </row>
     <row r="192" spans="1:9">
+      <c r="A192" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B192">
+        <v>3.91303</v>
+      </c>
       <c r="C192">
         <v>3.9275665000000002</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="42"/>
+        <v>-1.4536500000000174E-2</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193">
+        <v>3.9496093000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10653,9 +10672,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C467" sqref="C467"/>
     </sheetView>
@@ -10687,7 +10706,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4301404778450677E-2</v>
+        <v>-1.4263124338066913E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19569,11 +19588,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D465" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D466" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E465" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E466" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19635,8 +19654,27 @@
       </c>
     </row>
     <row r="466" spans="1:5">
+      <c r="A466" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B466">
+        <v>4.2598399999999996</v>
+      </c>
       <c r="C466">
         <v>4.2563409999999999</v>
+      </c>
+      <c r="D466">
+        <f t="shared" si="109"/>
+        <v>3.4989999999996968E-3</v>
+      </c>
+      <c r="E466">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="C467">
+        <v>4.2809005000000004</v>
       </c>
     </row>
   </sheetData>
@@ -23662,11 +23700,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25213,16 +25251,55 @@
       <c r="A133" s="1">
         <v>45428</v>
       </c>
+      <c r="B133">
+        <v>4.2598399999999996</v>
+      </c>
       <c r="C133" s="61">
         <v>4.3315033999999999</v>
       </c>
       <c r="F133" s="61"/>
     </row>
     <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>45429</v>
+      </c>
+      <c r="C134" s="61">
+        <v>4.3291917</v>
+      </c>
       <c r="F134" s="61"/>
     </row>
     <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>45432</v>
+      </c>
+      <c r="C135" s="61">
+        <v>4.3280168000000003</v>
+      </c>
       <c r="F135" s="61"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>45433</v>
+      </c>
+      <c r="C136" s="61">
+        <v>4.3164262999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>45434</v>
+      </c>
+      <c r="C137" s="61">
+        <v>4.31447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>45435</v>
+      </c>
+      <c r="C138" s="61">
+        <v>4.3098070000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EC5678-F183-45ED-B096-D9D31DFC3F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A5535-2067-47B4-BC4C-6178222BC229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5769,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I193"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.1915411703330246E-3</v>
+        <v>1.6902469924800379E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D192" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D196" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E192" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E196" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9521,9 +9521,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="3:3">
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B193">
+        <v>3.9182890000000001</v>
+      </c>
       <c r="C193">
         <v>3.9496093000000001</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="42"/>
+        <v>-3.1320299999999968E-2</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B194">
+        <v>3.9148999999999998</v>
+      </c>
+      <c r="C194">
+        <v>3.9214055999999999</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="42"/>
+        <v>-6.5056000000001113E-3</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B195">
+        <v>3.9125809999999999</v>
+      </c>
+      <c r="C195">
+        <v>3.9565635000000001</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="42"/>
+        <v>-4.3982500000000258E-2</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B196">
+        <v>3.9158539999999999</v>
+      </c>
+      <c r="C196">
+        <v>3.9230318</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="42"/>
+        <v>-7.1778000000000119E-3</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="C197">
+        <v>3.9236379000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10672,11 +10748,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I467"/>
+  <dimension ref="A1:I471"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C467" sqref="C467"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10706,7 +10782,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4263124338066913E-2</v>
+        <v>-1.4415764642219863E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19588,11 +19664,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D466" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D470" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E466" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E470" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19673,8 +19749,84 @@
       </c>
     </row>
     <row r="467" spans="1:5">
+      <c r="A467" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B467">
+        <v>4.2582199999999997</v>
+      </c>
       <c r="C467">
         <v>4.2809005000000004</v>
+      </c>
+      <c r="D467">
+        <f t="shared" si="109"/>
+        <v>-2.2680500000000769E-2</v>
+      </c>
+      <c r="E467">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B468">
+        <v>4.2558999999999996</v>
+      </c>
+      <c r="C468">
+        <v>4.3050975999999999</v>
+      </c>
+      <c r="D468">
+        <f t="shared" si="109"/>
+        <v>-4.9197600000000286E-2</v>
+      </c>
+      <c r="E468">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B469">
+        <v>4.2492000000000001</v>
+      </c>
+      <c r="C469">
+        <v>4.2728156999999998</v>
+      </c>
+      <c r="D469">
+        <f t="shared" si="109"/>
+        <v>-2.3615699999999684E-2</v>
+      </c>
+      <c r="E469">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B470">
+        <v>4.2506199999999996</v>
+      </c>
+      <c r="C470">
+        <v>4.2837670000000001</v>
+      </c>
+      <c r="D470">
+        <f t="shared" si="109"/>
+        <v>-3.3147000000000482E-2</v>
+      </c>
+      <c r="E470">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="C471">
+        <v>4.3082849999999997</v>
       </c>
     </row>
   </sheetData>
@@ -23702,9 +23854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25263,6 +25415,9 @@
       <c r="A134" s="1">
         <v>45429</v>
       </c>
+      <c r="B134">
+        <v>4.2582199999999997</v>
+      </c>
       <c r="C134" s="61">
         <v>4.3291917</v>
       </c>
@@ -25272,6 +25427,9 @@
       <c r="A135" s="1">
         <v>45432</v>
       </c>
+      <c r="B135">
+        <v>4.2558999999999996</v>
+      </c>
       <c r="C135" s="61">
         <v>4.3280168000000003</v>
       </c>
@@ -25281,6 +25439,9 @@
       <c r="A136" s="1">
         <v>45433</v>
       </c>
+      <c r="B136">
+        <v>4.2492000000000001</v>
+      </c>
       <c r="C136" s="61">
         <v>4.3164262999999998</v>
       </c>
@@ -25288,6 +25449,9 @@
     <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>45434</v>
+      </c>
+      <c r="B137">
+        <v>4.2506199999999996</v>
       </c>
       <c r="C137" s="61">
         <v>4.31447</v>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20A5535-2067-47B4-BC4C-6178222BC229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279FFB9-3A1B-49D7-8DA6-5CC89E40D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
     <sheet name="DX_USD" sheetId="7" state="hidden" r:id="rId2"/>
     <sheet name="D1_EUR" sheetId="1" r:id="rId3"/>
     <sheet name="DX_EUR" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="D1_OIL" sheetId="8" r:id="rId5"/>
-    <sheet name="D5_EUR" sheetId="9" r:id="rId6"/>
-    <sheet name="Normalization_example" sheetId="10" r:id="rId7"/>
+    <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
+    <sheet name="Normalization_example" sheetId="10" r:id="rId6"/>
+    <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Wynagrodzenie 01/2023</t>
+  </si>
+  <si>
+    <t>4.275459 , 4.2587624, 4.2493687, 4.236914 , 4.2255106</t>
   </si>
 </sst>
 </file>
@@ -5769,11 +5772,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C198" sqref="C198"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5806,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.6902469924800379E-3</v>
+        <v>1.7540268547633013E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +8981,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D196" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D197" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9425,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E196" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E197" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9598,8 +9601,27 @@
       </c>
     </row>
     <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B197">
+        <v>3.9378289999999998</v>
+      </c>
       <c r="C197">
         <v>3.9236379000000001</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="42"/>
+        <v>1.4191099999999679E-2</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="C198">
+        <v>3.9305134000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10748,11 +10770,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I471"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B471" sqref="B471"/>
+      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C473" sqref="C473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10782,7 +10804,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4415764642219863E-2</v>
+        <v>-1.4482082164257693E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19664,11 +19686,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D470" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D471" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E470" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E471" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19825,8 +19847,27 @@
       </c>
     </row>
     <row r="471" spans="1:5">
+      <c r="A471" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B471">
+        <v>4.2626999999999997</v>
+      </c>
       <c r="C471">
         <v>4.3082849999999997</v>
+      </c>
+      <c r="D471">
+        <f t="shared" si="109"/>
+        <v>-4.5584999999999987E-2</v>
+      </c>
+      <c r="E471">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="C472">
+        <v>4.3002563</v>
       </c>
     </row>
   </sheetData>
@@ -22045,6 +22086,2813 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
+  <dimension ref="A1:F143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="61"/>
+    <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B2" s="61">
+        <v>4.4203900000000003</v>
+      </c>
+      <c r="C2" s="61">
+        <v>4.4397197000000004</v>
+      </c>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B3" s="61">
+        <v>4.4245599999999996</v>
+      </c>
+      <c r="C3" s="61">
+        <v>4.4373930000000001</v>
+      </c>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B4" s="61">
+        <v>4.452108</v>
+      </c>
+      <c r="C4" s="61">
+        <v>4.4453683000000002</v>
+      </c>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B5" s="61">
+        <v>4.3864000000000001</v>
+      </c>
+      <c r="C5" s="61">
+        <v>4.4587025999999996</v>
+      </c>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B6" s="61">
+        <v>4.3706399999999999</v>
+      </c>
+      <c r="C6" s="61">
+        <v>4.4589353000000003</v>
+      </c>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B7" s="61">
+        <v>4.3820399999999999</v>
+      </c>
+      <c r="C7" s="61">
+        <v>4.4474134000000003</v>
+      </c>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B8" s="61">
+        <v>4.3441000000000001</v>
+      </c>
+      <c r="C8" s="61">
+        <v>4.4604049999999997</v>
+      </c>
+      <c r="D8" s="61"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B9" s="61">
+        <v>4.3708999999999998</v>
+      </c>
+      <c r="C9" s="61">
+        <v>4.4748210000000004</v>
+      </c>
+      <c r="D9" s="61"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B10" s="61">
+        <v>4.3617999999999997</v>
+      </c>
+      <c r="C10" s="61">
+        <v>4.4819259999999996</v>
+      </c>
+      <c r="D10" s="61"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B11" s="61">
+        <v>4.3632</v>
+      </c>
+      <c r="C11" s="61">
+        <v>4.4831490000000001</v>
+      </c>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B12" s="61">
+        <v>4.3606699999999998</v>
+      </c>
+      <c r="C12" s="61">
+        <v>4.4254579999999999</v>
+      </c>
+      <c r="D12" s="61"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B13" s="61">
+        <v>4.3439300000000003</v>
+      </c>
+      <c r="C13" s="61">
+        <v>4.4274306000000001</v>
+      </c>
+      <c r="D13" s="61"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B14" s="61">
+        <v>4.3176399999999999</v>
+      </c>
+      <c r="C14" s="61">
+        <v>4.4089894000000003</v>
+      </c>
+      <c r="D14" s="61"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B15" s="61">
+        <v>4.3388200000000001</v>
+      </c>
+      <c r="C15" s="61">
+        <v>4.3910555999999996</v>
+      </c>
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B16" s="61">
+        <v>4.3503699999999998</v>
+      </c>
+      <c r="C16" s="61">
+        <v>4.3848934000000002</v>
+      </c>
+      <c r="D16" s="61"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B17" s="61">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C17" s="61">
+        <v>4.3906660000000004</v>
+      </c>
+      <c r="D17" s="61"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B18" s="61">
+        <v>4.32761</v>
+      </c>
+      <c r="C18" s="61">
+        <v>4.4073023999999998</v>
+      </c>
+      <c r="D18" s="61"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B19" s="61">
+        <v>4.3194900000000001</v>
+      </c>
+      <c r="C19" s="61">
+        <v>4.4268093000000004</v>
+      </c>
+      <c r="D19" s="61"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B20" s="61">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C20" s="61">
+        <v>4.4315147000000001</v>
+      </c>
+      <c r="D20" s="61"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B21" s="61">
+        <v>4.3272300000000001</v>
+      </c>
+      <c r="C21" s="61">
+        <v>4.4290289999999999</v>
+      </c>
+      <c r="D21" s="61"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B22" s="61">
+        <v>4.3254599999999996</v>
+      </c>
+      <c r="C22" s="61">
+        <v>4.3779199999999996</v>
+      </c>
+      <c r="D22" s="61"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B23" s="61">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="C23" s="61">
+        <v>4.3646349999999998</v>
+      </c>
+      <c r="D23" s="61"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B24" s="61">
+        <v>4.3245800000000001</v>
+      </c>
+      <c r="C24" s="61">
+        <v>4.3486159999999998</v>
+      </c>
+      <c r="D24" s="61"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B25" s="61">
+        <v>4.2960099999999999</v>
+      </c>
+      <c r="C25" s="61">
+        <v>4.3421702</v>
+      </c>
+      <c r="D25" s="61"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B26" s="61">
+        <v>4.3048000000000002</v>
+      </c>
+      <c r="C26" s="61">
+        <v>4.3236184</v>
+      </c>
+      <c r="D26" s="61"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B27" s="61">
+        <v>4.3315799999999998</v>
+      </c>
+      <c r="C27" s="61">
+        <v>4.3164369999999996</v>
+      </c>
+      <c r="D27" s="61"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B28" s="61">
+        <v>4.3197999999999999</v>
+      </c>
+      <c r="C28" s="61">
+        <v>4.2986716999999999</v>
+      </c>
+      <c r="D28" s="61"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B29" s="61">
+        <v>4.32315</v>
+      </c>
+      <c r="C29" s="61">
+        <v>4.2743950000000002</v>
+      </c>
+      <c r="D29" s="61"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B30" s="61">
+        <v>4.34213</v>
+      </c>
+      <c r="C30" s="61">
+        <v>4.2607400000000002</v>
+      </c>
+      <c r="D30" s="61"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B31" s="61">
+        <v>4.3228</v>
+      </c>
+      <c r="C31" s="61">
+        <v>4.2532515999999996</v>
+      </c>
+      <c r="D31" s="61"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B32" s="61">
+        <v>4.3332100000000002</v>
+      </c>
+      <c r="C32" s="61">
+        <v>4.2502255</v>
+      </c>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B33" s="61">
+        <v>4.3247400000000003</v>
+      </c>
+      <c r="C33" s="61">
+        <v>4.2410870000000003</v>
+      </c>
+      <c r="D33" s="61"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B34" s="61">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C34" s="61">
+        <v>4.2615129999999999</v>
+      </c>
+      <c r="D34" s="61"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B35" s="61">
+        <v>4.3335499999999998</v>
+      </c>
+      <c r="C35" s="61">
+        <v>4.2706203</v>
+      </c>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B36" s="61">
+        <v>4.33988</v>
+      </c>
+      <c r="C36" s="61">
+        <v>4.2816386</v>
+      </c>
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B37" s="61">
+        <v>4.3661899999999996</v>
+      </c>
+      <c r="C37" s="61">
+        <v>4.2987776000000002</v>
+      </c>
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B38" s="61">
+        <v>4.3486000000000002</v>
+      </c>
+      <c r="C38" s="61">
+        <v>4.3172812</v>
+      </c>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B39" s="61">
+        <v>4.3437999999999999</v>
+      </c>
+      <c r="C39" s="61">
+        <v>4.3904269999999999</v>
+      </c>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B40" s="61">
+        <v>4.3431499999999996</v>
+      </c>
+      <c r="C40" s="61">
+        <v>4.4120216000000001</v>
+      </c>
+      <c r="D40" s="61"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B41" s="61">
+        <v>4.3311999999999999</v>
+      </c>
+      <c r="C41" s="61">
+        <v>4.426336</v>
+      </c>
+      <c r="D41" s="61"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B42" s="61">
+        <v>4.3430099999999996</v>
+      </c>
+      <c r="C42" s="61">
+        <v>4.4373994000000003</v>
+      </c>
+      <c r="D42" s="61"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B43" s="61">
+        <v>4.3323</v>
+      </c>
+      <c r="C43" s="61">
+        <v>4.4435086000000004</v>
+      </c>
+      <c r="D43" s="61"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B44" s="61">
+        <v>4.3518499999999998</v>
+      </c>
+      <c r="C44" s="61">
+        <v>4.3750229999999997</v>
+      </c>
+      <c r="D44" s="61"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B45" s="61">
+        <v>4.3523199999999997</v>
+      </c>
+      <c r="C45" s="61">
+        <v>4.3817259999999996</v>
+      </c>
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B46" s="61">
+        <v>4.3693900000000001</v>
+      </c>
+      <c r="C46" s="61">
+        <v>4.3715267000000004</v>
+      </c>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B47" s="61">
+        <v>4.3900199999999998</v>
+      </c>
+      <c r="C47" s="61">
+        <v>4.3571977999999998</v>
+      </c>
+      <c r="D47" s="61"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B48" s="61">
+        <v>4.3937999999999997</v>
+      </c>
+      <c r="C48" s="61">
+        <v>4.3386009999999997</v>
+      </c>
+      <c r="D48" s="61"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B49" s="61">
+        <v>4.3827100000000003</v>
+      </c>
+      <c r="C49" s="61">
+        <v>4.3652819999999997</v>
+      </c>
+      <c r="D49" s="61"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B50" s="61">
+        <v>4.3518499999999998</v>
+      </c>
+      <c r="C50" s="61">
+        <v>4.3526397000000001</v>
+      </c>
+      <c r="D50" s="61"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B51" s="61">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C51" s="61">
+        <v>4.3483890000000001</v>
+      </c>
+      <c r="D51" s="61"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B52" s="61">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C52" s="61">
+        <v>4.3440412999999998</v>
+      </c>
+      <c r="D52" s="61"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B53" s="61">
+        <v>4.3606199999999999</v>
+      </c>
+      <c r="C53" s="61">
+        <v>4.3381733999999996</v>
+      </c>
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B54" s="61">
+        <v>4.3784700000000001</v>
+      </c>
+      <c r="C54" s="61">
+        <v>4.3316610000000004</v>
+      </c>
+      <c r="D54" s="61"/>
+      <c r="E54" s="59"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B55" s="61">
+        <v>4.3655099999999996</v>
+      </c>
+      <c r="C55" s="61">
+        <v>4.3475390000000003</v>
+      </c>
+      <c r="D55" s="61"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B56" s="61">
+        <v>4.3646399999999996</v>
+      </c>
+      <c r="C56" s="61">
+        <v>4.3583464999999997</v>
+      </c>
+      <c r="D56" s="61"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B57" s="61">
+        <v>4.3478199999999996</v>
+      </c>
+      <c r="C57" s="61">
+        <v>4.3781330000000001</v>
+      </c>
+      <c r="D57" s="61"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B58" s="61">
+        <v>4.3259400000000001</v>
+      </c>
+      <c r="C58" s="61">
+        <v>4.3906774999999998</v>
+      </c>
+      <c r="D58" s="61"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B59" s="61">
+        <v>4.3143900000000004</v>
+      </c>
+      <c r="C59" s="61">
+        <v>4.3475099999999998</v>
+      </c>
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B60" s="61">
+        <v>4.31271</v>
+      </c>
+      <c r="C60" s="61">
+        <v>4.3577886000000001</v>
+      </c>
+      <c r="D60" s="61"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B61" s="61">
+        <v>4.3383500000000002</v>
+      </c>
+      <c r="C61" s="61">
+        <v>4.3528894999999999</v>
+      </c>
+      <c r="D61" s="61"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B62" s="61">
+        <v>4.3449</v>
+      </c>
+      <c r="C62" s="61">
+        <v>4.3510346000000002</v>
+      </c>
+      <c r="D62" s="61"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B63" s="61">
+        <v>4.3412800000000002</v>
+      </c>
+      <c r="C63" s="61">
+        <v>4.3377175000000001</v>
+      </c>
+      <c r="D63" s="61"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B64" s="61">
+        <v>4.3489820000000003</v>
+      </c>
+      <c r="C64" s="61">
+        <v>4.3596640000000004</v>
+      </c>
+      <c r="D64" s="61"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B65" s="61">
+        <v>4.3230700000000004</v>
+      </c>
+      <c r="C65" s="61">
+        <v>4.3612045999999998</v>
+      </c>
+      <c r="D65" s="61"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B66" s="61">
+        <v>4.3221699999999998</v>
+      </c>
+      <c r="C66" s="61">
+        <v>4.356179</v>
+      </c>
+      <c r="D66" s="61"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B67" s="61">
+        <v>4.3365200000000002</v>
+      </c>
+      <c r="C67" s="61">
+        <v>4.3519936000000001</v>
+      </c>
+      <c r="D67" s="61"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B68" s="61">
+        <v>4.3385300000000004</v>
+      </c>
+      <c r="C68" s="61">
+        <v>4.3406463000000004</v>
+      </c>
+      <c r="D68" s="61"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B69" s="61">
+        <v>4.3402000000000003</v>
+      </c>
+      <c r="C69" s="61">
+        <v>4.3211874999999997</v>
+      </c>
+      <c r="D69" s="61"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B70" s="61">
+        <v>4.3365299999999998</v>
+      </c>
+      <c r="C70" s="61">
+        <v>4.3091654999999998</v>
+      </c>
+      <c r="D70" s="61"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B71" s="61">
+        <v>4.3247</v>
+      </c>
+      <c r="C71" s="61">
+        <v>4.2970160000000002</v>
+      </c>
+      <c r="D71" s="61"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B72" s="61">
+        <v>4.3125299999999998</v>
+      </c>
+      <c r="C72" s="61">
+        <v>4.2957830000000001</v>
+      </c>
+      <c r="D72" s="61"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B73" s="61">
+        <v>4.3152999999999997</v>
+      </c>
+      <c r="C73" s="61">
+        <v>4.2895380000000003</v>
+      </c>
+      <c r="D73" s="61"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B74" s="61">
+        <v>4.3214399999999999</v>
+      </c>
+      <c r="C74" s="61">
+        <v>4.3074820000000003</v>
+      </c>
+      <c r="D74" s="61"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B75" s="61">
+        <v>4.3048400000000004</v>
+      </c>
+      <c r="C75" s="61">
+        <v>4.3080907000000002</v>
+      </c>
+      <c r="D75" s="61"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B76" s="61">
+        <v>4.3086700000000002</v>
+      </c>
+      <c r="C76" s="61">
+        <v>4.3042490000000004</v>
+      </c>
+      <c r="D76" s="61"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B77" s="61">
+        <v>4.3043399999999998</v>
+      </c>
+      <c r="C77" s="61">
+        <v>4.3033146999999996</v>
+      </c>
+      <c r="D77" s="61"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B78" s="61">
+        <v>4.3154399999999997</v>
+      </c>
+      <c r="C78" s="61">
+        <v>4.3039784000000001</v>
+      </c>
+      <c r="D78" s="61"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B79">
+        <v>4.31325</v>
+      </c>
+      <c r="C79" s="61">
+        <v>4.3296950000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B80">
+        <v>4.3154399999999997</v>
+      </c>
+      <c r="C80" s="61">
+        <v>4.3257294000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B81">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="C81" s="61">
+        <v>4.3233509999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B82">
+        <v>4.30999</v>
+      </c>
+      <c r="C82" s="61">
+        <v>4.3128924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B83">
+        <v>4.2965999999999998</v>
+      </c>
+      <c r="C83" s="61">
+        <v>4.3122360000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B84">
+        <v>4.2980999999999998</v>
+      </c>
+      <c r="C84" s="61">
+        <v>4.3272424000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B85">
+        <v>4.3017700000000003</v>
+      </c>
+      <c r="C85" s="61">
+        <v>4.3170896000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B86">
+        <v>4.2793900000000002</v>
+      </c>
+      <c r="C86" s="61">
+        <v>4.3122769999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B87">
+        <v>4.2867800000000003</v>
+      </c>
+      <c r="C87" s="61">
+        <v>4.3032537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B88">
+        <v>4.2784000000000004</v>
+      </c>
+      <c r="C88" s="61">
+        <v>4.2963950000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B89">
+        <v>4.29087</v>
+      </c>
+      <c r="C89" s="61">
+        <v>4.2678719999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B90">
+        <v>4.2968999999999999</v>
+      </c>
+      <c r="C90" s="61">
+        <v>4.2688509999999997</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B91">
+        <v>4.3201700000000001</v>
+      </c>
+      <c r="C91" s="61">
+        <v>4.2664657000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B92">
+        <v>4.3130600000000001</v>
+      </c>
+      <c r="C92" s="61">
+        <v>4.2712326000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B93">
+        <v>4.3092899999999998</v>
+      </c>
+      <c r="C93" s="61">
+        <v>4.2778735000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B94">
+        <v>4.3011999999999997</v>
+      </c>
+      <c r="C94" s="61">
+        <v>4.2990250000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B95">
+        <v>4.3190999999999997</v>
+      </c>
+      <c r="C95" s="61">
+        <v>4.2968286999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B96">
+        <v>4.3025000000000002</v>
+      </c>
+      <c r="C96" s="61">
+        <v>4.3011739999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B97">
+        <v>4.3068200000000001</v>
+      </c>
+      <c r="C97" s="61">
+        <v>4.3087150000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B98">
+        <v>4.3119399999999999</v>
+      </c>
+      <c r="C98" s="61">
+        <v>4.3219099999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B99">
+        <v>4.3025000000000002</v>
+      </c>
+      <c r="C99" s="61">
+        <v>4.3158035000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B100">
+        <v>4.2982500000000003</v>
+      </c>
+      <c r="C100" s="61">
+        <v>4.3159236999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B101">
+        <v>4.2906000000000004</v>
+      </c>
+      <c r="C101" s="61">
+        <v>4.3132320000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B102">
+        <v>4.2902500000000003</v>
+      </c>
+      <c r="C102" s="61">
+        <v>4.312487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B103">
+        <v>4.2902500000000003</v>
+      </c>
+      <c r="C103" s="61">
+        <v>4.3127583999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B104">
+        <v>4.2891500000000002</v>
+      </c>
+      <c r="C104" s="61">
+        <v>4.3017700000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B105">
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="C105" s="61">
+        <v>4.3098660000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B106">
+        <v>4.2587099999999998</v>
+      </c>
+      <c r="C106" s="61">
+        <v>4.3089212999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B107">
+        <v>4.2657499999999997</v>
+      </c>
+      <c r="C107" s="61">
+        <v>4.3071070000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B108">
+        <v>4.2618</v>
+      </c>
+      <c r="C108" s="61">
+        <v>4.3006853999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B109">
+        <v>4.2614799999999997</v>
+      </c>
+      <c r="C109" s="61">
+        <v>4.3146515000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B110">
+        <v>4.2803000000000004</v>
+      </c>
+      <c r="C110" s="61">
+        <v>4.3152594999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B111">
+        <v>4.3007</v>
+      </c>
+      <c r="C111" s="61">
+        <v>4.3107819999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B112">
+        <v>4.3660199999999998</v>
+      </c>
+      <c r="C112" s="61">
+        <v>4.306127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B113">
+        <v>4.33704</v>
+      </c>
+      <c r="C113" s="61">
+        <v>4.2943689999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B114">
+        <v>4.33683</v>
+      </c>
+      <c r="C114" s="61">
+        <v>4.3177349999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B115">
+        <v>4.3045999999999998</v>
+      </c>
+      <c r="C115" s="61">
+        <v>4.3054113000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B116">
+        <v>4.3122999999999996</v>
+      </c>
+      <c r="C116" s="61">
+        <v>4.2943239999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B117">
+        <v>4.3048000000000002</v>
+      </c>
+      <c r="C117" s="61">
+        <v>4.2804456000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B118">
+        <v>4.3310000000000004</v>
+      </c>
+      <c r="C118" s="61">
+        <v>4.2759776</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B119">
+        <v>4.3116000000000003</v>
+      </c>
+      <c r="C119" s="61">
+        <v>4.3050113000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B120">
+        <v>4.3189399999999996</v>
+      </c>
+      <c r="C120" s="61">
+        <v>4.3039804000000004</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B121">
+        <v>4.3131500000000003</v>
+      </c>
+      <c r="C121" s="61">
+        <v>4.3125460000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B122">
+        <v>4.3302300000000002</v>
+      </c>
+      <c r="C122" s="61">
+        <v>4.3213179999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B123">
+        <v>4.3250099999999998</v>
+      </c>
+      <c r="C123" s="61">
+        <v>4.3353010000000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B124">
+        <v>4.3278999999999996</v>
+      </c>
+      <c r="C124" s="61">
+        <v>4.3229959999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B125">
+        <v>4.3173000000000004</v>
+      </c>
+      <c r="C125" s="61">
+        <v>4.3322615999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B126">
+        <v>4.3047399999999998</v>
+      </c>
+      <c r="C126" s="61">
+        <v>4.3343835000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B127">
+        <v>4.3109799999999998</v>
+      </c>
+      <c r="C127" s="61">
+        <v>4.3417269999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B128">
+        <v>4.2992499999999998</v>
+      </c>
+      <c r="C128" s="61">
+        <v>4.3501678000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B129">
+        <v>4.2819000000000003</v>
+      </c>
+      <c r="C129" s="61">
+        <v>4.3358525999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B130">
+        <v>4.29976</v>
+      </c>
+      <c r="C130" s="61">
+        <v>4.3569430000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B131">
+        <v>4.2839400000000003</v>
+      </c>
+      <c r="C131" s="61">
+        <v>4.3464700000000001</v>
+      </c>
+      <c r="F131" s="61"/>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B132">
+        <v>4.2662899999999997</v>
+      </c>
+      <c r="C132" s="61">
+        <v>4.3414817000000001</v>
+      </c>
+      <c r="F132" s="61"/>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B133">
+        <v>4.2598399999999996</v>
+      </c>
+      <c r="C133" s="61">
+        <v>4.3315033999999999</v>
+      </c>
+      <c r="F133" s="61"/>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B134">
+        <v>4.2582199999999997</v>
+      </c>
+      <c r="C134" s="61">
+        <v>4.3291917</v>
+      </c>
+      <c r="F134" s="61"/>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B135">
+        <v>4.2558999999999996</v>
+      </c>
+      <c r="C135" s="61">
+        <v>4.3280168000000003</v>
+      </c>
+      <c r="F135" s="61"/>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B136">
+        <v>4.2492000000000001</v>
+      </c>
+      <c r="C136" s="61">
+        <v>4.3164262999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B137">
+        <v>4.2506199999999996</v>
+      </c>
+      <c r="C137" s="61">
+        <v>4.31447</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B138">
+        <v>4.2626999999999997</v>
+      </c>
+      <c r="C138" s="61">
+        <v>4.3098070000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>45436</v>
+      </c>
+      <c r="C139" s="61">
+        <v>4.2754589999999997</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>45439</v>
+      </c>
+      <c r="C140" s="61">
+        <v>4.2587624000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>45440</v>
+      </c>
+      <c r="C141" s="61">
+        <v>4.2493686999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>45441</v>
+      </c>
+      <c r="C142" s="61">
+        <v>4.2369139999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>45442</v>
+      </c>
+      <c r="C143" s="61">
+        <v>4.2255105999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2735D1A-F4DE-4DDC-A04F-6C2EC4F5E003}">
+  <dimension ref="A1:E74"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <f>MIN(C2:C74)</f>
+        <v>3.8980269999999999</v>
+      </c>
+      <c r="E1">
+        <f>MAX(C2:C74)</f>
+        <v>4.3988779999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B2">
+        <v>4.10379</v>
+      </c>
+      <c r="C2">
+        <v>4.2317090000000004</v>
+      </c>
+      <c r="D2">
+        <f>(C2-$D$1)/($E$1-$D$1)</f>
+        <v>0.66623007640995136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B3">
+        <v>4.1436010000000003</v>
+      </c>
+      <c r="C3">
+        <v>4.1542295999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">(C3-$D$1)/($E$1-$D$1)</f>
+        <v>0.51153456816498311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" customHeight="1">
+      <c r="A4" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B4">
+        <v>4.1349299999999998</v>
+      </c>
+      <c r="C4">
+        <v>4.1437840000000001</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.4906788645724981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B5">
+        <v>4.1421960000000002</v>
+      </c>
+      <c r="C5">
+        <v>4.1436653000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.49044186794076572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B6">
+        <v>4.1401919999999999</v>
+      </c>
+      <c r="C6">
+        <v>4.121092</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.44537197689532437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B7">
+        <v>4.1424269999999996</v>
+      </c>
+      <c r="C7">
+        <v>4.1126230000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.42846275638862708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B8">
+        <v>4.0843290000000003</v>
+      </c>
+      <c r="C8">
+        <v>4.1820940000000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.56716867890849842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B9">
+        <v>4.1210769999999997</v>
+      </c>
+      <c r="C9">
+        <v>4.1488959999999997</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.50088549289109896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B10">
+        <v>4.1228449999999999</v>
+      </c>
+      <c r="C10">
+        <v>4.1547616124999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.51259678527146768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B11">
+        <v>4.1261541111111102</v>
+      </c>
+      <c r="C11">
+        <v>4.1055435999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.41432801372064737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B12">
+        <v>4.142512</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C6:C11)</f>
+        <v>4.1375017020833331</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.47813561734594368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B13">
+        <v>4.1849769999999999</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C7:C12)</f>
+        <v>4.1402366524305556</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.48359622408771419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B14">
+        <v>4.258</v>
+      </c>
+      <c r="C14">
+        <v>4.1649555999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.53295011889763622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B15">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C16" si="1">AVERAGE(C9:C14)</f>
+        <v>4.1419825278356486</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.48708204203575256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B16">
+        <v>4.3203959999999997</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4.1408302824749228</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.48478146689319362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B17">
+        <v>4.3051000000000004</v>
+      </c>
+      <c r="C17">
+        <v>4.2877292999999996</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.77808030731694611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B18">
+        <v>4.3163099999999996</v>
+      </c>
+      <c r="C18">
+        <v>4.3197412000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.84199532395862309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B19">
+        <v>4.3254000000000001</v>
+      </c>
+      <c r="C19">
+        <v>4.2998969999999996</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.80237435884125174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B20">
+        <v>4.3063000000000002</v>
+      </c>
+      <c r="C20">
+        <v>4.3568683000000004</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.91612335804460909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B21">
+        <v>4.3575600000000003</v>
+      </c>
+      <c r="C21">
+        <v>4.2635984000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.72990050933311579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B22">
+        <v>4.3500300000000003</v>
+      </c>
+      <c r="C22">
+        <v>4.363626</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.9296157939187506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B23">
+        <v>4.3390500000000003</v>
+      </c>
+      <c r="C23">
+        <v>4.3153176000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.83316315630796456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B24">
+        <v>4.3273000000000001</v>
+      </c>
+      <c r="C24">
+        <v>4.3401493999999996</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.88274237248203513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B25">
+        <v>4.3280399999999997</v>
+      </c>
+      <c r="C25">
+        <v>4.3988779999999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B26">
+        <v>4.322838</v>
+      </c>
+      <c r="C26">
+        <v>4.2926846000000003</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.78797406813603332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B27">
+        <v>4.3494710000000003</v>
+      </c>
+      <c r="C27">
+        <v>4.2851376999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.77290591413414389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B28">
+        <v>4.3588339999999999</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C21:C27)</f>
+        <v>4.3227702428571426</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.84804311633029139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B29">
+        <v>4.4062250000000001</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:C33" si="2">AVERAGE(C22:C28)</f>
+        <v>4.3312233632653063</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.86492063161560317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B30">
+        <v>4.3906270000000003</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>4.3265944151603497</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.85567846557229565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B31">
+        <v>4.3703000000000003</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>4.328205388754685</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.85889493832434216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B32">
+        <v>4.4048800000000004</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>4.3264991014339262</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.85548816201610134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B33">
+        <v>4.4206390000000004</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>4.3161592587816306</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.83484361373268856</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B34">
+        <v>4.3823999999999996</v>
+      </c>
+      <c r="C34">
+        <v>4.3566294000000001</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.91564636987846737</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B35">
+        <v>4.3627960000000003</v>
+      </c>
+      <c r="C35">
+        <v>4.3857683999999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.97382534925556719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B36">
+        <v>4.3303849999999997</v>
+      </c>
+      <c r="C36">
+        <v>4.3485250000000004</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.89946511038213073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B37">
+        <v>4.3096439999999996</v>
+      </c>
+      <c r="C37">
+        <v>4.3056200000000002</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.81380091084973449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B38">
+        <v>4.2773700000000003</v>
+      </c>
+      <c r="C38">
+        <v>4.2566657000000001</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.71605866814681463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B39">
+        <v>4.259582</v>
+      </c>
+      <c r="C39">
+        <v>4.2690143999999997</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.74071410459398068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B40">
+        <v>4.3075679999999998</v>
+      </c>
+      <c r="C40">
+        <v>4.2282500000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.65932383083991086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B41">
+        <v>4.2351289999999997</v>
+      </c>
+      <c r="C41">
+        <v>4.2936624999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.78992654502037551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B42">
+        <v>4.2157499999999999</v>
+      </c>
+      <c r="C42">
+        <v>4.1916785000000001</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.58630510870498453</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B43">
+        <v>4.1773470000000001</v>
+      </c>
+      <c r="C43">
+        <v>4.2237400000000003</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.65031915679513552</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B44">
+        <v>4.2219189999999998</v>
+      </c>
+      <c r="C44">
+        <v>4.2315449999999997</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.66590263371741254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B45">
+        <v>4.2020999999999997</v>
+      </c>
+      <c r="C45">
+        <v>4.2219996000000002</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.64684427105067244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B46">
+        <v>4.2072890000000003</v>
+      </c>
+      <c r="C46">
+        <v>4.1950617000000001</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.59306001185981505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B47">
+        <v>4.1757</v>
+      </c>
+      <c r="C47">
+        <v>4.2082249999999997</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.61934188012003533</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B48">
+        <v>4.2117810000000002</v>
+      </c>
+      <c r="C48">
+        <v>4.1858700000000004</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0.57470784724399182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B49">
+        <v>4.2345819999999996</v>
+      </c>
+      <c r="C49">
+        <v>4.1899579999999998</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0.58286995533601804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B50">
+        <v>4.2121510000000004</v>
+      </c>
+      <c r="C50">
+        <v>4.2290239999999999</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0.66086920062054388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B51">
+        <v>4.2121570000000004</v>
+      </c>
+      <c r="C51">
+        <v>4.1937939999999996</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0.59052891977853639</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B52">
+        <v>4.2241499999999998</v>
+      </c>
+      <c r="C52">
+        <v>4.1874112999999999</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0.57778520957330637</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B53">
+        <v>4.1901999999999999</v>
+      </c>
+      <c r="C53">
+        <v>4.1268853999999999</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0.45693908966938279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B54">
+        <v>4.2038000000000002</v>
+      </c>
+      <c r="C54">
+        <v>4.2038000000000002</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0.61050691722688055</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B55">
+        <v>4.2207499999999998</v>
+      </c>
+      <c r="C55">
+        <v>4.1815129999999998</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.56600865327213068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B56">
+        <v>4.1884699999999997</v>
+      </c>
+      <c r="C56">
+        <v>4.1971664000000004</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0.59726225963410384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B57">
+        <v>4.1477500000000003</v>
+      </c>
+      <c r="C57">
+        <v>4.1794862999999998</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0.56196214043697601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B58">
+        <v>4.1636439999999997</v>
+      </c>
+      <c r="C58">
+        <v>4.1636123999999999</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0.53026828338168441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B59">
+        <v>4.1436000000000002</v>
+      </c>
+      <c r="C59">
+        <v>4.1525917000000003</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0.50826433410335703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B60">
+        <v>4.1526199999999998</v>
+      </c>
+      <c r="C60">
+        <v>4.1653395</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0.53371661432242345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B61">
+        <v>4.1352060000000002</v>
+      </c>
+      <c r="C61">
+        <v>4.1250530000000003</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0.45328051656081436</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B62">
+        <v>4.1337000000000002</v>
+      </c>
+      <c r="C62">
+        <v>4.0906209999999996</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0.38453352394224977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B63">
+        <v>4.0419010000000002</v>
+      </c>
+      <c r="C63">
+        <v>4.1189536999999996</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0.44110264330110099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B64">
+        <v>4.0411630000000001</v>
+      </c>
+      <c r="C64">
+        <v>4.0536820000000002</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0.31078105065179135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B65">
+        <v>4.0270520000000003</v>
+      </c>
+      <c r="C65">
+        <v>4.0253905999999997</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0.2542943909466085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B66">
+        <v>4.0177690000000004</v>
+      </c>
+      <c r="C66">
+        <v>4.0088569999999999</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0.22128337569456785</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B67">
+        <v>3.9689000000000001</v>
+      </c>
+      <c r="C67">
+        <v>4.0179970000000003</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D74" si="3">(C67-$D$1)/($E$1-$D$1)</f>
+        <v>0.23953231599817185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B68">
+        <v>4.0037560000000001</v>
+      </c>
+      <c r="C68">
+        <v>4.0342444999999998</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.27197210347987705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B69">
+        <v>4.0081699999999998</v>
+      </c>
+      <c r="C69">
+        <v>3.9910321</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0.18569414855915248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B70">
+        <v>4.0023999999999997</v>
+      </c>
+      <c r="C70">
+        <v>4.0195780000000001</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0.24268894341830247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B71">
+        <v>3.9830999999999999</v>
+      </c>
+      <c r="C71">
+        <v>4.0003824000000003</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0.20436297421788205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>3.9641630000000001</v>
+      </c>
+      <c r="C72">
+        <v>3.9747914999999998</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0.15326813762975397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B73">
+        <v>3.9237899999999999</v>
+      </c>
+      <c r="C73">
+        <v>3.9811260000000002</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0.16591561162900798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="C74">
+        <v>3.8980269999999999</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5667DBD-CFCB-4460-8FBE-056820554895}">
   <dimension ref="A1:F94"/>
   <sheetViews>
@@ -23847,2766 +26695,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F138"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="61"/>
-    <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>45243</v>
-      </c>
-      <c r="B2" s="61">
-        <v>4.4203900000000003</v>
-      </c>
-      <c r="C2" s="61">
-        <v>4.4397197000000004</v>
-      </c>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>45244</v>
-      </c>
-      <c r="B3" s="61">
-        <v>4.4245599999999996</v>
-      </c>
-      <c r="C3" s="61">
-        <v>4.4373930000000001</v>
-      </c>
-      <c r="D3" s="61"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B4" s="61">
-        <v>4.452108</v>
-      </c>
-      <c r="C4" s="61">
-        <v>4.4453683000000002</v>
-      </c>
-      <c r="D4" s="61"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B5" s="61">
-        <v>4.3864000000000001</v>
-      </c>
-      <c r="C5" s="61">
-        <v>4.4587025999999996</v>
-      </c>
-      <c r="D5" s="61"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B6" s="61">
-        <v>4.3706399999999999</v>
-      </c>
-      <c r="C6" s="61">
-        <v>4.4589353000000003</v>
-      </c>
-      <c r="D6" s="61"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B7" s="61">
-        <v>4.3820399999999999</v>
-      </c>
-      <c r="C7" s="61">
-        <v>4.4474134000000003</v>
-      </c>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B8" s="61">
-        <v>4.3441000000000001</v>
-      </c>
-      <c r="C8" s="61">
-        <v>4.4604049999999997</v>
-      </c>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B9" s="61">
-        <v>4.3708999999999998</v>
-      </c>
-      <c r="C9" s="61">
-        <v>4.4748210000000004</v>
-      </c>
-      <c r="D9" s="61"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B10" s="61">
-        <v>4.3617999999999997</v>
-      </c>
-      <c r="C10" s="61">
-        <v>4.4819259999999996</v>
-      </c>
-      <c r="D10" s="61"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B11" s="61">
-        <v>4.3632</v>
-      </c>
-      <c r="C11" s="61">
-        <v>4.4831490000000001</v>
-      </c>
-      <c r="D11" s="61"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B12" s="61">
-        <v>4.3606699999999998</v>
-      </c>
-      <c r="C12" s="61">
-        <v>4.4254579999999999</v>
-      </c>
-      <c r="D12" s="61"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B13" s="61">
-        <v>4.3439300000000003</v>
-      </c>
-      <c r="C13" s="61">
-        <v>4.4274306000000001</v>
-      </c>
-      <c r="D13" s="61"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B14" s="61">
-        <v>4.3176399999999999</v>
-      </c>
-      <c r="C14" s="61">
-        <v>4.4089894000000003</v>
-      </c>
-      <c r="D14" s="61"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>45260</v>
-      </c>
-      <c r="B15" s="61">
-        <v>4.3388200000000001</v>
-      </c>
-      <c r="C15" s="61">
-        <v>4.3910555999999996</v>
-      </c>
-      <c r="D15" s="61"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>45261</v>
-      </c>
-      <c r="B16" s="61">
-        <v>4.3503699999999998</v>
-      </c>
-      <c r="C16" s="61">
-        <v>4.3848934000000002</v>
-      </c>
-      <c r="D16" s="61"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>45264</v>
-      </c>
-      <c r="B17" s="61">
-        <v>4.3256899999999998</v>
-      </c>
-      <c r="C17" s="61">
-        <v>4.3906660000000004</v>
-      </c>
-      <c r="D17" s="61"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>45265</v>
-      </c>
-      <c r="B18" s="61">
-        <v>4.32761</v>
-      </c>
-      <c r="C18" s="61">
-        <v>4.4073023999999998</v>
-      </c>
-      <c r="D18" s="61"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>45266</v>
-      </c>
-      <c r="B19" s="61">
-        <v>4.3194900000000001</v>
-      </c>
-      <c r="C19" s="61">
-        <v>4.4268093000000004</v>
-      </c>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>45267</v>
-      </c>
-      <c r="B20" s="61">
-        <v>4.3272300000000001</v>
-      </c>
-      <c r="C20" s="61">
-        <v>4.4315147000000001</v>
-      </c>
-      <c r="D20" s="61"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>45268</v>
-      </c>
-      <c r="B21" s="61">
-        <v>4.3272300000000001</v>
-      </c>
-      <c r="C21" s="61">
-        <v>4.4290289999999999</v>
-      </c>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>45271</v>
-      </c>
-      <c r="B22" s="61">
-        <v>4.3254599999999996</v>
-      </c>
-      <c r="C22" s="61">
-        <v>4.3779199999999996</v>
-      </c>
-      <c r="D22" s="61"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>45272</v>
-      </c>
-      <c r="B23" s="61">
-        <v>4.3333000000000004</v>
-      </c>
-      <c r="C23" s="61">
-        <v>4.3646349999999998</v>
-      </c>
-      <c r="D23" s="61"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>45273</v>
-      </c>
-      <c r="B24" s="61">
-        <v>4.3245800000000001</v>
-      </c>
-      <c r="C24" s="61">
-        <v>4.3486159999999998</v>
-      </c>
-      <c r="D24" s="61"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>45274</v>
-      </c>
-      <c r="B25" s="61">
-        <v>4.2960099999999999</v>
-      </c>
-      <c r="C25" s="61">
-        <v>4.3421702</v>
-      </c>
-      <c r="D25" s="61"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>45275</v>
-      </c>
-      <c r="B26" s="61">
-        <v>4.3048000000000002</v>
-      </c>
-      <c r="C26" s="61">
-        <v>4.3236184</v>
-      </c>
-      <c r="D26" s="61"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>45278</v>
-      </c>
-      <c r="B27" s="61">
-        <v>4.3315799999999998</v>
-      </c>
-      <c r="C27" s="61">
-        <v>4.3164369999999996</v>
-      </c>
-      <c r="D27" s="61"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>45279</v>
-      </c>
-      <c r="B28" s="61">
-        <v>4.3197999999999999</v>
-      </c>
-      <c r="C28" s="61">
-        <v>4.2986716999999999</v>
-      </c>
-      <c r="D28" s="61"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B29" s="61">
-        <v>4.32315</v>
-      </c>
-      <c r="C29" s="61">
-        <v>4.2743950000000002</v>
-      </c>
-      <c r="D29" s="61"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>45281</v>
-      </c>
-      <c r="B30" s="61">
-        <v>4.34213</v>
-      </c>
-      <c r="C30" s="61">
-        <v>4.2607400000000002</v>
-      </c>
-      <c r="D30" s="61"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>45282</v>
-      </c>
-      <c r="B31" s="61">
-        <v>4.3228</v>
-      </c>
-      <c r="C31" s="61">
-        <v>4.2532515999999996</v>
-      </c>
-      <c r="D31" s="61"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>45286</v>
-      </c>
-      <c r="B32" s="61">
-        <v>4.3332100000000002</v>
-      </c>
-      <c r="C32" s="61">
-        <v>4.2502255</v>
-      </c>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>45287</v>
-      </c>
-      <c r="B33" s="61">
-        <v>4.3247400000000003</v>
-      </c>
-      <c r="C33" s="61">
-        <v>4.2410870000000003</v>
-      </c>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>45288</v>
-      </c>
-      <c r="B34" s="61">
-        <v>4.3173000000000004</v>
-      </c>
-      <c r="C34" s="61">
-        <v>4.2615129999999999</v>
-      </c>
-      <c r="D34" s="61"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>45289</v>
-      </c>
-      <c r="B35" s="61">
-        <v>4.3335499999999998</v>
-      </c>
-      <c r="C35" s="61">
-        <v>4.2706203</v>
-      </c>
-      <c r="D35" s="61"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>45293</v>
-      </c>
-      <c r="B36" s="61">
-        <v>4.33988</v>
-      </c>
-      <c r="C36" s="61">
-        <v>4.2816386</v>
-      </c>
-      <c r="D36" s="61"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>45294</v>
-      </c>
-      <c r="B37" s="61">
-        <v>4.3661899999999996</v>
-      </c>
-      <c r="C37" s="61">
-        <v>4.2987776000000002</v>
-      </c>
-      <c r="D37" s="61"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>45295</v>
-      </c>
-      <c r="B38" s="61">
-        <v>4.3486000000000002</v>
-      </c>
-      <c r="C38" s="61">
-        <v>4.3172812</v>
-      </c>
-      <c r="D38" s="61"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>45296</v>
-      </c>
-      <c r="B39" s="61">
-        <v>4.3437999999999999</v>
-      </c>
-      <c r="C39" s="61">
-        <v>4.3904269999999999</v>
-      </c>
-      <c r="D39" s="61"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>45299</v>
-      </c>
-      <c r="B40" s="61">
-        <v>4.3431499999999996</v>
-      </c>
-      <c r="C40" s="61">
-        <v>4.4120216000000001</v>
-      </c>
-      <c r="D40" s="61"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>45300</v>
-      </c>
-      <c r="B41" s="61">
-        <v>4.3311999999999999</v>
-      </c>
-      <c r="C41" s="61">
-        <v>4.426336</v>
-      </c>
-      <c r="D41" s="61"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B42" s="61">
-        <v>4.3430099999999996</v>
-      </c>
-      <c r="C42" s="61">
-        <v>4.4373994000000003</v>
-      </c>
-      <c r="D42" s="61"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>45302</v>
-      </c>
-      <c r="B43" s="61">
-        <v>4.3323</v>
-      </c>
-      <c r="C43" s="61">
-        <v>4.4435086000000004</v>
-      </c>
-      <c r="D43" s="61"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B44" s="61">
-        <v>4.3518499999999998</v>
-      </c>
-      <c r="C44" s="61">
-        <v>4.3750229999999997</v>
-      </c>
-      <c r="D44" s="61"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>45306</v>
-      </c>
-      <c r="B45" s="61">
-        <v>4.3523199999999997</v>
-      </c>
-      <c r="C45" s="61">
-        <v>4.3817259999999996</v>
-      </c>
-      <c r="D45" s="61"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>45307</v>
-      </c>
-      <c r="B46" s="61">
-        <v>4.3693900000000001</v>
-      </c>
-      <c r="C46" s="61">
-        <v>4.3715267000000004</v>
-      </c>
-      <c r="D46" s="61"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>45308</v>
-      </c>
-      <c r="B47" s="61">
-        <v>4.3900199999999998</v>
-      </c>
-      <c r="C47" s="61">
-        <v>4.3571977999999998</v>
-      </c>
-      <c r="D47" s="61"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>45309</v>
-      </c>
-      <c r="B48" s="61">
-        <v>4.3937999999999997</v>
-      </c>
-      <c r="C48" s="61">
-        <v>4.3386009999999997</v>
-      </c>
-      <c r="D48" s="61"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>45310</v>
-      </c>
-      <c r="B49" s="61">
-        <v>4.3827100000000003</v>
-      </c>
-      <c r="C49" s="61">
-        <v>4.3652819999999997</v>
-      </c>
-      <c r="D49" s="61"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>45313</v>
-      </c>
-      <c r="B50" s="61">
-        <v>4.3518499999999998</v>
-      </c>
-      <c r="C50" s="61">
-        <v>4.3526397000000001</v>
-      </c>
-      <c r="D50" s="61"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>45314</v>
-      </c>
-      <c r="B51" s="61">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C51" s="61">
-        <v>4.3483890000000001</v>
-      </c>
-      <c r="D51" s="61"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
-        <v>45315</v>
-      </c>
-      <c r="B52" s="61">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C52" s="61">
-        <v>4.3440412999999998</v>
-      </c>
-      <c r="D52" s="61"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
-        <v>45316</v>
-      </c>
-      <c r="B53" s="61">
-        <v>4.3606199999999999</v>
-      </c>
-      <c r="C53" s="61">
-        <v>4.3381733999999996</v>
-      </c>
-      <c r="D53" s="61"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B54" s="61">
-        <v>4.3784700000000001</v>
-      </c>
-      <c r="C54" s="61">
-        <v>4.3316610000000004</v>
-      </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="59"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
-        <v>45320</v>
-      </c>
-      <c r="B55" s="61">
-        <v>4.3655099999999996</v>
-      </c>
-      <c r="C55" s="61">
-        <v>4.3475390000000003</v>
-      </c>
-      <c r="D55" s="61"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
-        <v>45321</v>
-      </c>
-      <c r="B56" s="61">
-        <v>4.3646399999999996</v>
-      </c>
-      <c r="C56" s="61">
-        <v>4.3583464999999997</v>
-      </c>
-      <c r="D56" s="61"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
-        <v>45322</v>
-      </c>
-      <c r="B57" s="61">
-        <v>4.3478199999999996</v>
-      </c>
-      <c r="C57" s="61">
-        <v>4.3781330000000001</v>
-      </c>
-      <c r="D57" s="61"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B58" s="61">
-        <v>4.3259400000000001</v>
-      </c>
-      <c r="C58" s="61">
-        <v>4.3906774999999998</v>
-      </c>
-      <c r="D58" s="61"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
-        <v>45324</v>
-      </c>
-      <c r="B59" s="61">
-        <v>4.3143900000000004</v>
-      </c>
-      <c r="C59" s="61">
-        <v>4.3475099999999998</v>
-      </c>
-      <c r="D59" s="61"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
-        <v>45327</v>
-      </c>
-      <c r="B60" s="61">
-        <v>4.31271</v>
-      </c>
-      <c r="C60" s="61">
-        <v>4.3577886000000001</v>
-      </c>
-      <c r="D60" s="61"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
-        <v>45328</v>
-      </c>
-      <c r="B61" s="61">
-        <v>4.3383500000000002</v>
-      </c>
-      <c r="C61" s="61">
-        <v>4.3528894999999999</v>
-      </c>
-      <c r="D61" s="61"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
-        <v>45329</v>
-      </c>
-      <c r="B62" s="61">
-        <v>4.3449</v>
-      </c>
-      <c r="C62" s="61">
-        <v>4.3510346000000002</v>
-      </c>
-      <c r="D62" s="61"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
-        <v>45330</v>
-      </c>
-      <c r="B63" s="61">
-        <v>4.3412800000000002</v>
-      </c>
-      <c r="C63" s="61">
-        <v>4.3377175000000001</v>
-      </c>
-      <c r="D63" s="61"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
-        <v>45331</v>
-      </c>
-      <c r="B64" s="61">
-        <v>4.3489820000000003</v>
-      </c>
-      <c r="C64" s="61">
-        <v>4.3596640000000004</v>
-      </c>
-      <c r="D64" s="61"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>45334</v>
-      </c>
-      <c r="B65" s="61">
-        <v>4.3230700000000004</v>
-      </c>
-      <c r="C65" s="61">
-        <v>4.3612045999999998</v>
-      </c>
-      <c r="D65" s="61"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>45335</v>
-      </c>
-      <c r="B66" s="61">
-        <v>4.3221699999999998</v>
-      </c>
-      <c r="C66" s="61">
-        <v>4.356179</v>
-      </c>
-      <c r="D66" s="61"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>45336</v>
-      </c>
-      <c r="B67" s="61">
-        <v>4.3365200000000002</v>
-      </c>
-      <c r="C67" s="61">
-        <v>4.3519936000000001</v>
-      </c>
-      <c r="D67" s="61"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B68" s="61">
-        <v>4.3385300000000004</v>
-      </c>
-      <c r="C68" s="61">
-        <v>4.3406463000000004</v>
-      </c>
-      <c r="D68" s="61"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>45338</v>
-      </c>
-      <c r="B69" s="61">
-        <v>4.3402000000000003</v>
-      </c>
-      <c r="C69" s="61">
-        <v>4.3211874999999997</v>
-      </c>
-      <c r="D69" s="61"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>45341</v>
-      </c>
-      <c r="B70" s="61">
-        <v>4.3365299999999998</v>
-      </c>
-      <c r="C70" s="61">
-        <v>4.3091654999999998</v>
-      </c>
-      <c r="D70" s="61"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>45342</v>
-      </c>
-      <c r="B71" s="61">
-        <v>4.3247</v>
-      </c>
-      <c r="C71" s="61">
-        <v>4.2970160000000002</v>
-      </c>
-      <c r="D71" s="61"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>45343</v>
-      </c>
-      <c r="B72" s="61">
-        <v>4.3125299999999998</v>
-      </c>
-      <c r="C72" s="61">
-        <v>4.2957830000000001</v>
-      </c>
-      <c r="D72" s="61"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>45344</v>
-      </c>
-      <c r="B73" s="61">
-        <v>4.3152999999999997</v>
-      </c>
-      <c r="C73" s="61">
-        <v>4.2895380000000003</v>
-      </c>
-      <c r="D73" s="61"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B74" s="61">
-        <v>4.3214399999999999</v>
-      </c>
-      <c r="C74" s="61">
-        <v>4.3074820000000003</v>
-      </c>
-      <c r="D74" s="61"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B75" s="61">
-        <v>4.3048400000000004</v>
-      </c>
-      <c r="C75" s="61">
-        <v>4.3080907000000002</v>
-      </c>
-      <c r="D75" s="61"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>45349</v>
-      </c>
-      <c r="B76" s="61">
-        <v>4.3086700000000002</v>
-      </c>
-      <c r="C76" s="61">
-        <v>4.3042490000000004</v>
-      </c>
-      <c r="D76" s="61"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B77" s="61">
-        <v>4.3043399999999998</v>
-      </c>
-      <c r="C77" s="61">
-        <v>4.3033146999999996</v>
-      </c>
-      <c r="D77" s="61"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B78" s="61">
-        <v>4.3154399999999997</v>
-      </c>
-      <c r="C78" s="61">
-        <v>4.3039784000000001</v>
-      </c>
-      <c r="D78" s="61"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B79">
-        <v>4.31325</v>
-      </c>
-      <c r="C79" s="61">
-        <v>4.3296950000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>45355</v>
-      </c>
-      <c r="B80">
-        <v>4.3154399999999997</v>
-      </c>
-      <c r="C80" s="61">
-        <v>4.3257294000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>45356</v>
-      </c>
-      <c r="B81">
-        <v>4.3209999999999997</v>
-      </c>
-      <c r="C81" s="61">
-        <v>4.3233509999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B82">
-        <v>4.30999</v>
-      </c>
-      <c r="C82" s="61">
-        <v>4.3128924</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>45358</v>
-      </c>
-      <c r="B83">
-        <v>4.2965999999999998</v>
-      </c>
-      <c r="C83" s="61">
-        <v>4.3122360000000004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>45359</v>
-      </c>
-      <c r="B84">
-        <v>4.2980999999999998</v>
-      </c>
-      <c r="C84" s="61">
-        <v>4.3272424000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>45362</v>
-      </c>
-      <c r="B85">
-        <v>4.3017700000000003</v>
-      </c>
-      <c r="C85" s="61">
-        <v>4.3170896000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>45363</v>
-      </c>
-      <c r="B86">
-        <v>4.2793900000000002</v>
-      </c>
-      <c r="C86" s="61">
-        <v>4.3122769999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>45364</v>
-      </c>
-      <c r="B87">
-        <v>4.2867800000000003</v>
-      </c>
-      <c r="C87" s="61">
-        <v>4.3032537</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>45365</v>
-      </c>
-      <c r="B88">
-        <v>4.2784000000000004</v>
-      </c>
-      <c r="C88" s="61">
-        <v>4.2963950000000004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>45366</v>
-      </c>
-      <c r="B89">
-        <v>4.29087</v>
-      </c>
-      <c r="C89" s="61">
-        <v>4.2678719999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>45369</v>
-      </c>
-      <c r="B90">
-        <v>4.2968999999999999</v>
-      </c>
-      <c r="C90" s="61">
-        <v>4.2688509999999997</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>45370</v>
-      </c>
-      <c r="B91">
-        <v>4.3201700000000001</v>
-      </c>
-      <c r="C91" s="61">
-        <v>4.2664657000000004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>45371</v>
-      </c>
-      <c r="B92">
-        <v>4.3130600000000001</v>
-      </c>
-      <c r="C92" s="61">
-        <v>4.2712326000000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>45372</v>
-      </c>
-      <c r="B93">
-        <v>4.3092899999999998</v>
-      </c>
-      <c r="C93" s="61">
-        <v>4.2778735000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>45373</v>
-      </c>
-      <c r="B94">
-        <v>4.3011999999999997</v>
-      </c>
-      <c r="C94" s="61">
-        <v>4.2990250000000003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>45376</v>
-      </c>
-      <c r="B95">
-        <v>4.3190999999999997</v>
-      </c>
-      <c r="C95" s="61">
-        <v>4.2968286999999998</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>45377</v>
-      </c>
-      <c r="B96">
-        <v>4.3025000000000002</v>
-      </c>
-      <c r="C96" s="61">
-        <v>4.3011739999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>45378</v>
-      </c>
-      <c r="B97">
-        <v>4.3068200000000001</v>
-      </c>
-      <c r="C97" s="61">
-        <v>4.3087150000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>45379</v>
-      </c>
-      <c r="B98">
-        <v>4.3119399999999999</v>
-      </c>
-      <c r="C98" s="61">
-        <v>4.3219099999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>45380</v>
-      </c>
-      <c r="B99">
-        <v>4.3025000000000002</v>
-      </c>
-      <c r="C99" s="61">
-        <v>4.3158035000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B100">
-        <v>4.2982500000000003</v>
-      </c>
-      <c r="C100" s="61">
-        <v>4.3159236999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B101">
-        <v>4.2906000000000004</v>
-      </c>
-      <c r="C101" s="61">
-        <v>4.3132320000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>45385</v>
-      </c>
-      <c r="B102">
-        <v>4.2902500000000003</v>
-      </c>
-      <c r="C102" s="61">
-        <v>4.312487</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>45386</v>
-      </c>
-      <c r="B103">
-        <v>4.2902500000000003</v>
-      </c>
-      <c r="C103" s="61">
-        <v>4.3127583999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>45387</v>
-      </c>
-      <c r="B104">
-        <v>4.2891500000000002</v>
-      </c>
-      <c r="C104" s="61">
-        <v>4.3017700000000003</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>45390</v>
-      </c>
-      <c r="B105">
-        <v>4.2779999999999996</v>
-      </c>
-      <c r="C105" s="61">
-        <v>4.3098660000000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>45391</v>
-      </c>
-      <c r="B106">
-        <v>4.2587099999999998</v>
-      </c>
-      <c r="C106" s="61">
-        <v>4.3089212999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>45392</v>
-      </c>
-      <c r="B107">
-        <v>4.2657499999999997</v>
-      </c>
-      <c r="C107" s="61">
-        <v>4.3071070000000002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>45393</v>
-      </c>
-      <c r="B108">
-        <v>4.2618</v>
-      </c>
-      <c r="C108" s="61">
-        <v>4.3006853999999999</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>45394</v>
-      </c>
-      <c r="B109">
-        <v>4.2614799999999997</v>
-      </c>
-      <c r="C109" s="61">
-        <v>4.3146515000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>45397</v>
-      </c>
-      <c r="B110">
-        <v>4.2803000000000004</v>
-      </c>
-      <c r="C110" s="61">
-        <v>4.3152594999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>45398</v>
-      </c>
-      <c r="B111">
-        <v>4.3007</v>
-      </c>
-      <c r="C111" s="61">
-        <v>4.3107819999999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B112">
-        <v>4.3660199999999998</v>
-      </c>
-      <c r="C112" s="61">
-        <v>4.306127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>45400</v>
-      </c>
-      <c r="B113">
-        <v>4.33704</v>
-      </c>
-      <c r="C113" s="61">
-        <v>4.2943689999999997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>45401</v>
-      </c>
-      <c r="B114">
-        <v>4.33683</v>
-      </c>
-      <c r="C114" s="61">
-        <v>4.3177349999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>45404</v>
-      </c>
-      <c r="B115">
-        <v>4.3045999999999998</v>
-      </c>
-      <c r="C115" s="61">
-        <v>4.3054113000000003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>45405</v>
-      </c>
-      <c r="B116">
-        <v>4.3122999999999996</v>
-      </c>
-      <c r="C116" s="61">
-        <v>4.2943239999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>45406</v>
-      </c>
-      <c r="B117">
-        <v>4.3048000000000002</v>
-      </c>
-      <c r="C117" s="61">
-        <v>4.2804456000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>45407</v>
-      </c>
-      <c r="B118">
-        <v>4.3310000000000004</v>
-      </c>
-      <c r="C118" s="61">
-        <v>4.2759776</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>45408</v>
-      </c>
-      <c r="B119">
-        <v>4.3116000000000003</v>
-      </c>
-      <c r="C119" s="61">
-        <v>4.3050113000000003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>45411</v>
-      </c>
-      <c r="B120">
-        <v>4.3189399999999996</v>
-      </c>
-      <c r="C120" s="61">
-        <v>4.3039804000000004</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B121">
-        <v>4.3131500000000003</v>
-      </c>
-      <c r="C121" s="61">
-        <v>4.3125460000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B122">
-        <v>4.3302300000000002</v>
-      </c>
-      <c r="C122" s="61">
-        <v>4.3213179999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>45414</v>
-      </c>
-      <c r="B123">
-        <v>4.3250099999999998</v>
-      </c>
-      <c r="C123" s="61">
-        <v>4.3353010000000003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B124">
-        <v>4.3278999999999996</v>
-      </c>
-      <c r="C124" s="61">
-        <v>4.3229959999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>45418</v>
-      </c>
-      <c r="B125">
-        <v>4.3173000000000004</v>
-      </c>
-      <c r="C125" s="61">
-        <v>4.3322615999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>45419</v>
-      </c>
-      <c r="B126">
-        <v>4.3047399999999998</v>
-      </c>
-      <c r="C126" s="61">
-        <v>4.3343835000000004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>45420</v>
-      </c>
-      <c r="B127">
-        <v>4.3109799999999998</v>
-      </c>
-      <c r="C127" s="61">
-        <v>4.3417269999999997</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>45421</v>
-      </c>
-      <c r="B128">
-        <v>4.2992499999999998</v>
-      </c>
-      <c r="C128" s="61">
-        <v>4.3501678000000004</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B129">
-        <v>4.2819000000000003</v>
-      </c>
-      <c r="C129" s="61">
-        <v>4.3358525999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>45425</v>
-      </c>
-      <c r="B130">
-        <v>4.29976</v>
-      </c>
-      <c r="C130" s="61">
-        <v>4.3569430000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>45426</v>
-      </c>
-      <c r="B131">
-        <v>4.2839400000000003</v>
-      </c>
-      <c r="C131" s="61">
-        <v>4.3464700000000001</v>
-      </c>
-      <c r="F131" s="61"/>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>45427</v>
-      </c>
-      <c r="B132">
-        <v>4.2662899999999997</v>
-      </c>
-      <c r="C132" s="61">
-        <v>4.3414817000000001</v>
-      </c>
-      <c r="F132" s="61"/>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>45428</v>
-      </c>
-      <c r="B133">
-        <v>4.2598399999999996</v>
-      </c>
-      <c r="C133" s="61">
-        <v>4.3315033999999999</v>
-      </c>
-      <c r="F133" s="61"/>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>45429</v>
-      </c>
-      <c r="B134">
-        <v>4.2582199999999997</v>
-      </c>
-      <c r="C134" s="61">
-        <v>4.3291917</v>
-      </c>
-      <c r="F134" s="61"/>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>45432</v>
-      </c>
-      <c r="B135">
-        <v>4.2558999999999996</v>
-      </c>
-      <c r="C135" s="61">
-        <v>4.3280168000000003</v>
-      </c>
-      <c r="F135" s="61"/>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>45433</v>
-      </c>
-      <c r="B136">
-        <v>4.2492000000000001</v>
-      </c>
-      <c r="C136" s="61">
-        <v>4.3164262999999998</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>45434</v>
-      </c>
-      <c r="B137">
-        <v>4.2506199999999996</v>
-      </c>
-      <c r="C137" s="61">
-        <v>4.31447</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>45435</v>
-      </c>
-      <c r="C138" s="61">
-        <v>4.3098070000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2735D1A-F4DE-4DDC-A04F-6C2EC4F5E003}">
-  <dimension ref="A1:E74"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <f>MIN(C2:C74)</f>
-        <v>3.8980269999999999</v>
-      </c>
-      <c r="E1">
-        <f>MAX(C2:C74)</f>
-        <v>4.3988779999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>45160</v>
-      </c>
-      <c r="B2">
-        <v>4.10379</v>
-      </c>
-      <c r="C2">
-        <v>4.2317090000000004</v>
-      </c>
-      <c r="D2">
-        <f>(C2-$D$1)/($E$1-$D$1)</f>
-        <v>0.66623007640995136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>45161</v>
-      </c>
-      <c r="B3">
-        <v>4.1436010000000003</v>
-      </c>
-      <c r="C3">
-        <v>4.1542295999999999</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">(C3-$D$1)/($E$1-$D$1)</f>
-        <v>0.51153456816498311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.2" customHeight="1">
-      <c r="A4" s="1">
-        <v>45162</v>
-      </c>
-      <c r="B4">
-        <v>4.1349299999999998</v>
-      </c>
-      <c r="C4">
-        <v>4.1437840000000001</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.4906788645724981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>45163</v>
-      </c>
-      <c r="B5">
-        <v>4.1421960000000002</v>
-      </c>
-      <c r="C5">
-        <v>4.1436653000000003</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.49044186794076572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>45166</v>
-      </c>
-      <c r="B6">
-        <v>4.1401919999999999</v>
-      </c>
-      <c r="C6">
-        <v>4.121092</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.44537197689532437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>45167</v>
-      </c>
-      <c r="B7">
-        <v>4.1424269999999996</v>
-      </c>
-      <c r="C7">
-        <v>4.1126230000000001</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.42846275638862708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>45168</v>
-      </c>
-      <c r="B8">
-        <v>4.0843290000000003</v>
-      </c>
-      <c r="C8">
-        <v>4.1820940000000002</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0.56716867890849842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>45169</v>
-      </c>
-      <c r="B9">
-        <v>4.1210769999999997</v>
-      </c>
-      <c r="C9">
-        <v>4.1488959999999997</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.50088549289109896</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>45170</v>
-      </c>
-      <c r="B10">
-        <v>4.1228449999999999</v>
-      </c>
-      <c r="C10">
-        <v>4.1547616124999998</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.51259678527146768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>45173</v>
-      </c>
-      <c r="B11">
-        <v>4.1261541111111102</v>
-      </c>
-      <c r="C11">
-        <v>4.1055435999999998</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.41432801372064737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>45174</v>
-      </c>
-      <c r="B12">
-        <v>4.142512</v>
-      </c>
-      <c r="C12">
-        <f>AVERAGE(C6:C11)</f>
-        <v>4.1375017020833331</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.47813561734594368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>45175</v>
-      </c>
-      <c r="B13">
-        <v>4.1849769999999999</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(C7:C12)</f>
-        <v>4.1402366524305556</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.48359622408771419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>45176</v>
-      </c>
-      <c r="B14">
-        <v>4.258</v>
-      </c>
-      <c r="C14">
-        <v>4.1649555999999999</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.53295011889763622</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>45177</v>
-      </c>
-      <c r="B15">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:C16" si="1">AVERAGE(C9:C14)</f>
-        <v>4.1419825278356486</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.48708204203575256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>45180</v>
-      </c>
-      <c r="B16">
-        <v>4.3203959999999997</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>4.1408302824749228</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.48478146689319362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>45181</v>
-      </c>
-      <c r="B17">
-        <v>4.3051000000000004</v>
-      </c>
-      <c r="C17">
-        <v>4.2877292999999996</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.77808030731694611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>45182</v>
-      </c>
-      <c r="B18">
-        <v>4.3163099999999996</v>
-      </c>
-      <c r="C18">
-        <v>4.3197412000000002</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.84199532395862309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>45183</v>
-      </c>
-      <c r="B19">
-        <v>4.3254000000000001</v>
-      </c>
-      <c r="C19">
-        <v>4.2998969999999996</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0.80237435884125174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>45184</v>
-      </c>
-      <c r="B20">
-        <v>4.3063000000000002</v>
-      </c>
-      <c r="C20">
-        <v>4.3568683000000004</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.91612335804460909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>45187</v>
-      </c>
-      <c r="B21">
-        <v>4.3575600000000003</v>
-      </c>
-      <c r="C21">
-        <v>4.2635984000000002</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.72990050933311579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>45188</v>
-      </c>
-      <c r="B22">
-        <v>4.3500300000000003</v>
-      </c>
-      <c r="C22">
-        <v>4.363626</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.9296157939187506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>45189</v>
-      </c>
-      <c r="B23">
-        <v>4.3390500000000003</v>
-      </c>
-      <c r="C23">
-        <v>4.3153176000000002</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.83316315630796456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>45190</v>
-      </c>
-      <c r="B24">
-        <v>4.3273000000000001</v>
-      </c>
-      <c r="C24">
-        <v>4.3401493999999996</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0.88274237248203513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>45191</v>
-      </c>
-      <c r="B25">
-        <v>4.3280399999999997</v>
-      </c>
-      <c r="C25">
-        <v>4.3988779999999998</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>45194</v>
-      </c>
-      <c r="B26">
-        <v>4.322838</v>
-      </c>
-      <c r="C26">
-        <v>4.2926846000000003</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.78797406813603332</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>45195</v>
-      </c>
-      <c r="B27">
-        <v>4.3494710000000003</v>
-      </c>
-      <c r="C27">
-        <v>4.2851376999999999</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.77290591413414389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>45196</v>
-      </c>
-      <c r="B28">
-        <v>4.3588339999999999</v>
-      </c>
-      <c r="C28">
-        <f>AVERAGE(C21:C27)</f>
-        <v>4.3227702428571426</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.84804311633029139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>45197</v>
-      </c>
-      <c r="B29">
-        <v>4.4062250000000001</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:C33" si="2">AVERAGE(C22:C28)</f>
-        <v>4.3312233632653063</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.86492063161560317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>45198</v>
-      </c>
-      <c r="B30">
-        <v>4.3906270000000003</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="2"/>
-        <v>4.3265944151603497</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.85567846557229565</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>45201</v>
-      </c>
-      <c r="B31">
-        <v>4.3703000000000003</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="2"/>
-        <v>4.328205388754685</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.85889493832434216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>45202</v>
-      </c>
-      <c r="B32">
-        <v>4.4048800000000004</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="2"/>
-        <v>4.3264991014339262</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.85548816201610134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>45203</v>
-      </c>
-      <c r="B33">
-        <v>4.4206390000000004</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="2"/>
-        <v>4.3161592587816306</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.83484361373268856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>45204</v>
-      </c>
-      <c r="B34">
-        <v>4.3823999999999996</v>
-      </c>
-      <c r="C34">
-        <v>4.3566294000000001</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.91564636987846737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>45205</v>
-      </c>
-      <c r="B35">
-        <v>4.3627960000000003</v>
-      </c>
-      <c r="C35">
-        <v>4.3857683999999999</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.97382534925556719</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>45208</v>
-      </c>
-      <c r="B36">
-        <v>4.3303849999999997</v>
-      </c>
-      <c r="C36">
-        <v>4.3485250000000004</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.89946511038213073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>45209</v>
-      </c>
-      <c r="B37">
-        <v>4.3096439999999996</v>
-      </c>
-      <c r="C37">
-        <v>4.3056200000000002</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.81380091084973449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>45210</v>
-      </c>
-      <c r="B38">
-        <v>4.2773700000000003</v>
-      </c>
-      <c r="C38">
-        <v>4.2566657000000001</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0.71605866814681463</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>45211</v>
-      </c>
-      <c r="B39">
-        <v>4.259582</v>
-      </c>
-      <c r="C39">
-        <v>4.2690143999999997</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.74071410459398068</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>45212</v>
-      </c>
-      <c r="B40">
-        <v>4.3075679999999998</v>
-      </c>
-      <c r="C40">
-        <v>4.2282500000000001</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0.65932383083991086</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>45215</v>
-      </c>
-      <c r="B41">
-        <v>4.2351289999999997</v>
-      </c>
-      <c r="C41">
-        <v>4.2936624999999999</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0.78992654502037551</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>45216</v>
-      </c>
-      <c r="B42">
-        <v>4.2157499999999999</v>
-      </c>
-      <c r="C42">
-        <v>4.1916785000000001</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0.58630510870498453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>45217</v>
-      </c>
-      <c r="B43">
-        <v>4.1773470000000001</v>
-      </c>
-      <c r="C43">
-        <v>4.2237400000000003</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0.65031915679513552</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>45218</v>
-      </c>
-      <c r="B44">
-        <v>4.2219189999999998</v>
-      </c>
-      <c r="C44">
-        <v>4.2315449999999997</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0.66590263371741254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>45219</v>
-      </c>
-      <c r="B45">
-        <v>4.2020999999999997</v>
-      </c>
-      <c r="C45">
-        <v>4.2219996000000002</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0.64684427105067244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>45222</v>
-      </c>
-      <c r="B46">
-        <v>4.2072890000000003</v>
-      </c>
-      <c r="C46">
-        <v>4.1950617000000001</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>0.59306001185981505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>45223</v>
-      </c>
-      <c r="B47">
-        <v>4.1757</v>
-      </c>
-      <c r="C47">
-        <v>4.2082249999999997</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>0.61934188012003533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>45224</v>
-      </c>
-      <c r="B48">
-        <v>4.2117810000000002</v>
-      </c>
-      <c r="C48">
-        <v>4.1858700000000004</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>0.57470784724399182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
-        <v>45225</v>
-      </c>
-      <c r="B49">
-        <v>4.2345819999999996</v>
-      </c>
-      <c r="C49">
-        <v>4.1899579999999998</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>0.58286995533601804</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
-        <v>45226</v>
-      </c>
-      <c r="B50">
-        <v>4.2121510000000004</v>
-      </c>
-      <c r="C50">
-        <v>4.2290239999999999</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>0.66086920062054388</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>45229</v>
-      </c>
-      <c r="B51">
-        <v>4.2121570000000004</v>
-      </c>
-      <c r="C51">
-        <v>4.1937939999999996</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>0.59052891977853639</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>45230</v>
-      </c>
-      <c r="B52">
-        <v>4.2241499999999998</v>
-      </c>
-      <c r="C52">
-        <v>4.1874112999999999</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>0.57778520957330637</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>45231</v>
-      </c>
-      <c r="B53">
-        <v>4.1901999999999999</v>
-      </c>
-      <c r="C53">
-        <v>4.1268853999999999</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>0.45693908966938279</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>45232</v>
-      </c>
-      <c r="B54">
-        <v>4.2038000000000002</v>
-      </c>
-      <c r="C54">
-        <v>4.2038000000000002</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>0.61050691722688055</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>45233</v>
-      </c>
-      <c r="B55">
-        <v>4.2207499999999998</v>
-      </c>
-      <c r="C55">
-        <v>4.1815129999999998</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>0.56600865327213068</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>45236</v>
-      </c>
-      <c r="B56">
-        <v>4.1884699999999997</v>
-      </c>
-      <c r="C56">
-        <v>4.1971664000000004</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0.59726225963410384</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>45237</v>
-      </c>
-      <c r="B57">
-        <v>4.1477500000000003</v>
-      </c>
-      <c r="C57">
-        <v>4.1794862999999998</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>0.56196214043697601</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>45238</v>
-      </c>
-      <c r="B58">
-        <v>4.1636439999999997</v>
-      </c>
-      <c r="C58">
-        <v>4.1636123999999999</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>0.53026828338168441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>45239</v>
-      </c>
-      <c r="B59">
-        <v>4.1436000000000002</v>
-      </c>
-      <c r="C59">
-        <v>4.1525917000000003</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0.50826433410335703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>45240</v>
-      </c>
-      <c r="B60">
-        <v>4.1526199999999998</v>
-      </c>
-      <c r="C60">
-        <v>4.1653395</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>0.53371661432242345</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
-        <v>45243</v>
-      </c>
-      <c r="B61">
-        <v>4.1352060000000002</v>
-      </c>
-      <c r="C61">
-        <v>4.1250530000000003</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>0.45328051656081436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
-        <v>45244</v>
-      </c>
-      <c r="B62">
-        <v>4.1337000000000002</v>
-      </c>
-      <c r="C62">
-        <v>4.0906209999999996</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0.38453352394224977</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>45245</v>
-      </c>
-      <c r="B63">
-        <v>4.0419010000000002</v>
-      </c>
-      <c r="C63">
-        <v>4.1189536999999996</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>0.44110264330110099</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
-        <v>45246</v>
-      </c>
-      <c r="B64">
-        <v>4.0411630000000001</v>
-      </c>
-      <c r="C64">
-        <v>4.0536820000000002</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>0.31078105065179135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>45247</v>
-      </c>
-      <c r="B65">
-        <v>4.0270520000000003</v>
-      </c>
-      <c r="C65">
-        <v>4.0253905999999997</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0.2542943909466085</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>45250</v>
-      </c>
-      <c r="B66">
-        <v>4.0177690000000004</v>
-      </c>
-      <c r="C66">
-        <v>4.0088569999999999</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>0.22128337569456785</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>45251</v>
-      </c>
-      <c r="B67">
-        <v>3.9689000000000001</v>
-      </c>
-      <c r="C67">
-        <v>4.0179970000000003</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D74" si="3">(C67-$D$1)/($E$1-$D$1)</f>
-        <v>0.23953231599817185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B68">
-        <v>4.0037560000000001</v>
-      </c>
-      <c r="C68">
-        <v>4.0342444999999998</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="3"/>
-        <v>0.27197210347987705</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>45253</v>
-      </c>
-      <c r="B69">
-        <v>4.0081699999999998</v>
-      </c>
-      <c r="C69">
-        <v>3.9910321</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="3"/>
-        <v>0.18569414855915248</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>45254</v>
-      </c>
-      <c r="B70">
-        <v>4.0023999999999997</v>
-      </c>
-      <c r="C70">
-        <v>4.0195780000000001</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="3"/>
-        <v>0.24268894341830247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>45257</v>
-      </c>
-      <c r="B71">
-        <v>3.9830999999999999</v>
-      </c>
-      <c r="C71">
-        <v>4.0003824000000003</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
-        <v>0.20436297421788205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>45258</v>
-      </c>
-      <c r="B72">
-        <v>3.9641630000000001</v>
-      </c>
-      <c r="C72">
-        <v>3.9747914999999998</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="3"/>
-        <v>0.15326813762975397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B73">
-        <v>3.9237899999999999</v>
-      </c>
-      <c r="C73">
-        <v>3.9811260000000002</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="3"/>
-        <v>0.16591561162900798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="C74">
-        <v>3.8980269999999999</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7279FFB9-3A1B-49D7-8DA6-5CC89E40D1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD846A8C-5581-45EC-B677-8A1603D81909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>Wynagrodzenie 01/2023</t>
-  </si>
-  <si>
-    <t>4.275459 , 4.2587624, 4.2493687, 4.236914 , 4.2255106</t>
   </si>
 </sst>
 </file>
@@ -5772,11 +5769,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I198"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5806,7 +5803,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.7540268547633013E-3</v>
+        <v>1.7968317945868376E-3</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8981,7 +8978,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D197" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D198" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9425,7 +9422,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E197" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E198" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9620,8 +9617,27 @@
       </c>
     </row>
     <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B198">
+        <v>3.9407000000000001</v>
+      </c>
       <c r="C198">
         <v>3.9305134000000002</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="42"/>
+        <v>1.0186599999999935E-2</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="C199">
+        <v>3.9710394999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10770,11 +10786,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I472"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A458" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C473" sqref="C473"/>
+      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A472" sqref="A472:B472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10804,7 +10820,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.4482082164257693E-2</v>
+        <v>-1.453319515329324E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19686,11 +19702,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D471" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D472" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E471" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E472" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19866,8 +19882,27 @@
       </c>
     </row>
     <row r="472" spans="1:5">
+      <c r="A472" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B472">
+        <v>4.2617000000000003</v>
+      </c>
       <c r="C472">
         <v>4.3002563</v>
+      </c>
+      <c r="D472">
+        <f t="shared" si="109"/>
+        <v>-3.8556299999999766E-2</v>
+      </c>
+      <c r="E472">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="C473">
+        <v>4.2948326999999997</v>
       </c>
     </row>
   </sheetData>
@@ -22091,7 +22126,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23707,12 +23742,13 @@
       <c r="A139" s="1">
         <v>45436</v>
       </c>
+      <c r="B139">
+        <v>4.2617000000000003</v>
+      </c>
       <c r="C139" s="61">
         <v>4.2754589999999997</v>
       </c>
-      <c r="E139" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="E139" s="12"/>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD846A8C-5581-45EC-B677-8A1603D81909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7A206-BDAD-446F-B678-0AD6F33FDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="D5_EUR" sheetId="9" r:id="rId5"/>
     <sheet name="Normalization_example" sheetId="10" r:id="rId6"/>
     <sheet name="D1_OIL" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -272,6 +273,30 @@
   </si>
   <si>
     <t>Wynagrodzenie 01/2023</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Car + Train</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>motorway</t>
+  </si>
+  <si>
+    <t>parking</t>
+  </si>
+  <si>
+    <t>train</t>
   </si>
 </sst>
 </file>
@@ -605,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,6 +727,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5769,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I242"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5803,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>1.7968317945868376E-3</v>
+        <v>5.3951760162164843E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -8978,7 +9011,7 @@
         <v>3.9541515999999999</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:D198" si="42">B164-C164</f>
+        <f t="shared" ref="D164:D215" si="42">B164-C164</f>
         <v>-1.2216000000000449E-3</v>
       </c>
       <c r="E164">
@@ -9422,7 +9455,7 @@
         <v>-2.1881999999999735E-2</v>
       </c>
       <c r="E187">
-        <f t="shared" ref="E187:E198" si="43">IF(D187&lt;0,1,0)</f>
+        <f t="shared" ref="E187:E209" si="43">IF(D187&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -9636,8 +9669,818 @@
       </c>
     </row>
     <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B199">
+        <v>3.9211299999999998</v>
+      </c>
       <c r="C199">
         <v>3.9710394999999998</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="42"/>
+        <v>-4.9909500000000051E-2</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B200">
+        <f>AVERAGE(B191:B199)</f>
+        <v>3.9243711111111108</v>
+      </c>
+      <c r="C200">
+        <v>3.9180411999999998</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="42"/>
+        <v>6.3299111111110307E-3</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B201">
+        <v>3.9214090000000001</v>
+      </c>
+      <c r="C201">
+        <v>3.9559543000000001</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="42"/>
+        <v>-3.4545300000000001E-2</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B202">
+        <v>3.9175</v>
+      </c>
+      <c r="C202">
+        <v>3.865739</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="42"/>
+        <v>5.1760999999999946E-2</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B203">
+        <v>3.96129</v>
+      </c>
+      <c r="C203">
+        <v>3.9396287999999999</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="42"/>
+        <v>2.1661200000000047E-2</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B204">
+        <v>3.9500250000000001</v>
+      </c>
+      <c r="C204">
+        <v>3.9554334</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="42"/>
+        <v>-5.4083999999998689E-3</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B205">
+        <v>3.9353340000000001</v>
+      </c>
+      <c r="C205">
+        <v>3.9314450000000001</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="42"/>
+        <v>3.8890000000000313E-3</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B206">
+        <v>3.9138999999999999</v>
+      </c>
+      <c r="C206">
+        <v>3.9227761999999999</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="42"/>
+        <v>-8.8762000000000008E-3</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B207">
+        <v>3.9571010000000002</v>
+      </c>
+      <c r="C207">
+        <v>3.9627435000000002</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="42"/>
+        <v>-5.6424999999999947E-3</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B208">
+        <v>3.9421930000000001</v>
+      </c>
+      <c r="C208">
+        <v>3.9380217000000002</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="42"/>
+        <v>4.1712999999998779E-3</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B209">
+        <v>3.9315099999999998</v>
+      </c>
+      <c r="C209">
+        <v>3.8999134999999998</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="42"/>
+        <v>3.1596500000000027E-2</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B210">
+        <v>3.9943409999999999</v>
+      </c>
+      <c r="C210">
+        <v>4.0186485999999997</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="42"/>
+        <v>-2.4307599999999763E-2</v>
+      </c>
+      <c r="E210">
+        <f t="shared" ref="E210" si="44">IF(D210&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B211">
+        <v>4.0057340000000003</v>
+      </c>
+      <c r="C211">
+        <v>3.9951729999999999</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="42"/>
+        <v>1.0561000000000487E-2</v>
+      </c>
+      <c r="E211">
+        <f t="shared" ref="E211:E214" si="45">IF(D211&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B212">
+        <v>4.0453999999999999</v>
+      </c>
+      <c r="C212">
+        <v>4.0563130000000003</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="42"/>
+        <v>-1.0913000000000395E-2</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B213">
+        <v>4.0905570000000004</v>
+      </c>
+      <c r="C213">
+        <v>4.0235139999999996</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="42"/>
+        <v>6.7043000000000852E-2</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B214">
+        <v>4.0432389999999998</v>
+      </c>
+      <c r="C214">
+        <v>4.0521820000000002</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="42"/>
+        <v>-8.9430000000003673E-3</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B215">
+        <v>4.0376899999999996</v>
+      </c>
+      <c r="C215">
+        <v>4.0517954999999999</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="42"/>
+        <v>-1.4105500000000326E-2</v>
+      </c>
+      <c r="E215">
+        <f t="shared" ref="E215" si="46">IF(D215&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B216">
+        <f>AVERAGE(B211:B215)</f>
+        <v>4.044524</v>
+      </c>
+      <c r="C216">
+        <f>AVERAGE(C211:C215)</f>
+        <v>4.0357954999999999</v>
+      </c>
+      <c r="D216">
+        <f t="shared" ref="D216" si="47">B216-C216</f>
+        <v>8.7285000000001389E-3</v>
+      </c>
+      <c r="E216">
+        <f t="shared" ref="E216" si="48">IF(D216&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B217">
+        <v>4.0210999999999997</v>
+      </c>
+      <c r="C217">
+        <v>4.0527873000000003</v>
+      </c>
+      <c r="D217">
+        <f t="shared" ref="D217:D223" si="49">B217-C217</f>
+        <v>-3.168730000000064E-2</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ref="E217:E223" si="50">IF(D217&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B218">
+        <v>4.0373000000000001</v>
+      </c>
+      <c r="C218">
+        <v>4.0158240000000003</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="49"/>
+        <v>2.1475999999999829E-2</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B219">
+        <v>4.0473819999999998</v>
+      </c>
+      <c r="C219">
+        <v>4.0317707</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="49"/>
+        <v>1.5611299999999773E-2</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B220">
+        <v>3.9965199999999999</v>
+      </c>
+      <c r="C220">
+        <v>4.0423603000000004</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="49"/>
+        <v>-4.58403000000005E-2</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B221">
+        <v>4.0113000000000003</v>
+      </c>
+      <c r="C221">
+        <v>4.0491339999999996</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="49"/>
+        <v>-3.7833999999999257E-2</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B222">
+        <v>4.0377000000000001</v>
+      </c>
+      <c r="C222">
+        <v>4.0364740000000001</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="49"/>
+        <v>1.2259999999999494E-3</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B223">
+        <v>4.0228979999999996</v>
+      </c>
+      <c r="C223">
+        <v>4.0159219999999998</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="49"/>
+        <v>6.9759999999998712E-3</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B224">
+        <v>4.0166740000000001</v>
+      </c>
+      <c r="C224">
+        <v>4.0493984000000003</v>
+      </c>
+      <c r="D224">
+        <f t="shared" ref="D224:D226" si="51">B224-C224</f>
+        <v>-3.2724400000000209E-2</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ref="E224:E226" si="52">IF(D224&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B225">
+        <v>4.0193079999999997</v>
+      </c>
+      <c r="C225">
+        <v>4.0183119999999999</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="51"/>
+        <v>9.9599999999977484E-4</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B226">
+        <v>3.9841169999999999</v>
+      </c>
+      <c r="C226">
+        <v>4.0339640000000001</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="51"/>
+        <v>-4.9847000000000197E-2</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B227">
+        <v>4.0169873750000002</v>
+      </c>
+      <c r="C227">
+        <v>4.0346669249999998</v>
+      </c>
+      <c r="D227">
+        <f t="shared" ref="D227" si="53">B227-C227</f>
+        <v>-1.7679549999999544E-2</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ref="E227" si="54">IF(D227&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B228">
+        <v>3.9841169999999999</v>
+      </c>
+      <c r="C228">
+        <f>AVERAGE(C221:C227)</f>
+        <v>4.033981617857143</v>
+      </c>
+      <c r="D228">
+        <f t="shared" ref="D228" si="55">B228-C228</f>
+        <v>-4.9864617857143134E-2</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ref="E228" si="56">IF(D228&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B229">
+        <v>3.9565109999999999</v>
+      </c>
+      <c r="C229">
+        <v>3.9650927</v>
+      </c>
+      <c r="D229">
+        <f t="shared" ref="D229:D240" si="57">B229-C229</f>
+        <v>-8.5817000000001364E-3</v>
+      </c>
+      <c r="E229">
+        <f t="shared" ref="E229:E240" si="58">IF(D229&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B230">
+        <v>3.9402400000000002</v>
+      </c>
+      <c r="C230">
+        <v>3.9654772</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="57"/>
+        <v>-2.5237199999999849E-2</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B231">
+        <v>3.93479</v>
+      </c>
+      <c r="C231">
+        <v>3.9285996000000001</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="57"/>
+        <v>6.1903999999999293E-3</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B232">
+        <v>3.9327399999999999</v>
+      </c>
+      <c r="C232">
+        <v>3.9182480000000002</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="57"/>
+        <v>1.4491999999999727E-2</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B233">
+        <v>3.8959000000000001</v>
+      </c>
+      <c r="C233">
+        <v>3.8766690000000001</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="57"/>
+        <v>1.9230999999999998E-2</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B234">
+        <v>3.9071310000000001</v>
+      </c>
+      <c r="C234">
+        <v>3.9398249999999999</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="57"/>
+        <v>-3.2693999999999779E-2</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B235">
+        <v>3.9045299999999998</v>
+      </c>
+      <c r="C235">
+        <v>3.8757749000000001</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="57"/>
+        <v>2.87550999999997E-2</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B236">
+        <v>3.9263680000000001</v>
+      </c>
+      <c r="C236">
+        <v>3.9056242000000001</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="57"/>
+        <v>2.0743799999999979E-2</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B237">
+        <v>3.9192119999999999</v>
+      </c>
+      <c r="C237">
+        <v>3.9176896000000001</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="57"/>
+        <v>1.5223999999998128E-3</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B238">
+        <v>3.935073</v>
+      </c>
+      <c r="C238">
+        <v>3.9619171999999998</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="57"/>
+        <v>-2.6844199999999763E-2</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B239">
+        <v>3.9335599999999999</v>
+      </c>
+      <c r="C239">
+        <v>3.9629924000000001</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="57"/>
+        <v>-2.9432400000000136E-2</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B240">
+        <v>3.9257080000000002</v>
+      </c>
+      <c r="C240">
+        <v>3.9427829000000001</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="57"/>
+        <v>-1.7074899999999893E-2</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B241">
+        <v>3.941433</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="B242">
+        <v>3.9627180000000002</v>
       </c>
     </row>
   </sheetData>
@@ -10786,11 +11629,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I516"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A472" sqref="A472:B472"/>
+      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10820,7 +11663,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$499)</f>
-        <v>-1.453319515329324E-2</v>
+        <v>-1.5591554401213433E-2</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>49</v>
@@ -19702,11 +20545,11 @@
         <v>4.3411650000000002</v>
       </c>
       <c r="D462">
-        <f t="shared" ref="D462:D472" si="109">B462-C462</f>
+        <f t="shared" ref="D462:D484" si="109">B462-C462</f>
         <v>-5.9264999999999901E-2</v>
       </c>
       <c r="E462">
-        <f t="shared" ref="E462:E472" si="110">IF(D462&lt;0,1,0)</f>
+        <f t="shared" ref="E462:E483" si="110">IF(D462&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -19901,9 +20744,827 @@
       </c>
     </row>
     <row r="473" spans="1:5">
+      <c r="A473" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B473">
+        <v>4.2534000000000001</v>
+      </c>
       <c r="C473">
         <v>4.2948326999999997</v>
       </c>
+      <c r="D473">
+        <f t="shared" si="109"/>
+        <v>-4.1432699999999656E-2</v>
+      </c>
+      <c r="E473">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B474">
+        <f>AVERAGE(B465:B473)</f>
+        <v>4.2575411111111103</v>
+      </c>
+      <c r="C474">
+        <v>4.2602605999999996</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="109"/>
+        <v>-2.7194888888892876E-3</v>
+      </c>
+      <c r="E474">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B475">
+        <v>4.2591799999999997</v>
+      </c>
+      <c r="C475">
+        <v>4.3184189999999996</v>
+      </c>
+      <c r="D475">
+        <f t="shared" si="109"/>
+        <v>-5.923899999999982E-2</v>
+      </c>
+      <c r="E475">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B476">
+        <v>4.2478999999999996</v>
+      </c>
+      <c r="C476">
+        <v>4.2454367</v>
+      </c>
+      <c r="D476">
+        <f t="shared" si="109"/>
+        <v>2.463299999999613E-3</v>
+      </c>
+      <c r="E476">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B477">
+        <v>4.2795800000000002</v>
+      </c>
+      <c r="C477">
+        <v>4.3186239999999998</v>
+      </c>
+      <c r="D477">
+        <f t="shared" si="109"/>
+        <v>-3.9043999999999635E-2</v>
+      </c>
+      <c r="E477">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B478">
+        <v>4.2784500000000003</v>
+      </c>
+      <c r="C478">
+        <v>4.3085345999999998</v>
+      </c>
+      <c r="D478">
+        <f t="shared" si="109"/>
+        <v>-3.0084599999999462E-2</v>
+      </c>
+      <c r="E478">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B479">
+        <v>4.2709000000000001</v>
+      </c>
+      <c r="C479">
+        <v>4.2974420000000002</v>
+      </c>
+      <c r="D479">
+        <f t="shared" si="109"/>
+        <v>-2.6542000000000066E-2</v>
+      </c>
+      <c r="E479">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B480">
+        <v>4.2693000000000003</v>
+      </c>
+      <c r="C480">
+        <v>4.3086330000000004</v>
+      </c>
+      <c r="D480">
+        <f t="shared" si="109"/>
+        <v>-3.9333000000000062E-2</v>
+      </c>
+      <c r="E480">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B481">
+        <v>4.3059000000000003</v>
+      </c>
+      <c r="C481">
+        <v>4.3690705000000003</v>
+      </c>
+      <c r="D481">
+        <f t="shared" si="109"/>
+        <v>-6.3170500000000018E-2</v>
+      </c>
+      <c r="E481">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B482">
+        <v>4.2868000000000004</v>
+      </c>
+      <c r="C482">
+        <v>4.3583270000000001</v>
+      </c>
+      <c r="D482">
+        <f t="shared" si="109"/>
+        <v>-7.1526999999999674E-2</v>
+      </c>
+      <c r="E482">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B483">
+        <v>4.2818399999999999</v>
+      </c>
+      <c r="C483">
+        <v>4.3210680000000004</v>
+      </c>
+      <c r="D483">
+        <f t="shared" si="109"/>
+        <v>-3.9228000000000485E-2</v>
+      </c>
+      <c r="E483">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B484">
+        <v>4.3052999999999999</v>
+      </c>
+      <c r="C484">
+        <v>4.3344244999999999</v>
+      </c>
+      <c r="D484">
+        <f t="shared" si="109"/>
+        <v>-2.9124499999999998E-2</v>
+      </c>
+      <c r="E484">
+        <f t="shared" ref="E484" si="111">IF(D484&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B485">
+        <v>4.3312600000000003</v>
+      </c>
+      <c r="C485">
+        <v>4.3305235</v>
+      </c>
+      <c r="D485">
+        <f t="shared" ref="D485:D489" si="112">B485-C485</f>
+        <v>7.3650000000036187E-4</v>
+      </c>
+      <c r="E485">
+        <f t="shared" ref="E485:E489" si="113">IF(D485&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B486">
+        <v>4.3464999999999998</v>
+      </c>
+      <c r="C486">
+        <v>4.3823733000000002</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="112"/>
+        <v>-3.5873300000000441E-2</v>
+      </c>
+      <c r="E486">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B487">
+        <v>4.37751</v>
+      </c>
+      <c r="C487">
+        <v>4.3544679999999998</v>
+      </c>
+      <c r="D487">
+        <f t="shared" si="112"/>
+        <v>2.3042000000000229E-2</v>
+      </c>
+      <c r="E487">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B488">
+        <v>4.3426</v>
+      </c>
+      <c r="C488">
+        <v>4.4001609999999998</v>
+      </c>
+      <c r="D488">
+        <f t="shared" si="112"/>
+        <v>-5.7560999999999751E-2</v>
+      </c>
+      <c r="E488">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B489">
+        <v>4.3342999999999998</v>
+      </c>
+      <c r="C489">
+        <v>4.4110950000000004</v>
+      </c>
+      <c r="D489">
+        <f t="shared" si="112"/>
+        <v>-7.6795000000000613E-2</v>
+      </c>
+      <c r="E489">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B490">
+        <f>AVERAGE(B483:B489)</f>
+        <v>4.3313300000000003</v>
+      </c>
+      <c r="C490">
+        <f>AVERAGE(C483:C489)</f>
+        <v>4.3620161857142863</v>
+      </c>
+      <c r="D490">
+        <f t="shared" ref="D490" si="114">B490-C490</f>
+        <v>-3.0686185714285941E-2</v>
+      </c>
+      <c r="E490">
+        <f t="shared" ref="E490" si="115">IF(D490&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B491">
+        <v>4.3211000000000004</v>
+      </c>
+      <c r="C491">
+        <v>4.4043144999999999</v>
+      </c>
+      <c r="D491">
+        <f t="shared" ref="D491:D500" si="116">B491-C491</f>
+        <v>-8.3214499999999525E-2</v>
+      </c>
+      <c r="E491">
+        <f t="shared" ref="E491:E500" si="117">IF(D491&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B492">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C492">
+        <v>4.3680050000000001</v>
+      </c>
+      <c r="D492">
+        <f t="shared" si="116"/>
+        <v>-4.2315000000000325E-2</v>
+      </c>
+      <c r="E492">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B493">
+        <v>4.3256399999999999</v>
+      </c>
+      <c r="C493">
+        <v>4.3262299999999998</v>
+      </c>
+      <c r="D493">
+        <f t="shared" si="116"/>
+        <v>-5.8999999999986841E-4</v>
+      </c>
+      <c r="E493">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B494">
+        <v>4.2901300000000004</v>
+      </c>
+      <c r="C494">
+        <v>4.3755655000000004</v>
+      </c>
+      <c r="D494">
+        <f t="shared" si="116"/>
+        <v>-8.5435499999999998E-2</v>
+      </c>
+      <c r="E494">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B495">
+        <v>4.2977499999999997</v>
+      </c>
+      <c r="C495">
+        <v>4.3414735999999996</v>
+      </c>
+      <c r="D495">
+        <f t="shared" si="116"/>
+        <v>-4.3723599999999863E-2</v>
+      </c>
+      <c r="E495">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B496">
+        <v>4.3117999999999999</v>
+      </c>
+      <c r="C496">
+        <v>4.3514999999999997</v>
+      </c>
+      <c r="D496">
+        <f t="shared" si="116"/>
+        <v>-3.9699999999999847E-2</v>
+      </c>
+      <c r="E496">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B497">
+        <v>4.3078000000000003</v>
+      </c>
+      <c r="C497">
+        <v>4.2910256000000002</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="116"/>
+        <v>1.6774400000000078E-2</v>
+      </c>
+      <c r="E497">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B498">
+        <v>4.3121</v>
+      </c>
+      <c r="C498">
+        <v>4.3103889999999998</v>
+      </c>
+      <c r="D498">
+        <f t="shared" si="116"/>
+        <v>1.7110000000002401E-3</v>
+      </c>
+      <c r="E498">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B499">
+        <v>4.31541</v>
+      </c>
+      <c r="C499">
+        <v>4.3422574999999997</v>
+      </c>
+      <c r="D499">
+        <f t="shared" si="116"/>
+        <v>-2.6847499999999691E-2</v>
+      </c>
+      <c r="E499">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B500">
+        <v>4.2961</v>
+      </c>
+      <c r="C500">
+        <v>4.3613730000000004</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="116"/>
+        <v>-6.5273000000000359E-2</v>
+      </c>
+      <c r="E500">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B501">
+        <v>4.3044414285714288</v>
+      </c>
+      <c r="C501">
+        <v>4.3390834571428574</v>
+      </c>
+      <c r="D501">
+        <f t="shared" ref="D501" si="118">B501-C501</f>
+        <v>-3.4642028571428618E-2</v>
+      </c>
+      <c r="E501">
+        <f t="shared" ref="E501" si="119">IF(D501&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B502">
+        <v>4.2961</v>
+      </c>
+      <c r="C502">
+        <v>4.3338717367346939</v>
+      </c>
+      <c r="D502">
+        <f t="shared" ref="D502:D515" si="120">B502-C502</f>
+        <v>-3.7771736734693917E-2</v>
+      </c>
+      <c r="E502">
+        <f t="shared" ref="E502:E515" si="121">IF(D502&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B503">
+        <v>4.2831999999999999</v>
+      </c>
+      <c r="C503">
+        <v>4.2936019999999999</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="120"/>
+        <v>-1.0402000000000022E-2</v>
+      </c>
+      <c r="E503">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B504">
+        <v>4.26729</v>
+      </c>
+      <c r="C504">
+        <v>4.2805442999999999</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="120"/>
+        <v>-1.325429999999983E-2</v>
+      </c>
+      <c r="E504">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B505">
+        <v>4.2552500000000002</v>
+      </c>
+      <c r="C505">
+        <v>4.2616496000000001</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="120"/>
+        <v>-6.3995999999999498E-3</v>
+      </c>
+      <c r="E505">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B506">
+        <v>4.2573999999999996</v>
+      </c>
+      <c r="C506">
+        <v>4.2647304999999998</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="120"/>
+        <v>-7.3305000000001286E-3</v>
+      </c>
+      <c r="E506">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B507">
+        <v>4.2503000000000002</v>
+      </c>
+      <c r="C507">
+        <v>4.2457399999999996</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="120"/>
+        <v>4.5600000000005636E-3</v>
+      </c>
+      <c r="E507">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B508">
+        <v>4.2530099999999997</v>
+      </c>
+      <c r="C508">
+        <v>4.2595415000000001</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="120"/>
+        <v>-6.5315000000003565E-3</v>
+      </c>
+      <c r="E508">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B509">
+        <v>4.2527999999999997</v>
+      </c>
+      <c r="C509">
+        <v>4.2494639999999997</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="120"/>
+        <v>3.3360000000000056E-3</v>
+      </c>
+      <c r="E509">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B510">
+        <v>4.2803300000000002</v>
+      </c>
+      <c r="C510">
+        <v>4.3091730000000004</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="120"/>
+        <v>-2.8843000000000174E-2</v>
+      </c>
+      <c r="E510">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B511">
+        <v>4.2874999999999996</v>
+      </c>
+      <c r="C511">
+        <v>4.3034330000000001</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="120"/>
+        <v>-1.5933000000000419E-2</v>
+      </c>
+      <c r="E511">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B512">
+        <v>4.2898399999999999</v>
+      </c>
+      <c r="C512">
+        <v>4.2747992999999997</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="120"/>
+        <v>1.5040700000000129E-2</v>
+      </c>
+      <c r="E512">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B513">
+        <v>4.2871600000000001</v>
+      </c>
+      <c r="C513">
+        <v>4.2688383999999999</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="120"/>
+        <v>1.832160000000016E-2</v>
+      </c>
+      <c r="E513">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B514">
+        <v>4.2748999999999997</v>
+      </c>
+      <c r="C514">
+        <v>4.2704930000000001</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="120"/>
+        <v>4.4069999999996057E-3</v>
+      </c>
+      <c r="E514">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B515">
+        <v>4.2761399999999998</v>
+      </c>
+      <c r="C515">
+        <v>4.2828154999999999</v>
+      </c>
+      <c r="D515">
+        <f t="shared" si="120"/>
+        <v>-6.6755000000000564E-3</v>
+      </c>
+      <c r="E515">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="C516" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22122,18 +23783,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="61"/>
-    <col min="3" max="3" width="18.21875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="61" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23754,6 +25415,9 @@
       <c r="A140" s="1">
         <v>45439</v>
       </c>
+      <c r="B140">
+        <v>4.2534000000000001</v>
+      </c>
       <c r="C140" s="61">
         <v>4.2587624000000002</v>
       </c>
@@ -23762,6 +25426,9 @@
       <c r="A141" s="1">
         <v>45440</v>
       </c>
+      <c r="B141">
+        <v>4.2575411111111103</v>
+      </c>
       <c r="C141" s="61">
         <v>4.2493686999999998</v>
       </c>
@@ -23770,6 +25437,9 @@
       <c r="A142" s="1">
         <v>45441</v>
       </c>
+      <c r="B142">
+        <v>4.2591799999999997</v>
+      </c>
       <c r="C142" s="61">
         <v>4.2369139999999996</v>
       </c>
@@ -23778,8 +25448,403 @@
       <c r="A143" s="1">
         <v>45442</v>
       </c>
+      <c r="B143">
+        <v>4.2478999999999996</v>
+      </c>
       <c r="C143" s="61">
         <v>4.2255105999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B144">
+        <v>4.2795800000000002</v>
+      </c>
+      <c r="C144" s="61">
+        <v>4.2599770000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B145">
+        <v>4.2784500000000003</v>
+      </c>
+      <c r="C145" s="61">
+        <v>4.2539444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B146">
+        <v>4.2709000000000001</v>
+      </c>
+      <c r="C146" s="61">
+        <v>4.2446365000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B147">
+        <v>4.2693000000000003</v>
+      </c>
+      <c r="C147" s="61">
+        <v>4.2427029999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B148">
+        <v>4.3059000000000003</v>
+      </c>
+      <c r="C148" s="61">
+        <v>4.2376040000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B149">
+        <v>4.2868000000000004</v>
+      </c>
+      <c r="C149" s="61">
+        <v>4.293717</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B150">
+        <v>4.2818399999999999</v>
+      </c>
+      <c r="C150" s="61">
+        <v>4.2687109999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B151" s="61">
+        <v>4.3052999999999999</v>
+      </c>
+      <c r="C151" s="61">
+        <v>4.2596179999999997</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B152">
+        <v>4.3384799999999997</v>
+      </c>
+      <c r="C152" s="61">
+        <v>4.2682609999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B153">
+        <v>4.3312600000000003</v>
+      </c>
+      <c r="C153" s="61">
+        <v>4.2667619999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B154">
+        <v>4.3464999999999998</v>
+      </c>
+      <c r="C154" s="61">
+        <v>4.3122689999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B155">
+        <v>4.37751</v>
+      </c>
+      <c r="C155" s="61">
+        <v>4.3092449999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B156">
+        <v>4.3426</v>
+      </c>
+      <c r="C156" s="61">
+        <v>4.3153696000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B157" s="61">
+        <f>AVERAGE(B149:B156)</f>
+        <v>4.3262862499999999</v>
+      </c>
+      <c r="C157" s="61">
+        <v>4.3289594999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B158">
+        <v>4.3211000000000004</v>
+      </c>
+      <c r="C158" s="61">
+        <v>4.3418163999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B159">
+        <v>4.3256899999999998</v>
+      </c>
+      <c r="C159" s="61">
+        <v>4.3395824000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B160">
+        <v>4.3256399999999999</v>
+      </c>
+      <c r="C160" s="61">
+        <v>4.3474510000000004</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B161">
+        <v>4.2901300000000004</v>
+      </c>
+      <c r="C161" s="61">
+        <v>4.3605064999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B162">
+        <v>4.2977499999999997</v>
+      </c>
+      <c r="C162" s="61">
+        <v>4.3686179999999997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B163">
+        <v>4.3117999999999999</v>
+      </c>
+      <c r="C163" s="61">
+        <v>4.3597210000000004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B164">
+        <v>4.3078000000000003</v>
+      </c>
+      <c r="C164" s="61">
+        <v>4.2584676999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B165">
+        <v>4.3121</v>
+      </c>
+      <c r="C165" s="61">
+        <v>4.2494706999999998</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B166">
+        <v>4.31541</v>
+      </c>
+      <c r="C166" s="61">
+        <v>4.2423166999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B167">
+        <v>4.2961</v>
+      </c>
+      <c r="C167" s="61">
+        <v>4.2435966000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B168">
+        <v>4.3044414285714288</v>
+      </c>
+      <c r="C168" s="61">
+        <v>4.2523793999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B169">
+        <v>4.2961</v>
+      </c>
+      <c r="C169" s="61">
+        <v>4.2454669999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B170">
+        <v>4.2831999999999999</v>
+      </c>
+      <c r="C170" s="61">
+        <v>4.2452300000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B171">
+        <v>4.26729</v>
+      </c>
+      <c r="C171" s="61">
+        <v>4.2456670000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B172">
+        <v>4.2552500000000002</v>
+      </c>
+      <c r="C172" s="61">
+        <v>4.2435492999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B173">
+        <v>4.2573999999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B174">
+        <v>4.2503000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B175">
+        <v>4.2530099999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B176">
+        <v>4.2527999999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B177">
+        <v>4.2803300000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B178">
+        <v>4.2874999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B179">
+        <v>4.2898399999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B180">
+        <v>4.2871600000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B181">
+        <v>4.2748999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -26735,6 +28800,177 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1696F64E-EE57-4BBA-A111-751034FE5308}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="67">
+        <f>4*6.5*1.45</f>
+        <v>37.699999999999996</v>
+      </c>
+      <c r="H2" s="67">
+        <f>6.5*1.45</f>
+        <v>9.4249999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="67">
+        <v>25</v>
+      </c>
+      <c r="H3" s="67"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="67">
+        <v>7</v>
+      </c>
+      <c r="H4" s="67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67">
+        <f>720/4.3</f>
+        <v>167.44186046511629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="65"/>
+      <c r="G6" s="67">
+        <f>SUM(G2:G5)</f>
+        <v>69.699999999999989</v>
+      </c>
+      <c r="H6" s="67">
+        <f>SUM(H2:H5)</f>
+        <v>196.8668604651163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>45486</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>195</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v>125</v>
+      </c>
+      <c r="D9" s="13">
+        <f>B9+C9</f>
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BA0CF0-6CC9-4853-83D2-DAEA9115DC56}">
   <dimension ref="A1:B14"/>
   <sheetViews>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F7A206-BDAD-446F-B678-0AD6F33FDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AF91B-16F1-4C6E-9E50-523AB942706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I242"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B243" sqref="B243"/>
+      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>5.3951760162164843E-4</v>
+        <v>3.6169755879660167E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D240" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D244" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E240" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E244" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10470,17 +10470,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>45497</v>
       </c>
       <c r="B241">
         <v>3.941433</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="C241">
+        <v>3.9628540999999999</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="57"/>
+        <v>-2.1421099999999971E-2</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>45498</v>
+      </c>
       <c r="B242">
         <v>3.9627180000000002</v>
+      </c>
+      <c r="C242">
+        <v>3.9352244999999999</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="57"/>
+        <v>2.7493500000000282E-2</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B243">
+        <v>3.9462999999999999</v>
+      </c>
+      <c r="C243">
+        <v>3.9683009999999999</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="57"/>
+        <v>-2.2000999999999937E-2</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B244">
+        <v>3.9341029999999999</v>
+      </c>
+      <c r="C244">
+        <v>3.9592266</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="57"/>
+        <v>-2.5123600000000135E-2</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11629,11 +11692,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I516"/>
+  <dimension ref="A1:I519"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C516" sqref="C516"/>
+      <selection pane="bottomLeft" activeCell="A517" sqref="A517:B518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21308,11 +21371,11 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D515" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D518" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E515" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E518" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21564,7 +21627,64 @@
       </c>
     </row>
     <row r="516" spans="1:5">
-      <c r="C516" s="12"/>
+      <c r="A516" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B516">
+        <v>4.2951899999999998</v>
+      </c>
+      <c r="C516">
+        <v>4.2851505000000003</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="120"/>
+        <v>1.0039499999999535E-2</v>
+      </c>
+      <c r="E516">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B517">
+        <v>4.2840999999999996</v>
+      </c>
+      <c r="C517">
+        <v>4.2759695000000004</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="120"/>
+        <v>8.1304999999991523E-3</v>
+      </c>
+      <c r="E517">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B518">
+        <v>4.2698</v>
+      </c>
+      <c r="C518">
+        <v>4.2887000000000004</v>
+      </c>
+      <c r="D518">
+        <f>B518-C519</f>
+        <v>4.2698</v>
+      </c>
+      <c r="E518">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="C519" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23783,11 +23903,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25643,7 +25763,7 @@
         <v>4.3474510000000004</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:5">
       <c r="A161" s="1">
         <v>45468</v>
       </c>
@@ -25654,7 +25774,7 @@
         <v>4.3605064999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>45469</v>
       </c>
@@ -25665,7 +25785,7 @@
         <v>4.3686179999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:5">
       <c r="A163" s="1">
         <v>45470</v>
       </c>
@@ -25676,7 +25796,7 @@
         <v>4.3597210000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>45471</v>
       </c>
@@ -25687,7 +25807,7 @@
         <v>4.2584676999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:5">
       <c r="A165" s="1">
         <v>45474</v>
       </c>
@@ -25698,7 +25818,7 @@
         <v>4.2494706999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:5">
       <c r="A166" s="1">
         <v>45475</v>
       </c>
@@ -25709,7 +25829,7 @@
         <v>4.2423166999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:5">
       <c r="A167" s="1">
         <v>45476</v>
       </c>
@@ -25720,7 +25840,7 @@
         <v>4.2435966000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>45477</v>
       </c>
@@ -25731,7 +25851,7 @@
         <v>4.2523793999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:5">
       <c r="A169" s="1">
         <v>45478</v>
       </c>
@@ -25742,7 +25862,7 @@
         <v>4.2454669999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>45481</v>
       </c>
@@ -25753,7 +25873,7 @@
         <v>4.2452300000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>45482</v>
       </c>
@@ -25764,7 +25884,7 @@
         <v>4.2456670000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>45483</v>
       </c>
@@ -25775,47 +25895,63 @@
         <v>4.2435492999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:5">
       <c r="A173" s="1">
         <v>45484</v>
       </c>
       <c r="B173">
         <v>4.2573999999999996</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="C173" s="61">
+        <v>4.2751260000000002</v>
+      </c>
+      <c r="E173" s="12"/>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>45485</v>
       </c>
       <c r="B174">
         <v>4.2503000000000002</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="C174" s="61">
+        <v>4.268046</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>45488</v>
       </c>
       <c r="B175">
         <v>4.2530099999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="C175" s="61">
+        <v>4.2648472999999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="1">
         <v>45489</v>
       </c>
       <c r="B176">
         <v>4.2527999999999997</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176" s="61">
+        <v>4.2704616</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1">
         <v>45490</v>
       </c>
       <c r="B177">
         <v>4.2803300000000002</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177" s="61">
+        <v>4.2730721999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1">
         <v>45491</v>
       </c>
@@ -25823,7 +25959,7 @@
         <v>4.2874999999999996</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1">
         <v>45492</v>
       </c>
@@ -25831,7 +25967,7 @@
         <v>4.2898399999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1">
         <v>45495</v>
       </c>
@@ -25839,12 +25975,44 @@
         <v>4.2871600000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1">
         <v>45496</v>
       </c>
       <c r="B181">
         <v>4.2748999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B182">
+        <v>4.2761399999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B183">
+        <v>4.2951899999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B184">
+        <v>4.2840999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B185">
+        <v>4.2698</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19AF91B-16F1-4C6E-9E50-523AB942706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5551A6F-EBF5-47B2-BECE-143EA62E3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,9 +5802,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I245"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
     </sheetView>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>3.6169755879660167E-4</v>
+        <v>2.1016027371956726E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D244" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D245" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E244" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E245" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10542,6 +10542,25 @@
         <v>-2.5123600000000135E-2</v>
       </c>
       <c r="E244">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B245">
+        <v>3.9680110000000002</v>
+      </c>
+      <c r="C245">
+        <v>4.0046244</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="57"/>
+        <v>-3.6613399999999796E-2</v>
+      </c>
+      <c r="E245">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
@@ -11692,11 +11711,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I519"/>
+  <dimension ref="A1:I520"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A517" sqref="A517:B518"/>
+      <selection pane="bottomLeft" activeCell="D518" sqref="D518:E519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21371,7 +21390,7 @@
         <v>4.3338717367346939</v>
       </c>
       <c r="D502">
-        <f t="shared" ref="D502:D518" si="120">B502-C502</f>
+        <f t="shared" ref="D502:D517" si="120">B502-C502</f>
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
@@ -21675,16 +21694,35 @@
         <v>4.2887000000000004</v>
       </c>
       <c r="D518">
-        <f>B518-C519</f>
-        <v>4.2698</v>
+        <f t="shared" ref="D518:D519" si="122">B518-C518</f>
+        <v>-1.8900000000000361E-2</v>
       </c>
       <c r="E518">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f t="shared" ref="E518:E519" si="123">IF(D518&lt;0,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:5">
-      <c r="C519" s="12"/>
+      <c r="A519" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B519">
+        <v>4.2930700000000002</v>
+      </c>
+      <c r="C519">
+        <v>4.2844176000000003</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="122"/>
+        <v>8.6523999999998935E-3</v>
+      </c>
+      <c r="E519">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="C520" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23903,11 +23941,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F185"/>
+  <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A186" sqref="A186:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25958,6 +25996,9 @@
       <c r="B178">
         <v>4.2874999999999996</v>
       </c>
+      <c r="C178" s="61">
+        <v>4.2741012999999999</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
@@ -25966,6 +26007,9 @@
       <c r="B179">
         <v>4.2898399999999999</v>
       </c>
+      <c r="C179" s="61">
+        <v>4.2782049999999998</v>
+      </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
@@ -25974,6 +26018,9 @@
       <c r="B180">
         <v>4.2871600000000001</v>
       </c>
+      <c r="C180" s="61">
+        <v>4.2838674000000001</v>
+      </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
@@ -25982,6 +26029,9 @@
       <c r="B181">
         <v>4.2748999999999997</v>
       </c>
+      <c r="C181" s="61">
+        <v>4.2836204000000002</v>
+      </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
@@ -25990,6 +26040,9 @@
       <c r="B182">
         <v>4.2761399999999998</v>
       </c>
+      <c r="C182" s="61">
+        <v>4.2847239999999998</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
@@ -25998,6 +26051,9 @@
       <c r="B183">
         <v>4.2951899999999998</v>
       </c>
+      <c r="C183" s="61">
+        <v>4.293749</v>
+      </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
@@ -26006,6 +26062,9 @@
       <c r="B184">
         <v>4.2840999999999996</v>
       </c>
+      <c r="C184" s="61">
+        <v>4.3059763999999996</v>
+      </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
@@ -26013,6 +26072,25 @@
       </c>
       <c r="B185">
         <v>4.2698</v>
+      </c>
+      <c r="C185" s="61">
+        <v>4.3166419999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B186">
+        <v>4.2930700000000002</v>
+      </c>
+      <c r="C186" s="61">
+        <v>4.326568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="C187" s="61">
+        <v>4.3330583999999996</v>
       </c>
     </row>
   </sheetData>
@@ -28972,7 +29050,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5551A6F-EBF5-47B2-BECE-143EA62E3D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59838EC-8943-4A5B-96DB-287568C80FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I245"/>
+  <dimension ref="A1:I249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C245" sqref="C245"/>
+      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.1016027371956726E-4</v>
+        <v>2.7794496675131536E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10253,11 +10253,11 @@
         <v>3.9650927</v>
       </c>
       <c r="D229">
-        <f t="shared" ref="D229:D245" si="57">B229-C229</f>
+        <f t="shared" ref="D229:D246" si="57">B229-C229</f>
         <v>-8.5817000000001364E-3</v>
       </c>
       <c r="E229">
-        <f t="shared" ref="E229:E245" si="58">IF(D229&lt;0,1,0)</f>
+        <f t="shared" ref="E229:E246" si="58">IF(D229&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -10563,6 +10563,69 @@
       <c r="E245">
         <f t="shared" si="58"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B246">
+        <v>3.962561</v>
+      </c>
+      <c r="C246">
+        <v>3.9634282999999999</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="57"/>
+        <v>-8.6729999999990426E-4</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B247">
+        <v>3.961633</v>
+      </c>
+      <c r="C247">
+        <f>AVERAGE(C237:C246)</f>
+        <v>3.9579040999999995</v>
+      </c>
+      <c r="D247">
+        <f t="shared" ref="D247" si="59">B247-C247</f>
+        <v>3.7289000000004791E-3</v>
+      </c>
+      <c r="E247">
+        <f t="shared" ref="E247" si="60">IF(D247&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B248">
+        <v>3.9865949999999999</v>
+      </c>
+      <c r="C248">
+        <v>3.9720833</v>
+      </c>
+      <c r="D248">
+        <f t="shared" ref="D248" si="61">B248-C248</f>
+        <v>1.4511699999999905E-2</v>
+      </c>
+      <c r="E248">
+        <f t="shared" ref="E248" si="62">IF(D248&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="C249">
+        <v>3.9758116999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11711,11 +11774,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I520"/>
+  <dimension ref="A1:I525"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D518" sqref="D518:E519"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A522" sqref="A522:B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21394,7 +21457,7 @@
         <v>-3.7771736734693917E-2</v>
       </c>
       <c r="E502">
-        <f t="shared" ref="E502:E518" si="121">IF(D502&lt;0,1,0)</f>
+        <f t="shared" ref="E502:E517" si="121">IF(D502&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -21722,7 +21785,70 @@
       </c>
     </row>
     <row r="520" spans="1:5">
-      <c r="C520" s="12"/>
+      <c r="A520" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B520">
+        <v>4.2865000000000002</v>
+      </c>
+      <c r="C520">
+        <v>4.3032994000000002</v>
+      </c>
+      <c r="D520">
+        <f t="shared" ref="D520" si="124">B520-C520</f>
+        <v>-1.679940000000002E-2</v>
+      </c>
+      <c r="E520">
+        <f t="shared" ref="E520" si="125">IF(D520&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B521">
+        <v>4.2882699999999998</v>
+      </c>
+      <c r="C521">
+        <f>AVERAGE(C510:C520)</f>
+        <v>4.2860990181818179</v>
+      </c>
+      <c r="D521">
+        <f t="shared" ref="D521" si="126">B521-C521</f>
+        <v>2.1709818181818719E-3</v>
+      </c>
+      <c r="E521">
+        <f t="shared" ref="E521" si="127">IF(D521&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B522">
+        <v>4.3001399999999999</v>
+      </c>
+      <c r="C522">
+        <v>4.3482966000000003</v>
+      </c>
+      <c r="D522">
+        <f t="shared" ref="D522" si="128">B522-C522</f>
+        <v>-4.8156600000000438E-2</v>
+      </c>
+      <c r="E522">
+        <f t="shared" ref="E522" si="129">IF(D522&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="C523">
+        <v>4.3038910000000001</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="C525" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23941,11 +24067,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F192"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A186" sqref="A186:B186"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26089,8 +26215,60 @@
       </c>
     </row>
     <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B187">
+        <v>4.2865000000000002</v>
+      </c>
       <c r="C187" s="61">
         <v>4.3330583999999996</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B188">
+        <v>4.2882699999999998</v>
+      </c>
+      <c r="C188" s="61">
+        <v>4.3069677000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B189">
+        <v>4.3001399999999999</v>
+      </c>
+      <c r="C189" s="61">
+        <v>4.29474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45509</v>
+      </c>
+      <c r="C190" s="61">
+        <v>4.2965894000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45510</v>
+      </c>
+      <c r="C191" s="61">
+        <v>4.2900669999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45511</v>
+      </c>
+      <c r="C192" s="61">
+        <v>4.2913569999999996</v>
       </c>
     </row>
   </sheetData>

--- a/LSTM_mv.xlsx
+++ b/LSTM_mv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59838EC-8943-4A5B-96DB-287568C80FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD6FC1-FC93-4E10-A161-C008B835144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A8708AC4-1DEB-4EF9-B15E-E2A966102121}"/>
   </bookViews>
   <sheets>
     <sheet name="D1_USD" sheetId="6" r:id="rId1"/>
@@ -5802,11 +5802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8FE3-DCB3-4770-8695-9ED26E4EE88D}">
-  <dimension ref="A1:I249"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E1" s="6">
         <f>AVERAGE($D$2:$D$299)</f>
-        <v>2.7794496675131536E-4</v>
+        <v>-4.2243068811180636E-4</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>58</v>
@@ -10615,17 +10615,435 @@
         <v>3.9720833</v>
       </c>
       <c r="D248">
-        <f t="shared" ref="D248" si="61">B248-C248</f>
+        <f t="shared" ref="D248:D267" si="61">B248-C248</f>
         <v>1.4511699999999905E-2</v>
       </c>
       <c r="E248">
-        <f t="shared" ref="E248" si="62">IF(D248&lt;0,1,0)</f>
+        <f t="shared" ref="E248:E267" si="62">IF(D248&lt;0,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B249">
+        <v>3.93174</v>
+      </c>
       <c r="C249">
         <v>3.9758116999999999</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="61"/>
+        <v>-4.4071699999999936E-2</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B250">
+        <v>3.9251830000000001</v>
+      </c>
+      <c r="C250">
+        <v>3.9654384</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="61"/>
+        <v>-4.0255399999999941E-2</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B251">
+        <v>3.94232</v>
+      </c>
+      <c r="C251">
+        <v>3.9120540618896502</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="61"/>
+        <v>3.0265938110349833E-2</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B252">
+        <v>3.9554900000000002</v>
+      </c>
+      <c r="C252">
+        <v>3.9436485999999999</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="61"/>
+        <v>1.1841400000000224E-2</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B253">
+        <v>3.9572400000000001</v>
+      </c>
+      <c r="C253">
+        <v>3.9492354000000001</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="61"/>
+        <v>8.0046000000000284E-3</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B254">
+        <v>3.9546800000000002</v>
+      </c>
+      <c r="C254">
+        <v>3.9544933000000002</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="61"/>
+        <v>1.866999999999841E-4</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B255">
+        <v>3.934234</v>
+      </c>
+      <c r="C255">
+        <v>3.9412202999999999</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="61"/>
+        <v>-6.9862999999998898E-3</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B256">
+        <v>3.8962569999999999</v>
+      </c>
+      <c r="C256">
+        <v>3.9012527000000001</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="61"/>
+        <v>-4.9957000000002694E-3</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B257">
+        <v>3.8953609999999999</v>
+      </c>
+      <c r="C257">
+        <v>3.9077969000000001</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="61"/>
+        <v>-1.2435900000000277E-2</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B258">
+        <v>3.9045999999999998</v>
+      </c>
+      <c r="C258">
+        <v>3.9153091999999998</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="61"/>
+        <v>-1.0709199999999974E-2</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B259">
+        <v>3.867426</v>
+      </c>
+      <c r="C259">
+        <v>3.8988396999999999</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="61"/>
+        <v>-3.1413699999999878E-2</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B260">
+        <v>3.8443999999999998</v>
+      </c>
+      <c r="C260">
+        <v>3.8769524</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="61"/>
+        <v>-3.2552400000000148E-2</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B261">
+        <v>3.8403200000000002</v>
+      </c>
+      <c r="C261">
+        <v>3.8329589999999998</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="61"/>
+        <v>7.361000000000395E-3</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B262">
+        <v>3.8343989999999999</v>
+      </c>
+      <c r="C262">
+        <v>3.8388689</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="61"/>
+        <v>-4.4699000000001377E-3</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B263">
+        <v>3.84999</v>
+      </c>
+      <c r="C263">
+        <v>3.8443573</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="61"/>
+        <v>5.632700000000046E-3</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B264">
+        <v>3.8126199999999999</v>
+      </c>
+      <c r="C264">
+        <v>3.8253663000000002</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="61"/>
+        <v>-1.2746300000000321E-2</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B265">
+        <v>3.8338939999999999</v>
+      </c>
+      <c r="C265">
+        <v>3.8603372999999999</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="61"/>
+        <v>-2.6443299999999947E-2</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B266">
+        <v>3.8300399999999999</v>
+      </c>
+      <c r="C266">
+        <v>3.8816168000000002</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="61"/>
+        <v>-5.1576800000000311E-2</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B267">
+        <v>3.8597999999999999</v>
+      </c>
+      <c r="C267">
+        <v>3.8216193000000001</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="61"/>
+        <v>3.8180699999999845E-2</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B268">
+        <v>3.865399</v>
+      </c>
+      <c r="C268">
+        <v>3.8410834999999999</v>
+      </c>
+      <c r="D268">
+        <f t="shared" ref="D268:D270" si="63">B268-C268</f>
+        <v>2.4315500000000156E-2</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ref="E268:E270" si="64">IF(D268&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B269">
+        <v>3.8814799999999998</v>
+      </c>
+      <c r="C269">
+        <v>3.8728337000000002</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="63"/>
+        <v>8.6462999999996626E-3</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B270">
+        <v>3.8723900000000002</v>
+      </c>
+      <c r="C270">
+        <v>3.9104545000000002</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="63"/>
+        <v>-3.8064499999999946E-2</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="C271">
+        <v>3.8822033</v>
       </c>
     </row>
   </sheetData>
@@ -11774,11 +12192,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3CCBC7-D269-49C5-A4A9-0A900D091B82}">
-  <dimension ref="A1:I525"/>
+  <dimension ref="A1:I547"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A522" sqref="A522:B522"/>
+      <pane ySplit="1" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21838,17 +22256,435 @@
         <v>-4.8156600000000438E-2</v>
       </c>
       <c r="E522">
-        <f t="shared" ref="E522" si="129">IF(D522&lt;0,1,0)</f>
+        <f t="shared" ref="E522:E541" si="129">IF(D522&lt;0,1,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:5">
+      <c r="A523" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B523">
+        <v>4.2895099999999999</v>
+      </c>
       <c r="C523">
         <v>4.3038910000000001</v>
       </c>
+      <c r="D523">
+        <f t="shared" ref="D523:D541" si="130">B523-C523</f>
+        <v>-1.4381000000000199E-2</v>
+      </c>
+      <c r="E523">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B524">
+        <v>4.2984200000000001</v>
+      </c>
+      <c r="C524">
+        <v>4.2826485999999999</v>
+      </c>
+      <c r="D524">
+        <f t="shared" si="130"/>
+        <v>1.5771400000000213E-2</v>
+      </c>
+      <c r="E524">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="C525" s="12"/>
+      <c r="A525" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B525">
+        <v>4.3072999999999997</v>
+      </c>
+      <c r="C525">
+        <v>4.3567652700000004</v>
+      </c>
+      <c r="D525">
+        <f t="shared" si="130"/>
+        <v>-4.9465270000000672E-2</v>
+      </c>
+      <c r="E525">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B526">
+        <v>4.3217800000000004</v>
+      </c>
+      <c r="C526">
+        <v>4.3516554999999997</v>
+      </c>
+      <c r="D526">
+        <f t="shared" si="130"/>
+        <v>-2.9875499999999278E-2</v>
+      </c>
+      <c r="E526">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B527">
+        <v>4.3191199999999998</v>
+      </c>
+      <c r="C527">
+        <v>4.3891929999999997</v>
+      </c>
+      <c r="D527">
+        <f t="shared" si="130"/>
+        <v>-7.007299999999983E-2</v>
+      </c>
+      <c r="E527">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B528">
+        <v>4.3159000000000001</v>
+      </c>
+      <c r="C528">
+        <v>4.3446144999999996</v>
+      </c>
+      <c r="D528">
+        <f t="shared" si="130"/>
+        <v>-2.8714499999999532E-2</v>
+      </c>
+      <c r="E528">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B529">
+        <v>4.3023999999999996</v>
+      </c>
+      <c r="C529">
+        <v>4.3323219999999996</v>
+      </c>
+      <c r="D529">
+        <f t="shared" si="130"/>
+        <v>-2.9922000000000004E-2</v>
+      </c>
+      <c r="E529">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B530">
+        <v>4.2845000000000004</v>
+      </c>
+      <c r="C530">
+        <v>4.3558406999999999</v>
+      </c>
+      <c r="D530">
+        <f t="shared" si="130"/>
+        <v>-7.134069999999948E-2</v>
+      </c>
+      <c r="E530">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B531">
+        <v>4.2896099999999997</v>
+      </c>
+      <c r="C531">
+        <v>4.292605</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="130"/>
+        <v>-2.995000000000303E-3</v>
+      </c>
+      <c r="E531">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B532">
+        <v>4.2868199999999996</v>
+      </c>
+      <c r="C532">
+        <v>4.2917756999999996</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="130"/>
+        <v>-4.9557000000000073E-3</v>
+      </c>
+      <c r="E532">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B533">
+        <v>4.2637600000000004</v>
+      </c>
+      <c r="C533">
+        <v>4.3048586999999996</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="130"/>
+        <v>-4.1098699999999155E-2</v>
+      </c>
+      <c r="E533">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B534">
+        <v>4.2614000000000001</v>
+      </c>
+      <c r="C534">
+        <v>4.2760524999999996</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="130"/>
+        <v>-1.4652499999999513E-2</v>
+      </c>
+      <c r="E534">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B535">
+        <v>4.2737999999999996</v>
+      </c>
+      <c r="C535">
+        <v>4.2643766000000003</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="130"/>
+        <v>9.4233999999993046E-3</v>
+      </c>
+      <c r="E535">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B536">
+        <v>4.2773099999999999</v>
+      </c>
+      <c r="C536">
+        <v>4.2774295999999996</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="130"/>
+        <v>-1.1959999999966442E-4</v>
+      </c>
+      <c r="E536">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B537">
+        <v>4.2798800000000004</v>
+      </c>
+      <c r="C537">
+        <v>4.2867316999999998</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="130"/>
+        <v>-6.851699999999461E-3</v>
+      </c>
+      <c r="E537">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B538">
+        <v>4.2648200000000003</v>
+      </c>
+      <c r="C538">
+        <v>4.2816267000000003</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="130"/>
+        <v>-1.6806700000000063E-2</v>
+      </c>
+      <c r="E538">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B539">
+        <v>4.2803699999999996</v>
+      </c>
+      <c r="C539">
+        <v>4.303769</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="130"/>
+        <v>-2.3399000000000392E-2</v>
+      </c>
+      <c r="E539">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B540">
+        <v>4.2809900000000001</v>
+      </c>
+      <c r="C540">
+        <v>4.2945045999999998</v>
+      </c>
+      <c r="D540">
+        <f t="shared" si="130"/>
+        <v>-1.351459999999971E-2</v>
+      </c>
+      <c r="E540">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B541">
+        <v>4.2934999999999999</v>
+      </c>
+      <c r="C541">
+        <v>4.3033032000000002</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="130"/>
+        <v>-9.803200000000345E-3</v>
+      </c>
+      <c r="E541">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B542">
+        <v>4.2829199999999998</v>
+      </c>
+      <c r="C542">
+        <v>4.3068594999999998</v>
+      </c>
+      <c r="D542">
+        <f t="shared" ref="D542:D544" si="131">B542-C542</f>
+        <v>-2.3939500000000002E-2</v>
+      </c>
+      <c r="E542">
+        <f t="shared" ref="E542:E544" si="132">IF(D542&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B543">
+        <v>4.2868599999999999</v>
+      </c>
+      <c r="C543">
+        <v>4.2842526000000003</v>
+      </c>
+      <c r="D543">
+        <f t="shared" si="131"/>
+        <v>2.6073999999995934E-3</v>
+      </c>
+      <c r="E543">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B544">
+        <v>4.2783300000000004</v>
+      </c>
+      <c r="C544">
+        <v>4.3325323999999998</v>
+      </c>
+      <c r="D544">
+        <f t="shared" si="131"/>
+        <v>-5.4202399999999429E-2</v>
+      </c>
+      <c r="E544">
+        <f t="shared" si="132"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545">
+        <v>4.3048697000000002</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24067,11 +24903,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FE7DF-43B4-4D1B-A998-41000ACCF054}">
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189:B189"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26251,6 +27087,9 @@
       <c r="A190" s="1">
         <v>45509</v>
       </c>
+      <c r="B190">
+        <v>4.2895099999999999</v>
+      </c>
       <c r="C190" s="61">
         <v>4.2965894000000002</v>
       </c>
@@ -26259,6 +27098,9 @@
       <c r="A191" s="1">
         <v>45510</v>
       </c>
+      <c r="B191">
+        <v>4.2984200000000001</v>
+      </c>
       <c r="C191" s="61">
         <v>4.2900669999999996</v>
       </c>
@@ -26267,9 +27109,232 @@
       <c r="A192" s="1">
         <v>45511</v>
       </c>
+      <c r="B192">
+        <v>4.3072999999999997</v>
+      </c>
       <c r="C192" s="61">
         <v>4.2913569999999996</v>
       </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B193">
+        <v>4.3217800000000004</v>
+      </c>
+      <c r="C193" s="61">
+        <v>4.2857346999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B194">
+        <v>4.3191199999999998</v>
+      </c>
+      <c r="C194" s="61">
+        <v>4.2760176999999997</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B195">
+        <v>4.3159000000000001</v>
+      </c>
+      <c r="C195" s="61">
+        <v>4.2666244999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B196">
+        <v>4.3023999999999996</v>
+      </c>
+      <c r="C196" s="61">
+        <v>4.2638829999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B197">
+        <v>4.2845000000000004</v>
+      </c>
+      <c r="C197" s="61">
+        <v>4.2652970000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B198">
+        <v>4.2896099999999997</v>
+      </c>
+      <c r="C198" s="61">
+        <v>4.318594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B199">
+        <v>4.2868199999999996</v>
+      </c>
+      <c r="C199" s="61">
+        <v>4.3329205999999996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B200">
+        <v>4.2637600000000004</v>
+      </c>
+      <c r="C200" s="61">
+        <v>4.3406215000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B201">
+        <v>4.2614000000000001</v>
+      </c>
+      <c r="C201" s="61">
+        <v>4.3356110000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B202">
+        <v>4.2737999999999996</v>
+      </c>
+      <c r="C202" s="61">
+        <v>4.3373013</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B203">
+        <v>4.2773099999999999</v>
+      </c>
+      <c r="C203" s="61">
+        <v>4.3079900000000002</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B204">
+        <v>4.2798800000000004</v>
+      </c>
+      <c r="C204" s="61">
+        <v>4.3221850000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B205">
+        <v>4.2648200000000003</v>
+      </c>
+      <c r="C205" s="61">
+        <v>4.3303739999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B206">
+        <v>4.2803699999999996</v>
+      </c>
+      <c r="C206" s="61">
+        <v>4.3301350000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B207">
+        <v>4.2809900000000001</v>
+      </c>
+      <c r="C207" s="61">
+        <v>4.3363804999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B208">
+        <v>4.2934999999999999</v>
+      </c>
+      <c r="C208" s="61">
+        <v>4.2920217999999997</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B209">
+        <v>4.2829199999999998</v>
+      </c>
+      <c r="C209" s="61">
+        <v>4.2971700000000004</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B210">
+        <v>4.2868599999999999</v>
+      </c>
+      <c r="C210" s="61">
+        <v>4.2884893000000002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B211">
+        <v>4.2783300000000004</v>
+      </c>
+      <c r="C211" s="61">
+        <v>4.2867845999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45540</v>
+      </c>
+      <c r="C212" s="61">
+        <v>4.2799997000000003</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
